--- a/Egypt Division 2/Egypt Division 2.xlsx
+++ b/Egypt Division 2/Egypt Division 2.xlsx
@@ -35642,7 +35642,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7253649</v>
+        <v>7253963</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35654,58 +35654,58 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F394" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G394" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H394">
         <v>3</v>
       </c>
       <c r="I394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" t="s">
         <v>93</v>
       </c>
       <c r="K394">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L394">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M394">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N394">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="O394">
         <v>3</v>
       </c>
       <c r="P394">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q394">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R394">
+        <v>1.825</v>
+      </c>
+      <c r="S394">
+        <v>1.975</v>
+      </c>
+      <c r="T394">
+        <v>2.25</v>
+      </c>
+      <c r="U394">
         <v>1.95</v>
       </c>
-      <c r="S394">
+      <c r="V394">
         <v>1.85</v>
       </c>
-      <c r="T394">
-        <v>2</v>
-      </c>
-      <c r="U394">
-        <v>1.9</v>
-      </c>
-      <c r="V394">
-        <v>1.9</v>
-      </c>
       <c r="W394">
-        <v>0.8500000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="X394">
         <v>-1</v>
@@ -35714,13 +35714,13 @@
         <v>-1</v>
       </c>
       <c r="Z394">
+        <v>0.825</v>
+      </c>
+      <c r="AA394">
+        <v>-1</v>
+      </c>
+      <c r="AB394">
         <v>0.95</v>
-      </c>
-      <c r="AA394">
-        <v>-1</v>
-      </c>
-      <c r="AB394">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -35731,7 +35731,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>7253965</v>
+        <v>7254169</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35743,76 +35743,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F395" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G395" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395">
         <v>1</v>
       </c>
       <c r="J395" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K395">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="L395">
+        <v>2.8</v>
+      </c>
+      <c r="M395">
+        <v>2.4</v>
+      </c>
+      <c r="N395">
         <v>3.4</v>
       </c>
-      <c r="M395">
-        <v>4.2</v>
-      </c>
-      <c r="N395">
+      <c r="O395">
+        <v>3</v>
+      </c>
+      <c r="P395">
+        <v>2.15</v>
+      </c>
+      <c r="Q395">
+        <v>0.25</v>
+      </c>
+      <c r="R395">
         <v>1.95</v>
       </c>
-      <c r="O395">
-        <v>3.1</v>
-      </c>
-      <c r="P395">
-        <v>3.6</v>
-      </c>
-      <c r="Q395">
-        <v>-0.25</v>
-      </c>
-      <c r="R395">
-        <v>1.725</v>
-      </c>
       <c r="S395">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T395">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U395">
+        <v>1.85</v>
+      </c>
+      <c r="V395">
         <v>1.95</v>
       </c>
-      <c r="V395">
-        <v>1.85</v>
-      </c>
       <c r="W395">
+        <v>-1</v>
+      </c>
+      <c r="X395">
+        <v>-1</v>
+      </c>
+      <c r="Y395">
+        <v>1.15</v>
+      </c>
+      <c r="Z395">
+        <v>-1</v>
+      </c>
+      <c r="AA395">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB395">
+        <v>-1</v>
+      </c>
+      <c r="AC395">
         <v>0.95</v>
-      </c>
-      <c r="X395">
-        <v>-1</v>
-      </c>
-      <c r="Y395">
-        <v>-1</v>
-      </c>
-      <c r="Z395">
-        <v>0.7250000000000001</v>
-      </c>
-      <c r="AA395">
-        <v>-1</v>
-      </c>
-      <c r="AB395">
-        <v>0.95</v>
-      </c>
-      <c r="AC395">
-        <v>-1</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -35820,7 +35820,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>7550645</v>
+        <v>7253964</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35832,76 +35832,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F396" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="G396" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J396" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K396">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="L396">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M396">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N396">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="O396">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P396">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q396">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R396">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S396">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T396">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U396">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V396">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W396">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X396">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y396">
         <v>-1</v>
       </c>
       <c r="Z396">
+        <v>0.475</v>
+      </c>
+      <c r="AA396">
         <v>-0.5</v>
       </c>
-      <c r="AA396">
-        <v>0.4</v>
-      </c>
       <c r="AB396">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC396">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35909,7 +35909,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7253964</v>
+        <v>7253965</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35921,10 +35921,10 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F397" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G397" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H397">
         <v>2</v>
@@ -35936,43 +35936,43 @@
         <v>93</v>
       </c>
       <c r="K397">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L397">
         <v>3.4</v>
       </c>
       <c r="M397">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N397">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O397">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P397">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q397">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R397">
+        <v>1.725</v>
+      </c>
+      <c r="S397">
+        <v>1.975</v>
+      </c>
+      <c r="T397">
+        <v>2.25</v>
+      </c>
+      <c r="U397">
         <v>1.95</v>
       </c>
-      <c r="S397">
+      <c r="V397">
         <v>1.85</v>
       </c>
-      <c r="T397">
-        <v>2.5</v>
-      </c>
-      <c r="U397">
-        <v>1.875</v>
-      </c>
-      <c r="V397">
-        <v>1.925</v>
-      </c>
       <c r="W397">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="X397">
         <v>-1</v>
@@ -35981,13 +35981,13 @@
         <v>-1</v>
       </c>
       <c r="Z397">
-        <v>0.475</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA397">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB397">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC397">
         <v>-1</v>
@@ -35998,7 +35998,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7253963</v>
+        <v>7253649</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -36010,58 +36010,58 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F398" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G398" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H398">
         <v>3</v>
       </c>
       <c r="I398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J398" t="s">
         <v>93</v>
       </c>
       <c r="K398">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L398">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M398">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N398">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="O398">
         <v>3</v>
       </c>
       <c r="P398">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q398">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R398">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S398">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T398">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U398">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V398">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W398">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X398">
         <v>-1</v>
@@ -36070,13 +36070,13 @@
         <v>-1</v>
       </c>
       <c r="Z398">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA398">
         <v>-1</v>
       </c>
       <c r="AB398">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC398">
         <v>-1</v>
@@ -36087,7 +36087,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>7254169</v>
+        <v>7550645</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -36099,76 +36099,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F399" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G399" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H399">
         <v>0</v>
       </c>
       <c r="I399">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J399" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K399">
+        <v>2.3</v>
+      </c>
+      <c r="L399">
+        <v>3</v>
+      </c>
+      <c r="M399">
         <v>2.9</v>
       </c>
-      <c r="L399">
-        <v>2.8</v>
-      </c>
-      <c r="M399">
-        <v>2.4</v>
-      </c>
       <c r="N399">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O399">
+        <v>3.1</v>
+      </c>
+      <c r="P399">
         <v>3</v>
       </c>
-      <c r="P399">
-        <v>2.15</v>
-      </c>
       <c r="Q399">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R399">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S399">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T399">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U399">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V399">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W399">
         <v>-1</v>
       </c>
       <c r="X399">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y399">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z399">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA399">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB399">
         <v>-1</v>
       </c>
       <c r="AC399">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36532,7 +36532,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>7558905</v>
+        <v>7558451</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36544,55 +36544,55 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F404" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G404" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="H404">
         <v>0</v>
       </c>
       <c r="I404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J404" t="s">
         <v>91</v>
       </c>
       <c r="K404">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L404">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M404">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N404">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O404">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P404">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q404">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R404">
         <v>1.725</v>
       </c>
       <c r="S404">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T404">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U404">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V404">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W404">
         <v>-1</v>
@@ -36601,19 +36601,19 @@
         <v>-1</v>
       </c>
       <c r="Y404">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Z404">
         <v>-1</v>
       </c>
       <c r="AA404">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB404">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AC404">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36621,7 +36621,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>7558451</v>
+        <v>7580438</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36633,55 +36633,55 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F405" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="G405" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I405">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J405" t="s">
         <v>91</v>
       </c>
       <c r="K405">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L405">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M405">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N405">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="O405">
         <v>3</v>
       </c>
       <c r="P405">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q405">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R405">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S405">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T405">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U405">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V405">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W405">
         <v>-1</v>
@@ -36690,19 +36690,19 @@
         <v>-1</v>
       </c>
       <c r="Y405">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z405">
         <v>-1</v>
       </c>
       <c r="AA405">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB405">
-        <v>0.3625</v>
+        <v>1</v>
       </c>
       <c r="AC405">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36710,7 +36710,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>7580438</v>
+        <v>7558905</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36722,46 +36722,46 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F406" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G406" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J406" t="s">
         <v>91</v>
       </c>
       <c r="K406">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L406">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M406">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N406">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O406">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P406">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q406">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R406">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S406">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T406">
         <v>2.25</v>
@@ -36779,19 +36779,19 @@
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z406">
         <v>-1</v>
       </c>
       <c r="AA406">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AB406">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC406">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -38045,7 +38045,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>7254173</v>
+        <v>7608522</v>
       </c>
       <c r="C421" t="s">
         <v>28</v>
@@ -38057,73 +38057,73 @@
         <v>45280.39583333334</v>
       </c>
       <c r="F421" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G421" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I421">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J421" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K421">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L421">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M421">
-        <v>2.15</v>
+        <v>4.6</v>
       </c>
       <c r="N421">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O421">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="P421">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q421">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R421">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S421">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T421">
         <v>2</v>
       </c>
       <c r="U421">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V421">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W421">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X421">
         <v>-1</v>
       </c>
       <c r="Y421">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z421">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA421">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB421">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC421">
         <v>-1</v>
@@ -38134,7 +38134,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>7608522</v>
+        <v>7254173</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38146,73 +38146,73 @@
         <v>45280.39583333334</v>
       </c>
       <c r="F422" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G422" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="H422">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J422" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K422">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L422">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M422">
-        <v>4.6</v>
+        <v>2.15</v>
       </c>
       <c r="N422">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="O422">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="P422">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q422">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R422">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S422">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T422">
         <v>2</v>
       </c>
       <c r="U422">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V422">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W422">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X422">
         <v>-1</v>
       </c>
       <c r="Y422">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z422">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB422">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC422">
         <v>-1</v>
@@ -39469,7 +39469,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>7253943</v>
+        <v>7253941</v>
       </c>
       <c r="C437" t="s">
         <v>28</v>
@@ -39481,76 +39481,76 @@
         <v>45293.39583333334</v>
       </c>
       <c r="F437" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G437" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J437" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K437">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L437">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M437">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N437">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="O437">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="P437">
-        <v>2.45</v>
+        <v>5.75</v>
       </c>
       <c r="Q437">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R437">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S437">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T437">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U437">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V437">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W437">
         <v>-1</v>
       </c>
       <c r="X437">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y437">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z437">
         <v>-1</v>
       </c>
       <c r="AA437">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AB437">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC437">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="438" spans="1:29">
@@ -39558,7 +39558,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>7253941</v>
+        <v>7253943</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39570,76 +39570,76 @@
         <v>45293.39583333334</v>
       </c>
       <c r="F438" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G438" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I438">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J438" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K438">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L438">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M438">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N438">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="O438">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="P438">
-        <v>5.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q438">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R438">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="S438">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T438">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U438">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V438">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W438">
         <v>-1</v>
       </c>
       <c r="X438">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y438">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z438">
         <v>-1</v>
       </c>
       <c r="AA438">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AB438">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC438">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39647,7 +39647,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>7253944</v>
+        <v>7253691</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39659,40 +39659,40 @@
         <v>45294.39583333334</v>
       </c>
       <c r="F439" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="G439" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H439">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J439" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K439">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="L439">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M439">
+        <v>4.5</v>
+      </c>
+      <c r="N439">
+        <v>1.65</v>
+      </c>
+      <c r="O439">
+        <v>3.3</v>
+      </c>
+      <c r="P439">
         <v>5</v>
       </c>
-      <c r="N439">
-        <v>1.363</v>
-      </c>
-      <c r="O439">
-        <v>4.2</v>
-      </c>
-      <c r="P439">
-        <v>7.5</v>
-      </c>
       <c r="Q439">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R439">
         <v>1.9</v>
@@ -39701,34 +39701,34 @@
         <v>1.9</v>
       </c>
       <c r="T439">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U439">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V439">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W439">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X439">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y439">
         <v>-1</v>
       </c>
       <c r="Z439">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA439">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB439">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC439">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -39736,7 +39736,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>7253692</v>
+        <v>7254178</v>
       </c>
       <c r="C440" t="s">
         <v>28</v>
@@ -39748,55 +39748,55 @@
         <v>45294.39583333334</v>
       </c>
       <c r="F440" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="G440" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I440">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J440" t="s">
         <v>91</v>
       </c>
       <c r="K440">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="L440">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M440">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N440">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="O440">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P440">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="Q440">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R440">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S440">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T440">
         <v>2</v>
       </c>
       <c r="U440">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V440">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W440">
         <v>-1</v>
@@ -39805,19 +39805,19 @@
         <v>-1</v>
       </c>
       <c r="Y440">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="Z440">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA440">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB440">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC440">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441" spans="1:29">
@@ -39825,7 +39825,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>7253691</v>
+        <v>7253692</v>
       </c>
       <c r="C441" t="s">
         <v>28</v>
@@ -39837,76 +39837,76 @@
         <v>45294.39583333334</v>
       </c>
       <c r="F441" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G441" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="H441">
         <v>0</v>
       </c>
       <c r="I441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J441" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K441">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L441">
         <v>3.3</v>
       </c>
       <c r="M441">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N441">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="O441">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P441">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q441">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R441">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S441">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T441">
         <v>2</v>
       </c>
       <c r="U441">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V441">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W441">
         <v>-1</v>
       </c>
       <c r="X441">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y441">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z441">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA441">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB441">
         <v>-1</v>
       </c>
       <c r="AC441">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="442" spans="1:29">
@@ -39914,7 +39914,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>7254178</v>
+        <v>7253944</v>
       </c>
       <c r="C442" t="s">
         <v>28</v>
@@ -39926,73 +39926,73 @@
         <v>45294.39583333334</v>
       </c>
       <c r="F442" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G442" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I442">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J442" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K442">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="L442">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M442">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N442">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O442">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="P442">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="Q442">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R442">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S442">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T442">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U442">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V442">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W442">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X442">
         <v>-1</v>
       </c>
       <c r="Y442">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z442">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA442">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AB442">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC442">
         <v>-1</v>
@@ -43385,7 +43385,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>7777455</v>
+        <v>7777452</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43397,76 +43397,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F481" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G481" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J481" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K481">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="L481">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="M481">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="N481">
+        <v>2.75</v>
+      </c>
+      <c r="O481">
+        <v>2.5</v>
+      </c>
+      <c r="P481">
+        <v>2.875</v>
+      </c>
+      <c r="Q481">
+        <v>0</v>
+      </c>
+      <c r="R481">
+        <v>1.85</v>
+      </c>
+      <c r="S481">
+        <v>1.95</v>
+      </c>
+      <c r="T481">
+        <v>1.75</v>
+      </c>
+      <c r="U481">
+        <v>2</v>
+      </c>
+      <c r="V481">
         <v>1.8</v>
       </c>
-      <c r="O481">
-        <v>3.1</v>
-      </c>
-      <c r="P481">
-        <v>4.5</v>
-      </c>
-      <c r="Q481">
+      <c r="W481">
+        <v>-1</v>
+      </c>
+      <c r="X481">
+        <v>-1</v>
+      </c>
+      <c r="Y481">
+        <v>1.875</v>
+      </c>
+      <c r="Z481">
+        <v>-1</v>
+      </c>
+      <c r="AA481">
+        <v>0.95</v>
+      </c>
+      <c r="AB481">
+        <v>0.5</v>
+      </c>
+      <c r="AC481">
         <v>-0.5</v>
-      </c>
-      <c r="R481">
-        <v>1.825</v>
-      </c>
-      <c r="S481">
-        <v>1.975</v>
-      </c>
-      <c r="T481">
-        <v>2</v>
-      </c>
-      <c r="U481">
-        <v>2.05</v>
-      </c>
-      <c r="V481">
-        <v>1.75</v>
-      </c>
-      <c r="W481">
-        <v>-1</v>
-      </c>
-      <c r="X481">
-        <v>2.1</v>
-      </c>
-      <c r="Y481">
-        <v>-1</v>
-      </c>
-      <c r="Z481">
-        <v>-1</v>
-      </c>
-      <c r="AA481">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB481">
-        <v>0</v>
-      </c>
-      <c r="AC481">
-        <v>-0</v>
       </c>
     </row>
     <row r="482" spans="1:29">
@@ -43474,7 +43474,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>7777454</v>
+        <v>7777453</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43486,76 +43486,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F482" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G482" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J482" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K482">
+        <v>3.2</v>
+      </c>
+      <c r="L482">
         <v>3</v>
       </c>
-      <c r="L482">
-        <v>2.75</v>
-      </c>
       <c r="M482">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N482">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O482">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P482">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="Q482">
         <v>0.25</v>
       </c>
       <c r="R482">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S482">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T482">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U482">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V482">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W482">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X482">
         <v>-1</v>
       </c>
       <c r="Y482">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z482">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA482">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB482">
         <v>-1</v>
       </c>
       <c r="AC482">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -43563,7 +43563,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>7777452</v>
+        <v>7777454</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43575,55 +43575,55 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F483" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G483" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H483">
         <v>0</v>
       </c>
       <c r="I483">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J483" t="s">
         <v>91</v>
       </c>
       <c r="K483">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L483">
+        <v>2.75</v>
+      </c>
+      <c r="M483">
         <v>2.5</v>
       </c>
-      <c r="M483">
+      <c r="N483">
+        <v>3.3</v>
+      </c>
+      <c r="O483">
         <v>2.75</v>
       </c>
-      <c r="N483">
-        <v>2.75</v>
-      </c>
-      <c r="O483">
-        <v>2.5</v>
-      </c>
       <c r="P483">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="Q483">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R483">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S483">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T483">
         <v>1.75</v>
       </c>
       <c r="U483">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V483">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W483">
         <v>-1</v>
@@ -43632,19 +43632,19 @@
         <v>-1</v>
       </c>
       <c r="Y483">
-        <v>1.875</v>
+        <v>1.3</v>
       </c>
       <c r="Z483">
         <v>-1</v>
       </c>
       <c r="AA483">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB483">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC483">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="484" spans="1:29">
@@ -43652,7 +43652,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>7777453</v>
+        <v>7777455</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43664,76 +43664,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F484" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G484" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H484">
         <v>1</v>
       </c>
       <c r="I484">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J484" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K484">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L484">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M484">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N484">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O484">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P484">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q484">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R484">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S484">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T484">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U484">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V484">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W484">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X484">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y484">
         <v>-1</v>
       </c>
       <c r="Z484">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA484">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB484">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC484">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="485" spans="1:29">
@@ -43919,7 +43919,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>7777498</v>
+        <v>7777500</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43931,10 +43931,10 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F487" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G487" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="H487">
         <v>0</v>
@@ -43946,25 +43946,25 @@
         <v>91</v>
       </c>
       <c r="K487">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L487">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M487">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="N487">
+        <v>1.55</v>
+      </c>
+      <c r="O487">
+        <v>3.8</v>
+      </c>
+      <c r="P487">
         <v>5</v>
       </c>
-      <c r="O487">
-        <v>2.9</v>
-      </c>
-      <c r="P487">
-        <v>1.8</v>
-      </c>
       <c r="Q487">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R487">
         <v>1.975</v>
@@ -43973,13 +43973,13 @@
         <v>1.825</v>
       </c>
       <c r="T487">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U487">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="V487">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W487">
         <v>-1</v>
@@ -43988,7 +43988,7 @@
         <v>-1</v>
       </c>
       <c r="Y487">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="Z487">
         <v>-1</v>
@@ -44000,7 +44000,7 @@
         <v>-1</v>
       </c>
       <c r="AC487">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="488" spans="1:29">
@@ -44008,7 +44008,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>7777500</v>
+        <v>7822122</v>
       </c>
       <c r="C488" t="s">
         <v>28</v>
@@ -44020,76 +44020,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F488" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="G488" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H488">
         <v>0</v>
       </c>
       <c r="I488">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J488" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K488">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L488">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M488">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N488">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="O488">
+        <v>2.9</v>
+      </c>
+      <c r="P488">
         <v>3.8</v>
       </c>
-      <c r="P488">
-        <v>5</v>
-      </c>
       <c r="Q488">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R488">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S488">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T488">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U488">
         <v>1.775</v>
       </c>
       <c r="V488">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W488">
         <v>-1</v>
       </c>
       <c r="X488">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y488">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z488">
         <v>-1</v>
       </c>
       <c r="AA488">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB488">
         <v>-1</v>
       </c>
       <c r="AC488">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="489" spans="1:29">
@@ -44097,7 +44097,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>7822122</v>
+        <v>7777498</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -44109,76 +44109,76 @@
         <v>45335.41666666666</v>
       </c>
       <c r="F489" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="G489" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="H489">
         <v>0</v>
       </c>
       <c r="I489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J489" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K489">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L489">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M489">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="N489">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="O489">
         <v>2.9</v>
       </c>
       <c r="P489">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="Q489">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R489">
+        <v>1.975</v>
+      </c>
+      <c r="S489">
+        <v>1.825</v>
+      </c>
+      <c r="T489">
+        <v>2</v>
+      </c>
+      <c r="U489">
         <v>2.025</v>
       </c>
-      <c r="S489">
+      <c r="V489">
         <v>1.775</v>
       </c>
-      <c r="T489">
-        <v>1.75</v>
-      </c>
-      <c r="U489">
-        <v>1.775</v>
-      </c>
-      <c r="V489">
-        <v>2.025</v>
-      </c>
       <c r="W489">
         <v>-1</v>
       </c>
       <c r="X489">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y489">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z489">
         <v>-1</v>
       </c>
       <c r="AA489">
+        <v>0.825</v>
+      </c>
+      <c r="AB489">
+        <v>-1</v>
+      </c>
+      <c r="AC489">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB489">
-        <v>-1</v>
-      </c>
-      <c r="AC489">
-        <v>1.025</v>
       </c>
     </row>
     <row r="490" spans="1:29">

--- a/Egypt Division 2/Egypt Division 2.xlsx
+++ b/Egypt Division 2/Egypt Division 2.xlsx
@@ -187,9 +187,6 @@
     <t>Dekernes</t>
   </si>
   <si>
-    <t>Sporting Alexandria</t>
-  </si>
-  <si>
     <t>Delphi SC</t>
   </si>
   <si>
@@ -199,13 +196,16 @@
     <t>MS Tala</t>
   </si>
   <si>
+    <t>Sporting Alexandria</t>
+  </si>
+  <si>
     <t>Maleyat Kafr El Zayat</t>
   </si>
   <si>
-    <t>El Olympi</t>
+    <t>Al Majd</t>
   </si>
   <si>
-    <t>Al Majd</t>
+    <t>El Olympi</t>
   </si>
   <si>
     <t>Talayie Alaistul</t>
@@ -1525,7 +1525,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6748912</v>
+        <v>6748911</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1537,76 +1537,76 @@
         <v>45086.45833333334</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K11">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L11">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O11">
         <v>3.1</v>
       </c>
       <c r="P11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q11">
         <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X11">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1614,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6748911</v>
+        <v>6748912</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1626,76 +1626,76 @@
         <v>45086.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M12">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O12">
         <v>3.1</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q12">
         <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U12">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB12">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -3750,7 +3750,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7254018</v>
+        <v>7253635</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3762,16 +3762,16 @@
         <v>45208.41666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
         <v>82</v>
@@ -3786,32 +3786,32 @@
         <v>2.8</v>
       </c>
       <c r="N36">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O36">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="P36">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S36">
+        <v>2.05</v>
+      </c>
+      <c r="T36">
+        <v>2</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.8</v>
       </c>
-      <c r="T36">
-        <v>2</v>
-      </c>
-      <c r="U36">
-        <v>1.925</v>
-      </c>
-      <c r="V36">
-        <v>1.875</v>
-      </c>
       <c r="W36">
         <v>-1</v>
       </c>
@@ -3819,19 +3819,19 @@
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="Z36">
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3839,7 +3839,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7253635</v>
+        <v>7254018</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3851,16 +3851,16 @@
         <v>45208.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
         <v>82</v>
@@ -3875,31 +3875,31 @@
         <v>2.8</v>
       </c>
       <c r="N37">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O37">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="P37">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3908,19 +3908,19 @@
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="Z37">
         <v>-1</v>
       </c>
       <c r="AA37">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4551,7 +4551,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7254013</v>
+        <v>7254157</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4563,73 +4563,73 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>82</v>
+      </c>
+      <c r="K45">
+        <v>1.909</v>
+      </c>
+      <c r="L45">
+        <v>3.1</v>
+      </c>
+      <c r="M45">
+        <v>3.75</v>
+      </c>
+      <c r="N45">
+        <v>1.85</v>
+      </c>
+      <c r="O45">
+        <v>3.2</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <v>-0.5</v>
+      </c>
+      <c r="R45">
+        <v>1.825</v>
+      </c>
+      <c r="S45">
+        <v>1.975</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>1.8</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>3</v>
       </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
-      <c r="J45" t="s">
-        <v>83</v>
-      </c>
-      <c r="K45">
-        <v>2.15</v>
-      </c>
-      <c r="L45">
-        <v>3</v>
-      </c>
-      <c r="M45">
-        <v>3.4</v>
-      </c>
-      <c r="N45">
-        <v>2.625</v>
-      </c>
-      <c r="O45">
-        <v>2.875</v>
-      </c>
-      <c r="P45">
-        <v>2.75</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>1.85</v>
-      </c>
-      <c r="S45">
-        <v>1.95</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>1.9</v>
-      </c>
-      <c r="V45">
-        <v>1.9</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>1.875</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4729,7 +4729,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7254157</v>
+        <v>7254013</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4741,73 +4741,73 @@
         <v>45215.41666666666</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M47">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N47">
+        <v>2.625</v>
+      </c>
+      <c r="O47">
+        <v>2.875</v>
+      </c>
+      <c r="P47">
+        <v>2.75</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
         <v>1.85</v>
       </c>
-      <c r="O47">
-        <v>3.2</v>
-      </c>
-      <c r="P47">
-        <v>4</v>
-      </c>
-      <c r="Q47">
-        <v>-0.5</v>
-      </c>
-      <c r="R47">
-        <v>1.825</v>
-      </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T47">
         <v>2</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4996,7 +4996,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7254010</v>
+        <v>7253637</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -5008,19 +5008,19 @@
         <v>45216.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K50">
         <v>2.5</v>
@@ -5032,46 +5032,46 @@
         <v>2.625</v>
       </c>
       <c r="N50">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
+        <v>1.825</v>
+      </c>
+      <c r="S50">
+        <v>1.975</v>
+      </c>
+      <c r="T50">
+        <v>2</v>
+      </c>
+      <c r="U50">
         <v>1.95</v>
       </c>
-      <c r="S50">
+      <c r="V50">
         <v>1.85</v>
       </c>
-      <c r="T50">
-        <v>2</v>
-      </c>
-      <c r="U50">
-        <v>1.875</v>
-      </c>
-      <c r="V50">
-        <v>1.925</v>
-      </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X50">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -5085,7 +5085,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7253637</v>
+        <v>7254010</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -5097,19 +5097,19 @@
         <v>45216.41666666666</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5121,46 +5121,46 @@
         <v>2.625</v>
       </c>
       <c r="N51">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q51">
+        <v>0.25</v>
+      </c>
+      <c r="R51">
+        <v>1.95</v>
+      </c>
+      <c r="S51">
+        <v>1.85</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51">
+        <v>1.875</v>
+      </c>
+      <c r="V51">
+        <v>1.925</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <v>2.1</v>
+      </c>
+      <c r="Y51">
+        <v>-1</v>
+      </c>
+      <c r="Z51">
+        <v>0.475</v>
+      </c>
+      <c r="AA51">
         <v>-0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.825</v>
-      </c>
-      <c r="S51">
-        <v>1.975</v>
-      </c>
-      <c r="T51">
-        <v>2</v>
-      </c>
-      <c r="U51">
-        <v>1.95</v>
-      </c>
-      <c r="V51">
-        <v>1.85</v>
-      </c>
-      <c r="W51">
-        <v>0.75</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>-1</v>
-      </c>
-      <c r="Z51">
-        <v>0.825</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -5530,7 +5530,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7253998</v>
+        <v>7254009</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5542,10 +5542,10 @@
         <v>45222.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5557,43 +5557,43 @@
         <v>81</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P56">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q56">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S56">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>0.615</v>
+        <v>1.4</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5602,13 +5602,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5619,7 +5619,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7254009</v>
+        <v>7253998</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5631,10 +5631,10 @@
         <v>45222.41666666666</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5646,43 +5646,43 @@
         <v>81</v>
       </c>
       <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>3.1</v>
+      </c>
+      <c r="M57">
+        <v>3.4</v>
+      </c>
+      <c r="N57">
+        <v>1.615</v>
+      </c>
+      <c r="O57">
+        <v>3.4</v>
+      </c>
+      <c r="P57">
+        <v>4.75</v>
+      </c>
+      <c r="Q57">
+        <v>-0.75</v>
+      </c>
+      <c r="R57">
+        <v>1.825</v>
+      </c>
+      <c r="S57">
+        <v>1.975</v>
+      </c>
+      <c r="T57">
         <v>2.25</v>
       </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="M57">
-        <v>3</v>
-      </c>
-      <c r="N57">
-        <v>2.4</v>
-      </c>
-      <c r="O57">
-        <v>3</v>
-      </c>
-      <c r="P57">
-        <v>2.75</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>1.775</v>
-      </c>
-      <c r="S57">
-        <v>2.025</v>
-      </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>1.4</v>
+        <v>0.615</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5691,13 +5691,13 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -6242,7 +6242,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7387966</v>
+        <v>7384145</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6257,10 +6257,10 @@
         <v>57</v>
       </c>
       <c r="G64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -6269,43 +6269,43 @@
         <v>81</v>
       </c>
       <c r="K64">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="L64">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="N64">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="O64">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W64">
-        <v>0.909</v>
+        <v>0.55</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6314,13 +6314,13 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6331,7 +6331,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7384145</v>
+        <v>7384107</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6346,73 +6346,73 @@
         <v>58</v>
       </c>
       <c r="G65" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K65">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="M65">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N65">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P65">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V65">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6420,7 +6420,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7384107</v>
+        <v>7384130</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6435,73 +6435,73 @@
         <v>59</v>
       </c>
       <c r="G66" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K66">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L66">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M66">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O66">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P66">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R66">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
         <v>1.75</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA66">
+        <v>-1</v>
+      </c>
+      <c r="AB66">
         <v>0.925</v>
       </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
       <c r="AC66">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6509,7 +6509,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7384130</v>
+        <v>7387966</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6524,7 +6524,7 @@
         <v>60</v>
       </c>
       <c r="G67" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6536,43 +6536,43 @@
         <v>81</v>
       </c>
       <c r="K67">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L67">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O67">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P67">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T67">
         <v>1.75</v>
       </c>
       <c r="U67">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6581,13 +6581,13 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6954,7 +6954,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7253639</v>
+        <v>7253990</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6966,76 +6966,76 @@
         <v>45230.39583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G72" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K72">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L72">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N72">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="O72">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P72">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S72">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
+        <v>1.85</v>
+      </c>
+      <c r="V72">
         <v>1.95</v>
       </c>
-      <c r="V72">
-        <v>1.85</v>
-      </c>
       <c r="W72">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X72">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA72">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7043,7 +7043,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7253993</v>
+        <v>7253641</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -7055,10 +7055,10 @@
         <v>45230.39583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -7070,19 +7070,19 @@
         <v>81</v>
       </c>
       <c r="K73">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L73">
         <v>3.4</v>
       </c>
       <c r="M73">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N73">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
         <v>5.75</v>
@@ -7091,22 +7091,22 @@
         <v>-1</v>
       </c>
       <c r="R73">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -7115,13 +7115,13 @@
         <v>-1</v>
       </c>
       <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>0.925</v>
-      </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7132,7 +7132,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7253641</v>
+        <v>7253993</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7144,10 +7144,10 @@
         <v>45230.39583333334</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7159,19 +7159,19 @@
         <v>81</v>
       </c>
       <c r="K74">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="L74">
         <v>3.4</v>
       </c>
       <c r="M74">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="N74">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P74">
         <v>5.75</v>
@@ -7180,22 +7180,22 @@
         <v>-1</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W74">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7204,13 +7204,13 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7221,7 +7221,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7253990</v>
+        <v>7253639</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7233,76 +7233,76 @@
         <v>45230.39583333334</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H75">
         <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K75">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L75">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="M75">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="N75">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P75">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U75">
+        <v>1.95</v>
+      </c>
+      <c r="V75">
         <v>1.85</v>
       </c>
-      <c r="V75">
-        <v>1.95</v>
-      </c>
       <c r="W75">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7488,7 +7488,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7254163</v>
+        <v>7254162</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7500,59 +7500,59 @@
         <v>45236.39583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>81</v>
       </c>
       <c r="K78">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M78">
         <v>2.25</v>
       </c>
       <c r="N78">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O78">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q78">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
+        <v>1.975</v>
+      </c>
+      <c r="S78">
+        <v>1.825</v>
+      </c>
+      <c r="T78">
+        <v>2.25</v>
+      </c>
+      <c r="U78">
+        <v>2.025</v>
+      </c>
+      <c r="V78">
         <v>1.775</v>
       </c>
-      <c r="S78">
-        <v>2.025</v>
-      </c>
-      <c r="T78">
+      <c r="W78">
         <v>1.75</v>
       </c>
-      <c r="U78">
-        <v>1.85</v>
-      </c>
-      <c r="V78">
-        <v>1.95</v>
-      </c>
-      <c r="W78">
-        <v>1.7</v>
-      </c>
       <c r="X78">
         <v>-1</v>
       </c>
@@ -7560,16 +7560,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA78">
+        <v>-1</v>
+      </c>
+      <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA78">
-        <v>-1</v>
-      </c>
-      <c r="AB78">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC78">
-        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7577,7 +7577,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7254162</v>
+        <v>7254163</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7589,58 +7589,58 @@
         <v>45236.39583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>81</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M79">
         <v>2.25</v>
       </c>
       <c r="N79">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P79">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U79">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7649,16 +7649,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC79">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7933,7 +7933,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7253985</v>
+        <v>7253984</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7945,76 +7945,76 @@
         <v>45237.39583333334</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K83">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L83">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M83">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O83">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="P83">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S83">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y83">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AB83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8111,7 +8111,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7253984</v>
+        <v>7253985</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8123,76 +8123,76 @@
         <v>45237.39583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G85" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K85">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L85">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M85">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="N85">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O85">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="P85">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T85">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC85">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8378,7 +8378,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7449497</v>
+        <v>7449496</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8393,43 +8393,43 @@
         <v>62</v>
       </c>
       <c r="G88" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>83</v>
       </c>
       <c r="K88">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L88">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="M88">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N88">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O88">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P88">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
+        <v>1.75</v>
+      </c>
+      <c r="S88">
         <v>2.05</v>
-      </c>
-      <c r="S88">
-        <v>1.75</v>
       </c>
       <c r="T88">
         <v>2</v>
@@ -8444,22 +8444,22 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8467,7 +8467,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7449496</v>
+        <v>7449497</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8485,40 +8485,40 @@
         <v>57</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>83</v>
       </c>
       <c r="K89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L89">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="M89">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N89">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O89">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P89">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
+        <v>2.05</v>
+      </c>
+      <c r="S89">
         <v>1.75</v>
-      </c>
-      <c r="S89">
-        <v>2.05</v>
       </c>
       <c r="T89">
         <v>2</v>
@@ -8533,22 +8533,22 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8571,7 +8571,7 @@
         <v>64</v>
       </c>
       <c r="G90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7496155</v>
+        <v>7253975</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9903,40 +9903,40 @@
         <v>45250.39583333334</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="O105">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P105">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R105">
         <v>2</v>
@@ -9948,31 +9948,31 @@
         <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X105">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA105">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -10069,7 +10069,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7253975</v>
+        <v>7496155</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -10081,40 +10081,40 @@
         <v>45250.39583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H107">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K107">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L107">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N107">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P107">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q107">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
         <v>2</v>
@@ -10126,31 +10126,31 @@
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10247,7 +10247,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7253647</v>
+        <v>7253973</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10259,76 +10259,76 @@
         <v>45251.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G109" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K109">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L109">
         <v>3</v>
       </c>
       <c r="M109">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109">
+        <v>3</v>
+      </c>
+      <c r="P109">
         <v>2.2</v>
       </c>
-      <c r="O109">
-        <v>3.1</v>
-      </c>
-      <c r="P109">
-        <v>2.9</v>
-      </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
+        <v>1.825</v>
+      </c>
+      <c r="S109">
         <v>1.975</v>
       </c>
-      <c r="S109">
-        <v>1.825</v>
-      </c>
       <c r="T109">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U109">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC109">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10336,7 +10336,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7253973</v>
+        <v>7253647</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10348,76 +10348,76 @@
         <v>45251.39583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K110">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L110">
         <v>3</v>
       </c>
       <c r="M110">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N110">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="O110">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P110">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
+        <v>1.975</v>
+      </c>
+      <c r="S110">
         <v>1.825</v>
       </c>
-      <c r="S110">
-        <v>1.975</v>
-      </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V110">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y110">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB110">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10425,7 +10425,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7500851</v>
+        <v>7253974</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10437,55 +10437,55 @@
         <v>45251.39583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J111" t="s">
         <v>82</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L111">
         <v>3</v>
       </c>
       <c r="M111">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N111">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O111">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T111">
         <v>2</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10494,16 +10494,16 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AB111">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10514,7 +10514,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7253974</v>
+        <v>7500851</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10526,55 +10526,55 @@
         <v>45251.39583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>82</v>
       </c>
       <c r="K112">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L112">
         <v>3</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N112">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O112">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10583,16 +10583,16 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AB112">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10959,7 +10959,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7532811</v>
+        <v>7253648</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10971,76 +10971,76 @@
         <v>45259.39583333334</v>
       </c>
       <c r="F117" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K117">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="M117">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="N117">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="O117">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R117">
+        <v>1.875</v>
+      </c>
+      <c r="S117">
         <v>1.825</v>
       </c>
-      <c r="S117">
-        <v>1.975</v>
-      </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X117">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA117">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11048,7 +11048,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7254168</v>
+        <v>7253687</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11060,10 +11060,10 @@
         <v>45259.39583333334</v>
       </c>
       <c r="F118" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11075,31 +11075,31 @@
         <v>81</v>
       </c>
       <c r="K118">
-        <v>1.65</v>
+        <v>1.571</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M118">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="N118">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="O118">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P118">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R118">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S118">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T118">
         <v>2</v>
@@ -11111,7 +11111,7 @@
         <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.7270000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11120,10 +11120,10 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
         <v>-1</v>
@@ -11137,7 +11137,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7253648</v>
+        <v>7532811</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11149,76 +11149,76 @@
         <v>45259.39583333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G119" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K119">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L119">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="M119">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="N119">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="O119">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P119">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q119">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
+        <v>1.975</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
+        <v>1.8</v>
+      </c>
+      <c r="V119">
+        <v>2</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
         <v>1.875</v>
       </c>
-      <c r="S119">
-        <v>1.825</v>
-      </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.9</v>
-      </c>
-      <c r="V119">
-        <v>1.9</v>
-      </c>
-      <c r="W119">
-        <v>0.55</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB119">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11226,7 +11226,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7253687</v>
+        <v>7523173</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11238,76 +11238,76 @@
         <v>45259.39583333334</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K120">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P120">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q120">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11315,7 +11315,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7523173</v>
+        <v>7254168</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11327,76 +11327,76 @@
         <v>45259.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K121">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N121">
-        <v>4.333</v>
+        <v>1.727</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P121">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA121">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11582,7 +11582,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7550645</v>
+        <v>7254169</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11594,76 +11594,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G124" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K124">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L124">
+        <v>2.8</v>
+      </c>
+      <c r="M124">
+        <v>2.4</v>
+      </c>
+      <c r="N124">
+        <v>3.4</v>
+      </c>
+      <c r="O124">
         <v>3</v>
       </c>
-      <c r="M124">
-        <v>2.9</v>
-      </c>
-      <c r="N124">
-        <v>2.25</v>
-      </c>
-      <c r="O124">
-        <v>3.1</v>
-      </c>
       <c r="P124">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11671,7 +11671,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7254169</v>
+        <v>7550645</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11683,76 +11683,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K125">
+        <v>2.3</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
         <v>2.9</v>
       </c>
-      <c r="L125">
-        <v>2.8</v>
-      </c>
-      <c r="M125">
-        <v>2.4</v>
-      </c>
       <c r="N125">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
         <v>3</v>
       </c>
-      <c r="P125">
-        <v>2.15</v>
-      </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y125">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11760,7 +11760,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7253965</v>
+        <v>7253649</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11772,13 +11772,13 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -11787,58 +11787,58 @@
         <v>81</v>
       </c>
       <c r="K126">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M126">
+        <v>3.5</v>
+      </c>
+      <c r="N126">
+        <v>1.85</v>
+      </c>
+      <c r="O126">
+        <v>3</v>
+      </c>
+      <c r="P126">
         <v>4.2</v>
       </c>
-      <c r="N126">
+      <c r="Q126">
+        <v>-0.5</v>
+      </c>
+      <c r="R126">
         <v>1.95</v>
       </c>
-      <c r="O126">
-        <v>3.1</v>
-      </c>
-      <c r="P126">
-        <v>3.6</v>
-      </c>
-      <c r="Q126">
-        <v>-0.25</v>
-      </c>
-      <c r="R126">
-        <v>1.725</v>
-      </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
         <v>0.95</v>
       </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.7250000000000001</v>
-      </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11849,7 +11849,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7253649</v>
+        <v>7253965</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11861,13 +11861,13 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -11876,43 +11876,43 @@
         <v>81</v>
       </c>
       <c r="K127">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L127">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M127">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N127">
+        <v>1.95</v>
+      </c>
+      <c r="O127">
+        <v>3.1</v>
+      </c>
+      <c r="P127">
+        <v>3.6</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
+        <v>1.725</v>
+      </c>
+      <c r="S127">
+        <v>1.975</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.95</v>
+      </c>
+      <c r="V127">
         <v>1.85</v>
       </c>
-      <c r="O127">
-        <v>3</v>
-      </c>
-      <c r="P127">
-        <v>4.2</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.95</v>
-      </c>
-      <c r="S127">
-        <v>1.85</v>
-      </c>
-      <c r="T127">
-        <v>2</v>
-      </c>
-      <c r="U127">
-        <v>1.9</v>
-      </c>
-      <c r="V127">
-        <v>1.9</v>
-      </c>
       <c r="W127">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11921,13 +11921,13 @@
         <v>-1</v>
       </c>
       <c r="Z127">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
         <v>0.95</v>
-      </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
-      <c r="AB127">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC127">
         <v>-1</v>
@@ -11938,7 +11938,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7253963</v>
+        <v>7253964</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11950,58 +11950,58 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
         <v>81</v>
       </c>
       <c r="K128">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M128">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N128">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O128">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q128">
         <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
-        <v>0.615</v>
+        <v>0.7</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -12010,13 +12010,13 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC128">
         <v>-1</v>
@@ -12027,7 +12027,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7253964</v>
+        <v>7253963</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -12039,58 +12039,58 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>81</v>
       </c>
       <c r="K129">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="N129">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P129">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q129">
         <v>-0.75</v>
       </c>
       <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>1.975</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
         <v>1.95</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>1.85</v>
       </c>
-      <c r="T129">
-        <v>2.5</v>
-      </c>
-      <c r="U129">
-        <v>1.875</v>
-      </c>
-      <c r="V129">
-        <v>1.925</v>
-      </c>
       <c r="W129">
-        <v>0.7</v>
+        <v>0.615</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12099,13 +12099,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12205,7 +12205,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7253688</v>
+        <v>7253962</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12217,10 +12217,10 @@
         <v>45265.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12232,61 +12232,61 @@
         <v>83</v>
       </c>
       <c r="K131">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O131">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P131">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U131">
+        <v>1.875</v>
+      </c>
+      <c r="V131">
+        <v>1.925</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
         <v>1.9</v>
       </c>
-      <c r="V131">
-        <v>1.9</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>2</v>
-      </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12294,7 +12294,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7253962</v>
+        <v>7253688</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12306,10 +12306,10 @@
         <v>45265.39583333334</v>
       </c>
       <c r="F132" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12321,61 +12321,61 @@
         <v>83</v>
       </c>
       <c r="K132">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="L132">
+        <v>2.875</v>
+      </c>
+      <c r="M132">
+        <v>3.2</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132">
         <v>3</v>
       </c>
-      <c r="M132">
-        <v>1.8</v>
-      </c>
-      <c r="N132">
-        <v>4</v>
-      </c>
-      <c r="O132">
-        <v>2.9</v>
-      </c>
       <c r="P132">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T132">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB132">
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12828,7 +12828,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7580438</v>
+        <v>7558905</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12840,46 +12840,46 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
         <v>82</v>
       </c>
       <c r="K138">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M138">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N138">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P138">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S138">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T138">
         <v>2.25</v>
@@ -12897,19 +12897,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AB138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13006,7 +13006,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7558905</v>
+        <v>7580438</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -13018,46 +13018,46 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J140" t="s">
         <v>82</v>
       </c>
       <c r="K140">
+        <v>2.6</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
         <v>2.5</v>
       </c>
-      <c r="L140">
-        <v>2.8</v>
-      </c>
-      <c r="M140">
-        <v>2.8</v>
-      </c>
       <c r="N140">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O140">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P140">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S140">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T140">
         <v>2.25</v>
@@ -13075,19 +13075,19 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13184,7 +13184,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7558471</v>
+        <v>7594612</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13196,76 +13196,76 @@
         <v>45275.39583333334</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142">
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K142">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="L142">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
+        <v>1.615</v>
+      </c>
+      <c r="N142">
+        <v>4.333</v>
+      </c>
+      <c r="O142">
+        <v>3.75</v>
+      </c>
+      <c r="P142">
+        <v>1.615</v>
+      </c>
+      <c r="Q142">
+        <v>0.75</v>
+      </c>
+      <c r="R142">
+        <v>1.975</v>
+      </c>
+      <c r="S142">
+        <v>1.825</v>
+      </c>
+      <c r="T142">
         <v>3</v>
       </c>
-      <c r="N142">
-        <v>2.25</v>
-      </c>
-      <c r="O142">
-        <v>2.9</v>
-      </c>
-      <c r="P142">
-        <v>3.1</v>
-      </c>
-      <c r="Q142">
-        <v>-0.25</v>
-      </c>
-      <c r="R142">
-        <v>2</v>
-      </c>
-      <c r="S142">
+      <c r="U142">
+        <v>2</v>
+      </c>
+      <c r="V142">
         <v>1.8</v>
       </c>
-      <c r="T142">
-        <v>2</v>
-      </c>
-      <c r="U142">
-        <v>1.975</v>
-      </c>
-      <c r="V142">
-        <v>1.825</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X142">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA142">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
         <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13273,7 +13273,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7594612</v>
+        <v>7558471</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13285,76 +13285,76 @@
         <v>45275.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K143">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="M143">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P143">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
         <v>1.975</v>
       </c>
-      <c r="S143">
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="T143">
-        <v>3</v>
-      </c>
-      <c r="U143">
-        <v>2</v>
-      </c>
-      <c r="V143">
-        <v>1.8</v>
-      </c>
       <c r="W143">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13807,7 +13807,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7253654</v>
+        <v>7253952</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13819,76 +13819,76 @@
         <v>45279.39583333334</v>
       </c>
       <c r="F149" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K149">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="L149">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M149">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="N149">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P149">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="Q149">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
+        <v>1.9</v>
+      </c>
+      <c r="S149">
+        <v>1.9</v>
+      </c>
+      <c r="T149">
+        <v>1.75</v>
+      </c>
+      <c r="U149">
         <v>1.825</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>1.975</v>
       </c>
-      <c r="T149">
-        <v>2.25</v>
-      </c>
-      <c r="U149">
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
         <v>1.9</v>
       </c>
-      <c r="V149">
-        <v>1.9</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
       <c r="Y149">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13896,7 +13896,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7253952</v>
+        <v>7253654</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13908,76 +13908,76 @@
         <v>45279.39583333334</v>
       </c>
       <c r="F150" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K150">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="N150">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="O150">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R150">
+        <v>1.825</v>
+      </c>
+      <c r="S150">
+        <v>1.975</v>
+      </c>
+      <c r="T150">
+        <v>2.25</v>
+      </c>
+      <c r="U150">
         <v>1.9</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.9</v>
       </c>
-      <c r="T150">
-        <v>1.75</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -14430,7 +14430,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7253946</v>
+        <v>7253656</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14442,34 +14442,34 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K156">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="O156">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
         <v>5.25</v>
@@ -14478,40 +14478,40 @@
         <v>-1</v>
       </c>
       <c r="R156">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S156">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X156">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC156">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14519,7 +14519,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7253948</v>
+        <v>7253946</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14531,19 +14531,19 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K157">
         <v>2</v>
@@ -14555,52 +14555,52 @@
         <v>3.6</v>
       </c>
       <c r="N157">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="O157">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P157">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
         <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14608,7 +14608,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7253656</v>
+        <v>7605133</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14620,73 +14620,73 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" t="s">
+        <v>83</v>
+      </c>
+      <c r="K158">
+        <v>2.1</v>
+      </c>
+      <c r="L158">
+        <v>2.8</v>
+      </c>
+      <c r="M158">
+        <v>3.6</v>
+      </c>
+      <c r="N158">
+        <v>2.45</v>
+      </c>
+      <c r="O158">
+        <v>2.7</v>
+      </c>
+      <c r="P158">
         <v>3</v>
       </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158" t="s">
-        <v>81</v>
-      </c>
-      <c r="K158">
-        <v>1.615</v>
-      </c>
-      <c r="L158">
-        <v>3.4</v>
-      </c>
-      <c r="M158">
-        <v>5</v>
-      </c>
-      <c r="N158">
-        <v>1.6</v>
-      </c>
-      <c r="O158">
-        <v>3.5</v>
-      </c>
-      <c r="P158">
-        <v>5.25</v>
-      </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S158">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="U158">
+        <v>1.775</v>
+      </c>
+      <c r="V158">
         <v>2.025</v>
       </c>
-      <c r="V158">
-        <v>1.775</v>
-      </c>
       <c r="W158">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB158">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14697,7 +14697,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7253947</v>
+        <v>7254176</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14709,58 +14709,58 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>81</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L159">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M159">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N159">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O159">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P159">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
+        <v>1.975</v>
+      </c>
+      <c r="S159">
         <v>1.825</v>
       </c>
-      <c r="S159">
-        <v>1.975</v>
-      </c>
       <c r="T159">
         <v>2</v>
       </c>
       <c r="U159">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14769,13 +14769,13 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14786,7 +14786,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7605133</v>
+        <v>7253947</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14798,73 +14798,73 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K160">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L160">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M160">
         <v>3.6</v>
       </c>
       <c r="N160">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="O160">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="P160">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R160">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T160">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U160">
+        <v>2.025</v>
+      </c>
+      <c r="V160">
         <v>1.775</v>
       </c>
-      <c r="V160">
-        <v>2.025</v>
-      </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X160">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA160">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14875,7 +14875,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7254176</v>
+        <v>7253948</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14887,76 +14887,76 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
         <v>81</v>
       </c>
       <c r="K161">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L161">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M161">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N161">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="O161">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P161">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q161">
+        <v>-0.75</v>
+      </c>
+      <c r="R161">
+        <v>1.925</v>
+      </c>
+      <c r="S161">
+        <v>1.875</v>
+      </c>
+      <c r="T161">
+        <v>2.5</v>
+      </c>
+      <c r="U161">
+        <v>1.975</v>
+      </c>
+      <c r="V161">
+        <v>1.825</v>
+      </c>
+      <c r="W161">
+        <v>0.7</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
+        <v>-1</v>
+      </c>
+      <c r="Z161">
+        <v>0.4625</v>
+      </c>
+      <c r="AA161">
         <v>-0.5</v>
       </c>
-      <c r="R161">
-        <v>1.975</v>
-      </c>
-      <c r="S161">
-        <v>1.825</v>
-      </c>
-      <c r="T161">
-        <v>2</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.85</v>
-      </c>
-      <c r="W161">
-        <v>0.909</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>-1</v>
-      </c>
-      <c r="Z161">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA161">
-        <v>-1</v>
-      </c>
       <c r="AB161">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15587,7 +15587,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7253691</v>
+        <v>7254178</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15599,76 +15599,76 @@
         <v>45294.39583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J169" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K169">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L169">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M169">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N169">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="O169">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P169">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
+        <v>1.825</v>
+      </c>
+      <c r="T169">
+        <v>2</v>
+      </c>
+      <c r="U169">
         <v>1.9</v>
       </c>
-      <c r="S169">
+      <c r="V169">
         <v>1.9</v>
       </c>
-      <c r="T169">
-        <v>2</v>
-      </c>
-      <c r="U169">
-        <v>1.775</v>
-      </c>
-      <c r="V169">
-        <v>2.025</v>
-      </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z169">
         <v>-1</v>
       </c>
       <c r="AA169">
+        <v>0.825</v>
+      </c>
+      <c r="AB169">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB169">
-        <v>-1</v>
-      </c>
       <c r="AC169">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15676,7 +15676,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7253692</v>
+        <v>7253691</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15688,76 +15688,76 @@
         <v>45294.39583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G170" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K170">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L170">
         <v>3.3</v>
       </c>
       <c r="M170">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="N170">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="O170">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P170">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="Q170">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S170">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T170">
         <v>2</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V170">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y170">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB170">
         <v>-1</v>
       </c>
       <c r="AC170">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -15854,7 +15854,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7254178</v>
+        <v>7253692</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15866,55 +15866,55 @@
         <v>45294.39583333334</v>
       </c>
       <c r="F172" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
         <v>82</v>
       </c>
       <c r="K172">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L172">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M172">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="N172">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="O172">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P172">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R172">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S172">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T172">
         <v>2</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W172">
         <v>-1</v>
@@ -15923,19 +15923,19 @@
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16477,7 +16477,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7253660</v>
+        <v>7254179</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16489,76 +16489,76 @@
         <v>45300.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>83</v>
       </c>
       <c r="K179">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="L179">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N179">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O179">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P179">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U179">
+        <v>1.825</v>
+      </c>
+      <c r="V179">
         <v>1.975</v>
       </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
+        <v>0.825</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+      <c r="AC179">
         <v>-0</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
-      <c r="AC179">
-        <v>0.825</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16566,7 +16566,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7253937</v>
+        <v>7253660</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16578,76 +16578,76 @@
         <v>45300.39583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
         <v>83</v>
       </c>
       <c r="K180">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>3.4</v>
+      </c>
+      <c r="N180">
         <v>2.7</v>
       </c>
-      <c r="M180">
-        <v>2.6</v>
-      </c>
-      <c r="N180">
-        <v>3.8</v>
-      </c>
       <c r="O180">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="P180">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R180">
+        <v>2.05</v>
+      </c>
+      <c r="S180">
+        <v>1.75</v>
+      </c>
+      <c r="T180">
+        <v>2.25</v>
+      </c>
+      <c r="U180">
         <v>1.975</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>1.825</v>
       </c>
-      <c r="T180">
-        <v>2</v>
-      </c>
-      <c r="U180">
-        <v>1.85</v>
-      </c>
-      <c r="V180">
-        <v>1.95</v>
-      </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>1.625</v>
+        <v>1.9</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16655,7 +16655,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7254179</v>
+        <v>7253937</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16667,40 +16667,40 @@
         <v>45300.39583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
         <v>83</v>
       </c>
       <c r="K181">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="L181">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M181">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N181">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="O181">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P181">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q181">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
         <v>1.975</v>
@@ -16712,31 +16712,31 @@
         <v>2</v>
       </c>
       <c r="U181">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V181">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.3</v>
+        <v>1.625</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA181">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC181">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17812,7 +17812,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7254184</v>
+        <v>7253667</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17824,76 +17824,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G194" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K194">
-        <v>1.833</v>
+        <v>2.375</v>
       </c>
       <c r="L194">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N194">
+        <v>3.3</v>
+      </c>
+      <c r="O194">
+        <v>3</v>
+      </c>
+      <c r="P194">
+        <v>2.1</v>
+      </c>
+      <c r="Q194">
+        <v>0.25</v>
+      </c>
+      <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
         <v>1.8</v>
       </c>
-      <c r="O194">
-        <v>3.2</v>
-      </c>
-      <c r="P194">
-        <v>4</v>
-      </c>
-      <c r="Q194">
+      <c r="T194">
+        <v>2</v>
+      </c>
+      <c r="U194">
+        <v>2.025</v>
+      </c>
+      <c r="V194">
+        <v>1.775</v>
+      </c>
+      <c r="W194">
+        <v>-1</v>
+      </c>
+      <c r="X194">
+        <v>2</v>
+      </c>
+      <c r="Y194">
+        <v>-1</v>
+      </c>
+      <c r="Z194">
+        <v>0.5</v>
+      </c>
+      <c r="AA194">
         <v>-0.5</v>
       </c>
-      <c r="R194">
-        <v>1.875</v>
-      </c>
-      <c r="S194">
-        <v>1.925</v>
-      </c>
-      <c r="T194">
-        <v>2</v>
-      </c>
-      <c r="U194">
-        <v>1.95</v>
-      </c>
-      <c r="V194">
-        <v>1.85</v>
-      </c>
-      <c r="W194">
-        <v>0.8</v>
-      </c>
-      <c r="X194">
-        <v>-1</v>
-      </c>
-      <c r="Y194">
-        <v>-1</v>
-      </c>
-      <c r="Z194">
-        <v>0.875</v>
-      </c>
-      <c r="AA194">
-        <v>-1</v>
-      </c>
       <c r="AB194">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17901,7 +17901,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7253667</v>
+        <v>7253694</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17913,76 +17913,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F195" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G195" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K195">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L195">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M195">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195">
+        <v>3.2</v>
+      </c>
+      <c r="P195">
         <v>3.3</v>
       </c>
-      <c r="O195">
-        <v>3</v>
-      </c>
-      <c r="P195">
-        <v>2.1</v>
-      </c>
       <c r="Q195">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U195">
+        <v>1.775</v>
+      </c>
+      <c r="V195">
         <v>2.025</v>
       </c>
-      <c r="V195">
-        <v>1.775</v>
-      </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X195">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>0.3875</v>
+      </c>
+      <c r="AC195">
         <v>-0.5</v>
-      </c>
-      <c r="AB195">
-        <v>0</v>
-      </c>
-      <c r="AC195">
-        <v>-0</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17990,7 +17990,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7253694</v>
+        <v>7254184</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -18002,58 +18002,58 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H196">
         <v>2</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
         <v>81</v>
       </c>
       <c r="K196">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L196">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M196">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N196">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O196">
         <v>3.2</v>
       </c>
       <c r="P196">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q196">
         <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T196">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U196">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -18062,16 +18062,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AC196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18168,7 +18168,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7253929</v>
+        <v>7253930</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18180,58 +18180,58 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G198" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>81</v>
       </c>
       <c r="K198">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="L198">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M198">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N198">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R198">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S198">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T198">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W198">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18240,13 +18240,13 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA198">
         <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC198">
         <v>-1</v>
@@ -18257,7 +18257,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7253931</v>
+        <v>7253929</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18269,10 +18269,10 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -18284,43 +18284,43 @@
         <v>81</v>
       </c>
       <c r="K199">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L199">
+        <v>3.25</v>
+      </c>
+      <c r="M199">
         <v>4</v>
       </c>
-      <c r="M199">
-        <v>6</v>
-      </c>
       <c r="N199">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O199">
+        <v>3.3</v>
+      </c>
+      <c r="P199">
         <v>4</v>
       </c>
-      <c r="P199">
-        <v>6</v>
-      </c>
       <c r="Q199">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U199">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
-        <v>0.444</v>
+        <v>0.8</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18329,13 +18329,13 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA199">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC199">
         <v>-1</v>
@@ -18346,7 +18346,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7253930</v>
+        <v>7253666</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18358,76 +18358,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F200" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G200" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H200">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K200">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="L200">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M200">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N200">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="O200">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P200">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q200">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S200">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U200">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB200">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18435,7 +18435,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7253666</v>
+        <v>7253931</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18447,76 +18447,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F201" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G201" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K201">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L201">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M201">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N201">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P201">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="Q201">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S201">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T201">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA201">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC201">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -19325,7 +19325,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7777452</v>
+        <v>7777455</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19337,76 +19337,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K211">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L211">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="M211">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N211">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O211">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="P211">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R211">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S211">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T211">
+        <v>2</v>
+      </c>
+      <c r="U211">
+        <v>2.05</v>
+      </c>
+      <c r="V211">
         <v>1.75</v>
       </c>
-      <c r="U211">
-        <v>2</v>
-      </c>
-      <c r="V211">
-        <v>1.8</v>
-      </c>
       <c r="W211">
         <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y211">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
         <v>-1</v>
       </c>
       <c r="AA211">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB211">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AC211">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19503,7 +19503,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7777454</v>
+        <v>7777452</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19515,76 +19515,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G213" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H213">
         <v>0</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>82</v>
       </c>
       <c r="K213">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L213">
+        <v>2.5</v>
+      </c>
+      <c r="M213">
         <v>2.75</v>
       </c>
-      <c r="M213">
+      <c r="N213">
+        <v>2.75</v>
+      </c>
+      <c r="O213">
         <v>2.5</v>
       </c>
-      <c r="N213">
-        <v>3.3</v>
-      </c>
-      <c r="O213">
-        <v>2.75</v>
-      </c>
       <c r="P213">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S213">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T213">
         <v>1.75</v>
       </c>
       <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
+        <v>1.8</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
         <v>1.875</v>
       </c>
-      <c r="V213">
-        <v>1.925</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>-1</v>
-      </c>
-      <c r="Y213">
-        <v>1.3</v>
-      </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC213">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19592,7 +19592,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7777455</v>
+        <v>7777454</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19604,76 +19604,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
         <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K214">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="L214">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N214">
+        <v>3.3</v>
+      </c>
+      <c r="O214">
+        <v>2.75</v>
+      </c>
+      <c r="P214">
+        <v>2.3</v>
+      </c>
+      <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
         <v>1.8</v>
       </c>
-      <c r="O214">
-        <v>3.1</v>
-      </c>
-      <c r="P214">
-        <v>4.5</v>
-      </c>
-      <c r="Q214">
-        <v>-0.5</v>
-      </c>
-      <c r="R214">
-        <v>1.825</v>
-      </c>
       <c r="S214">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z214">
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -21550,7 +21550,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7886326</v>
+        <v>7777508</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21562,58 +21562,58 @@
         <v>45349.41666666666</v>
       </c>
       <c r="F236" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G236" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
         <v>81</v>
       </c>
       <c r="K236">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L236">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M236">
         <v>3.25</v>
       </c>
       <c r="N236">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O236">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P236">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S236">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U236">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V236">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W236">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21622,16 +21622,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AA236">
         <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC236">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21639,7 +21639,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7777508</v>
+        <v>7886326</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21651,58 +21651,58 @@
         <v>45349.41666666666</v>
       </c>
       <c r="F237" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G237" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
         <v>81</v>
       </c>
       <c r="K237">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L237">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M237">
         <v>3.25</v>
       </c>
       <c r="N237">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P237">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q237">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
+        <v>1.9</v>
+      </c>
+      <c r="S237">
+        <v>1.9</v>
+      </c>
+      <c r="T237">
         <v>1.75</v>
       </c>
-      <c r="S237">
+      <c r="U237">
+        <v>1.85</v>
+      </c>
+      <c r="V237">
         <v>1.95</v>
       </c>
-      <c r="T237">
-        <v>2.25</v>
-      </c>
-      <c r="U237">
-        <v>1.825</v>
-      </c>
-      <c r="V237">
-        <v>1.975</v>
-      </c>
       <c r="W237">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21711,16 +21711,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21728,7 +21728,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7777467</v>
+        <v>7777470</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21740,49 +21740,49 @@
         <v>45352.4375</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K238">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L238">
         <v>2.75</v>
       </c>
       <c r="M238">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N238">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="O238">
         <v>3</v>
       </c>
       <c r="P238">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U238">
         <v>1.8</v>
@@ -21791,25 +21791,25 @@
         <v>2</v>
       </c>
       <c r="W238">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z238">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21817,7 +21817,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7777468</v>
+        <v>7777469</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21829,76 +21829,76 @@
         <v>45352.4375</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K239">
+        <v>2.1</v>
+      </c>
+      <c r="L239">
+        <v>2.8</v>
+      </c>
+      <c r="M239">
+        <v>3.5</v>
+      </c>
+      <c r="N239">
+        <v>1.833</v>
+      </c>
+      <c r="O239">
         <v>3.1</v>
       </c>
-      <c r="L239">
-        <v>2.9</v>
-      </c>
-      <c r="M239">
-        <v>2.25</v>
-      </c>
-      <c r="N239">
-        <v>3.2</v>
-      </c>
-      <c r="O239">
-        <v>3</v>
-      </c>
       <c r="P239">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T239">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V239">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X239">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21906,7 +21906,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7777469</v>
+        <v>7777467</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21918,13 +21918,13 @@
         <v>45352.4375</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G240" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -21933,43 +21933,43 @@
         <v>81</v>
       </c>
       <c r="K240">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L240">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M240">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N240">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O240">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P240">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T240">
         <v>2</v>
       </c>
       <c r="U240">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V240">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W240">
-        <v>0.833</v>
+        <v>0.7</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21978,16 +21978,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21995,7 +21995,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7777470</v>
+        <v>7777468</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -22007,76 +22007,76 @@
         <v>45352.4375</v>
       </c>
       <c r="F241" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241">
         <v>1</v>
       </c>
       <c r="J241" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K241">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="L241">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M241">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="N241">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="O241">
         <v>3</v>
       </c>
       <c r="P241">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q241">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S241">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>1.75</v>
       </c>
       <c r="U241">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y241">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA241">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC241">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22262,7 +22262,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7777514</v>
+        <v>7777511</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22274,73 +22274,73 @@
         <v>45356.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G244" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H244">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K244">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="L244">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M244">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="N244">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="O244">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P244">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q244">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R244">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S244">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T244">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V244">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W244">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z244">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB244">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22351,7 +22351,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7777512</v>
+        <v>7777513</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22363,10 +22363,10 @@
         <v>45356.4375</v>
       </c>
       <c r="F245" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G245" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H245">
         <v>2</v>
@@ -22378,43 +22378,43 @@
         <v>81</v>
       </c>
       <c r="K245">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="L245">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M245">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="N245">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="O245">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P245">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q245">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R245">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S245">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T245">
         <v>2</v>
       </c>
       <c r="U245">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V245">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W245">
-        <v>0.8500000000000001</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22423,13 +22423,13 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB245">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC245">
         <v>-1</v>
@@ -22440,7 +22440,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7777511</v>
+        <v>7777512</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22452,49 +22452,49 @@
         <v>45356.4375</v>
       </c>
       <c r="F246" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K246">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L246">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M246">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="N246">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="O246">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P246">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="Q246">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R246">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S246">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T246">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U246">
         <v>1.975</v>
@@ -22503,19 +22503,19 @@
         <v>1.825</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X246">
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA246">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB246">
         <v>0.9750000000000001</v>
@@ -22529,7 +22529,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7777513</v>
+        <v>7777514</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22541,58 +22541,58 @@
         <v>45356.4375</v>
       </c>
       <c r="F247" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G247" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
         <v>81</v>
       </c>
       <c r="K247">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="L247">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M247">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N247">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O247">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P247">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q247">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S247">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
         <v>2</v>
       </c>
       <c r="U247">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V247">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W247">
-        <v>0.5329999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22601,13 +22601,13 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA247">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22796,7 +22796,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7777473</v>
+        <v>7777472</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22808,76 +22808,76 @@
         <v>45357.4375</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G250" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>0</v>
       </c>
       <c r="J250" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K250">
+        <v>2.3</v>
+      </c>
+      <c r="L250">
+        <v>2.7</v>
+      </c>
+      <c r="M250">
         <v>3.2</v>
       </c>
-      <c r="L250">
-        <v>2.875</v>
-      </c>
-      <c r="M250">
-        <v>2.2</v>
-      </c>
       <c r="N250">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O250">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P250">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q250">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S250">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T250">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U250">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="V250">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W250">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X250">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
         <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AA250">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22885,7 +22885,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7777472</v>
+        <v>7777473</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22897,76 +22897,76 @@
         <v>45357.4375</v>
       </c>
       <c r="F251" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G251" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
         <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K251">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L251">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="M251">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="N251">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O251">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P251">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R251">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S251">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T251">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U251">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="V251">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W251">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y251">
         <v>-1</v>
       </c>
       <c r="Z251">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23241,7 +23241,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7777518</v>
+        <v>7940277</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23253,73 +23253,73 @@
         <v>45361.4375</v>
       </c>
       <c r="F255" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G255" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J255" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K255">
-        <v>1.65</v>
+        <v>5.75</v>
       </c>
       <c r="L255">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M255">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="N255">
-        <v>1.5</v>
+        <v>5.75</v>
       </c>
       <c r="O255">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P255">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R255">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S255">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T255">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U255">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V255">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W255">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X255">
         <v>-1</v>
       </c>
       <c r="Y255">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z255">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB255">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC255">
         <v>-1</v>
@@ -23330,7 +23330,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7940277</v>
+        <v>7777518</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23342,73 +23342,73 @@
         <v>45361.4375</v>
       </c>
       <c r="F256" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G256" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I256">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J256" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K256">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="L256">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M256">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="N256">
-        <v>5.75</v>
+        <v>1.5</v>
       </c>
       <c r="O256">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P256">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="Q256">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R256">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S256">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T256">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V256">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X256">
         <v>-1</v>
       </c>
       <c r="Y256">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA256">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC256">
         <v>-1</v>

--- a/Egypt Division 2/Egypt Division 2.xlsx
+++ b/Egypt Division 2/Egypt Division 2.xlsx
@@ -10336,7 +10336,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7500851</v>
+        <v>7253973</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10348,10 +10348,10 @@
         <v>45251.39583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G110" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10372,22 +10372,22 @@
         <v>2.4</v>
       </c>
       <c r="N110">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O110">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
         <v>2</v>
@@ -10405,13 +10405,13 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
         <v>1</v>
@@ -10425,7 +10425,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7253973</v>
+        <v>7500851</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10437,10 +10437,10 @@
         <v>45251.39583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10461,22 +10461,22 @@
         <v>2.4</v>
       </c>
       <c r="N111">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O111">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P111">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
         <v>2</v>
@@ -10494,13 +10494,13 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB111">
         <v>1</v>
@@ -10781,7 +10781,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7253966</v>
+        <v>7253967</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10793,76 +10793,76 @@
         <v>45258.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K115">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>3.1</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115">
+        <v>3.2</v>
+      </c>
+      <c r="P115">
         <v>3.4</v>
       </c>
-      <c r="M115">
-        <v>4.5</v>
-      </c>
-      <c r="N115">
-        <v>1.65</v>
-      </c>
-      <c r="O115">
-        <v>3.3</v>
-      </c>
-      <c r="P115">
-        <v>5</v>
-      </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S115">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
+        <v>2.025</v>
+      </c>
+      <c r="V115">
         <v>1.775</v>
       </c>
-      <c r="V115">
-        <v>2.025</v>
-      </c>
       <c r="W115">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
+        <v>0.75</v>
+      </c>
+      <c r="AB115">
         <v>-0.5</v>
       </c>
-      <c r="AB115">
-        <v>-1</v>
-      </c>
       <c r="AC115">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10870,7 +10870,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7253967</v>
+        <v>7253966</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10882,76 +10882,76 @@
         <v>45258.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K116">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N116">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O116">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q116">
+        <v>-0.75</v>
+      </c>
+      <c r="R116">
+        <v>1.875</v>
+      </c>
+      <c r="S116">
+        <v>1.925</v>
+      </c>
+      <c r="T116">
+        <v>2</v>
+      </c>
+      <c r="U116">
+        <v>1.775</v>
+      </c>
+      <c r="V116">
+        <v>2.025</v>
+      </c>
+      <c r="W116">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X116">
+        <v>-1</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>0.4375</v>
+      </c>
+      <c r="AA116">
         <v>-0.5</v>
       </c>
-      <c r="R116">
-        <v>2.05</v>
-      </c>
-      <c r="S116">
-        <v>1.75</v>
-      </c>
-      <c r="T116">
-        <v>2.25</v>
-      </c>
-      <c r="U116">
-        <v>2.025</v>
-      </c>
-      <c r="V116">
-        <v>1.775</v>
-      </c>
-      <c r="W116">
-        <v>-1</v>
-      </c>
-      <c r="X116">
-        <v>2.2</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
-      <c r="Z116">
-        <v>-1</v>
-      </c>
-      <c r="AA116">
-        <v>0.75</v>
-      </c>
       <c r="AB116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11048,7 +11048,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7532811</v>
+        <v>7523173</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11060,76 +11060,76 @@
         <v>45259.39583333334</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G118" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K118">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L118">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N118">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O118">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.8</v>
       </c>
-      <c r="V118">
-        <v>2</v>
-      </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11315,7 +11315,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7523173</v>
+        <v>7532811</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11327,76 +11327,76 @@
         <v>45259.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K121">
+        <v>2.05</v>
+      </c>
+      <c r="L121">
+        <v>2.875</v>
+      </c>
+      <c r="M121">
         <v>3.6</v>
       </c>
-      <c r="L121">
-        <v>3</v>
-      </c>
-      <c r="M121">
-        <v>2</v>
-      </c>
       <c r="N121">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O121">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P121">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="Q121">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y121">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11582,7 +11582,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7254169</v>
+        <v>7253963</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11594,76 +11594,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K124">
-        <v>2.9</v>
+        <v>1.571</v>
       </c>
       <c r="L124">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M124">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="N124">
-        <v>3.4</v>
+        <v>1.615</v>
       </c>
       <c r="O124">
         <v>3</v>
       </c>
       <c r="P124">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
+        <v>1.825</v>
+      </c>
+      <c r="S124">
+        <v>1.975</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
         <v>1.95</v>
       </c>
-      <c r="S124">
+      <c r="V124">
         <v>1.85</v>
       </c>
-      <c r="T124">
-        <v>2</v>
-      </c>
-      <c r="U124">
-        <v>1.85</v>
-      </c>
-      <c r="V124">
-        <v>1.95</v>
-      </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11671,7 +11671,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7550645</v>
+        <v>7254169</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11683,76 +11683,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G125" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K125">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="L125">
+        <v>2.8</v>
+      </c>
+      <c r="M125">
+        <v>2.4</v>
+      </c>
+      <c r="N125">
+        <v>3.4</v>
+      </c>
+      <c r="O125">
         <v>3</v>
       </c>
-      <c r="M125">
-        <v>2.9</v>
-      </c>
-      <c r="N125">
-        <v>2.25</v>
-      </c>
-      <c r="O125">
-        <v>3.1</v>
-      </c>
       <c r="P125">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11760,7 +11760,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7253965</v>
+        <v>7253649</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11772,13 +11772,13 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -11787,58 +11787,58 @@
         <v>82</v>
       </c>
       <c r="K126">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M126">
+        <v>3.5</v>
+      </c>
+      <c r="N126">
+        <v>1.85</v>
+      </c>
+      <c r="O126">
+        <v>3</v>
+      </c>
+      <c r="P126">
         <v>4.2</v>
       </c>
-      <c r="N126">
+      <c r="Q126">
+        <v>-0.5</v>
+      </c>
+      <c r="R126">
         <v>1.95</v>
       </c>
-      <c r="O126">
-        <v>3.1</v>
-      </c>
-      <c r="P126">
-        <v>3.6</v>
-      </c>
-      <c r="Q126">
-        <v>-0.25</v>
-      </c>
-      <c r="R126">
-        <v>1.725</v>
-      </c>
       <c r="S126">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W126">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>-1</v>
+      </c>
+      <c r="Z126">
         <v>0.95</v>
       </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>-1</v>
-      </c>
-      <c r="Z126">
-        <v>0.7250000000000001</v>
-      </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11938,7 +11938,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7253963</v>
+        <v>7550645</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11950,76 +11950,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K128">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="L128">
         <v>3</v>
       </c>
       <c r="M128">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="N128">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
+        <v>3.1</v>
+      </c>
+      <c r="P128">
         <v>3</v>
       </c>
-      <c r="P128">
-        <v>5.75</v>
-      </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R128">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T128">
         <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
+        <v>-0.5</v>
+      </c>
+      <c r="AA128">
+        <v>0.4</v>
+      </c>
+      <c r="AB128">
+        <v>-1</v>
+      </c>
+      <c r="AC128">
         <v>0.825</v>
-      </c>
-      <c r="AA128">
-        <v>-1</v>
-      </c>
-      <c r="AB128">
-        <v>0.95</v>
-      </c>
-      <c r="AC128">
-        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12027,7 +12027,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7253649</v>
+        <v>7253965</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -12039,13 +12039,13 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -12054,43 +12054,43 @@
         <v>82</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L129">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N129">
+        <v>1.95</v>
+      </c>
+      <c r="O129">
+        <v>3.1</v>
+      </c>
+      <c r="P129">
+        <v>3.6</v>
+      </c>
+      <c r="Q129">
+        <v>-0.25</v>
+      </c>
+      <c r="R129">
+        <v>1.725</v>
+      </c>
+      <c r="S129">
+        <v>1.975</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
         <v>1.85</v>
       </c>
-      <c r="O129">
-        <v>3</v>
-      </c>
-      <c r="P129">
-        <v>4.2</v>
-      </c>
-      <c r="Q129">
-        <v>-0.5</v>
-      </c>
-      <c r="R129">
-        <v>1.95</v>
-      </c>
-      <c r="S129">
-        <v>1.85</v>
-      </c>
-      <c r="T129">
-        <v>2</v>
-      </c>
-      <c r="U129">
-        <v>1.9</v>
-      </c>
-      <c r="V129">
-        <v>1.9</v>
-      </c>
       <c r="W129">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12099,13 +12099,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
         <v>0.95</v>
-      </c>
-      <c r="AA129">
-        <v>-1</v>
-      </c>
-      <c r="AB129">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12205,7 +12205,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7253688</v>
+        <v>7253650</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12217,76 +12217,76 @@
         <v>45265.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K131">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L131">
         <v>2.875</v>
       </c>
       <c r="M131">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O131">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P131">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S131">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.7250000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12383,7 +12383,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7253650</v>
+        <v>7253688</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12395,76 +12395,76 @@
         <v>45265.39583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K133">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L133">
         <v>2.875</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N133">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O133">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P133">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T133">
         <v>2</v>
       </c>
       <c r="U133">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y133">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>1.025</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12472,7 +12472,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7558451</v>
+        <v>7558905</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12484,55 +12484,55 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>81</v>
       </c>
       <c r="K134">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L134">
+        <v>2.8</v>
+      </c>
+      <c r="M134">
+        <v>2.8</v>
+      </c>
+      <c r="N134">
         <v>2.9</v>
       </c>
-      <c r="M134">
-        <v>3.2</v>
-      </c>
-      <c r="N134">
-        <v>2.05</v>
-      </c>
       <c r="O134">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P134">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
         <v>1.725</v>
       </c>
       <c r="S134">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T134">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12541,19 +12541,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AB134">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12561,7 +12561,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7580438</v>
+        <v>7253652</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12573,76 +12573,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K135">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L135">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M135">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N135">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O135">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P135">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S135">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y135">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB135">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12650,7 +12650,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7253957</v>
+        <v>7253956</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12662,10 +12662,10 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F136" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12677,43 +12677,43 @@
         <v>82</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L136">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N136">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O136">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P136">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W136">
-        <v>1.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12722,13 +12722,13 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12739,7 +12739,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7253956</v>
+        <v>7587389</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12751,73 +12751,73 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K137">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M137">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N137">
+        <v>1.615</v>
+      </c>
+      <c r="O137">
+        <v>3.4</v>
+      </c>
+      <c r="P137">
+        <v>5.25</v>
+      </c>
+      <c r="Q137">
+        <v>-0.75</v>
+      </c>
+      <c r="R137">
         <v>1.85</v>
       </c>
-      <c r="O137">
-        <v>3.2</v>
-      </c>
-      <c r="P137">
-        <v>3.8</v>
-      </c>
-      <c r="Q137">
-        <v>-0.5</v>
-      </c>
-      <c r="R137">
+      <c r="S137">
         <v>1.95</v>
-      </c>
-      <c r="S137">
-        <v>1.85</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
+        <v>-1</v>
+      </c>
+      <c r="AA137">
         <v>0.95</v>
       </c>
-      <c r="AA137">
-        <v>-1</v>
-      </c>
       <c r="AB137">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12828,7 +12828,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7253652</v>
+        <v>7580438</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12840,76 +12840,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K138">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L138">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N138">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P138">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T138">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12917,7 +12917,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7558905</v>
+        <v>7558451</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12929,55 +12929,55 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F139" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G139" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>81</v>
       </c>
       <c r="K139">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L139">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M139">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N139">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O139">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R139">
         <v>1.725</v>
       </c>
       <c r="S139">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12986,19 +12986,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AC139">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13006,7 +13006,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7587389</v>
+        <v>7253957</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -13018,73 +13018,73 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G140" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K140">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L140">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M140">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N140">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P140">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="S140">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="T140">
         <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X140">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13095,7 +13095,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7594612</v>
+        <v>7558471</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13107,76 +13107,76 @@
         <v>45275.39583333334</v>
       </c>
       <c r="F141" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G141" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K141">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="L141">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="M141">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O141">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P141">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>1.8</v>
+      </c>
+      <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
         <v>1.975</v>
       </c>
-      <c r="S141">
+      <c r="V141">
         <v>1.825</v>
       </c>
-      <c r="T141">
-        <v>3</v>
-      </c>
-      <c r="U141">
-        <v>2</v>
-      </c>
-      <c r="V141">
-        <v>1.8</v>
-      </c>
       <c r="W141">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13273,7 +13273,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7558471</v>
+        <v>7594612</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13285,76 +13285,76 @@
         <v>45275.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G143" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="L143">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
+        <v>1.615</v>
+      </c>
+      <c r="N143">
+        <v>4.333</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>1.615</v>
+      </c>
+      <c r="Q143">
+        <v>0.75</v>
+      </c>
+      <c r="R143">
+        <v>1.975</v>
+      </c>
+      <c r="S143">
+        <v>1.825</v>
+      </c>
+      <c r="T143">
         <v>3</v>
       </c>
-      <c r="N143">
-        <v>2.25</v>
-      </c>
-      <c r="O143">
-        <v>2.9</v>
-      </c>
-      <c r="P143">
-        <v>3.1</v>
-      </c>
-      <c r="Q143">
-        <v>-0.25</v>
-      </c>
-      <c r="R143">
-        <v>2</v>
-      </c>
-      <c r="S143">
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
         <v>1.8</v>
       </c>
-      <c r="T143">
-        <v>2</v>
-      </c>
-      <c r="U143">
-        <v>1.975</v>
-      </c>
-      <c r="V143">
-        <v>1.825</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X143">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA143">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13807,7 +13807,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7253654</v>
+        <v>7253952</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13819,76 +13819,76 @@
         <v>45279.39583333334</v>
       </c>
       <c r="F149" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K149">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="L149">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M149">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="N149">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P149">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="Q149">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
+        <v>1.9</v>
+      </c>
+      <c r="S149">
+        <v>1.9</v>
+      </c>
+      <c r="T149">
+        <v>1.75</v>
+      </c>
+      <c r="U149">
         <v>1.825</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>1.975</v>
       </c>
-      <c r="T149">
-        <v>2.25</v>
-      </c>
-      <c r="U149">
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
         <v>1.9</v>
       </c>
-      <c r="V149">
-        <v>1.9</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
-      <c r="X149">
-        <v>-1</v>
-      </c>
       <c r="Y149">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13896,7 +13896,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7253952</v>
+        <v>7253654</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13908,76 +13908,76 @@
         <v>45279.39583333334</v>
       </c>
       <c r="F150" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K150">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="N150">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="O150">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R150">
+        <v>1.825</v>
+      </c>
+      <c r="S150">
+        <v>1.975</v>
+      </c>
+      <c r="T150">
+        <v>2.25</v>
+      </c>
+      <c r="U150">
         <v>1.9</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.9</v>
       </c>
-      <c r="T150">
-        <v>1.75</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA150">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13985,7 +13985,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7253653</v>
+        <v>7608522</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13997,76 +13997,76 @@
         <v>45280.39583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K151">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L151">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="N151">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O151">
         <v>3.25</v>
       </c>
       <c r="P151">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R151">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S151">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U151">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V151">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X151">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA151">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC151">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14074,7 +14074,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7254173</v>
+        <v>7253653</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14086,40 +14086,40 @@
         <v>45280.39583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K152">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L152">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M152">
-        <v>2.15</v>
+        <v>4.1</v>
       </c>
       <c r="N152">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O152">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="P152">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
         <v>2</v>
@@ -14128,22 +14128,22 @@
         <v>1.8</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V152">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y152">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
         <v>-1</v>
@@ -14152,10 +14152,10 @@
         <v>0.8</v>
       </c>
       <c r="AB152">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14163,7 +14163,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7608522</v>
+        <v>7254173</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14175,73 +14175,73 @@
         <v>45280.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G153" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K153">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M153">
-        <v>4.6</v>
+        <v>2.15</v>
       </c>
       <c r="N153">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="O153">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="P153">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q153">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S153">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T153">
         <v>2</v>
       </c>
       <c r="U153">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V153">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W153">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z153">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB153">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14430,7 +14430,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7605133</v>
+        <v>7253656</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14442,73 +14442,73 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G156" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K156">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M156">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="O156">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S156">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T156">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
+        <v>2.025</v>
+      </c>
+      <c r="V156">
         <v>1.775</v>
       </c>
-      <c r="V156">
-        <v>2.025</v>
-      </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X156">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA156">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14519,7 +14519,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7254176</v>
+        <v>7253946</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14531,76 +14531,76 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F157" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K157">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N157">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="O157">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P157">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S157">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB157">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14608,7 +14608,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7253948</v>
+        <v>7253947</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14620,13 +14620,13 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -14644,34 +14644,34 @@
         <v>3.6</v>
       </c>
       <c r="N158">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O158">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P158">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W158">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14680,16 +14680,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.4625</v>
+        <v>0.825</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14697,7 +14697,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7253947</v>
+        <v>7254176</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14709,58 +14709,58 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G159" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
         <v>82</v>
       </c>
       <c r="K159">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L159">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M159">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N159">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O159">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P159">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
+        <v>1.975</v>
+      </c>
+      <c r="S159">
         <v>1.825</v>
       </c>
-      <c r="S159">
-        <v>1.975</v>
-      </c>
       <c r="T159">
         <v>2</v>
       </c>
       <c r="U159">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W159">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14769,13 +14769,13 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14786,7 +14786,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7253946</v>
+        <v>7605133</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14798,10 +14798,10 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G160" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14813,61 +14813,61 @@
         <v>83</v>
       </c>
       <c r="K160">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L160">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M160">
         <v>3.6</v>
       </c>
       <c r="N160">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="O160">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="P160">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S160">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="U160">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V160">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA160">
-        <v>0.8500000000000001</v>
+        <v>0.3625</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC160">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14875,7 +14875,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7253656</v>
+        <v>7253948</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14887,13 +14887,13 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G161" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -14902,43 +14902,43 @@
         <v>82</v>
       </c>
       <c r="K161">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>3.6</v>
+      </c>
+      <c r="N161">
+        <v>1.7</v>
+      </c>
+      <c r="O161">
         <v>3.4</v>
       </c>
-      <c r="M161">
-        <v>5</v>
-      </c>
-      <c r="N161">
-        <v>1.6</v>
-      </c>
-      <c r="O161">
-        <v>3.5</v>
-      </c>
       <c r="P161">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R161">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S161">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T161">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V161">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W161">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14947,16 +14947,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15231,7 +15231,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7253658</v>
+        <v>7253941</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15243,76 +15243,76 @@
         <v>45293.39583333334</v>
       </c>
       <c r="F165" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G165" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K165">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L165">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M165">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N165">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O165">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P165">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q165">
+        <v>-1</v>
+      </c>
+      <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
+        <v>1.8</v>
+      </c>
+      <c r="T165">
+        <v>2.25</v>
+      </c>
+      <c r="U165">
+        <v>1.975</v>
+      </c>
+      <c r="V165">
+        <v>1.825</v>
+      </c>
+      <c r="W165">
+        <v>-1</v>
+      </c>
+      <c r="X165">
+        <v>2.5</v>
+      </c>
+      <c r="Y165">
+        <v>-1</v>
+      </c>
+      <c r="Z165">
+        <v>-1</v>
+      </c>
+      <c r="AA165">
+        <v>0.8</v>
+      </c>
+      <c r="AB165">
         <v>-0.5</v>
       </c>
-      <c r="R165">
-        <v>2.025</v>
-      </c>
-      <c r="S165">
-        <v>1.775</v>
-      </c>
-      <c r="T165">
-        <v>2</v>
-      </c>
-      <c r="U165">
-        <v>2.05</v>
-      </c>
-      <c r="V165">
-        <v>1.75</v>
-      </c>
-      <c r="W165">
-        <v>1</v>
-      </c>
-      <c r="X165">
-        <v>-1</v>
-      </c>
-      <c r="Y165">
-        <v>-1</v>
-      </c>
-      <c r="Z165">
-        <v>1.025</v>
-      </c>
-      <c r="AA165">
-        <v>-1</v>
-      </c>
-      <c r="AB165">
-        <v>1.05</v>
-      </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15320,7 +15320,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7253943</v>
+        <v>7253942</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15332,76 +15332,76 @@
         <v>45293.39583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K166">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="L166">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M166">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O166">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P166">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q166">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S166">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T166">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U166">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V166">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y166">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA166">
-        <v>1.1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB166">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15409,7 +15409,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7253941</v>
+        <v>7253658</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15421,76 +15421,76 @@
         <v>45293.39583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G167" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K167">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L167">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M167">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N167">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P167">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R167">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S167">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T167">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U167">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V167">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W167">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X167">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y167">
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC167">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15498,7 +15498,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7253942</v>
+        <v>7253943</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15510,76 +15510,76 @@
         <v>45293.39583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J168" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K168">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="L168">
+        <v>2.875</v>
+      </c>
+      <c r="M168">
+        <v>2.2</v>
+      </c>
+      <c r="N168">
         <v>3</v>
       </c>
-      <c r="M168">
-        <v>3</v>
-      </c>
-      <c r="N168">
-        <v>2</v>
-      </c>
       <c r="O168">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P168">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T168">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.4875</v>
+        <v>1.1</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC168">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16477,7 +16477,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7253660</v>
+        <v>7254179</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16489,76 +16489,76 @@
         <v>45300.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
         <v>83</v>
       </c>
       <c r="K179">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="L179">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N179">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O179">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P179">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S179">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U179">
+        <v>1.825</v>
+      </c>
+      <c r="V179">
         <v>1.975</v>
       </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
+        <v>0.825</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+      <c r="AC179">
         <v>-0</v>
-      </c>
-      <c r="AB179">
-        <v>-1</v>
-      </c>
-      <c r="AC179">
-        <v>0.825</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16566,7 +16566,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7254179</v>
+        <v>7253937</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16578,40 +16578,40 @@
         <v>45300.39583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G180" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
         <v>83</v>
       </c>
       <c r="K180">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M180">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N180">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="O180">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="P180">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R180">
         <v>1.975</v>
@@ -16623,31 +16623,31 @@
         <v>2</v>
       </c>
       <c r="U180">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V180">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>2.3</v>
+        <v>1.625</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA180">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB180">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC180">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16655,7 +16655,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7253937</v>
+        <v>7253660</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16667,76 +16667,76 @@
         <v>45300.39583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G181" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>83</v>
       </c>
       <c r="K181">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>3.4</v>
+      </c>
+      <c r="N181">
         <v>2.7</v>
       </c>
-      <c r="M181">
-        <v>2.6</v>
-      </c>
-      <c r="N181">
-        <v>3.8</v>
-      </c>
       <c r="O181">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="P181">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R181">
+        <v>2.05</v>
+      </c>
+      <c r="S181">
+        <v>1.75</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
         <v>1.975</v>
       </c>
-      <c r="S181">
+      <c r="V181">
         <v>1.825</v>
       </c>
-      <c r="T181">
-        <v>2</v>
-      </c>
-      <c r="U181">
-        <v>1.85</v>
-      </c>
-      <c r="V181">
-        <v>1.95</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>1.625</v>
+        <v>1.9</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16922,7 +16922,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7253662</v>
+        <v>7698417</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16934,58 +16934,58 @@
         <v>45306.375</v>
       </c>
       <c r="F184" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G184" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>82</v>
       </c>
       <c r="K184">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="L184">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M184">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N184">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O184">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P184">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R184">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S184">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U184">
+        <v>1.95</v>
+      </c>
+      <c r="V184">
         <v>1.85</v>
       </c>
-      <c r="V184">
-        <v>1.95</v>
-      </c>
       <c r="W184">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16994,16 +16994,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC184">
-        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17011,7 +17011,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7698417</v>
+        <v>7253662</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -17023,58 +17023,58 @@
         <v>45306.375</v>
       </c>
       <c r="F185" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>82</v>
       </c>
       <c r="K185">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L185">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M185">
+        <v>2.4</v>
+      </c>
+      <c r="N185">
         <v>2.3</v>
       </c>
-      <c r="N185">
-        <v>2.55</v>
-      </c>
       <c r="O185">
+        <v>3</v>
+      </c>
+      <c r="P185">
         <v>2.875</v>
       </c>
-      <c r="P185">
-        <v>2.7</v>
-      </c>
       <c r="Q185">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S185">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T185">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U185">
+        <v>1.85</v>
+      </c>
+      <c r="V185">
         <v>1.95</v>
       </c>
-      <c r="V185">
-        <v>1.85</v>
-      </c>
       <c r="W185">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -17083,16 +17083,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17189,7 +17189,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7253664</v>
+        <v>7253663</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17201,76 +17201,76 @@
         <v>45306.375</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G187" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H187">
         <v>1</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K187">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M187">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N187">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O187">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P187">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R187">
+        <v>1.975</v>
+      </c>
+      <c r="S187">
+        <v>1.825</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
         <v>1.9</v>
       </c>
-      <c r="S187">
+      <c r="V187">
         <v>1.9</v>
       </c>
-      <c r="T187">
-        <v>2</v>
-      </c>
-      <c r="U187">
-        <v>2.05</v>
-      </c>
-      <c r="V187">
-        <v>1.75</v>
-      </c>
       <c r="W187">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X187">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA187">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17367,7 +17367,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7253663</v>
+        <v>7253936</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17379,61 +17379,61 @@
         <v>45306.375</v>
       </c>
       <c r="F189" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K189">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M189">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="N189">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O189">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P189">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q189">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
+        <v>1.825</v>
+      </c>
+      <c r="S189">
         <v>1.975</v>
       </c>
-      <c r="S189">
-        <v>1.825</v>
-      </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W189">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y189">
         <v>-1</v>
@@ -17442,13 +17442,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17456,7 +17456,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7253936</v>
+        <v>7253664</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17468,76 +17468,76 @@
         <v>45306.375</v>
       </c>
       <c r="F190" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G190" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>83</v>
       </c>
       <c r="K190">
+        <v>2.875</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>2.3</v>
+      </c>
+      <c r="N190">
+        <v>2.55</v>
+      </c>
+      <c r="O190">
+        <v>3.1</v>
+      </c>
+      <c r="P190">
+        <v>2.55</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>1.9</v>
+      </c>
+      <c r="S190">
+        <v>1.9</v>
+      </c>
+      <c r="T190">
+        <v>2</v>
+      </c>
+      <c r="U190">
+        <v>2.05</v>
+      </c>
+      <c r="V190">
+        <v>1.75</v>
+      </c>
+      <c r="W190">
+        <v>-1</v>
+      </c>
+      <c r="X190">
         <v>2.1</v>
       </c>
-      <c r="L190">
-        <v>3.1</v>
-      </c>
-      <c r="M190">
-        <v>3.2</v>
-      </c>
-      <c r="N190">
-        <v>2</v>
-      </c>
-      <c r="O190">
-        <v>3.2</v>
-      </c>
-      <c r="P190">
-        <v>3.4</v>
-      </c>
-      <c r="Q190">
-        <v>-0.25</v>
-      </c>
-      <c r="R190">
-        <v>1.825</v>
-      </c>
-      <c r="S190">
-        <v>1.975</v>
-      </c>
-      <c r="T190">
-        <v>2.25</v>
-      </c>
-      <c r="U190">
-        <v>1.85</v>
-      </c>
-      <c r="V190">
-        <v>1.95</v>
-      </c>
-      <c r="W190">
-        <v>-1</v>
-      </c>
-      <c r="X190">
-        <v>2.2</v>
-      </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA190">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC190">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17812,7 +17812,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7253694</v>
+        <v>7254184</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17824,58 +17824,58 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H194">
         <v>2</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
         <v>82</v>
       </c>
       <c r="K194">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L194">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M194">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N194">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O194">
         <v>3.2</v>
       </c>
       <c r="P194">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q194">
         <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T194">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U194">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V194">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17884,16 +17884,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AC194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17901,7 +17901,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7254183</v>
+        <v>7253931</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17913,76 +17913,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F195" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195">
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K195">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="L195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N195">
-        <v>7</v>
+        <v>1.444</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P195">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="Q195">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
         <v>1.8</v>
       </c>
-      <c r="S195">
-        <v>2</v>
-      </c>
       <c r="T195">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X195">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
+        <v>-0.5</v>
+      </c>
+      <c r="AA195">
+        <v>0.4</v>
+      </c>
+      <c r="AB195">
         <v>0.8</v>
       </c>
-      <c r="AA195">
-        <v>-1</v>
-      </c>
-      <c r="AB195">
-        <v>0</v>
-      </c>
       <c r="AC195">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17990,7 +17990,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7253666</v>
+        <v>7253930</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -18002,76 +18002,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G196" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K196">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="L196">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N196">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="O196">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P196">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="Q196">
+        <v>-1</v>
+      </c>
+      <c r="R196">
+        <v>1.875</v>
+      </c>
+      <c r="S196">
+        <v>1.925</v>
+      </c>
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
+        <v>1.775</v>
+      </c>
+      <c r="V196">
+        <v>2.025</v>
+      </c>
+      <c r="W196">
         <v>0.5</v>
       </c>
-      <c r="R196">
-        <v>1.95</v>
-      </c>
-      <c r="S196">
-        <v>1.75</v>
-      </c>
-      <c r="T196">
-        <v>2</v>
-      </c>
-      <c r="U196">
-        <v>1.95</v>
-      </c>
-      <c r="V196">
-        <v>1.85</v>
-      </c>
-      <c r="W196">
-        <v>-1</v>
-      </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA196">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC196">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18079,7 +18079,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7253667</v>
+        <v>7253929</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18091,76 +18091,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F197" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197">
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K197">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L197">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N197">
+        <v>1.8</v>
+      </c>
+      <c r="O197">
         <v>3.3</v>
       </c>
-      <c r="O197">
-        <v>3</v>
-      </c>
       <c r="P197">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="Q197">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S197">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U197">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X197">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC197">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18168,7 +18168,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7253931</v>
+        <v>7253694</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18180,58 +18180,58 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H198">
         <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
         <v>82</v>
       </c>
       <c r="K198">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M198">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N198">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O198">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P198">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q198">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U198">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W198">
-        <v>0.444</v>
+        <v>1</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18240,16 +18240,16 @@
         <v>-1</v>
       </c>
       <c r="Z198">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA198">
+        <v>-1</v>
+      </c>
+      <c r="AB198">
+        <v>0.3875</v>
+      </c>
+      <c r="AC198">
         <v>-0.5</v>
-      </c>
-      <c r="AA198">
-        <v>0.4</v>
-      </c>
-      <c r="AB198">
-        <v>0.8</v>
-      </c>
-      <c r="AC198">
-        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18257,7 +18257,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7253930</v>
+        <v>7253667</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18269,76 +18269,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F199" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G199" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H199">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K199">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="L199">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M199">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N199">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O199">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P199">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q199">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U199">
+        <v>2.025</v>
+      </c>
+      <c r="V199">
         <v>1.775</v>
       </c>
-      <c r="V199">
-        <v>2.025</v>
-      </c>
       <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
+        <v>2</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
         <v>0.5</v>
       </c>
-      <c r="X199">
-        <v>-1</v>
-      </c>
-      <c r="Y199">
-        <v>-1</v>
-      </c>
-      <c r="Z199">
-        <v>0.875</v>
-      </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB199">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18346,7 +18346,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7254184</v>
+        <v>7253666</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18358,46 +18358,46 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G200" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K200">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L200">
+        <v>2.9</v>
+      </c>
+      <c r="M200">
+        <v>2.1</v>
+      </c>
+      <c r="N200">
+        <v>4.75</v>
+      </c>
+      <c r="O200">
         <v>3.1</v>
       </c>
-      <c r="M200">
-        <v>4</v>
-      </c>
-      <c r="N200">
-        <v>1.8</v>
-      </c>
-      <c r="O200">
-        <v>3.2</v>
-      </c>
       <c r="P200">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S200">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T200">
         <v>2</v>
@@ -18409,25 +18409,25 @@
         <v>1.85</v>
       </c>
       <c r="W200">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB200">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18435,7 +18435,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7253929</v>
+        <v>7254183</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18447,76 +18447,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F201" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K201">
+        <v>3.6</v>
+      </c>
+      <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201">
+        <v>7</v>
+      </c>
+      <c r="O201">
+        <v>3.4</v>
+      </c>
+      <c r="P201">
+        <v>1.5</v>
+      </c>
+      <c r="Q201">
+        <v>1</v>
+      </c>
+      <c r="R201">
         <v>1.8</v>
       </c>
-      <c r="L201">
-        <v>3.25</v>
-      </c>
-      <c r="M201">
-        <v>4</v>
-      </c>
-      <c r="N201">
-        <v>1.8</v>
-      </c>
-      <c r="O201">
-        <v>3.3</v>
-      </c>
-      <c r="P201">
-        <v>4</v>
-      </c>
-      <c r="Q201">
-        <v>-0.5</v>
-      </c>
-      <c r="R201">
-        <v>1.825</v>
-      </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T201">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U201">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>2.4</v>
+      </c>
+      <c r="Y201">
+        <v>-1</v>
+      </c>
+      <c r="Z201">
         <v>0.8</v>
       </c>
-      <c r="X201">
-        <v>-1</v>
-      </c>
-      <c r="Y201">
-        <v>-1</v>
-      </c>
-      <c r="Z201">
-        <v>0.825</v>
-      </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18524,7 +18524,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7253926</v>
+        <v>7253925</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18536,37 +18536,37 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J202" t="s">
         <v>81</v>
       </c>
       <c r="K202">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="L202">
         <v>2.7</v>
       </c>
       <c r="M202">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N202">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O202">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="P202">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q202">
         <v>-0.25</v>
@@ -18578,13 +18578,13 @@
         <v>1.725</v>
       </c>
       <c r="T202">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="U202">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -18593,7 +18593,7 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Z202">
         <v>-1</v>
@@ -18602,10 +18602,10 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC202">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18613,7 +18613,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7253927</v>
+        <v>7757379</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18625,76 +18625,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F203" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G203" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K203">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L203">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M203">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N203">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="O203">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P203">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q203">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S203">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T203">
         <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W203">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>0.375</v>
+        <v>1.05</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18702,7 +18702,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7253928</v>
+        <v>7253668</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18714,10 +18714,10 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G204" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18729,43 +18729,43 @@
         <v>82</v>
       </c>
       <c r="K204">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L204">
         <v>3.2</v>
       </c>
       <c r="M204">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N204">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O204">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P204">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="Q204">
         <v>-0.75</v>
       </c>
       <c r="R204">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S204">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W204">
-        <v>0.7</v>
+        <v>0.571</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18774,7 +18774,7 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.4875</v>
+        <v>0.4</v>
       </c>
       <c r="AA204">
         <v>-0.5</v>
@@ -18783,7 +18783,7 @@
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18791,7 +18791,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7253924</v>
+        <v>7253928</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18803,76 +18803,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K205">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M205">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="N205">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="O205">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="Q205">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S205">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA205">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB205">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18880,7 +18880,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7253669</v>
+        <v>7253926</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18892,76 +18892,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G206" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K206">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L206">
+        <v>2.7</v>
+      </c>
+      <c r="M206">
+        <v>2.9</v>
+      </c>
+      <c r="N206">
+        <v>2.375</v>
+      </c>
+      <c r="O206">
         <v>3</v>
       </c>
-      <c r="M206">
-        <v>5</v>
-      </c>
-      <c r="N206">
-        <v>1.533</v>
-      </c>
-      <c r="O206">
-        <v>3.3</v>
-      </c>
       <c r="P206">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S206">
+        <v>1.725</v>
+      </c>
+      <c r="T206">
+        <v>1.5</v>
+      </c>
+      <c r="U206">
+        <v>1.7</v>
+      </c>
+      <c r="V206">
+        <v>2.1</v>
+      </c>
+      <c r="W206">
+        <v>-1</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
         <v>1.8</v>
       </c>
-      <c r="T206">
-        <v>2</v>
-      </c>
-      <c r="U206">
-        <v>1.925</v>
-      </c>
-      <c r="V206">
-        <v>1.875</v>
-      </c>
-      <c r="W206">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X206">
-        <v>-1</v>
-      </c>
-      <c r="Y206">
-        <v>-1</v>
-      </c>
       <c r="Z206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18969,7 +18969,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7253668</v>
+        <v>7253927</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18981,10 +18981,10 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18996,43 +18996,43 @@
         <v>82</v>
       </c>
       <c r="K207">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="L207">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M207">
+        <v>7</v>
+      </c>
+      <c r="N207">
+        <v>1.444</v>
+      </c>
+      <c r="O207">
+        <v>3.75</v>
+      </c>
+      <c r="P207">
         <v>6.5</v>
       </c>
-      <c r="N207">
-        <v>1.571</v>
-      </c>
-      <c r="O207">
-        <v>3.3</v>
-      </c>
-      <c r="P207">
-        <v>5.25</v>
-      </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T207">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V207">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W207">
-        <v>0.571</v>
+        <v>0.444</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -19041,16 +19041,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19058,7 +19058,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7253923</v>
+        <v>7253669</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -19070,76 +19070,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G208" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K208">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L208">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N208">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O208">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P208">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R208">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S208">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T208">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X208">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA208">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC208">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19147,7 +19147,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7757379</v>
+        <v>7253923</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19159,76 +19159,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K209">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="L209">
+        <v>2.7</v>
+      </c>
+      <c r="M209">
         <v>3</v>
       </c>
-      <c r="M209">
+      <c r="N209">
+        <v>2.375</v>
+      </c>
+      <c r="O209">
+        <v>2.75</v>
+      </c>
+      <c r="P209">
         <v>3.1</v>
       </c>
-      <c r="N209">
-        <v>2.45</v>
-      </c>
-      <c r="O209">
-        <v>3</v>
-      </c>
-      <c r="P209">
-        <v>2.75</v>
-      </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
+        <v>2.05</v>
+      </c>
+      <c r="S209">
         <v>1.75</v>
       </c>
-      <c r="S209">
-        <v>2.05</v>
-      </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U209">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V209">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y209">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA209">
-        <v>1.05</v>
+        <v>0.375</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19236,7 +19236,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7253925</v>
+        <v>7253924</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19248,55 +19248,55 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
         <v>3</v>
-      </c>
-      <c r="I210">
-        <v>4</v>
       </c>
       <c r="J210" t="s">
         <v>81</v>
       </c>
       <c r="K210">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="L210">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M210">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="N210">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="O210">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="P210">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R210">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T210">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W210">
         <v>-1</v>
@@ -19305,16 +19305,16 @@
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>2.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z210">
         <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB210">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19325,7 +19325,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7777453</v>
+        <v>7777455</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19337,76 +19337,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K211">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M211">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N211">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O211">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P211">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q211">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R211">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S211">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T211">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V211">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W211">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA211">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB211">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC211">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19414,7 +19414,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7777454</v>
+        <v>7777452</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19426,76 +19426,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
         <v>81</v>
       </c>
       <c r="K212">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L212">
+        <v>2.5</v>
+      </c>
+      <c r="M212">
         <v>2.75</v>
       </c>
-      <c r="M212">
+      <c r="N212">
+        <v>2.75</v>
+      </c>
+      <c r="O212">
         <v>2.5</v>
       </c>
-      <c r="N212">
-        <v>3.3</v>
-      </c>
-      <c r="O212">
-        <v>2.75</v>
-      </c>
       <c r="P212">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q212">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S212">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T212">
         <v>1.75</v>
       </c>
       <c r="U212">
+        <v>2</v>
+      </c>
+      <c r="V212">
+        <v>1.8</v>
+      </c>
+      <c r="W212">
+        <v>-1</v>
+      </c>
+      <c r="X212">
+        <v>-1</v>
+      </c>
+      <c r="Y212">
         <v>1.875</v>
       </c>
-      <c r="V212">
-        <v>1.925</v>
-      </c>
-      <c r="W212">
-        <v>-1</v>
-      </c>
-      <c r="X212">
-        <v>-1</v>
-      </c>
-      <c r="Y212">
-        <v>1.3</v>
-      </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC212">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19503,7 +19503,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7777452</v>
+        <v>7777454</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19515,55 +19515,55 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G213" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H213">
         <v>0</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>81</v>
       </c>
       <c r="K213">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L213">
+        <v>2.75</v>
+      </c>
+      <c r="M213">
         <v>2.5</v>
       </c>
-      <c r="M213">
+      <c r="N213">
+        <v>3.3</v>
+      </c>
+      <c r="O213">
         <v>2.75</v>
       </c>
-      <c r="N213">
-        <v>2.75</v>
-      </c>
-      <c r="O213">
-        <v>2.5</v>
-      </c>
       <c r="P213">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T213">
         <v>1.75</v>
       </c>
       <c r="U213">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W213">
         <v>-1</v>
@@ -19572,19 +19572,19 @@
         <v>-1</v>
       </c>
       <c r="Y213">
-        <v>1.875</v>
+        <v>1.3</v>
       </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB213">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19592,7 +19592,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7777455</v>
+        <v>7777453</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19604,76 +19604,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K214">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L214">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M214">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N214">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O214">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P214">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q214">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S214">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V214">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W214">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X214">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA214">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20838,7 +20838,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7777505</v>
+        <v>7777501</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20850,10 +20850,10 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20865,61 +20865,61 @@
         <v>83</v>
       </c>
       <c r="K228">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L228">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M228">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="N228">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O228">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P228">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q228">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S228">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T228">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U228">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA228">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20927,7 +20927,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7777501</v>
+        <v>7777505</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20939,10 +20939,10 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G229" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20954,61 +20954,61 @@
         <v>83</v>
       </c>
       <c r="K229">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L229">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M229">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N229">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O229">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P229">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S229">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T229">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U229">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21016,7 +21016,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7777465</v>
+        <v>7777462</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -21028,76 +21028,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G230" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K230">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L230">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M230">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="N230">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O230">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P230">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="Q230">
         <v>0.25</v>
       </c>
       <c r="R230">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S230">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
         <v>2</v>
       </c>
       <c r="U230">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V230">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA230">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC230">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21105,7 +21105,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7777462</v>
+        <v>7777463</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21117,10 +21117,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21132,43 +21132,43 @@
         <v>82</v>
       </c>
       <c r="K231">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L231">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M231">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N231">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="O231">
         <v>2.9</v>
       </c>
       <c r="P231">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q231">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
         <v>2</v>
       </c>
       <c r="U231">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V231">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W231">
-        <v>2.2</v>
+        <v>0.95</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21177,13 +21177,13 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21194,7 +21194,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7777463</v>
+        <v>7777464</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21206,13 +21206,13 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G232" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -21221,58 +21221,58 @@
         <v>82</v>
       </c>
       <c r="K232">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L232">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="M232">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N232">
+        <v>2.25</v>
+      </c>
+      <c r="O232">
+        <v>2.7</v>
+      </c>
+      <c r="P232">
+        <v>3.4</v>
+      </c>
+      <c r="Q232">
+        <v>-0.25</v>
+      </c>
+      <c r="R232">
         <v>1.95</v>
       </c>
-      <c r="O232">
-        <v>2.9</v>
-      </c>
-      <c r="P232">
-        <v>3.8</v>
-      </c>
-      <c r="Q232">
-        <v>-0.5</v>
-      </c>
-      <c r="R232">
-        <v>2</v>
-      </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T232">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
+        <v>1.25</v>
+      </c>
+      <c r="X232">
+        <v>-1</v>
+      </c>
+      <c r="Y232">
+        <v>-1</v>
+      </c>
+      <c r="Z232">
         <v>0.95</v>
       </c>
-      <c r="X232">
-        <v>-1</v>
-      </c>
-      <c r="Y232">
-        <v>-1</v>
-      </c>
-      <c r="Z232">
-        <v>1</v>
-      </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC232">
         <v>-1</v>
@@ -21283,7 +21283,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7777464</v>
+        <v>7777465</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21295,76 +21295,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233">
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K233">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L233">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M233">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="N233">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="O233">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P233">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R233">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T233">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U233">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W233">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z233">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB233">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC233">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21817,7 +21817,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7777468</v>
+        <v>7777469</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21829,76 +21829,76 @@
         <v>45352.4375</v>
       </c>
       <c r="F239" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K239">
+        <v>2.1</v>
+      </c>
+      <c r="L239">
+        <v>2.8</v>
+      </c>
+      <c r="M239">
+        <v>3.5</v>
+      </c>
+      <c r="N239">
+        <v>1.833</v>
+      </c>
+      <c r="O239">
         <v>3.1</v>
       </c>
-      <c r="L239">
-        <v>2.9</v>
-      </c>
-      <c r="M239">
-        <v>2.25</v>
-      </c>
-      <c r="N239">
-        <v>3.2</v>
-      </c>
-      <c r="O239">
-        <v>3</v>
-      </c>
       <c r="P239">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q239">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T239">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V239">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X239">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21906,7 +21906,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7777469</v>
+        <v>7777468</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21918,76 +21918,76 @@
         <v>45352.4375</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G240" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240" t="s">
+        <v>83</v>
+      </c>
+      <c r="K240">
+        <v>3.1</v>
+      </c>
+      <c r="L240">
+        <v>2.9</v>
+      </c>
+      <c r="M240">
+        <v>2.25</v>
+      </c>
+      <c r="N240">
+        <v>3.2</v>
+      </c>
+      <c r="O240">
         <v>3</v>
       </c>
-      <c r="I240">
-        <v>0</v>
-      </c>
-      <c r="J240" t="s">
-        <v>82</v>
-      </c>
-      <c r="K240">
-        <v>2.1</v>
-      </c>
-      <c r="L240">
-        <v>2.8</v>
-      </c>
-      <c r="M240">
-        <v>3.5</v>
-      </c>
-      <c r="N240">
-        <v>1.833</v>
-      </c>
-      <c r="O240">
-        <v>3.1</v>
-      </c>
       <c r="P240">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q240">
+        <v>0.25</v>
+      </c>
+      <c r="R240">
+        <v>1.9</v>
+      </c>
+      <c r="S240">
+        <v>1.9</v>
+      </c>
+      <c r="T240">
+        <v>1.75</v>
+      </c>
+      <c r="U240">
+        <v>1.925</v>
+      </c>
+      <c r="V240">
+        <v>1.875</v>
+      </c>
+      <c r="W240">
+        <v>-1</v>
+      </c>
+      <c r="X240">
+        <v>2</v>
+      </c>
+      <c r="Y240">
+        <v>-1</v>
+      </c>
+      <c r="Z240">
+        <v>0.45</v>
+      </c>
+      <c r="AA240">
         <v>-0.5</v>
       </c>
-      <c r="R240">
-        <v>1.85</v>
-      </c>
-      <c r="S240">
-        <v>1.95</v>
-      </c>
-      <c r="T240">
-        <v>2</v>
-      </c>
-      <c r="U240">
-        <v>1.95</v>
-      </c>
-      <c r="V240">
-        <v>1.85</v>
-      </c>
-      <c r="W240">
-        <v>0.833</v>
-      </c>
-      <c r="X240">
-        <v>-1</v>
-      </c>
-      <c r="Y240">
-        <v>-1</v>
-      </c>
-      <c r="Z240">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA240">
-        <v>-1</v>
-      </c>
       <c r="AB240">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22173,7 +22173,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7915120</v>
+        <v>7777511</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22185,76 +22185,76 @@
         <v>45356.4375</v>
       </c>
       <c r="F243" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G243" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K243">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="L243">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M243">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="N243">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="O243">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P243">
-        <v>3</v>
+        <v>1.571</v>
       </c>
       <c r="Q243">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R243">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S243">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="T243">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U243">
         <v>1.975</v>
       </c>
       <c r="V243">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="W243">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC243">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22262,7 +22262,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7777511</v>
+        <v>7777513</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22274,64 +22274,64 @@
         <v>45356.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G244" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J244" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K244">
-        <v>4.5</v>
+        <v>1.55</v>
       </c>
       <c r="L244">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>1.75</v>
+        <v>5.75</v>
       </c>
       <c r="N244">
-        <v>5.5</v>
+        <v>1.533</v>
       </c>
       <c r="O244">
         <v>3.5</v>
       </c>
       <c r="P244">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="Q244">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R244">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S244">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T244">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U244">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V244">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z244">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>-0</v>
       </c>
       <c r="AB244">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22351,7 +22351,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7777513</v>
+        <v>7915120</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22363,58 +22363,58 @@
         <v>45356.4375</v>
       </c>
       <c r="F245" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G245" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J245" t="s">
         <v>82</v>
       </c>
       <c r="K245">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="L245">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M245">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="N245">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="O245">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P245">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Q245">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
+        <v>2</v>
+      </c>
+      <c r="S245">
+        <v>1.7</v>
+      </c>
+      <c r="T245">
+        <v>2</v>
+      </c>
+      <c r="U245">
         <v>1.975</v>
       </c>
-      <c r="S245">
-        <v>1.825</v>
-      </c>
-      <c r="T245">
-        <v>2</v>
-      </c>
-      <c r="U245">
-        <v>1.875</v>
-      </c>
       <c r="V245">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="W245">
-        <v>0.5329999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22423,16 +22423,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA245">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22440,7 +22440,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7777512</v>
+        <v>7777514</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22452,58 +22452,58 @@
         <v>45356.4375</v>
       </c>
       <c r="F246" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G246" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246" t="s">
         <v>82</v>
       </c>
       <c r="K246">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L246">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M246">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N246">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O246">
         <v>3</v>
       </c>
       <c r="P246">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q246">
         <v>-0.5</v>
       </c>
       <c r="R246">
+        <v>1.75</v>
+      </c>
+      <c r="S246">
         <v>1.95</v>
       </c>
-      <c r="S246">
-        <v>1.85</v>
-      </c>
       <c r="T246">
         <v>2</v>
       </c>
       <c r="U246">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V246">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W246">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22512,13 +22512,13 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC246">
         <v>-1</v>
@@ -22529,7 +22529,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7777514</v>
+        <v>7777512</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22541,58 +22541,58 @@
         <v>45356.4375</v>
       </c>
       <c r="F247" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
         <v>82</v>
       </c>
       <c r="K247">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L247">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M247">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N247">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O247">
         <v>3</v>
       </c>
       <c r="P247">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q247">
         <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T247">
         <v>2</v>
       </c>
       <c r="U247">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V247">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22601,13 +22601,13 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC247">
         <v>-1</v>

--- a/Egypt Division 2/Egypt Division 2.xlsx
+++ b/Egypt Division 2/Egypt Division 2.xlsx
@@ -10336,7 +10336,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7253973</v>
+        <v>7500851</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10348,10 +10348,10 @@
         <v>45251.39583333334</v>
       </c>
       <c r="F110" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10372,22 +10372,22 @@
         <v>2.4</v>
       </c>
       <c r="N110">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O110">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P110">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T110">
         <v>2</v>
@@ -10405,13 +10405,13 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB110">
         <v>1</v>
@@ -10425,7 +10425,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7500851</v>
+        <v>7253973</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10437,10 +10437,10 @@
         <v>45251.39583333334</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G111" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10461,22 +10461,22 @@
         <v>2.4</v>
       </c>
       <c r="N111">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O111">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
         <v>2</v>
@@ -10494,13 +10494,13 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB111">
         <v>1</v>
@@ -10781,7 +10781,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7253967</v>
+        <v>7253966</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10793,76 +10793,76 @@
         <v>45258.39583333334</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>1</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K115">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O115">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q115">
+        <v>-0.75</v>
+      </c>
+      <c r="R115">
+        <v>1.875</v>
+      </c>
+      <c r="S115">
+        <v>1.925</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.775</v>
+      </c>
+      <c r="V115">
+        <v>2.025</v>
+      </c>
+      <c r="W115">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>0.4375</v>
+      </c>
+      <c r="AA115">
         <v>-0.5</v>
       </c>
-      <c r="R115">
-        <v>2.05</v>
-      </c>
-      <c r="S115">
-        <v>1.75</v>
-      </c>
-      <c r="T115">
-        <v>2.25</v>
-      </c>
-      <c r="U115">
-        <v>2.025</v>
-      </c>
-      <c r="V115">
-        <v>1.775</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
-      <c r="X115">
-        <v>2.2</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>-1</v>
-      </c>
-      <c r="AA115">
-        <v>0.75</v>
-      </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10870,7 +10870,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7253966</v>
+        <v>7253967</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10882,76 +10882,76 @@
         <v>45258.39583333334</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H116">
         <v>1</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K116">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>3.1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116">
+        <v>3.2</v>
+      </c>
+      <c r="P116">
         <v>3.4</v>
       </c>
-      <c r="M116">
-        <v>4.5</v>
-      </c>
-      <c r="N116">
-        <v>1.65</v>
-      </c>
-      <c r="O116">
-        <v>3.3</v>
-      </c>
-      <c r="P116">
-        <v>5</v>
-      </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
+        <v>2.025</v>
+      </c>
+      <c r="V116">
         <v>1.775</v>
       </c>
-      <c r="V116">
-        <v>2.025</v>
-      </c>
       <c r="W116">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
+        <v>0.75</v>
+      </c>
+      <c r="AB116">
         <v>-0.5</v>
       </c>
-      <c r="AB116">
-        <v>-1</v>
-      </c>
       <c r="AC116">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11048,7 +11048,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7523173</v>
+        <v>7532811</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -11060,76 +11060,76 @@
         <v>45259.39583333334</v>
       </c>
       <c r="F118" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H118">
         <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K118">
+        <v>2.05</v>
+      </c>
+      <c r="L118">
+        <v>2.875</v>
+      </c>
+      <c r="M118">
         <v>3.6</v>
       </c>
-      <c r="L118">
-        <v>3</v>
-      </c>
-      <c r="M118">
-        <v>2</v>
-      </c>
       <c r="N118">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P118">
-        <v>1.666</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y118">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>0.7749999999999999</v>
+        <v>0.4875</v>
       </c>
       <c r="AB118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11315,7 +11315,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7532811</v>
+        <v>7523173</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11327,76 +11327,76 @@
         <v>45259.39583333334</v>
       </c>
       <c r="F121" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G121" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K121">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="L121">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M121">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N121">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O121">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>3.6</v>
+        <v>1.666</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
+        <v>2</v>
+      </c>
+      <c r="V121">
         <v>1.8</v>
       </c>
-      <c r="V121">
-        <v>2</v>
-      </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.4875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11582,7 +11582,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7253963</v>
+        <v>7254169</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11594,76 +11594,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K124">
-        <v>1.571</v>
+        <v>2.9</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M124">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="N124">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="O124">
         <v>3</v>
       </c>
       <c r="P124">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
+        <v>1.85</v>
+      </c>
+      <c r="V124">
         <v>1.95</v>
       </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
       <c r="W124">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>0.95</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11671,7 +11671,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7254169</v>
+        <v>7550645</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11683,76 +11683,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F125" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K125">
+        <v>2.3</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
         <v>2.9</v>
       </c>
-      <c r="L125">
-        <v>2.8</v>
-      </c>
-      <c r="M125">
-        <v>2.4</v>
-      </c>
       <c r="N125">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
         <v>3</v>
       </c>
-      <c r="P125">
-        <v>2.15</v>
-      </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y125">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="AB125">
         <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11760,7 +11760,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7253649</v>
+        <v>7253965</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11772,13 +11772,13 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -11787,43 +11787,43 @@
         <v>82</v>
       </c>
       <c r="K126">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="L126">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N126">
+        <v>1.95</v>
+      </c>
+      <c r="O126">
+        <v>3.1</v>
+      </c>
+      <c r="P126">
+        <v>3.6</v>
+      </c>
+      <c r="Q126">
+        <v>-0.25</v>
+      </c>
+      <c r="R126">
+        <v>1.725</v>
+      </c>
+      <c r="S126">
+        <v>1.975</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
         <v>1.85</v>
       </c>
-      <c r="O126">
-        <v>3</v>
-      </c>
-      <c r="P126">
-        <v>4.2</v>
-      </c>
-      <c r="Q126">
-        <v>-0.5</v>
-      </c>
-      <c r="R126">
-        <v>1.95</v>
-      </c>
-      <c r="S126">
-        <v>1.85</v>
-      </c>
-      <c r="T126">
-        <v>2</v>
-      </c>
-      <c r="U126">
-        <v>1.9</v>
-      </c>
-      <c r="V126">
-        <v>1.9</v>
-      </c>
       <c r="W126">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11832,13 +11832,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
         <v>0.95</v>
-      </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
-      <c r="AB126">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11938,7 +11938,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7550645</v>
+        <v>7253963</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11950,76 +11950,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F128" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K128">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="L128">
         <v>3</v>
       </c>
       <c r="M128">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="N128">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="O128">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P128">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="Q128">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S128">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T128">
         <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X128">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC128">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12027,7 +12027,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7253965</v>
+        <v>7253649</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -12039,13 +12039,13 @@
         <v>45264.39583333334</v>
       </c>
       <c r="F129" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -12054,58 +12054,58 @@
         <v>82</v>
       </c>
       <c r="K129">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M129">
+        <v>3.5</v>
+      </c>
+      <c r="N129">
+        <v>1.85</v>
+      </c>
+      <c r="O129">
+        <v>3</v>
+      </c>
+      <c r="P129">
         <v>4.2</v>
       </c>
-      <c r="N129">
+      <c r="Q129">
+        <v>-0.5</v>
+      </c>
+      <c r="R129">
         <v>1.95</v>
       </c>
-      <c r="O129">
-        <v>3.1</v>
-      </c>
-      <c r="P129">
-        <v>3.6</v>
-      </c>
-      <c r="Q129">
-        <v>-0.25</v>
-      </c>
-      <c r="R129">
-        <v>1.725</v>
-      </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
         <v>0.95</v>
       </c>
-      <c r="X129">
-        <v>-1</v>
-      </c>
-      <c r="Y129">
-        <v>-1</v>
-      </c>
-      <c r="Z129">
-        <v>0.7250000000000001</v>
-      </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12205,7 +12205,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7253650</v>
+        <v>7253688</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12217,76 +12217,76 @@
         <v>45265.39583333334</v>
       </c>
       <c r="F131" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K131">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L131">
         <v>2.875</v>
       </c>
       <c r="M131">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N131">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="O131">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P131">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y131">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12383,7 +12383,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7253688</v>
+        <v>7253650</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12395,76 +12395,76 @@
         <v>45265.39583333334</v>
       </c>
       <c r="F133" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K133">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L133">
         <v>2.875</v>
       </c>
       <c r="M133">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P133">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
         <v>2</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.7250000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12472,7 +12472,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7558905</v>
+        <v>7558451</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12484,55 +12484,55 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F134" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G134" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>81</v>
       </c>
       <c r="K134">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L134">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M134">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N134">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O134">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P134">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
         <v>1.725</v>
       </c>
       <c r="S134">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U134">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12541,19 +12541,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AC134">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12561,7 +12561,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7253652</v>
+        <v>7580438</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12573,76 +12573,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K135">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="L135">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="N135">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O135">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P135">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC135">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12650,7 +12650,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7253956</v>
+        <v>7253957</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12662,10 +12662,10 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F136" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G136" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12677,43 +12677,43 @@
         <v>82</v>
       </c>
       <c r="K136">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M136">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P136">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S136">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W136">
-        <v>0.8500000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12722,13 +12722,13 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12739,7 +12739,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7587389</v>
+        <v>7253956</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12751,73 +12751,73 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H137">
         <v>2</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K137">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L137">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M137">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N137">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P137">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
+        <v>1.95</v>
+      </c>
+      <c r="S137">
         <v>1.85</v>
-      </c>
-      <c r="S137">
-        <v>1.95</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X137">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA137">
+        <v>-1</v>
+      </c>
+      <c r="AB137">
         <v>0.95</v>
-      </c>
-      <c r="AB137">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12828,7 +12828,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7580438</v>
+        <v>7253652</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12840,76 +12840,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K138">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M138">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N138">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O138">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S138">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y138">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB138">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12917,7 +12917,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7558451</v>
+        <v>7558905</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12929,55 +12929,55 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F139" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G139" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>81</v>
       </c>
       <c r="K139">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L139">
+        <v>2.8</v>
+      </c>
+      <c r="M139">
+        <v>2.8</v>
+      </c>
+      <c r="N139">
         <v>2.9</v>
       </c>
-      <c r="M139">
-        <v>3.2</v>
-      </c>
-      <c r="N139">
-        <v>2.05</v>
-      </c>
       <c r="O139">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P139">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
         <v>1.725</v>
       </c>
       <c r="S139">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T139">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U139">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
         <v>-1</v>
@@ -12986,19 +12986,19 @@
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z139">
         <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.9750000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AB139">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13006,7 +13006,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7253957</v>
+        <v>7587389</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -13018,73 +13018,73 @@
         <v>45274.39583333334</v>
       </c>
       <c r="F140" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H140">
         <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M140">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N140">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T140">
         <v>2.25</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13095,7 +13095,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7558471</v>
+        <v>7594612</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13107,76 +13107,76 @@
         <v>45275.39583333334</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K141">
-        <v>2.375</v>
+        <v>4.333</v>
       </c>
       <c r="L141">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M141">
+        <v>1.615</v>
+      </c>
+      <c r="N141">
+        <v>4.333</v>
+      </c>
+      <c r="O141">
+        <v>3.75</v>
+      </c>
+      <c r="P141">
+        <v>1.615</v>
+      </c>
+      <c r="Q141">
+        <v>0.75</v>
+      </c>
+      <c r="R141">
+        <v>1.975</v>
+      </c>
+      <c r="S141">
+        <v>1.825</v>
+      </c>
+      <c r="T141">
         <v>3</v>
       </c>
-      <c r="N141">
-        <v>2.25</v>
-      </c>
-      <c r="O141">
-        <v>2.9</v>
-      </c>
-      <c r="P141">
-        <v>3.1</v>
-      </c>
-      <c r="Q141">
-        <v>-0.25</v>
-      </c>
-      <c r="R141">
-        <v>2</v>
-      </c>
-      <c r="S141">
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
         <v>1.8</v>
       </c>
-      <c r="T141">
-        <v>2</v>
-      </c>
-      <c r="U141">
-        <v>1.975</v>
-      </c>
-      <c r="V141">
-        <v>1.825</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X141">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA141">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13273,7 +13273,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7594612</v>
+        <v>7558471</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13285,76 +13285,76 @@
         <v>45275.39583333334</v>
       </c>
       <c r="F143" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G143" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K143">
-        <v>4.333</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="M143">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P143">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1.8</v>
+      </c>
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
         <v>1.975</v>
       </c>
-      <c r="S143">
+      <c r="V143">
         <v>1.825</v>
       </c>
-      <c r="T143">
-        <v>3</v>
-      </c>
-      <c r="U143">
-        <v>2</v>
-      </c>
-      <c r="V143">
-        <v>1.8</v>
-      </c>
       <c r="W143">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB143">
         <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13807,7 +13807,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7253952</v>
+        <v>7253654</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13819,76 +13819,76 @@
         <v>45279.39583333334</v>
       </c>
       <c r="F149" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G149" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K149">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="L149">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M149">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="N149">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="O149">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P149">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R149">
+        <v>1.825</v>
+      </c>
+      <c r="S149">
+        <v>1.975</v>
+      </c>
+      <c r="T149">
+        <v>2.25</v>
+      </c>
+      <c r="U149">
         <v>1.9</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>1.9</v>
       </c>
-      <c r="T149">
-        <v>1.75</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Z149">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13896,7 +13896,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7253654</v>
+        <v>7253952</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13908,76 +13908,76 @@
         <v>45279.39583333334</v>
       </c>
       <c r="F150" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K150">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="L150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M150">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="N150">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P150">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="Q150">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>1.9</v>
+      </c>
+      <c r="T150">
+        <v>1.75</v>
+      </c>
+      <c r="U150">
         <v>1.825</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.975</v>
       </c>
-      <c r="T150">
-        <v>2.25</v>
-      </c>
-      <c r="U150">
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
         <v>1.9</v>
       </c>
-      <c r="V150">
-        <v>1.9</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
-      <c r="X150">
-        <v>-1</v>
-      </c>
       <c r="Y150">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13985,7 +13985,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7608522</v>
+        <v>7253653</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13997,76 +13997,76 @@
         <v>45280.39583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H151">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K151">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M151">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="N151">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O151">
         <v>3.25</v>
       </c>
       <c r="P151">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S151">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W151">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y151">
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB151">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14074,7 +14074,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7253653</v>
+        <v>7254173</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14086,40 +14086,40 @@
         <v>45280.39583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K152">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="L152">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M152">
-        <v>4.1</v>
+        <v>2.15</v>
       </c>
       <c r="N152">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="O152">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="P152">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q152">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
         <v>2</v>
@@ -14128,22 +14128,22 @@
         <v>1.8</v>
       </c>
       <c r="T152">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U152">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z152">
         <v>-1</v>
@@ -14152,10 +14152,10 @@
         <v>0.8</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14163,7 +14163,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7254173</v>
+        <v>7608522</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14175,73 +14175,73 @@
         <v>45280.39583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G153" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K153">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L153">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M153">
-        <v>2.15</v>
+        <v>4.6</v>
       </c>
       <c r="N153">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="O153">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="P153">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S153">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T153">
         <v>2</v>
       </c>
       <c r="U153">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V153">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA153">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14430,7 +14430,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7253656</v>
+        <v>7605133</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14442,73 +14442,73 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>83</v>
+      </c>
+      <c r="K156">
+        <v>2.1</v>
+      </c>
+      <c r="L156">
+        <v>2.8</v>
+      </c>
+      <c r="M156">
+        <v>3.6</v>
+      </c>
+      <c r="N156">
+        <v>2.45</v>
+      </c>
+      <c r="O156">
+        <v>2.7</v>
+      </c>
+      <c r="P156">
         <v>3</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156" t="s">
-        <v>82</v>
-      </c>
-      <c r="K156">
-        <v>1.615</v>
-      </c>
-      <c r="L156">
-        <v>3.4</v>
-      </c>
-      <c r="M156">
-        <v>5</v>
-      </c>
-      <c r="N156">
-        <v>1.6</v>
-      </c>
-      <c r="O156">
-        <v>3.5</v>
-      </c>
-      <c r="P156">
-        <v>5.25</v>
-      </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R156">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S156">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="U156">
+        <v>1.775</v>
+      </c>
+      <c r="V156">
         <v>2.025</v>
       </c>
-      <c r="V156">
-        <v>1.775</v>
-      </c>
       <c r="W156">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB156">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC156">
         <v>-1</v>
@@ -14519,7 +14519,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7253946</v>
+        <v>7254176</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14531,76 +14531,76 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L157">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M157">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P157">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
+        <v>1.975</v>
+      </c>
+      <c r="S157">
+        <v>1.825</v>
+      </c>
+      <c r="T157">
+        <v>2</v>
+      </c>
+      <c r="U157">
         <v>1.95</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.85</v>
       </c>
-      <c r="T157">
-        <v>2.5</v>
-      </c>
-      <c r="U157">
-        <v>1.8</v>
-      </c>
-      <c r="V157">
-        <v>2</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X157">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC157">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14608,7 +14608,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7253947</v>
+        <v>7253948</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14620,13 +14620,13 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -14644,52 +14644,52 @@
         <v>3.6</v>
       </c>
       <c r="N158">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O158">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q158">
+        <v>-0.75</v>
+      </c>
+      <c r="R158">
+        <v>1.925</v>
+      </c>
+      <c r="S158">
+        <v>1.875</v>
+      </c>
+      <c r="T158">
+        <v>2.5</v>
+      </c>
+      <c r="U158">
+        <v>1.975</v>
+      </c>
+      <c r="V158">
+        <v>1.825</v>
+      </c>
+      <c r="W158">
+        <v>0.7</v>
+      </c>
+      <c r="X158">
+        <v>-1</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
+        <v>0.4625</v>
+      </c>
+      <c r="AA158">
         <v>-0.5</v>
       </c>
-      <c r="R158">
-        <v>1.825</v>
-      </c>
-      <c r="S158">
-        <v>1.975</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>2.025</v>
-      </c>
-      <c r="V158">
-        <v>1.775</v>
-      </c>
-      <c r="W158">
-        <v>0.8</v>
-      </c>
-      <c r="X158">
-        <v>-1</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
         <v>0.825</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>1.025</v>
-      </c>
-      <c r="AC158">
-        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14697,7 +14697,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7254176</v>
+        <v>7253947</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14709,58 +14709,58 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
         <v>82</v>
       </c>
       <c r="K159">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L159">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M159">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N159">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O159">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P159">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q159">
         <v>-0.5</v>
       </c>
       <c r="R159">
+        <v>1.825</v>
+      </c>
+      <c r="S159">
         <v>1.975</v>
       </c>
-      <c r="S159">
-        <v>1.825</v>
-      </c>
       <c r="T159">
         <v>2</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V159">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W159">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14769,13 +14769,13 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14786,7 +14786,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7605133</v>
+        <v>7253946</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14798,10 +14798,10 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14813,61 +14813,61 @@
         <v>83</v>
       </c>
       <c r="K160">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L160">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M160">
         <v>3.6</v>
       </c>
       <c r="N160">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="O160">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="P160">
+        <v>5.25</v>
+      </c>
+      <c r="Q160">
+        <v>-1</v>
+      </c>
+      <c r="R160">
+        <v>1.95</v>
+      </c>
+      <c r="S160">
+        <v>1.85</v>
+      </c>
+      <c r="T160">
+        <v>2.5</v>
+      </c>
+      <c r="U160">
+        <v>1.8</v>
+      </c>
+      <c r="V160">
+        <v>2</v>
+      </c>
+      <c r="W160">
+        <v>-1</v>
+      </c>
+      <c r="X160">
         <v>3</v>
       </c>
-      <c r="Q160">
-        <v>-0.25</v>
-      </c>
-      <c r="R160">
-        <v>2.075</v>
-      </c>
-      <c r="S160">
-        <v>1.725</v>
-      </c>
-      <c r="T160">
-        <v>1.5</v>
-      </c>
-      <c r="U160">
-        <v>1.775</v>
-      </c>
-      <c r="V160">
-        <v>2.025</v>
-      </c>
-      <c r="W160">
-        <v>-1</v>
-      </c>
-      <c r="X160">
-        <v>1.7</v>
-      </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.3625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB160">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14875,7 +14875,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7253948</v>
+        <v>7253656</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14887,13 +14887,13 @@
         <v>45287.39583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -14902,43 +14902,43 @@
         <v>82</v>
       </c>
       <c r="K161">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L161">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N161">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P161">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q161">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R161">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S161">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U161">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V161">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W161">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14947,16 +14947,16 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AA161">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -15231,7 +15231,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7253941</v>
+        <v>7253658</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15243,76 +15243,76 @@
         <v>45293.39583333334</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K165">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="L165">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M165">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N165">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="O165">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P165">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S165">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T165">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U165">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X165">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA165">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC165">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15320,7 +15320,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7253942</v>
+        <v>7253943</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15332,76 +15332,76 @@
         <v>45293.39583333334</v>
       </c>
       <c r="F166" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J166" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K166">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="L166">
+        <v>2.875</v>
+      </c>
+      <c r="M166">
+        <v>2.2</v>
+      </c>
+      <c r="N166">
         <v>3</v>
       </c>
-      <c r="M166">
-        <v>3</v>
-      </c>
-      <c r="N166">
-        <v>2</v>
-      </c>
       <c r="O166">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P166">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q166">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.825</v>
+        <v>1.7</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T166">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U166">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V166">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W166">
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.4875</v>
+        <v>1.1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC166">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15409,7 +15409,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>7253658</v>
+        <v>7253941</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15421,76 +15421,76 @@
         <v>45293.39583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G167" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K167">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L167">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M167">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N167">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O167">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P167">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q167">
+        <v>-1</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>1.8</v>
+      </c>
+      <c r="T167">
+        <v>2.25</v>
+      </c>
+      <c r="U167">
+        <v>1.975</v>
+      </c>
+      <c r="V167">
+        <v>1.825</v>
+      </c>
+      <c r="W167">
+        <v>-1</v>
+      </c>
+      <c r="X167">
+        <v>2.5</v>
+      </c>
+      <c r="Y167">
+        <v>-1</v>
+      </c>
+      <c r="Z167">
+        <v>-1</v>
+      </c>
+      <c r="AA167">
+        <v>0.8</v>
+      </c>
+      <c r="AB167">
         <v>-0.5</v>
       </c>
-      <c r="R167">
-        <v>2.025</v>
-      </c>
-      <c r="S167">
-        <v>1.775</v>
-      </c>
-      <c r="T167">
-        <v>2</v>
-      </c>
-      <c r="U167">
-        <v>2.05</v>
-      </c>
-      <c r="V167">
-        <v>1.75</v>
-      </c>
-      <c r="W167">
-        <v>1</v>
-      </c>
-      <c r="X167">
-        <v>-1</v>
-      </c>
-      <c r="Y167">
-        <v>-1</v>
-      </c>
-      <c r="Z167">
-        <v>1.025</v>
-      </c>
-      <c r="AA167">
-        <v>-1</v>
-      </c>
-      <c r="AB167">
-        <v>1.05</v>
-      </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15498,7 +15498,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7253943</v>
+        <v>7253942</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15510,76 +15510,76 @@
         <v>45293.39583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K168">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="L168">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M168">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N168">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O168">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P168">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="Q168">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U168">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y168">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>1.1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB168">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -16477,7 +16477,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7254179</v>
+        <v>7253660</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16489,76 +16489,76 @@
         <v>45300.39583333334</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
         <v>83</v>
       </c>
       <c r="K179">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M179">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N179">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O179">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P179">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R179">
+        <v>2.05</v>
+      </c>
+      <c r="S179">
+        <v>1.75</v>
+      </c>
+      <c r="T179">
+        <v>2.25</v>
+      </c>
+      <c r="U179">
         <v>1.975</v>
       </c>
-      <c r="S179">
+      <c r="V179">
         <v>1.825</v>
       </c>
-      <c r="T179">
-        <v>2</v>
-      </c>
-      <c r="U179">
-        <v>1.825</v>
-      </c>
-      <c r="V179">
-        <v>1.975</v>
-      </c>
       <c r="W179">
         <v>-1</v>
       </c>
       <c r="X179">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA179">
+        <v>-0</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.825</v>
-      </c>
-      <c r="AB179">
-        <v>0</v>
-      </c>
-      <c r="AC179">
-        <v>-0</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16566,7 +16566,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7253937</v>
+        <v>7254179</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16578,40 +16578,40 @@
         <v>45300.39583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
         <v>83</v>
       </c>
       <c r="K180">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="L180">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="M180">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N180">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="O180">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="P180">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q180">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R180">
         <v>1.975</v>
@@ -16623,31 +16623,31 @@
         <v>2</v>
       </c>
       <c r="U180">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W180">
         <v>-1</v>
       </c>
       <c r="X180">
-        <v>1.625</v>
+        <v>2.3</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB180">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16655,7 +16655,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7253660</v>
+        <v>7253937</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16667,76 +16667,76 @@
         <v>45300.39583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G181" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
         <v>83</v>
       </c>
       <c r="K181">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="L181">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M181">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N181">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O181">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="P181">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S181">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T181">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U181">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V181">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>1.9</v>
+        <v>1.625</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC181">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16922,7 +16922,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7698417</v>
+        <v>7253662</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16934,58 +16934,58 @@
         <v>45306.375</v>
       </c>
       <c r="F184" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G184" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>82</v>
       </c>
       <c r="K184">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L184">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M184">
+        <v>2.4</v>
+      </c>
+      <c r="N184">
         <v>2.3</v>
       </c>
-      <c r="N184">
-        <v>2.55</v>
-      </c>
       <c r="O184">
+        <v>3</v>
+      </c>
+      <c r="P184">
         <v>2.875</v>
       </c>
-      <c r="P184">
-        <v>2.7</v>
-      </c>
       <c r="Q184">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R184">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S184">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U184">
+        <v>1.85</v>
+      </c>
+      <c r="V184">
         <v>1.95</v>
       </c>
-      <c r="V184">
-        <v>1.85</v>
-      </c>
       <c r="W184">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16994,16 +16994,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA184">
         <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -17011,7 +17011,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7253662</v>
+        <v>7698417</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -17023,58 +17023,58 @@
         <v>45306.375</v>
       </c>
       <c r="F185" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G185" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>82</v>
       </c>
       <c r="K185">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="L185">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M185">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N185">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="O185">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P185">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R185">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T185">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U185">
+        <v>1.95</v>
+      </c>
+      <c r="V185">
         <v>1.85</v>
       </c>
-      <c r="V185">
-        <v>1.95</v>
-      </c>
       <c r="W185">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -17083,16 +17083,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
+        <v>-1</v>
+      </c>
+      <c r="AC185">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC185">
-        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17189,7 +17189,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7253663</v>
+        <v>7253664</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17201,76 +17201,76 @@
         <v>45306.375</v>
       </c>
       <c r="F187" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G187" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H187">
         <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K187">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N187">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O187">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P187">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q187">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T187">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U187">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V187">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W187">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA187">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC187">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17367,7 +17367,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7253936</v>
+        <v>7253663</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17379,61 +17379,61 @@
         <v>45306.375</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G189" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K189">
-        <v>2.1</v>
+        <v>1.363</v>
       </c>
       <c r="L189">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M189">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="N189">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O189">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P189">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R189">
+        <v>1.975</v>
+      </c>
+      <c r="S189">
         <v>1.825</v>
       </c>
-      <c r="S189">
-        <v>1.975</v>
-      </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X189">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
@@ -17442,13 +17442,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA189">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17456,7 +17456,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7253664</v>
+        <v>7253936</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17468,76 +17468,76 @@
         <v>45306.375</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>83</v>
       </c>
       <c r="K190">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="L190">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M190">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N190">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O190">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P190">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q190">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S190">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y190">
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA190">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17812,7 +17812,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7254184</v>
+        <v>7253694</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17824,58 +17824,58 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H194">
         <v>2</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
         <v>82</v>
       </c>
       <c r="K194">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L194">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N194">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O194">
         <v>3.2</v>
       </c>
       <c r="P194">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q194">
         <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T194">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U194">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W194">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17884,16 +17884,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA194">
         <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17901,7 +17901,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7253931</v>
+        <v>7254183</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17913,76 +17913,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K195">
-        <v>1.444</v>
+        <v>3.6</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M195">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N195">
-        <v>1.444</v>
+        <v>7</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P195">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="Q195">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S195">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U195">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W195">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA195">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17990,7 +17990,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7253930</v>
+        <v>7253666</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -18002,76 +18002,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F196" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G196" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H196">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K196">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="M196">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N196">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="O196">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P196">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R196">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U196">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V196">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18079,7 +18079,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7253929</v>
+        <v>7253667</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18091,76 +18091,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G197" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197">
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K197">
+        <v>2.375</v>
+      </c>
+      <c r="L197">
+        <v>2.8</v>
+      </c>
+      <c r="M197">
+        <v>3</v>
+      </c>
+      <c r="N197">
+        <v>3.3</v>
+      </c>
+      <c r="O197">
+        <v>3</v>
+      </c>
+      <c r="P197">
+        <v>2.1</v>
+      </c>
+      <c r="Q197">
+        <v>0.25</v>
+      </c>
+      <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
         <v>1.8</v>
       </c>
-      <c r="L197">
-        <v>3.25</v>
-      </c>
-      <c r="M197">
-        <v>4</v>
-      </c>
-      <c r="N197">
-        <v>1.8</v>
-      </c>
-      <c r="O197">
-        <v>3.3</v>
-      </c>
-      <c r="P197">
-        <v>4</v>
-      </c>
-      <c r="Q197">
+      <c r="T197">
+        <v>2</v>
+      </c>
+      <c r="U197">
+        <v>2.025</v>
+      </c>
+      <c r="V197">
+        <v>1.775</v>
+      </c>
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>2</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>0.5</v>
+      </c>
+      <c r="AA197">
         <v>-0.5</v>
       </c>
-      <c r="R197">
-        <v>1.825</v>
-      </c>
-      <c r="S197">
-        <v>1.975</v>
-      </c>
-      <c r="T197">
-        <v>1.75</v>
-      </c>
-      <c r="U197">
-        <v>1.825</v>
-      </c>
-      <c r="V197">
-        <v>1.975</v>
-      </c>
-      <c r="W197">
-        <v>0.8</v>
-      </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
-      <c r="Z197">
-        <v>0.825</v>
-      </c>
-      <c r="AA197">
-        <v>-1</v>
-      </c>
       <c r="AB197">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18168,7 +18168,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7253694</v>
+        <v>7253931</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18180,76 +18180,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F198" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G198" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198" t="s">
         <v>82</v>
       </c>
       <c r="K198">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M198">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N198">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="O198">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P198">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q198">
+        <v>-1.25</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
+        <v>1.8</v>
+      </c>
+      <c r="T198">
+        <v>2.25</v>
+      </c>
+      <c r="U198">
+        <v>1.8</v>
+      </c>
+      <c r="V198">
+        <v>2</v>
+      </c>
+      <c r="W198">
+        <v>0.444</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
         <v>-0.5</v>
       </c>
-      <c r="R198">
-        <v>1.9</v>
-      </c>
-      <c r="S198">
-        <v>1.9</v>
-      </c>
-      <c r="T198">
-        <v>1.75</v>
-      </c>
-      <c r="U198">
-        <v>1.775</v>
-      </c>
-      <c r="V198">
-        <v>2.025</v>
-      </c>
-      <c r="W198">
-        <v>1</v>
-      </c>
-      <c r="X198">
-        <v>-1</v>
-      </c>
-      <c r="Y198">
-        <v>-1</v>
-      </c>
-      <c r="Z198">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB198">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AC198">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18257,7 +18257,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7253667</v>
+        <v>7253930</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18269,76 +18269,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F199" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K199">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="L199">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M199">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N199">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O199">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P199">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q199">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T199">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
+        <v>1.775</v>
+      </c>
+      <c r="V199">
         <v>2.025</v>
       </c>
-      <c r="V199">
-        <v>1.775</v>
-      </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X199">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC199">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18346,7 +18346,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7253666</v>
+        <v>7254184</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18358,46 +18358,46 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F200" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200">
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K200">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L200">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M200">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N200">
-        <v>4.75</v>
+        <v>1.8</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P200">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="Q200">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S200">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
         <v>2</v>
@@ -18409,25 +18409,25 @@
         <v>1.85</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA200">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC200">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18435,7 +18435,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7254183</v>
+        <v>7253929</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18447,76 +18447,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="F201" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G201" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K201">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L201">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M201">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N201">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P201">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="Q201">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T201">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U201">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V201">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X201">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC201">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18524,7 +18524,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7253925</v>
+        <v>7253926</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18536,37 +18536,37 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
         <v>81</v>
       </c>
       <c r="K202">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="L202">
         <v>2.7</v>
       </c>
       <c r="M202">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N202">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O202">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="P202">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q202">
         <v>-0.25</v>
@@ -18578,13 +18578,13 @@
         <v>1.725</v>
       </c>
       <c r="T202">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="U202">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="V202">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W202">
         <v>-1</v>
@@ -18593,7 +18593,7 @@
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="Z202">
         <v>-1</v>
@@ -18602,10 +18602,10 @@
         <v>0.7250000000000001</v>
       </c>
       <c r="AB202">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18613,7 +18613,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7757379</v>
+        <v>7253927</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18625,76 +18625,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F203" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K203">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L203">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M203">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N203">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="O203">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P203">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R203">
+        <v>1.95</v>
+      </c>
+      <c r="S203">
         <v>1.75</v>
-      </c>
-      <c r="S203">
-        <v>2.05</v>
       </c>
       <c r="T203">
         <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>1.05</v>
+        <v>0.375</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18702,7 +18702,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7253668</v>
+        <v>7253928</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18714,10 +18714,10 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H204">
         <v>1</v>
@@ -18729,43 +18729,43 @@
         <v>82</v>
       </c>
       <c r="K204">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L204">
         <v>3.2</v>
       </c>
       <c r="M204">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="N204">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O204">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P204">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q204">
         <v>-0.75</v>
       </c>
       <c r="R204">
+        <v>1.975</v>
+      </c>
+      <c r="S204">
+        <v>1.825</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
         <v>1.8</v>
       </c>
-      <c r="S204">
-        <v>2</v>
-      </c>
-      <c r="T204">
-        <v>2</v>
-      </c>
-      <c r="U204">
-        <v>1.75</v>
-      </c>
       <c r="V204">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W204">
-        <v>0.571</v>
+        <v>0.7</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18774,7 +18774,7 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.4</v>
+        <v>0.4875</v>
       </c>
       <c r="AA204">
         <v>-0.5</v>
@@ -18783,7 +18783,7 @@
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18791,7 +18791,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7253928</v>
+        <v>7253924</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18803,76 +18803,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G205" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K205">
+        <v>5</v>
+      </c>
+      <c r="L205">
+        <v>3</v>
+      </c>
+      <c r="M205">
         <v>1.727</v>
       </c>
-      <c r="L205">
-        <v>3.2</v>
-      </c>
-      <c r="M205">
-        <v>4.5</v>
-      </c>
       <c r="N205">
-        <v>1.7</v>
+        <v>8</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z205">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC205">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18880,7 +18880,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7253926</v>
+        <v>7253669</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18892,76 +18892,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F206" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K206">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L206">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M206">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="N206">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="O206">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P206">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R206">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S206">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T206">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U206">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA206">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC206">
-        <v>1.1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18969,7 +18969,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7253927</v>
+        <v>7253668</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18981,10 +18981,10 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G207" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18996,43 +18996,43 @@
         <v>82</v>
       </c>
       <c r="K207">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="L207">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M207">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N207">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="O207">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P207">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q207">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
+        <v>2</v>
+      </c>
+      <c r="T207">
+        <v>2</v>
+      </c>
+      <c r="U207">
         <v>1.75</v>
       </c>
-      <c r="T207">
-        <v>2.25</v>
-      </c>
-      <c r="U207">
-        <v>2.025</v>
-      </c>
       <c r="V207">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W207">
-        <v>0.444</v>
+        <v>0.571</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -19041,16 +19041,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
+        <v>0.4</v>
+      </c>
+      <c r="AA207">
         <v>-0.5</v>
       </c>
-      <c r="AA207">
-        <v>0.375</v>
-      </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19058,7 +19058,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7253669</v>
+        <v>7253923</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -19070,76 +19070,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F208" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208">
         <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K208">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L208">
+        <v>2.7</v>
+      </c>
+      <c r="M208">
         <v>3</v>
       </c>
-      <c r="M208">
-        <v>5</v>
-      </c>
       <c r="N208">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="O208">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P208">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q208">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S208">
+        <v>1.75</v>
+      </c>
+      <c r="T208">
+        <v>1.75</v>
+      </c>
+      <c r="U208">
         <v>1.8</v>
       </c>
-      <c r="T208">
-        <v>2</v>
-      </c>
-      <c r="U208">
-        <v>1.925</v>
-      </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W208">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19147,7 +19147,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7253923</v>
+        <v>7757379</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19159,76 +19159,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F209" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G209" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K209">
+        <v>2.2</v>
+      </c>
+      <c r="L209">
+        <v>3</v>
+      </c>
+      <c r="M209">
+        <v>3.1</v>
+      </c>
+      <c r="N209">
         <v>2.45</v>
       </c>
-      <c r="L209">
-        <v>2.7</v>
-      </c>
-      <c r="M209">
+      <c r="O209">
         <v>3</v>
       </c>
-      <c r="N209">
-        <v>2.375</v>
-      </c>
-      <c r="O209">
+      <c r="P209">
         <v>2.75</v>
       </c>
-      <c r="P209">
-        <v>3.1</v>
-      </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R209">
+        <v>1.75</v>
+      </c>
+      <c r="S209">
         <v>2.05</v>
       </c>
-      <c r="S209">
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>2</v>
+      </c>
+      <c r="V209">
+        <v>1.8</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
         <v>1.75</v>
       </c>
-      <c r="T209">
-        <v>1.75</v>
-      </c>
-      <c r="U209">
-        <v>1.8</v>
-      </c>
-      <c r="V209">
-        <v>2</v>
-      </c>
-      <c r="W209">
-        <v>-1</v>
-      </c>
-      <c r="X209">
-        <v>1.75</v>
-      </c>
-      <c r="Y209">
-        <v>-1</v>
-      </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.375</v>
+        <v>1.05</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19236,7 +19236,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7253924</v>
+        <v>7253925</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19248,73 +19248,73 @@
         <v>45320.39583333334</v>
       </c>
       <c r="F210" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G210" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J210" t="s">
         <v>81</v>
       </c>
       <c r="K210">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="L210">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M210">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="N210">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="O210">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="P210">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q210">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S210">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T210">
+        <v>1.75</v>
+      </c>
+      <c r="U210">
+        <v>1.85</v>
+      </c>
+      <c r="V210">
+        <v>1.95</v>
+      </c>
+      <c r="W210">
+        <v>-1</v>
+      </c>
+      <c r="X210">
+        <v>-1</v>
+      </c>
+      <c r="Y210">
         <v>2.5</v>
       </c>
-      <c r="U210">
-        <v>1.925</v>
-      </c>
-      <c r="V210">
-        <v>1.875</v>
-      </c>
-      <c r="W210">
-        <v>-1</v>
-      </c>
-      <c r="X210">
-        <v>-1</v>
-      </c>
-      <c r="Y210">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="Z210">
         <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB210">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC210">
         <v>-1</v>
@@ -19325,7 +19325,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7777455</v>
+        <v>7777453</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19337,76 +19337,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G211" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H211">
         <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K211">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L211">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M211">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="N211">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="O211">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P211">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q211">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R211">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T211">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V211">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X211">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y211">
         <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA211">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC211">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19414,7 +19414,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7777452</v>
+        <v>7777454</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19426,55 +19426,55 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H212">
         <v>0</v>
       </c>
       <c r="I212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
         <v>81</v>
       </c>
       <c r="K212">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L212">
+        <v>2.75</v>
+      </c>
+      <c r="M212">
         <v>2.5</v>
       </c>
-      <c r="M212">
+      <c r="N212">
+        <v>3.3</v>
+      </c>
+      <c r="O212">
         <v>2.75</v>
       </c>
-      <c r="N212">
-        <v>2.75</v>
-      </c>
-      <c r="O212">
-        <v>2.5</v>
-      </c>
       <c r="P212">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="Q212">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R212">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S212">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T212">
         <v>1.75</v>
       </c>
       <c r="U212">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V212">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W212">
         <v>-1</v>
@@ -19483,19 +19483,19 @@
         <v>-1</v>
       </c>
       <c r="Y212">
-        <v>1.875</v>
+        <v>1.3</v>
       </c>
       <c r="Z212">
         <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB212">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19503,7 +19503,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7777454</v>
+        <v>7777452</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19515,76 +19515,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G213" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H213">
         <v>0</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>81</v>
       </c>
       <c r="K213">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L213">
+        <v>2.5</v>
+      </c>
+      <c r="M213">
         <v>2.75</v>
       </c>
-      <c r="M213">
+      <c r="N213">
+        <v>2.75</v>
+      </c>
+      <c r="O213">
         <v>2.5</v>
       </c>
-      <c r="N213">
-        <v>3.3</v>
-      </c>
-      <c r="O213">
-        <v>2.75</v>
-      </c>
       <c r="P213">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S213">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T213">
         <v>1.75</v>
       </c>
       <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
+        <v>1.8</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
         <v>1.875</v>
       </c>
-      <c r="V213">
-        <v>1.925</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>-1</v>
-      </c>
-      <c r="Y213">
-        <v>1.3</v>
-      </c>
       <c r="Z213">
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC213">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19592,7 +19592,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7777453</v>
+        <v>7777455</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19604,76 +19604,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G214" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H214">
         <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K214">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="L214">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M214">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="N214">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="O214">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P214">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R214">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S214">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T214">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U214">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V214">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W214">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X214">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20838,7 +20838,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7777501</v>
+        <v>7777505</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20850,10 +20850,10 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G228" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -20865,61 +20865,61 @@
         <v>83</v>
       </c>
       <c r="K228">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L228">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M228">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N228">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O228">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P228">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R228">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S228">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U228">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V228">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
         <v>-1</v>
       </c>
       <c r="X228">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA228">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20927,7 +20927,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7777505</v>
+        <v>7777501</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20939,10 +20939,10 @@
         <v>45342.41666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20954,61 +20954,61 @@
         <v>83</v>
       </c>
       <c r="K229">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L229">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M229">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="N229">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O229">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P229">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R229">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S229">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T229">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W229">
         <v>-1</v>
       </c>
       <c r="X229">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA229">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB229">
         <v>-1</v>
       </c>
       <c r="AC229">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21016,7 +21016,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7777462</v>
+        <v>7777465</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -21028,76 +21028,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230">
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K230">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L230">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M230">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N230">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O230">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P230">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q230">
         <v>0.25</v>
       </c>
       <c r="R230">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S230">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T230">
         <v>2</v>
       </c>
       <c r="U230">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V230">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W230">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X230">
         <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z230">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB230">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21105,7 +21105,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7777463</v>
+        <v>7777462</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21117,10 +21117,10 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G231" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21132,43 +21132,43 @@
         <v>82</v>
       </c>
       <c r="K231">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L231">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="M231">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N231">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="O231">
         <v>2.9</v>
       </c>
       <c r="P231">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
         <v>2</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V231">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W231">
-        <v>0.95</v>
+        <v>2.2</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21177,13 +21177,13 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA231">
         <v>-1</v>
       </c>
       <c r="AB231">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21194,7 +21194,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7777464</v>
+        <v>7777463</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21206,13 +21206,13 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G232" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -21221,43 +21221,43 @@
         <v>82</v>
       </c>
       <c r="K232">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L232">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M232">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N232">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O232">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P232">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U232">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V232">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W232">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="X232">
         <v>-1</v>
@@ -21266,13 +21266,13 @@
         <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AA232">
         <v>-1</v>
       </c>
       <c r="AB232">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC232">
         <v>-1</v>
@@ -21283,7 +21283,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7777465</v>
+        <v>7777464</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21295,76 +21295,76 @@
         <v>45346.41666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I233">
         <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K233">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L233">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M233">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N233">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="O233">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P233">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="Q233">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S233">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T233">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V233">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA233">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC233">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21817,7 +21817,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7777469</v>
+        <v>7777468</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21829,76 +21829,76 @@
         <v>45352.4375</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G239" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="s">
+        <v>83</v>
+      </c>
+      <c r="K239">
+        <v>3.1</v>
+      </c>
+      <c r="L239">
+        <v>2.9</v>
+      </c>
+      <c r="M239">
+        <v>2.25</v>
+      </c>
+      <c r="N239">
+        <v>3.2</v>
+      </c>
+      <c r="O239">
         <v>3</v>
       </c>
-      <c r="I239">
-        <v>0</v>
-      </c>
-      <c r="J239" t="s">
-        <v>82</v>
-      </c>
-      <c r="K239">
-        <v>2.1</v>
-      </c>
-      <c r="L239">
-        <v>2.8</v>
-      </c>
-      <c r="M239">
-        <v>3.5</v>
-      </c>
-      <c r="N239">
-        <v>1.833</v>
-      </c>
-      <c r="O239">
-        <v>3.1</v>
-      </c>
       <c r="P239">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q239">
+        <v>0.25</v>
+      </c>
+      <c r="R239">
+        <v>1.9</v>
+      </c>
+      <c r="S239">
+        <v>1.9</v>
+      </c>
+      <c r="T239">
+        <v>1.75</v>
+      </c>
+      <c r="U239">
+        <v>1.925</v>
+      </c>
+      <c r="V239">
+        <v>1.875</v>
+      </c>
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
+        <v>2</v>
+      </c>
+      <c r="Y239">
+        <v>-1</v>
+      </c>
+      <c r="Z239">
+        <v>0.45</v>
+      </c>
+      <c r="AA239">
         <v>-0.5</v>
       </c>
-      <c r="R239">
-        <v>1.85</v>
-      </c>
-      <c r="S239">
-        <v>1.95</v>
-      </c>
-      <c r="T239">
-        <v>2</v>
-      </c>
-      <c r="U239">
-        <v>1.95</v>
-      </c>
-      <c r="V239">
-        <v>1.85</v>
-      </c>
-      <c r="W239">
-        <v>0.833</v>
-      </c>
-      <c r="X239">
-        <v>-1</v>
-      </c>
-      <c r="Y239">
-        <v>-1</v>
-      </c>
-      <c r="Z239">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA239">
-        <v>-1</v>
-      </c>
       <c r="AB239">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21906,7 +21906,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7777468</v>
+        <v>7777469</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21918,76 +21918,76 @@
         <v>45352.4375</v>
       </c>
       <c r="F240" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G240" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K240">
+        <v>2.1</v>
+      </c>
+      <c r="L240">
+        <v>2.8</v>
+      </c>
+      <c r="M240">
+        <v>3.5</v>
+      </c>
+      <c r="N240">
+        <v>1.833</v>
+      </c>
+      <c r="O240">
         <v>3.1</v>
       </c>
-      <c r="L240">
-        <v>2.9</v>
-      </c>
-      <c r="M240">
-        <v>2.25</v>
-      </c>
-      <c r="N240">
-        <v>3.2</v>
-      </c>
-      <c r="O240">
-        <v>3</v>
-      </c>
       <c r="P240">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R240">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S240">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T240">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U240">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V240">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X240">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AC240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -22173,7 +22173,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7777511</v>
+        <v>7915120</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22185,76 +22185,76 @@
         <v>45356.4375</v>
       </c>
       <c r="F243" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G243" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H243">
         <v>1</v>
       </c>
       <c r="I243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K243">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="L243">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M243">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="N243">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O243">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P243">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="Q243">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S243">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="T243">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U243">
         <v>1.975</v>
       </c>
       <c r="V243">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA243">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22262,7 +22262,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7777513</v>
+        <v>7777511</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22274,64 +22274,64 @@
         <v>45356.4375</v>
       </c>
       <c r="F244" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G244" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K244">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="L244">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M244">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="N244">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="O244">
         <v>3.5</v>
       </c>
       <c r="P244">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="Q244">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R244">
+        <v>1.775</v>
+      </c>
+      <c r="S244">
+        <v>2.025</v>
+      </c>
+      <c r="T244">
+        <v>2.25</v>
+      </c>
+      <c r="U244">
         <v>1.975</v>
       </c>
-      <c r="S244">
+      <c r="V244">
         <v>1.825</v>
       </c>
-      <c r="T244">
-        <v>2</v>
-      </c>
-      <c r="U244">
-        <v>1.875</v>
-      </c>
-      <c r="V244">
-        <v>1.925</v>
-      </c>
       <c r="W244">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z244">
         <v>0</v>
@@ -22340,7 +22340,7 @@
         <v>-0</v>
       </c>
       <c r="AB244">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22351,7 +22351,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7915120</v>
+        <v>7777513</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22363,58 +22363,58 @@
         <v>45356.4375</v>
       </c>
       <c r="F245" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G245" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" t="s">
         <v>82</v>
       </c>
       <c r="K245">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="L245">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M245">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="N245">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="O245">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P245">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q245">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R245">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S245">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="T245">
         <v>2</v>
       </c>
       <c r="U245">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V245">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="W245">
-        <v>1.4</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X245">
         <v>-1</v>
@@ -22423,16 +22423,16 @@
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC245">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22440,7 +22440,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7777514</v>
+        <v>7777512</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22452,58 +22452,58 @@
         <v>45356.4375</v>
       </c>
       <c r="F246" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G246" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H246">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" t="s">
         <v>82</v>
       </c>
       <c r="K246">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L246">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M246">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N246">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O246">
         <v>3</v>
       </c>
       <c r="P246">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q246">
         <v>-0.5</v>
       </c>
       <c r="R246">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S246">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T246">
         <v>2</v>
       </c>
       <c r="U246">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V246">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X246">
         <v>-1</v>
@@ -22512,13 +22512,13 @@
         <v>-1</v>
       </c>
       <c r="Z246">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA246">
         <v>-1</v>
       </c>
       <c r="AB246">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC246">
         <v>-1</v>
@@ -22529,7 +22529,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7777512</v>
+        <v>7777514</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22541,58 +22541,58 @@
         <v>45356.4375</v>
       </c>
       <c r="F247" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G247" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
         <v>82</v>
       </c>
       <c r="K247">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L247">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M247">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N247">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O247">
         <v>3</v>
       </c>
       <c r="P247">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q247">
         <v>-0.5</v>
       </c>
       <c r="R247">
+        <v>1.75</v>
+      </c>
+      <c r="S247">
         <v>1.95</v>
       </c>
-      <c r="S247">
-        <v>1.85</v>
-      </c>
       <c r="T247">
         <v>2</v>
       </c>
       <c r="U247">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W247">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22601,13 +22601,13 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC247">
         <v>-1</v>

--- a/Egypt Division 2/Egypt Division 2.xlsx
+++ b/Egypt Division 2/Egypt Division 2.xlsx
@@ -154,13 +154,13 @@
     <t>Ghazl El Mahallah</t>
   </si>
   <si>
+    <t>Asyut Petroleum</t>
+  </si>
+  <si>
     <t>Misr Lel Makasa</t>
   </si>
   <si>
     <t>Aswan FC</t>
-  </si>
-  <si>
-    <t>Asyut Petroleum</t>
   </si>
   <si>
     <t>Al Qanah</t>
@@ -187,13 +187,13 @@
     <t>Al Hilal Matrouh</t>
   </si>
   <si>
-    <t>MS Tala</t>
+    <t>Delphi SC</t>
   </si>
   <si>
     <t>Sporting Alexandria</t>
   </si>
   <si>
-    <t>Delphi SC</t>
+    <t>MS Tala</t>
   </si>
   <si>
     <t>Al Majd</t>
@@ -2195,7 +2195,7 @@
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2281,7 +2281,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2367,7 +2367,7 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2785,7 +2785,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7254024</v>
+        <v>7254025</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2797,7 +2797,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2809,61 +2809,61 @@
         <v>82</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="K26">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L26">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="M26">
+        <v>1.833</v>
+      </c>
+      <c r="N26">
+        <v>3.25</v>
+      </c>
+      <c r="O26">
+        <v>3.8</v>
+      </c>
+      <c r="P26">
+        <v>-0.5</v>
+      </c>
+      <c r="Q26">
+        <v>1.875</v>
+      </c>
+      <c r="R26">
+        <v>1.925</v>
+      </c>
+      <c r="S26">
+        <v>2.25</v>
+      </c>
+      <c r="T26">
+        <v>1.85</v>
+      </c>
+      <c r="U26">
+        <v>1.95</v>
+      </c>
+      <c r="V26">
+        <v>-1</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
         <v>2.8</v>
       </c>
-      <c r="N26">
-        <v>3.1</v>
-      </c>
-      <c r="O26">
-        <v>2.3</v>
-      </c>
-      <c r="P26">
-        <v>0.25</v>
-      </c>
-      <c r="Q26">
-        <v>1.75</v>
-      </c>
-      <c r="R26">
-        <v>2.05</v>
-      </c>
-      <c r="S26">
-        <v>2</v>
-      </c>
-      <c r="T26">
-        <v>1.775</v>
-      </c>
-      <c r="U26">
-        <v>2.025</v>
-      </c>
-      <c r="V26">
-        <v>-1</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>1.3</v>
-      </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2871,7 +2871,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7254098</v>
+        <v>7254024</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2883,73 +2883,73 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J27">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="M27">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="N27">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O27">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="P27">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q27">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y27">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7254025</v>
+        <v>7254098</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2969,73 +2969,73 @@
         <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="K28">
         <v>3.25</v>
       </c>
       <c r="L28">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="N28">
         <v>3.25</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P28">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q28">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T28">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U28">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3043,7 +3043,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7253681</v>
+        <v>7254021</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -3052,73 +3052,73 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K29">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O29">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P29">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q29">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
         <v>2</v>
       </c>
       <c r="T29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
         <v>-1</v>
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7254021</v>
+        <v>7253681</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3138,73 +3138,73 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30">
+        <v>2.1</v>
+      </c>
+      <c r="K30">
+        <v>3.2</v>
+      </c>
+      <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>2.1</v>
+      </c>
+      <c r="N30">
         <v>3</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J30">
-        <v>1.727</v>
-      </c>
-      <c r="K30">
-        <v>3.5</v>
-      </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
-      <c r="M30">
-        <v>1.75</v>
-      </c>
-      <c r="N30">
-        <v>3.5</v>
-      </c>
       <c r="O30">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
         <v>2</v>
       </c>
       <c r="T30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB30">
         <v>-1</v>
@@ -3215,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7253682</v>
+        <v>7254023</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3224,76 +3224,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J31">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="K31">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="M31">
+        <v>3.25</v>
+      </c>
+      <c r="N31">
         <v>3</v>
       </c>
-      <c r="N31">
-        <v>3.1</v>
-      </c>
       <c r="O31">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q31">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R31">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
         <v>1.8</v>
       </c>
-      <c r="U31">
-        <v>2</v>
-      </c>
       <c r="V31">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.1</v>
+        <v>0.45</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3301,7 +3301,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7254023</v>
+        <v>7254022</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3310,76 +3310,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J32">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O32">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="P32">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S32">
         <v>2</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U32">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7254022</v>
+        <v>7253682</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3396,58 +3396,58 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="s">
         <v>81</v>
       </c>
       <c r="J33">
+        <v>2.375</v>
+      </c>
+      <c r="K33">
+        <v>3.2</v>
+      </c>
+      <c r="L33">
+        <v>2.75</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>3.1</v>
+      </c>
+      <c r="O33">
+        <v>2.3</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>2.1</v>
       </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>3.5</v>
-      </c>
-      <c r="M33">
-        <v>1.666</v>
-      </c>
-      <c r="N33">
-        <v>3.2</v>
-      </c>
-      <c r="O33">
-        <v>5.5</v>
-      </c>
-      <c r="P33">
-        <v>-0.75</v>
-      </c>
-      <c r="Q33">
-        <v>1.925</v>
-      </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T33">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>0.6659999999999999</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3456,13 +3456,13 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB33">
         <v>-1</v>
@@ -3829,7 +3829,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4001,7 +4001,7 @@
         <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4419,7 +4419,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7254157</v>
+        <v>7254013</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
@@ -4431,70 +4431,70 @@
         <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J45">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="K45">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L45">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
+        <v>2.625</v>
+      </c>
+      <c r="N45">
+        <v>2.875</v>
+      </c>
+      <c r="O45">
+        <v>2.75</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>1.85</v>
       </c>
-      <c r="N45">
-        <v>3.2</v>
-      </c>
-      <c r="O45">
-        <v>4</v>
-      </c>
-      <c r="P45">
-        <v>-0.5</v>
-      </c>
-      <c r="Q45">
-        <v>1.825</v>
-      </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S45">
         <v>2</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U45">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
         <v>-1</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X45">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4591,7 +4591,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7254013</v>
+        <v>7254157</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4600,73 +4600,73 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>82</v>
+      </c>
+      <c r="J47">
+        <v>1.909</v>
+      </c>
+      <c r="K47">
+        <v>3.1</v>
+      </c>
+      <c r="L47">
+        <v>3.75</v>
+      </c>
+      <c r="M47">
+        <v>1.85</v>
+      </c>
+      <c r="N47">
+        <v>3.2</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+      <c r="P47">
+        <v>-0.5</v>
+      </c>
+      <c r="Q47">
+        <v>1.825</v>
+      </c>
+      <c r="R47">
+        <v>1.975</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
+        <v>1.8</v>
+      </c>
+      <c r="V47">
+        <v>-1</v>
+      </c>
+      <c r="W47">
+        <v>-1</v>
+      </c>
+      <c r="X47">
         <v>3</v>
       </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47" t="s">
-        <v>83</v>
-      </c>
-      <c r="J47">
-        <v>2.15</v>
-      </c>
-      <c r="K47">
-        <v>3</v>
-      </c>
-      <c r="L47">
-        <v>3.4</v>
-      </c>
-      <c r="M47">
-        <v>2.625</v>
-      </c>
-      <c r="N47">
-        <v>2.875</v>
-      </c>
-      <c r="O47">
-        <v>2.75</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>1.85</v>
-      </c>
-      <c r="R47">
-        <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>2</v>
-      </c>
-      <c r="T47">
-        <v>1.9</v>
-      </c>
-      <c r="U47">
-        <v>1.9</v>
-      </c>
-      <c r="V47">
-        <v>-1</v>
-      </c>
-      <c r="W47">
-        <v>1.875</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
       <c r="Y47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -5205,7 +5205,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5279,7 +5279,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7254009</v>
+        <v>7253998</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5288,10 +5288,10 @@
         <v>45222.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5303,43 +5303,43 @@
         <v>81</v>
       </c>
       <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>3.1</v>
+      </c>
+      <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>1.615</v>
+      </c>
+      <c r="N55">
+        <v>3.4</v>
+      </c>
+      <c r="O55">
+        <v>4.75</v>
+      </c>
+      <c r="P55">
+        <v>-0.75</v>
+      </c>
+      <c r="Q55">
+        <v>1.825</v>
+      </c>
+      <c r="R55">
+        <v>1.975</v>
+      </c>
+      <c r="S55">
         <v>2.25</v>
       </c>
-      <c r="K55">
-        <v>3</v>
-      </c>
-      <c r="L55">
-        <v>3</v>
-      </c>
-      <c r="M55">
-        <v>2.4</v>
-      </c>
-      <c r="N55">
-        <v>3</v>
-      </c>
-      <c r="O55">
-        <v>2.75</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>1.775</v>
-      </c>
-      <c r="R55">
-        <v>2.025</v>
-      </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
       <c r="T55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>1.4</v>
+        <v>0.615</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5348,13 +5348,13 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB55">
         <v>-1</v>
@@ -5365,7 +5365,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7253997</v>
+        <v>7254009</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5374,16 +5374,16 @@
         <v>45222.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="s">
         <v>81</v>
@@ -5398,22 +5398,22 @@
         <v>3</v>
       </c>
       <c r="M56">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N56">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="O56">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P56">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="R56">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
         <v>2</v>
@@ -5425,7 +5425,7 @@
         <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5434,16 +5434,16 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5451,7 +5451,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7253998</v>
+        <v>7253638</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5460,10 +5460,10 @@
         <v>45222.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5475,43 +5475,43 @@
         <v>81</v>
       </c>
       <c r="J57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K57">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="M57">
-        <v>1.615</v>
+        <v>4</v>
       </c>
       <c r="N57">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O57">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="P57">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q57">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R57">
+        <v>1.9</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <v>1.725</v>
+      </c>
+      <c r="U57">
         <v>1.975</v>
       </c>
-      <c r="S57">
-        <v>2.25</v>
-      </c>
-      <c r="T57">
-        <v>1.85</v>
-      </c>
-      <c r="U57">
-        <v>1.95</v>
-      </c>
       <c r="V57">
-        <v>0.615</v>
+        <v>3</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5520,13 +5520,13 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB57">
         <v>-1</v>
@@ -5537,7 +5537,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7253638</v>
+        <v>7253997</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5546,58 +5546,58 @@
         <v>45222.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G58">
         <v>2</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="s">
         <v>81</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K58">
         <v>3</v>
       </c>
       <c r="L58">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N58">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="O58">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S58">
         <v>2</v>
       </c>
       <c r="T58">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5606,16 +5606,16 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5709,7 +5709,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7253684</v>
+        <v>7253994</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5718,76 +5718,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J60">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M60">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="N60">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O60">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q60">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
         <v>2</v>
       </c>
       <c r="T60">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5795,7 +5795,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7253994</v>
+        <v>7253684</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -5804,76 +5804,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J61">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="K61">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L61">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M61">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="N61">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O61">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P61">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q61">
+        <v>1.8</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>1.85</v>
+      </c>
+      <c r="U61">
         <v>1.95</v>
       </c>
-      <c r="R61">
-        <v>1.85</v>
-      </c>
-      <c r="S61">
-        <v>2</v>
-      </c>
-      <c r="T61">
-        <v>1.775</v>
-      </c>
-      <c r="U61">
-        <v>2.025</v>
-      </c>
       <c r="V61">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y61">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA61">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -6139,7 +6139,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7384130</v>
+        <v>7384145</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6151,10 +6151,10 @@
         <v>57</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6163,43 +6163,43 @@
         <v>81</v>
       </c>
       <c r="J65">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="K65">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L65">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M65">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O65">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S65">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T65">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U65">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V65">
-        <v>1.625</v>
+        <v>0.55</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6208,13 +6208,13 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6311,7 +6311,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7384145</v>
+        <v>7384130</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -6323,10 +6323,10 @@
         <v>59</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6335,43 +6335,43 @@
         <v>81</v>
       </c>
       <c r="J67">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="K67">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L67">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M67">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="N67">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O67">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="P67">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R67">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T67">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U67">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>0.55</v>
+        <v>1.625</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6380,13 +6380,13 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -6406,7 +6406,7 @@
         <v>45228.39583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
         <v>45</v>
@@ -6492,7 +6492,7 @@
         <v>45229.39583333334</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
         <v>51</v>
@@ -7183,7 +7183,7 @@
         <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7355,7 +7355,7 @@
         <v>55</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7613,7 +7613,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -8215,7 +8215,7 @@
         <v>62</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8728,7 +8728,7 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F95" t="s">
         <v>54</v>
@@ -8900,7 +8900,7 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F97" t="s">
         <v>45</v>
@@ -8986,7 +8986,7 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F98" t="s">
         <v>44</v>
@@ -9591,7 +9591,7 @@
         <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G105">
         <v>6</v>
@@ -9760,7 +9760,7 @@
         <v>45250.39583333334</v>
       </c>
       <c r="E107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F107" t="s">
         <v>35</v>
@@ -10193,7 +10193,7 @@
         <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10623,7 +10623,7 @@
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10792,7 +10792,7 @@
         <v>45259.39583333334</v>
       </c>
       <c r="E119" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F119" t="s">
         <v>54</v>
@@ -10964,7 +10964,7 @@
         <v>45259.39583333334</v>
       </c>
       <c r="E121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F121" t="s">
         <v>45</v>
@@ -11308,10 +11308,10 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7253965</v>
+        <v>7253649</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11394,13 +11394,13 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11409,58 +11409,58 @@
         <v>81</v>
       </c>
       <c r="J126">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K126">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L126">
+        <v>3.5</v>
+      </c>
+      <c r="M126">
+        <v>1.85</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126">
         <v>4.2</v>
       </c>
-      <c r="M126">
+      <c r="P126">
+        <v>-0.5</v>
+      </c>
+      <c r="Q126">
         <v>1.95</v>
       </c>
-      <c r="N126">
-        <v>3.1</v>
-      </c>
-      <c r="O126">
-        <v>3.6</v>
-      </c>
-      <c r="P126">
-        <v>-0.25</v>
-      </c>
-      <c r="Q126">
-        <v>1.725</v>
-      </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V126">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
         <v>0.95</v>
       </c>
-      <c r="W126">
-        <v>-1</v>
-      </c>
-      <c r="X126">
-        <v>-1</v>
-      </c>
-      <c r="Y126">
-        <v>0.7250000000000001</v>
-      </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB126">
         <v>-1</v>
@@ -11471,7 +11471,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7253963</v>
+        <v>7253965</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -11480,43 +11480,43 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="s">
         <v>81</v>
       </c>
       <c r="J127">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="K127">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L127">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="M127">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="N127">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O127">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q127">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="R127">
         <v>1.975</v>
@@ -11531,7 +11531,7 @@
         <v>1.85</v>
       </c>
       <c r="V127">
-        <v>0.615</v>
+        <v>0.95</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11540,7 +11540,7 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11557,7 +11557,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7253649</v>
+        <v>7253963</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11566,58 +11566,58 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G128">
         <v>3</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="s">
         <v>81</v>
       </c>
       <c r="J128">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="K128">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L128">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M128">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="N128">
         <v>3</v>
       </c>
       <c r="O128">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="P128">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q128">
+        <v>1.825</v>
+      </c>
+      <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
+        <v>2.25</v>
+      </c>
+      <c r="T128">
         <v>1.95</v>
       </c>
-      <c r="R128">
+      <c r="U128">
         <v>1.85</v>
       </c>
-      <c r="S128">
-        <v>2</v>
-      </c>
-      <c r="T128">
-        <v>1.9</v>
-      </c>
-      <c r="U128">
-        <v>1.9</v>
-      </c>
       <c r="V128">
-        <v>0.8500000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11626,13 +11626,13 @@
         <v>-1</v>
       </c>
       <c r="Y128">
+        <v>0.825</v>
+      </c>
+      <c r="Z128">
+        <v>-1</v>
+      </c>
+      <c r="AA128">
         <v>0.95</v>
-      </c>
-      <c r="Z128">
-        <v>-1</v>
-      </c>
-      <c r="AA128">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AB128">
         <v>-1</v>
@@ -11655,7 +11655,7 @@
         <v>28</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11815,7 +11815,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7253962</v>
+        <v>7253650</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
@@ -11824,76 +11824,76 @@
         <v>45265.39583333334</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J131">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L131">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N131">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O131">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="P131">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q131">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
+        <v>2</v>
+      </c>
+      <c r="T131">
+        <v>2.05</v>
+      </c>
+      <c r="U131">
         <v>1.75</v>
       </c>
-      <c r="T131">
-        <v>1.875</v>
-      </c>
-      <c r="U131">
-        <v>1.925</v>
-      </c>
       <c r="V131">
         <v>-1</v>
       </c>
       <c r="W131">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11901,7 +11901,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7253688</v>
+        <v>7253962</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
@@ -11910,10 +11910,10 @@
         <v>45265.39583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11925,61 +11925,61 @@
         <v>83</v>
       </c>
       <c r="J132">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="K132">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="P132">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q132">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R132">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T132">
+        <v>1.875</v>
+      </c>
+      <c r="U132">
+        <v>1.925</v>
+      </c>
+      <c r="V132">
+        <v>-1</v>
+      </c>
+      <c r="W132">
         <v>1.9</v>
       </c>
-      <c r="U132">
-        <v>1.9</v>
-      </c>
-      <c r="V132">
-        <v>-1</v>
-      </c>
-      <c r="W132">
-        <v>2</v>
-      </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z132">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11987,7 +11987,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7253650</v>
+        <v>7253688</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -11996,76 +11996,76 @@
         <v>45265.39583333334</v>
       </c>
       <c r="E133" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J133">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K133">
         <v>2.875</v>
       </c>
       <c r="L133">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="N133">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O133">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q133">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R133">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S133">
         <v>2</v>
       </c>
       <c r="T133">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U133">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
         <v>-1</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X133">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1.025</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -12073,7 +12073,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7253956</v>
+        <v>7253957</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -12082,10 +12082,10 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F134" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12097,43 +12097,43 @@
         <v>81</v>
       </c>
       <c r="J134">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K134">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N134">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O134">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P134">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q134">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S134">
         <v>2.25</v>
       </c>
       <c r="T134">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>0.8500000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12142,13 +12142,13 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB134">
         <v>-1</v>
@@ -12159,7 +12159,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7558451</v>
+        <v>7253652</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12168,76 +12168,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E135" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F135" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J135">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="K135">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M135">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="N135">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O135">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P135">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q135">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
         <v>-1</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X135">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA135">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12245,7 +12245,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7558905</v>
+        <v>7587389</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12254,76 +12254,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J136">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K136">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L136">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="N136">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O136">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="P136">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q136">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="R136">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S136">
         <v>2.25</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X136">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB136">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12417,7 +12417,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7587389</v>
+        <v>7558905</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12426,76 +12426,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J138">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K138">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L138">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="M138">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="N138">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O138">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="P138">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q138">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="R138">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S138">
         <v>2.25</v>
       </c>
       <c r="T138">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V138">
         <v>-1</v>
       </c>
       <c r="W138">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AA138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12503,7 +12503,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7253652</v>
+        <v>7558451</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12512,76 +12512,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E139" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J139">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="K139">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="L139">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="N139">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O139">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P139">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q139">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="R139">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T139">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
         <v>-1</v>
       </c>
       <c r="W139">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB139">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12589,7 +12589,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7253957</v>
+        <v>7253956</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12598,10 +12598,10 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E140" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12613,43 +12613,43 @@
         <v>81</v>
       </c>
       <c r="J140">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="N140">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O140">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="P140">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q140">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="R140">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S140">
         <v>2.25</v>
       </c>
       <c r="T140">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V140">
-        <v>1.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12658,13 +12658,13 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -12675,7 +12675,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7594612</v>
+        <v>7558452</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -12684,58 +12684,58 @@
         <v>45275.39583333334</v>
       </c>
       <c r="E141" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F141" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="s">
         <v>81</v>
       </c>
       <c r="J141">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="K141">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L141">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N141">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O141">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="P141">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q141">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S141">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U141">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>3.333</v>
+        <v>1.45</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -12744,16 +12744,16 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12761,7 +12761,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7558452</v>
+        <v>7594612</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12770,58 +12770,58 @@
         <v>45275.39583333334</v>
       </c>
       <c r="E142" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="F142" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="s">
         <v>81</v>
       </c>
       <c r="J142">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="K142">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L142">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="M142">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N142">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O142">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="P142">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q142">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R142">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S142">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T142">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V142">
-        <v>1.45</v>
+        <v>3.333</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -12830,16 +12830,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -13200,7 +13200,7 @@
         <v>45278.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F147" t="s">
         <v>35</v>
@@ -13363,7 +13363,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7253952</v>
+        <v>7253654</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -13372,76 +13372,76 @@
         <v>45279.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J149">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="K149">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L149">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="M149">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="N149">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="O149">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="P149">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q149">
+        <v>1.825</v>
+      </c>
+      <c r="R149">
+        <v>1.975</v>
+      </c>
+      <c r="S149">
+        <v>2.25</v>
+      </c>
+      <c r="T149">
         <v>1.9</v>
       </c>
-      <c r="R149">
+      <c r="U149">
         <v>1.9</v>
       </c>
-      <c r="S149">
-        <v>1.75</v>
-      </c>
-      <c r="T149">
-        <v>1.825</v>
-      </c>
-      <c r="U149">
-        <v>1.975</v>
-      </c>
       <c r="V149">
         <v>-1</v>
       </c>
       <c r="W149">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y149">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z149">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13449,7 +13449,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7253654</v>
+        <v>7253952</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
@@ -13458,76 +13458,76 @@
         <v>45279.39583333334</v>
       </c>
       <c r="E150" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J150">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="K150">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L150">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M150">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="N150">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O150">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q150">
+        <v>1.9</v>
+      </c>
+      <c r="R150">
+        <v>1.9</v>
+      </c>
+      <c r="S150">
+        <v>1.75</v>
+      </c>
+      <c r="T150">
         <v>1.825</v>
       </c>
-      <c r="R150">
+      <c r="U150">
         <v>1.975</v>
       </c>
-      <c r="S150">
-        <v>2.25</v>
-      </c>
-      <c r="T150">
+      <c r="V150">
+        <v>-1</v>
+      </c>
+      <c r="W150">
         <v>1.9</v>
       </c>
-      <c r="U150">
-        <v>1.9</v>
-      </c>
-      <c r="V150">
-        <v>-1</v>
-      </c>
-      <c r="W150">
-        <v>-1</v>
-      </c>
       <c r="X150">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z150">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13544,10 +13544,10 @@
         <v>45280.39583333334</v>
       </c>
       <c r="E151" t="s">
+        <v>48</v>
+      </c>
+      <c r="F151" t="s">
         <v>47</v>
-      </c>
-      <c r="F151" t="s">
-        <v>46</v>
       </c>
       <c r="G151">
         <v>4</v>
@@ -14407,7 +14407,7 @@
         <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14490,7 +14490,7 @@
         <v>45288.39583333334</v>
       </c>
       <c r="E162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F162" t="s">
         <v>49</v>
@@ -14665,7 +14665,7 @@
         <v>50</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -15092,7 +15092,7 @@
         <v>45294.39583333334</v>
       </c>
       <c r="E169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F169" t="s">
         <v>43</v>
@@ -15178,10 +15178,10 @@
         <v>45294.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15685,7 +15685,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7253940</v>
+        <v>7253938</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
@@ -15694,76 +15694,76 @@
         <v>45299.39583333334</v>
       </c>
       <c r="E176" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F176" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I176" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J176">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="K176">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L176">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N176">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O176">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="P176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q176">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R176">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T176">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="U176">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V176">
         <v>-1</v>
       </c>
       <c r="W176">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA176">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -15771,7 +15771,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7253938</v>
+        <v>7253940</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15780,76 +15780,76 @@
         <v>45299.39583333334</v>
       </c>
       <c r="E177" t="s">
+        <v>50</v>
+      </c>
+      <c r="F177" t="s">
         <v>46</v>
       </c>
-      <c r="F177" t="s">
-        <v>36</v>
-      </c>
       <c r="G177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J177">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="K177">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L177">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="M177">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="O177">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="P177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q177">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R177">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S177">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T177">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V177">
         <v>-1</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X177">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z177">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA177">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -16373,7 +16373,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7253933</v>
+        <v>7698417</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
@@ -16382,13 +16382,13 @@
         <v>45306.375</v>
       </c>
       <c r="E184" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F184" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16397,43 +16397,43 @@
         <v>81</v>
       </c>
       <c r="J184">
+        <v>3.1</v>
+      </c>
+      <c r="K184">
+        <v>2.8</v>
+      </c>
+      <c r="L184">
+        <v>2.3</v>
+      </c>
+      <c r="M184">
+        <v>2.55</v>
+      </c>
+      <c r="N184">
+        <v>2.875</v>
+      </c>
+      <c r="O184">
+        <v>2.7</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
         <v>1.8</v>
       </c>
-      <c r="K184">
-        <v>3.1</v>
-      </c>
-      <c r="L184">
-        <v>4.2</v>
-      </c>
-      <c r="M184">
-        <v>1.7</v>
-      </c>
-      <c r="N184">
-        <v>3.5</v>
-      </c>
-      <c r="O184">
-        <v>4</v>
-      </c>
-      <c r="P184">
-        <v>-0.75</v>
-      </c>
-      <c r="Q184">
-        <v>1.975</v>
-      </c>
       <c r="R184">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S184">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U184">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>0.7</v>
+        <v>1.55</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16442,16 +16442,16 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16459,7 +16459,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7253663</v>
+        <v>7253934</v>
       </c>
       <c r="C185" t="s">
         <v>27</v>
@@ -16468,61 +16468,61 @@
         <v>45306.375</v>
       </c>
       <c r="E185" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F185" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J185">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="K185">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L185">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="M185">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="N185">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O185">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="P185">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q185">
+        <v>2.025</v>
+      </c>
+      <c r="R185">
+        <v>1.775</v>
+      </c>
+      <c r="S185">
+        <v>2</v>
+      </c>
+      <c r="T185">
         <v>1.975</v>
       </c>
-      <c r="R185">
+      <c r="U185">
         <v>1.825</v>
       </c>
-      <c r="S185">
-        <v>2.5</v>
-      </c>
-      <c r="T185">
-        <v>1.9</v>
-      </c>
-      <c r="U185">
-        <v>1.9</v>
-      </c>
       <c r="V185">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16531,13 +16531,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z185">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -16545,7 +16545,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7253662</v>
+        <v>7253935</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16554,76 +16554,76 @@
         <v>45306.375</v>
       </c>
       <c r="E186" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F186" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J186">
+        <v>2.8</v>
+      </c>
+      <c r="K186">
+        <v>2.7</v>
+      </c>
+      <c r="L186">
+        <v>2.6</v>
+      </c>
+      <c r="M186">
+        <v>3.2</v>
+      </c>
+      <c r="N186">
         <v>2.75</v>
       </c>
-      <c r="K186">
-        <v>3</v>
-      </c>
-      <c r="L186">
-        <v>2.4</v>
-      </c>
-      <c r="M186">
+      <c r="O186">
         <v>2.3</v>
       </c>
-      <c r="N186">
-        <v>3</v>
-      </c>
-      <c r="O186">
-        <v>2.875</v>
-      </c>
       <c r="P186">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q186">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="R186">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
         <v>1.75</v>
       </c>
       <c r="T186">
+        <v>1.95</v>
+      </c>
+      <c r="U186">
         <v>1.85</v>
       </c>
-      <c r="U186">
-        <v>1.95</v>
-      </c>
       <c r="V186">
+        <v>-1</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
         <v>1.3</v>
       </c>
-      <c r="W186">
-        <v>-1</v>
-      </c>
-      <c r="X186">
-        <v>-1</v>
-      </c>
       <c r="Y186">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA186">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16631,7 +16631,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7253664</v>
+        <v>7253933</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -16640,76 +16640,76 @@
         <v>45306.375</v>
       </c>
       <c r="E187" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J187">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="K187">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L187">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="M187">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="N187">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O187">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="P187">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q187">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R187">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S187">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T187">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U187">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W187">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16803,7 +16803,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7253935</v>
+        <v>7253664</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -16812,76 +16812,76 @@
         <v>45306.375</v>
       </c>
       <c r="E189" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J189">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="K189">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L189">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="M189">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="N189">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O189">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="P189">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q189">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R189">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S189">
+        <v>2</v>
+      </c>
+      <c r="T189">
+        <v>2.05</v>
+      </c>
+      <c r="U189">
         <v>1.75</v>
       </c>
-      <c r="T189">
-        <v>1.95</v>
-      </c>
-      <c r="U189">
-        <v>1.85</v>
-      </c>
       <c r="V189">
         <v>-1</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X189">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z189">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA189">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AB189">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16889,7 +16889,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7698417</v>
+        <v>7253662</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -16898,58 +16898,58 @@
         <v>45306.375</v>
       </c>
       <c r="E190" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="s">
         <v>81</v>
       </c>
       <c r="J190">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K190">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L190">
+        <v>2.4</v>
+      </c>
+      <c r="M190">
         <v>2.3</v>
       </c>
-      <c r="M190">
-        <v>2.55</v>
-      </c>
       <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190">
         <v>2.875</v>
       </c>
-      <c r="O190">
-        <v>2.7</v>
-      </c>
       <c r="P190">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q190">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="R190">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T190">
+        <v>1.85</v>
+      </c>
+      <c r="U190">
         <v>1.95</v>
       </c>
-      <c r="U190">
-        <v>1.85</v>
-      </c>
       <c r="V190">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -16958,16 +16958,16 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -16975,7 +16975,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7253934</v>
+        <v>7253663</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -16984,61 +16984,61 @@
         <v>45306.375</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F191" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J191">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="K191">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L191">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="M191">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="N191">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O191">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="P191">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q191">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R191">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T191">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W191">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17047,13 +17047,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z191">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17070,7 +17070,7 @@
         <v>45307.375</v>
       </c>
       <c r="E192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F192" t="s">
         <v>35</v>
@@ -17233,7 +17233,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7253931</v>
+        <v>7253667</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -17242,40 +17242,40 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="F194" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H194">
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J194">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="K194">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L194">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M194">
-        <v>1.444</v>
+        <v>3.3</v>
       </c>
       <c r="N194">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O194">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="P194">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -17284,34 +17284,34 @@
         <v>1.8</v>
       </c>
       <c r="S194">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T194">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U194">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V194">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
+        <v>0.5</v>
+      </c>
+      <c r="Z194">
         <v>-0.5</v>
       </c>
-      <c r="Z194">
-        <v>0.4</v>
-      </c>
       <c r="AA194">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -17319,7 +17319,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7254184</v>
+        <v>7253694</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -17328,58 +17328,58 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E195" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F195" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G195">
         <v>2</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="s">
         <v>81</v>
       </c>
       <c r="J195">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="K195">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M195">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="N195">
         <v>3.2</v>
       </c>
       <c r="O195">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P195">
         <v>-0.5</v>
       </c>
       <c r="Q195">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T195">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V195">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17388,16 +17388,16 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.95</v>
+        <v>0.3875</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17405,7 +17405,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7253929</v>
+        <v>7253930</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
@@ -17414,58 +17414,58 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E196" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="s">
         <v>81</v>
       </c>
       <c r="J196">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="K196">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M196">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N196">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q196">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="R196">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S196">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T196">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="W196">
         <v>-1</v>
@@ -17474,13 +17474,13 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB196">
         <v>-1</v>
@@ -17491,7 +17491,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7254183</v>
+        <v>7253666</v>
       </c>
       <c r="C197" t="s">
         <v>27</v>
@@ -17500,76 +17500,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J197">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K197">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L197">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M197">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="N197">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O197">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="P197">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q197">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S197">
         <v>2</v>
       </c>
       <c r="T197">
+        <v>1.95</v>
+      </c>
+      <c r="U197">
         <v>1.85</v>
       </c>
-      <c r="U197">
-        <v>1.95</v>
-      </c>
       <c r="V197">
         <v>-1</v>
       </c>
       <c r="W197">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y197">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA197">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17577,7 +17577,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7253666</v>
+        <v>7254183</v>
       </c>
       <c r="C198" t="s">
         <v>27</v>
@@ -17586,76 +17586,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E198" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J198">
+        <v>3.6</v>
+      </c>
+      <c r="K198">
+        <v>3</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>7</v>
+      </c>
+      <c r="N198">
         <v>3.4</v>
       </c>
-      <c r="K198">
-        <v>2.9</v>
-      </c>
-      <c r="L198">
-        <v>2.1</v>
-      </c>
-      <c r="M198">
-        <v>4.75</v>
-      </c>
-      <c r="N198">
-        <v>3.1</v>
-      </c>
       <c r="O198">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="P198">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q198">
+        <v>1.8</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
+        <v>2</v>
+      </c>
+      <c r="T198">
+        <v>1.85</v>
+      </c>
+      <c r="U198">
         <v>1.95</v>
       </c>
-      <c r="R198">
-        <v>1.75</v>
-      </c>
-      <c r="S198">
-        <v>2</v>
-      </c>
-      <c r="T198">
-        <v>1.95</v>
-      </c>
-      <c r="U198">
-        <v>1.85</v>
-      </c>
       <c r="V198">
         <v>-1</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X198">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z198">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB198">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17663,7 +17663,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7253930</v>
+        <v>7254184</v>
       </c>
       <c r="C199" t="s">
         <v>27</v>
@@ -17672,40 +17672,40 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E199" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199" t="s">
         <v>81</v>
       </c>
       <c r="J199">
-        <v>1.533</v>
+        <v>1.833</v>
       </c>
       <c r="K199">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L199">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M199">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N199">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O199">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P199">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q199">
         <v>1.875</v>
@@ -17714,16 +17714,16 @@
         <v>1.925</v>
       </c>
       <c r="S199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T199">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U199">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V199">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="W199">
         <v>-1</v>
@@ -17738,7 +17738,7 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB199">
         <v>-1</v>
@@ -17749,7 +17749,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7253694</v>
+        <v>7253931</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
@@ -17758,76 +17758,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E200" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F200" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G200">
         <v>2</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200" t="s">
         <v>81</v>
       </c>
       <c r="J200">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="K200">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L200">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M200">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="N200">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O200">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P200">
+        <v>-1.25</v>
+      </c>
+      <c r="Q200">
+        <v>2</v>
+      </c>
+      <c r="R200">
+        <v>1.8</v>
+      </c>
+      <c r="S200">
+        <v>2.25</v>
+      </c>
+      <c r="T200">
+        <v>1.8</v>
+      </c>
+      <c r="U200">
+        <v>2</v>
+      </c>
+      <c r="V200">
+        <v>0.444</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
         <v>-0.5</v>
       </c>
-      <c r="Q200">
-        <v>1.9</v>
-      </c>
-      <c r="R200">
-        <v>1.9</v>
-      </c>
-      <c r="S200">
-        <v>1.75</v>
-      </c>
-      <c r="T200">
-        <v>1.775</v>
-      </c>
-      <c r="U200">
-        <v>2.025</v>
-      </c>
-      <c r="V200">
-        <v>1</v>
-      </c>
-      <c r="W200">
-        <v>-1</v>
-      </c>
-      <c r="X200">
-        <v>-1</v>
-      </c>
-      <c r="Y200">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA200">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB200">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17835,7 +17835,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7253667</v>
+        <v>7253929</v>
       </c>
       <c r="C201" t="s">
         <v>27</v>
@@ -17844,76 +17844,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E201" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J201">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="K201">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="L201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M201">
+        <v>1.8</v>
+      </c>
+      <c r="N201">
         <v>3.3</v>
       </c>
-      <c r="N201">
-        <v>3</v>
-      </c>
       <c r="O201">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="P201">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q201">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T201">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U201">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V201">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W201">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z201">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AB201">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17930,7 +17930,7 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F202" t="s">
         <v>39</v>
@@ -18188,7 +18188,7 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E205" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F205" t="s">
         <v>29</v>
@@ -18351,7 +18351,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7253669</v>
+        <v>7253925</v>
       </c>
       <c r="C207" t="s">
         <v>27</v>
@@ -18360,76 +18360,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E207" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I207" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J207">
-        <v>1.727</v>
+        <v>2.35</v>
       </c>
       <c r="K207">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L207">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="M207">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="N207">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="O207">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P207">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q207">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T207">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U207">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y207">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA207">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB207">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18437,7 +18437,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7253923</v>
+        <v>7253669</v>
       </c>
       <c r="C208" t="s">
         <v>27</v>
@@ -18446,76 +18446,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F208" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H208">
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J208">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="K208">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L208">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M208">
-        <v>2.375</v>
+        <v>1.533</v>
       </c>
       <c r="N208">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P208">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q208">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R208">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T208">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V208">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W208">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z208">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18523,7 +18523,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7253924</v>
+        <v>7253923</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -18532,76 +18532,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G209">
         <v>0</v>
       </c>
       <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209" t="s">
+        <v>83</v>
+      </c>
+      <c r="J209">
+        <v>2.45</v>
+      </c>
+      <c r="K209">
+        <v>2.7</v>
+      </c>
+      <c r="L209">
         <v>3</v>
       </c>
-      <c r="I209" t="s">
-        <v>82</v>
-      </c>
-      <c r="J209">
-        <v>5</v>
-      </c>
-      <c r="K209">
-        <v>3</v>
-      </c>
-      <c r="L209">
-        <v>1.727</v>
-      </c>
       <c r="M209">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="N209">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="O209">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="P209">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q209">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S209">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T209">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U209">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V209">
         <v>-1</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X209">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z209">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AA209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18609,7 +18609,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7253925</v>
+        <v>7253924</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18618,55 +18618,55 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
         <v>3</v>
-      </c>
-      <c r="H210">
-        <v>4</v>
       </c>
       <c r="I210" t="s">
         <v>82</v>
       </c>
       <c r="J210">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="K210">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L210">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="M210">
-        <v>2.4</v>
+        <v>8</v>
       </c>
       <c r="N210">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="P210">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q210">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="R210">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S210">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T210">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
         <v>-1</v>
@@ -18675,16 +18675,16 @@
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA210">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB210">
         <v>-1</v>
@@ -19137,7 +19137,7 @@
         <v>28</v>
       </c>
       <c r="F216" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19220,7 +19220,7 @@
         <v>45335.41666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F217" t="s">
         <v>35</v>
@@ -20080,7 +20080,7 @@
         <v>45342.41666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F227" t="s">
         <v>68</v>
@@ -20255,7 +20255,7 @@
         <v>44</v>
       </c>
       <c r="F229" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -20771,7 +20771,7 @@
         <v>51</v>
       </c>
       <c r="F235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G235">
         <v>3</v>
@@ -21456,10 +21456,10 @@
         <v>45356.4375</v>
       </c>
       <c r="E243" t="s">
+        <v>47</v>
+      </c>
+      <c r="F243" t="s">
         <v>46</v>
-      </c>
-      <c r="F243" t="s">
-        <v>48</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -22319,7 +22319,7 @@
         <v>54</v>
       </c>
       <c r="F253" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G253">
         <v>4</v>
@@ -22491,7 +22491,7 @@
         <v>42</v>
       </c>
       <c r="F255" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -22823,7 +22823,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7777480</v>
+        <v>7777481</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
@@ -22832,76 +22832,76 @@
         <v>45398.4375</v>
       </c>
       <c r="E259" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F259" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J259">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="K259">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="L259">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="M259">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="N259">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="O259">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="P259">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q259">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R259">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S259">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T259">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U259">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V259">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W259">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA259">
-        <v>0.45</v>
+        <v>1.025</v>
       </c>
       <c r="AB259">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:28">
@@ -22909,7 +22909,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7777481</v>
+        <v>7777478</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22918,76 +22918,76 @@
         <v>45398.4375</v>
       </c>
       <c r="E260" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F260" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G260">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J260">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="K260">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L260">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="M260">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="N260">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O260">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="P260">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q260">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R260">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S260">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T260">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U260">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V260">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W260">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA260">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB260">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:28">
@@ -22995,7 +22995,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7777478</v>
+        <v>7777480</v>
       </c>
       <c r="C261" t="s">
         <v>27</v>
@@ -23004,10 +23004,10 @@
         <v>45398.4375</v>
       </c>
       <c r="E261" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -23019,34 +23019,34 @@
         <v>83</v>
       </c>
       <c r="J261">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="K261">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L261">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M261">
+        <v>2.5</v>
+      </c>
+      <c r="N261">
         <v>2.625</v>
       </c>
-      <c r="N261">
-        <v>2.9</v>
-      </c>
       <c r="O261">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P261">
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="R261">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S261">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T261">
         <v>1.9</v>
@@ -23058,7 +23058,7 @@
         <v>-1</v>
       </c>
       <c r="W261">
-        <v>1.9</v>
+        <v>1.625</v>
       </c>
       <c r="X261">
         <v>-1</v>
@@ -23070,10 +23070,10 @@
         <v>0</v>
       </c>
       <c r="AA261">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AB261">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="262" spans="1:28">
@@ -23090,7 +23090,7 @@
         <v>45399.4375</v>
       </c>
       <c r="E262" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F262" t="s">
         <v>51</v>
@@ -23176,7 +23176,7 @@
         <v>45399.4375</v>
       </c>
       <c r="E263" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F263" t="s">
         <v>44</v>
@@ -23265,7 +23265,7 @@
         <v>28</v>
       </c>
       <c r="F264" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G264">
         <v>0</v>

--- a/Egypt Division 2/Egypt Division 2.xlsx
+++ b/Egypt Division 2/Egypt Division 2.xlsx
@@ -154,13 +154,13 @@
     <t>Ghazl El Mahallah</t>
   </si>
   <si>
-    <t>Asyut Petroleum</t>
-  </si>
-  <si>
     <t>Misr Lel Makasa</t>
   </si>
   <si>
     <t>Aswan FC</t>
+  </si>
+  <si>
+    <t>Asyut Petroleum</t>
   </si>
   <si>
     <t>Al Qanah</t>
@@ -187,13 +187,13 @@
     <t>Al Hilal Matrouh</t>
   </si>
   <si>
-    <t>Delphi SC</t>
+    <t>MS Tala</t>
   </si>
   <si>
     <t>Sporting Alexandria</t>
   </si>
   <si>
-    <t>MS Tala</t>
+    <t>Delphi SC</t>
   </si>
   <si>
     <t>Al Majd</t>
@@ -2195,7 +2195,7 @@
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2281,7 +2281,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2367,7 +2367,7 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -2785,7 +2785,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>7254025</v>
+        <v>7254024</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2797,7 +2797,7 @@
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2809,40 +2809,40 @@
         <v>82</v>
       </c>
       <c r="J26">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L26">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="M26">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="N26">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O26">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="P26">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q26">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U26">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V26">
         <v>-1</v>
@@ -2851,19 +2851,19 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2871,7 +2871,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7254024</v>
+        <v>7254098</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2883,73 +2883,73 @@
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K27">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L27">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="N27">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O27">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="P27">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q27">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T27">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z27">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2957,7 +2957,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>7254098</v>
+        <v>7254025</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2969,73 +2969,73 @@
         <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J28">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="K28">
         <v>3.25</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M28">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="N28">
         <v>3.25</v>
       </c>
       <c r="O28">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P28">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q28">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T28">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U28">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V28">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y28">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3043,7 +3043,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7254021</v>
+        <v>7253681</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -3052,73 +3052,73 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29">
+        <v>2.1</v>
+      </c>
+      <c r="K29">
+        <v>3.2</v>
+      </c>
+      <c r="L29">
+        <v>3.2</v>
+      </c>
+      <c r="M29">
+        <v>2.1</v>
+      </c>
+      <c r="N29">
         <v>3</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>81</v>
-      </c>
-      <c r="J29">
-        <v>1.727</v>
-      </c>
-      <c r="K29">
-        <v>3.5</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29">
-        <v>1.75</v>
-      </c>
-      <c r="N29">
-        <v>3.5</v>
-      </c>
       <c r="O29">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q29">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="R29">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S29">
         <v>2</v>
       </c>
       <c r="T29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y29">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA29">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB29">
         <v>-1</v>
@@ -3129,7 +3129,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7253681</v>
+        <v>7254021</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3138,73 +3138,73 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K30">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="N30">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q30">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
         <v>2</v>
       </c>
       <c r="T30">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB30">
         <v>-1</v>
@@ -3215,7 +3215,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7254023</v>
+        <v>7253682</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3224,76 +3224,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J31">
+        <v>2.375</v>
+      </c>
+      <c r="K31">
+        <v>3.2</v>
+      </c>
+      <c r="L31">
+        <v>2.75</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
         <v>3.1</v>
       </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>2.2</v>
-      </c>
-      <c r="M31">
-        <v>3.25</v>
-      </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
       <c r="O31">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.45</v>
+        <v>1.1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3301,7 +3301,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7254022</v>
+        <v>7254023</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3310,76 +3310,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J32">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="M32">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="N32">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O32">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="P32">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R32">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
         <v>2</v>
       </c>
       <c r="T32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V32">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.925</v>
+        <v>0.45</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3387,7 +3387,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7253682</v>
+        <v>7254022</v>
       </c>
       <c r="C33" t="s">
         <v>27</v>
@@ -3396,58 +3396,58 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
         <v>81</v>
       </c>
       <c r="J33">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>3.5</v>
+      </c>
+      <c r="M33">
+        <v>1.666</v>
+      </c>
+      <c r="N33">
         <v>3.2</v>
       </c>
-      <c r="L33">
-        <v>2.75</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <v>3.1</v>
-      </c>
       <c r="O33">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q33">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="R33">
-        <v>1.7</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W33">
         <v>-1</v>
@@ -3456,13 +3456,13 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB33">
         <v>-1</v>
@@ -3829,7 +3829,7 @@
         <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4001,7 +4001,7 @@
         <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4419,7 +4419,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7254013</v>
+        <v>7254157</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
@@ -4431,70 +4431,70 @@
         <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45">
+        <v>1.909</v>
+      </c>
+      <c r="K45">
+        <v>3.1</v>
+      </c>
+      <c r="L45">
+        <v>3.75</v>
+      </c>
+      <c r="M45">
+        <v>1.85</v>
+      </c>
+      <c r="N45">
+        <v>3.2</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="P45">
+        <v>-0.5</v>
+      </c>
+      <c r="Q45">
+        <v>1.825</v>
+      </c>
+      <c r="R45">
+        <v>1.975</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>1.8</v>
+      </c>
+      <c r="V45">
+        <v>-1</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
         <v>3</v>
       </c>
-      <c r="H45">
-        <v>3</v>
-      </c>
-      <c r="I45" t="s">
-        <v>83</v>
-      </c>
-      <c r="J45">
-        <v>2.15</v>
-      </c>
-      <c r="K45">
-        <v>3</v>
-      </c>
-      <c r="L45">
-        <v>3.4</v>
-      </c>
-      <c r="M45">
-        <v>2.625</v>
-      </c>
-      <c r="N45">
-        <v>2.875</v>
-      </c>
-      <c r="O45">
-        <v>2.75</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>1.85</v>
-      </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>2</v>
-      </c>
-      <c r="T45">
-        <v>1.9</v>
-      </c>
-      <c r="U45">
-        <v>1.9</v>
-      </c>
-      <c r="V45">
-        <v>-1</v>
-      </c>
-      <c r="W45">
-        <v>1.875</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
       <c r="Y45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
@@ -4591,7 +4591,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7254157</v>
+        <v>7254013</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -4600,73 +4600,73 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J47">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="K47">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
+        <v>2.625</v>
+      </c>
+      <c r="N47">
+        <v>2.875</v>
+      </c>
+      <c r="O47">
+        <v>2.75</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>1.85</v>
       </c>
-      <c r="N47">
-        <v>3.2</v>
-      </c>
-      <c r="O47">
-        <v>4</v>
-      </c>
-      <c r="P47">
-        <v>-0.5</v>
-      </c>
-      <c r="Q47">
-        <v>1.825</v>
-      </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S47">
         <v>2</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
         <v>-1</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB47">
         <v>-1</v>
@@ -5205,7 +5205,7 @@
         <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5279,7 +5279,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7253998</v>
+        <v>7254009</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5288,10 +5288,10 @@
         <v>45222.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5303,43 +5303,43 @@
         <v>81</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K55">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N55">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O55">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="P55">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R55">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S55">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>0.615</v>
+        <v>1.4</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5348,13 +5348,13 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB55">
         <v>-1</v>
@@ -5365,7 +5365,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7254009</v>
+        <v>7253997</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5374,16 +5374,16 @@
         <v>45222.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
         <v>81</v>
@@ -5398,22 +5398,22 @@
         <v>3</v>
       </c>
       <c r="M56">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N56">
+        <v>2.875</v>
+      </c>
+      <c r="O56">
         <v>3</v>
       </c>
-      <c r="O56">
-        <v>2.75</v>
-      </c>
       <c r="P56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q56">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S56">
         <v>2</v>
@@ -5425,7 +5425,7 @@
         <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5434,16 +5434,16 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5451,7 +5451,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7253638</v>
+        <v>7253998</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
@@ -5460,10 +5460,10 @@
         <v>45222.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5475,43 +5475,43 @@
         <v>81</v>
       </c>
       <c r="J57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L57">
+        <v>3.4</v>
+      </c>
+      <c r="M57">
+        <v>1.615</v>
+      </c>
+      <c r="N57">
+        <v>3.4</v>
+      </c>
+      <c r="O57">
+        <v>4.75</v>
+      </c>
+      <c r="P57">
+        <v>-0.75</v>
+      </c>
+      <c r="Q57">
+        <v>1.825</v>
+      </c>
+      <c r="R57">
+        <v>1.975</v>
+      </c>
+      <c r="S57">
         <v>2.25</v>
       </c>
-      <c r="M57">
-        <v>4</v>
-      </c>
-      <c r="N57">
-        <v>3.2</v>
-      </c>
-      <c r="O57">
-        <v>1.833</v>
-      </c>
-      <c r="P57">
-        <v>0.5</v>
-      </c>
-      <c r="Q57">
-        <v>1.9</v>
-      </c>
-      <c r="R57">
-        <v>1.9</v>
-      </c>
-      <c r="S57">
-        <v>2</v>
-      </c>
       <c r="T57">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>3</v>
+        <v>0.615</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5520,13 +5520,13 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>0.7250000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB57">
         <v>-1</v>
@@ -5537,7 +5537,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7253997</v>
+        <v>7253638</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5546,59 +5546,59 @@
         <v>45222.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>2</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="s">
         <v>81</v>
       </c>
       <c r="J58">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K58">
         <v>3</v>
       </c>
       <c r="L58">
+        <v>2.25</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58">
+        <v>3.2</v>
+      </c>
+      <c r="O58">
+        <v>1.833</v>
+      </c>
+      <c r="P58">
+        <v>0.5</v>
+      </c>
+      <c r="Q58">
+        <v>1.9</v>
+      </c>
+      <c r="R58">
+        <v>1.9</v>
+      </c>
+      <c r="S58">
+        <v>2</v>
+      </c>
+      <c r="T58">
+        <v>1.725</v>
+      </c>
+      <c r="U58">
+        <v>1.975</v>
+      </c>
+      <c r="V58">
         <v>3</v>
       </c>
-      <c r="M58">
-        <v>2.3</v>
-      </c>
-      <c r="N58">
-        <v>2.875</v>
-      </c>
-      <c r="O58">
-        <v>3</v>
-      </c>
-      <c r="P58">
-        <v>-0.25</v>
-      </c>
-      <c r="Q58">
-        <v>2</v>
-      </c>
-      <c r="R58">
-        <v>1.7</v>
-      </c>
-      <c r="S58">
-        <v>2</v>
-      </c>
-      <c r="T58">
-        <v>1.875</v>
-      </c>
-      <c r="U58">
-        <v>1.925</v>
-      </c>
-      <c r="V58">
-        <v>1.3</v>
-      </c>
       <c r="W58">
         <v>-1</v>
       </c>
@@ -5606,16 +5606,16 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5709,7 +5709,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7253994</v>
+        <v>7253684</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5718,76 +5718,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J60">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="K60">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="L60">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="N60">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O60">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="P60">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q60">
+        <v>1.8</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>1.85</v>
+      </c>
+      <c r="U60">
         <v>1.95</v>
       </c>
-      <c r="R60">
-        <v>1.85</v>
-      </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
-      <c r="T60">
-        <v>1.775</v>
-      </c>
-      <c r="U60">
-        <v>2.025</v>
-      </c>
       <c r="V60">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y60">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA60">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5795,7 +5795,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7253684</v>
+        <v>7253994</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -5804,76 +5804,76 @@
         <v>45223.41666666666</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J61">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M61">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="N61">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O61">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S61">
         <v>2</v>
       </c>
       <c r="T61">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U61">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V61">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z61">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB61">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -6139,7 +6139,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7384145</v>
+        <v>7384130</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -6151,10 +6151,10 @@
         <v>57</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6163,43 +6163,43 @@
         <v>81</v>
       </c>
       <c r="J65">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="K65">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L65">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="N65">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="O65">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="P65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R65">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T65">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U65">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V65">
-        <v>0.55</v>
+        <v>1.625</v>
       </c>
       <c r="W65">
         <v>-1</v>
@@ -6208,13 +6208,13 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB65">
         <v>-1</v>
@@ -6311,7 +6311,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7384130</v>
+        <v>7384145</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -6323,10 +6323,10 @@
         <v>59</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6335,43 +6335,43 @@
         <v>81</v>
       </c>
       <c r="J67">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="K67">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M67">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O67">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q67">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S67">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T67">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V67">
-        <v>1.625</v>
+        <v>0.55</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6380,13 +6380,13 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB67">
         <v>-1</v>
@@ -6406,7 +6406,7 @@
         <v>45228.39583333334</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
         <v>45</v>
@@ -6492,7 +6492,7 @@
         <v>45229.39583333334</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F69" t="s">
         <v>51</v>
@@ -7183,7 +7183,7 @@
         <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7355,7 +7355,7 @@
         <v>55</v>
       </c>
       <c r="F79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7613,7 +7613,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -8215,7 +8215,7 @@
         <v>62</v>
       </c>
       <c r="F89" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8728,7 +8728,7 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F95" t="s">
         <v>54</v>
@@ -8900,7 +8900,7 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
         <v>45</v>
@@ -8986,7 +8986,7 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F98" t="s">
         <v>44</v>
@@ -9591,7 +9591,7 @@
         <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G105">
         <v>6</v>
@@ -9760,7 +9760,7 @@
         <v>45250.39583333334</v>
       </c>
       <c r="E107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F107" t="s">
         <v>35</v>
@@ -10193,7 +10193,7 @@
         <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10623,7 +10623,7 @@
         <v>49</v>
       </c>
       <c r="F117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10792,7 +10792,7 @@
         <v>45259.39583333334</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F119" t="s">
         <v>54</v>
@@ -10964,7 +10964,7 @@
         <v>45259.39583333334</v>
       </c>
       <c r="E121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F121" t="s">
         <v>45</v>
@@ -11308,10 +11308,10 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E125" t="s">
+        <v>47</v>
+      </c>
+      <c r="F125" t="s">
         <v>48</v>
-      </c>
-      <c r="F125" t="s">
-        <v>46</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7253649</v>
+        <v>7253965</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11394,13 +11394,13 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11409,43 +11409,43 @@
         <v>81</v>
       </c>
       <c r="J126">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="K126">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L126">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M126">
+        <v>1.95</v>
+      </c>
+      <c r="N126">
+        <v>3.1</v>
+      </c>
+      <c r="O126">
+        <v>3.6</v>
+      </c>
+      <c r="P126">
+        <v>-0.25</v>
+      </c>
+      <c r="Q126">
+        <v>1.725</v>
+      </c>
+      <c r="R126">
+        <v>1.975</v>
+      </c>
+      <c r="S126">
+        <v>2.25</v>
+      </c>
+      <c r="T126">
+        <v>1.95</v>
+      </c>
+      <c r="U126">
         <v>1.85</v>
       </c>
-      <c r="N126">
-        <v>3</v>
-      </c>
-      <c r="O126">
-        <v>4.2</v>
-      </c>
-      <c r="P126">
-        <v>-0.5</v>
-      </c>
-      <c r="Q126">
-        <v>1.95</v>
-      </c>
-      <c r="R126">
-        <v>1.85</v>
-      </c>
-      <c r="S126">
-        <v>2</v>
-      </c>
-      <c r="T126">
-        <v>1.9</v>
-      </c>
-      <c r="U126">
-        <v>1.9</v>
-      </c>
       <c r="V126">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11454,13 +11454,13 @@
         <v>-1</v>
       </c>
       <c r="Y126">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
         <v>0.95</v>
-      </c>
-      <c r="Z126">
-        <v>-1</v>
-      </c>
-      <c r="AA126">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AB126">
         <v>-1</v>
@@ -11471,7 +11471,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7253965</v>
+        <v>7253963</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>
@@ -11480,43 +11480,43 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="s">
         <v>81</v>
       </c>
       <c r="J127">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="K127">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L127">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="M127">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="N127">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O127">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P127">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q127">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="R127">
         <v>1.975</v>
@@ -11531,7 +11531,7 @@
         <v>1.85</v>
       </c>
       <c r="V127">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11540,7 +11540,7 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11557,7 +11557,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7253963</v>
+        <v>7253649</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11566,58 +11566,58 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G128">
         <v>3</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="s">
         <v>81</v>
       </c>
       <c r="J128">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="K128">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="L128">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M128">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="N128">
         <v>3</v>
       </c>
       <c r="O128">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="P128">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q128">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="R128">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T128">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V128">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W128">
         <v>-1</v>
@@ -11626,13 +11626,13 @@
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="Z128">
         <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB128">
         <v>-1</v>
@@ -11655,7 +11655,7 @@
         <v>28</v>
       </c>
       <c r="F129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -11815,7 +11815,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7253650</v>
+        <v>7253962</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
@@ -11824,76 +11824,76 @@
         <v>45265.39583333334</v>
       </c>
       <c r="E131" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J131">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K131">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M131">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N131">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O131">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="P131">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q131">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T131">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U131">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
         <v>-1</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X131">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11901,7 +11901,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7253962</v>
+        <v>7253688</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
@@ -11910,10 +11910,10 @@
         <v>45265.39583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11925,61 +11925,61 @@
         <v>83</v>
       </c>
       <c r="J132">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="K132">
+        <v>2.875</v>
+      </c>
+      <c r="L132">
+        <v>3.2</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
         <v>3</v>
       </c>
-      <c r="L132">
-        <v>1.8</v>
-      </c>
-      <c r="M132">
-        <v>4</v>
-      </c>
-      <c r="N132">
-        <v>2.9</v>
-      </c>
       <c r="O132">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Q132">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R132">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S132">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
         <v>-1</v>
       </c>
       <c r="W132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11987,7 +11987,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7253688</v>
+        <v>7253650</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -11996,76 +11996,76 @@
         <v>45265.39583333334</v>
       </c>
       <c r="E133" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J133">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K133">
         <v>2.875</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="P133">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q133">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R133">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
         <v>2</v>
       </c>
       <c r="T133">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V133">
         <v>-1</v>
       </c>
       <c r="W133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.7250000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -12073,7 +12073,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7253957</v>
+        <v>7253956</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -12082,10 +12082,10 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12097,43 +12097,43 @@
         <v>81</v>
       </c>
       <c r="J134">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K134">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M134">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="N134">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O134">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="P134">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q134">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="R134">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
         <v>2.25</v>
       </c>
       <c r="T134">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12142,13 +12142,13 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB134">
         <v>-1</v>
@@ -12159,7 +12159,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7253652</v>
+        <v>7558451</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12168,76 +12168,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E135" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J135">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="K135">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="L135">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="N135">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="O135">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q135">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="R135">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T135">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
         <v>-1</v>
       </c>
       <c r="W135">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB135">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="136" spans="1:28">
@@ -12245,7 +12245,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7587389</v>
+        <v>7558905</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12254,76 +12254,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J136">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="K136">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="M136">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="N136">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O136">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="P136">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q136">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="R136">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S136">
         <v>2.25</v>
       </c>
       <c r="T136">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
         <v>-1</v>
       </c>
       <c r="W136">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="AA136">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12417,7 +12417,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7558905</v>
+        <v>7587389</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12426,76 +12426,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J138">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K138">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L138">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="N138">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O138">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="P138">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q138">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="R138">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S138">
         <v>2.25</v>
       </c>
       <c r="T138">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U138">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
         <v>-1</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X138">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>1.075</v>
+        <v>0.95</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB138">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12503,7 +12503,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7558451</v>
+        <v>7253652</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12512,76 +12512,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E139" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F139" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J139">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="K139">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="L139">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M139">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="N139">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O139">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P139">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q139">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T139">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
         <v>-1</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X139">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA139">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:28">
@@ -12589,7 +12589,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7253956</v>
+        <v>7253957</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12598,10 +12598,10 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F140" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12613,43 +12613,43 @@
         <v>81</v>
       </c>
       <c r="J140">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="N140">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O140">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P140">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q140">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S140">
         <v>2.25</v>
       </c>
       <c r="T140">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>0.8500000000000001</v>
+        <v>1.375</v>
       </c>
       <c r="W140">
         <v>-1</v>
@@ -12658,13 +12658,13 @@
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.95</v>
+        <v>1.075</v>
       </c>
       <c r="Z140">
         <v>-1</v>
       </c>
       <c r="AA140">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -12675,7 +12675,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7558452</v>
+        <v>7594612</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -12684,58 +12684,58 @@
         <v>45275.39583333334</v>
       </c>
       <c r="E141" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F141" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="s">
         <v>81</v>
       </c>
       <c r="J141">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="K141">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="M141">
-        <v>2.45</v>
+        <v>4.333</v>
       </c>
       <c r="N141">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="O141">
-        <v>2.45</v>
+        <v>1.615</v>
       </c>
       <c r="P141">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q141">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S141">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V141">
-        <v>1.45</v>
+        <v>3.333</v>
       </c>
       <c r="W141">
         <v>-1</v>
@@ -12744,16 +12744,16 @@
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12761,7 +12761,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7594612</v>
+        <v>7558452</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12770,58 +12770,58 @@
         <v>45275.39583333334</v>
       </c>
       <c r="E142" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F142" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="s">
         <v>81</v>
       </c>
       <c r="J142">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="K142">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L142">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="M142">
-        <v>4.333</v>
+        <v>2.45</v>
       </c>
       <c r="N142">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O142">
-        <v>1.615</v>
+        <v>2.45</v>
       </c>
       <c r="P142">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q142">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="R142">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S142">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>3.333</v>
+        <v>1.45</v>
       </c>
       <c r="W142">
         <v>-1</v>
@@ -12830,16 +12830,16 @@
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -13200,7 +13200,7 @@
         <v>45278.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F147" t="s">
         <v>35</v>
@@ -13363,7 +13363,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>7253654</v>
+        <v>7253952</v>
       </c>
       <c r="C149" t="s">
         <v>27</v>
@@ -13372,76 +13372,76 @@
         <v>45279.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J149">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="K149">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L149">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="M149">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="N149">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O149">
-        <v>1.533</v>
+        <v>3.4</v>
       </c>
       <c r="P149">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q149">
+        <v>1.9</v>
+      </c>
+      <c r="R149">
+        <v>1.9</v>
+      </c>
+      <c r="S149">
+        <v>1.75</v>
+      </c>
+      <c r="T149">
         <v>1.825</v>
       </c>
-      <c r="R149">
+      <c r="U149">
         <v>1.975</v>
       </c>
-      <c r="S149">
-        <v>2.25</v>
-      </c>
-      <c r="T149">
+      <c r="V149">
+        <v>-1</v>
+      </c>
+      <c r="W149">
         <v>1.9</v>
       </c>
-      <c r="U149">
-        <v>1.9</v>
-      </c>
-      <c r="V149">
-        <v>-1</v>
-      </c>
-      <c r="W149">
-        <v>-1</v>
-      </c>
       <c r="X149">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:28">
@@ -13449,7 +13449,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>7253952</v>
+        <v>7253654</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
@@ -13458,76 +13458,76 @@
         <v>45279.39583333334</v>
       </c>
       <c r="E150" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J150">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="K150">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L150">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="M150">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="N150">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="O150">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="P150">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q150">
+        <v>1.825</v>
+      </c>
+      <c r="R150">
+        <v>1.975</v>
+      </c>
+      <c r="S150">
+        <v>2.25</v>
+      </c>
+      <c r="T150">
         <v>1.9</v>
       </c>
-      <c r="R150">
+      <c r="U150">
         <v>1.9</v>
       </c>
-      <c r="S150">
-        <v>1.75</v>
-      </c>
-      <c r="T150">
-        <v>1.825</v>
-      </c>
-      <c r="U150">
-        <v>1.975</v>
-      </c>
       <c r="V150">
         <v>-1</v>
       </c>
       <c r="W150">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y150">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z150">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13544,10 +13544,10 @@
         <v>45280.39583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G151">
         <v>4</v>
@@ -14407,7 +14407,7 @@
         <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14490,7 +14490,7 @@
         <v>45288.39583333334</v>
       </c>
       <c r="E162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F162" t="s">
         <v>49</v>
@@ -14665,7 +14665,7 @@
         <v>50</v>
       </c>
       <c r="F164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -15092,7 +15092,7 @@
         <v>45294.39583333334</v>
       </c>
       <c r="E169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F169" t="s">
         <v>43</v>
@@ -15178,10 +15178,10 @@
         <v>45294.39583333334</v>
       </c>
       <c r="E170" t="s">
+        <v>48</v>
+      </c>
+      <c r="F170" t="s">
         <v>46</v>
-      </c>
-      <c r="F170" t="s">
-        <v>47</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -15685,7 +15685,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7253938</v>
+        <v>7253940</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
@@ -15694,76 +15694,76 @@
         <v>45299.39583333334</v>
       </c>
       <c r="E176" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J176">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="K176">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L176">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="M176">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N176">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="O176">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="P176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q176">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S176">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T176">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
         <v>-1</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X176">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z176">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA176">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -15771,7 +15771,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7253940</v>
+        <v>7253938</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15780,76 +15780,76 @@
         <v>45299.39583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F177" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J177">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="K177">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L177">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N177">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O177">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="P177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q177">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R177">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S177">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T177">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="U177">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V177">
         <v>-1</v>
       </c>
       <c r="W177">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA177">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AB177">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -16373,7 +16373,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7698417</v>
+        <v>7253933</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
@@ -16382,13 +16382,13 @@
         <v>45306.375</v>
       </c>
       <c r="E184" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -16397,43 +16397,43 @@
         <v>81</v>
       </c>
       <c r="J184">
+        <v>1.8</v>
+      </c>
+      <c r="K184">
         <v>3.1</v>
       </c>
-      <c r="K184">
-        <v>2.8</v>
-      </c>
       <c r="L184">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="M184">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="N184">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="O184">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q184">
+        <v>1.975</v>
+      </c>
+      <c r="R184">
+        <v>1.825</v>
+      </c>
+      <c r="S184">
+        <v>2.25</v>
+      </c>
+      <c r="T184">
+        <v>2</v>
+      </c>
+      <c r="U184">
         <v>1.8</v>
       </c>
-      <c r="R184">
-        <v>2</v>
-      </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
-      <c r="T184">
-        <v>1.95</v>
-      </c>
-      <c r="U184">
-        <v>1.85</v>
-      </c>
       <c r="V184">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16442,16 +16442,16 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16459,7 +16459,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7253934</v>
+        <v>7253663</v>
       </c>
       <c r="C185" t="s">
         <v>27</v>
@@ -16468,61 +16468,61 @@
         <v>45306.375</v>
       </c>
       <c r="E185" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J185">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="K185">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L185">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="M185">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="N185">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="O185">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="P185">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q185">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R185">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T185">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U185">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W185">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16531,13 +16531,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z185">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AA185">
         <v>-1</v>
       </c>
       <c r="AB185">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -16545,7 +16545,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7253935</v>
+        <v>7253662</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16554,76 +16554,76 @@
         <v>45306.375</v>
       </c>
       <c r="E186" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J186">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="K186">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L186">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="M186">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N186">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O186">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="P186">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q186">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="R186">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S186">
         <v>1.75</v>
       </c>
       <c r="T186">
+        <v>1.85</v>
+      </c>
+      <c r="U186">
         <v>1.95</v>
       </c>
-      <c r="U186">
-        <v>1.85</v>
-      </c>
       <c r="V186">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z186">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.475</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -16631,7 +16631,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7253933</v>
+        <v>7253664</v>
       </c>
       <c r="C187" t="s">
         <v>27</v>
@@ -16640,76 +16640,76 @@
         <v>45306.375</v>
       </c>
       <c r="E187" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F187" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J187">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="K187">
+        <v>3</v>
+      </c>
+      <c r="L187">
+        <v>2.3</v>
+      </c>
+      <c r="M187">
+        <v>2.55</v>
+      </c>
+      <c r="N187">
         <v>3.1</v>
       </c>
-      <c r="L187">
-        <v>4.2</v>
-      </c>
-      <c r="M187">
-        <v>1.7</v>
-      </c>
-      <c r="N187">
-        <v>3.5</v>
-      </c>
       <c r="O187">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="P187">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q187">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="R187">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S187">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T187">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V187">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W187">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB187">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:28">
@@ -16803,7 +16803,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7253664</v>
+        <v>7253935</v>
       </c>
       <c r="C189" t="s">
         <v>27</v>
@@ -16812,76 +16812,76 @@
         <v>45306.375</v>
       </c>
       <c r="E189" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J189">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="K189">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L189">
+        <v>2.6</v>
+      </c>
+      <c r="M189">
+        <v>3.2</v>
+      </c>
+      <c r="N189">
+        <v>2.75</v>
+      </c>
+      <c r="O189">
         <v>2.3</v>
       </c>
-      <c r="M189">
-        <v>2.55</v>
-      </c>
-      <c r="N189">
-        <v>3.1</v>
-      </c>
-      <c r="O189">
-        <v>2.55</v>
-      </c>
       <c r="P189">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q189">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R189">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T189">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U189">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V189">
         <v>-1</v>
       </c>
       <c r="W189">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA189">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AB189">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="190" spans="1:28">
@@ -16889,7 +16889,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7253662</v>
+        <v>7698417</v>
       </c>
       <c r="C190" t="s">
         <v>27</v>
@@ -16898,58 +16898,58 @@
         <v>45306.375</v>
       </c>
       <c r="E190" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F190" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="G190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="s">
         <v>81</v>
       </c>
       <c r="J190">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K190">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L190">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="M190">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="N190">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O190">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P190">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q190">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="R190">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S190">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T190">
+        <v>1.95</v>
+      </c>
+      <c r="U190">
         <v>1.85</v>
       </c>
-      <c r="U190">
-        <v>1.95</v>
-      </c>
       <c r="V190">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="W190">
         <v>-1</v>
@@ -16958,16 +16958,16 @@
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="Z190">
         <v>-1</v>
       </c>
       <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB190">
-        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:28">
@@ -16975,7 +16975,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7253663</v>
+        <v>7253934</v>
       </c>
       <c r="C191" t="s">
         <v>27</v>
@@ -16984,61 +16984,61 @@
         <v>45306.375</v>
       </c>
       <c r="E191" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F191" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J191">
-        <v>1.363</v>
+        <v>2.35</v>
       </c>
       <c r="K191">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="L191">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="M191">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="N191">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O191">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="P191">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q191">
+        <v>2.025</v>
+      </c>
+      <c r="R191">
+        <v>1.775</v>
+      </c>
+      <c r="S191">
+        <v>2</v>
+      </c>
+      <c r="T191">
         <v>1.975</v>
       </c>
-      <c r="R191">
+      <c r="U191">
         <v>1.825</v>
       </c>
-      <c r="S191">
-        <v>2.5</v>
-      </c>
-      <c r="T191">
-        <v>1.9</v>
-      </c>
-      <c r="U191">
-        <v>1.9</v>
-      </c>
       <c r="V191">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17047,13 +17047,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z191">
-        <v>0.4125</v>
+        <v>0.3875</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="192" spans="1:28">
@@ -17070,7 +17070,7 @@
         <v>45307.375</v>
       </c>
       <c r="E192" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F192" t="s">
         <v>35</v>
@@ -17233,7 +17233,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7253667</v>
+        <v>7253931</v>
       </c>
       <c r="C194" t="s">
         <v>27</v>
@@ -17242,40 +17242,40 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H194">
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J194">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="K194">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="L194">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M194">
-        <v>3.3</v>
+        <v>1.444</v>
       </c>
       <c r="N194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O194">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="P194">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q194">
         <v>2</v>
@@ -17284,34 +17284,34 @@
         <v>1.8</v>
       </c>
       <c r="S194">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T194">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U194">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V194">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W194">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="Z194">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AA194">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB194">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:28">
@@ -17319,7 +17319,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7253694</v>
+        <v>7254184</v>
       </c>
       <c r="C195" t="s">
         <v>27</v>
@@ -17328,58 +17328,58 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E195" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F195" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G195">
         <v>2</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="s">
         <v>81</v>
       </c>
       <c r="J195">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="K195">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L195">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M195">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="N195">
         <v>3.2</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P195">
         <v>-0.5</v>
       </c>
       <c r="Q195">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T195">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="U195">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V195">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17388,16 +17388,16 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AB195">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:28">
@@ -17405,7 +17405,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7253930</v>
+        <v>7253929</v>
       </c>
       <c r="C196" t="s">
         <v>27</v>
@@ -17414,58 +17414,58 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E196" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="s">
         <v>81</v>
       </c>
       <c r="J196">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="K196">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L196">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M196">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="N196">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="O196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q196">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T196">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U196">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V196">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="W196">
         <v>-1</v>
@@ -17474,13 +17474,13 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB196">
         <v>-1</v>
@@ -17491,7 +17491,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>7253666</v>
+        <v>7254183</v>
       </c>
       <c r="C197" t="s">
         <v>27</v>
@@ -17500,76 +17500,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J197">
+        <v>3.6</v>
+      </c>
+      <c r="K197">
+        <v>3</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>7</v>
+      </c>
+      <c r="N197">
         <v>3.4</v>
       </c>
-      <c r="K197">
-        <v>2.9</v>
-      </c>
-      <c r="L197">
-        <v>2.1</v>
-      </c>
-      <c r="M197">
-        <v>4.75</v>
-      </c>
-      <c r="N197">
-        <v>3.1</v>
-      </c>
       <c r="O197">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="P197">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q197">
+        <v>1.8</v>
+      </c>
+      <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
+        <v>2</v>
+      </c>
+      <c r="T197">
+        <v>1.85</v>
+      </c>
+      <c r="U197">
         <v>1.95</v>
       </c>
-      <c r="R197">
-        <v>1.75</v>
-      </c>
-      <c r="S197">
-        <v>2</v>
-      </c>
-      <c r="T197">
-        <v>1.95</v>
-      </c>
-      <c r="U197">
-        <v>1.85</v>
-      </c>
       <c r="V197">
         <v>-1</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X197">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z197">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB197">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:28">
@@ -17577,7 +17577,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7254183</v>
+        <v>7253666</v>
       </c>
       <c r="C198" t="s">
         <v>27</v>
@@ -17586,76 +17586,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E198" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F198" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J198">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K198">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L198">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M198">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="N198">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O198">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="P198">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q198">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S198">
         <v>2</v>
       </c>
       <c r="T198">
+        <v>1.95</v>
+      </c>
+      <c r="U198">
         <v>1.85</v>
       </c>
-      <c r="U198">
-        <v>1.95</v>
-      </c>
       <c r="V198">
         <v>-1</v>
       </c>
       <c r="W198">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y198">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA198">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:28">
@@ -17663,7 +17663,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7254184</v>
+        <v>7253930</v>
       </c>
       <c r="C199" t="s">
         <v>27</v>
@@ -17672,40 +17672,40 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F199" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="s">
         <v>81</v>
       </c>
       <c r="J199">
-        <v>1.833</v>
+        <v>1.533</v>
       </c>
       <c r="K199">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M199">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="N199">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P199">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q199">
         <v>1.875</v>
@@ -17714,16 +17714,16 @@
         <v>1.925</v>
       </c>
       <c r="S199">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T199">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V199">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="W199">
         <v>-1</v>
@@ -17738,7 +17738,7 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB199">
         <v>-1</v>
@@ -17749,7 +17749,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7253931</v>
+        <v>7253694</v>
       </c>
       <c r="C200" t="s">
         <v>27</v>
@@ -17758,58 +17758,58 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E200" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F200" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G200">
         <v>2</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="s">
         <v>81</v>
       </c>
       <c r="J200">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="K200">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L200">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="M200">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="N200">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="O200">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="P200">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T200">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U200">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V200">
-        <v>0.444</v>
+        <v>1</v>
       </c>
       <c r="W200">
         <v>-1</v>
@@ -17818,16 +17818,16 @@
         <v>-1</v>
       </c>
       <c r="Y200">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="Z200">
+        <v>-1</v>
+      </c>
+      <c r="AA200">
+        <v>0.3875</v>
+      </c>
+      <c r="AB200">
         <v>-0.5</v>
-      </c>
-      <c r="Z200">
-        <v>0.4</v>
-      </c>
-      <c r="AA200">
-        <v>0.8</v>
-      </c>
-      <c r="AB200">
-        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17835,7 +17835,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7253929</v>
+        <v>7253667</v>
       </c>
       <c r="C201" t="s">
         <v>27</v>
@@ -17844,76 +17844,76 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E201" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F201" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201">
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J201">
+        <v>2.375</v>
+      </c>
+      <c r="K201">
+        <v>2.8</v>
+      </c>
+      <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>3.3</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201">
+        <v>2.1</v>
+      </c>
+      <c r="P201">
+        <v>0.25</v>
+      </c>
+      <c r="Q201">
+        <v>2</v>
+      </c>
+      <c r="R201">
         <v>1.8</v>
       </c>
-      <c r="K201">
-        <v>3.25</v>
-      </c>
-      <c r="L201">
-        <v>4</v>
-      </c>
-      <c r="M201">
-        <v>1.8</v>
-      </c>
-      <c r="N201">
-        <v>3.3</v>
-      </c>
-      <c r="O201">
-        <v>4</v>
-      </c>
-      <c r="P201">
+      <c r="S201">
+        <v>2</v>
+      </c>
+      <c r="T201">
+        <v>2.025</v>
+      </c>
+      <c r="U201">
+        <v>1.775</v>
+      </c>
+      <c r="V201">
+        <v>-1</v>
+      </c>
+      <c r="W201">
+        <v>2</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
+        <v>0.5</v>
+      </c>
+      <c r="Z201">
         <v>-0.5</v>
       </c>
-      <c r="Q201">
-        <v>1.825</v>
-      </c>
-      <c r="R201">
-        <v>1.975</v>
-      </c>
-      <c r="S201">
-        <v>1.75</v>
-      </c>
-      <c r="T201">
-        <v>1.825</v>
-      </c>
-      <c r="U201">
-        <v>1.975</v>
-      </c>
-      <c r="V201">
-        <v>0.8</v>
-      </c>
-      <c r="W201">
-        <v>-1</v>
-      </c>
-      <c r="X201">
-        <v>-1</v>
-      </c>
-      <c r="Y201">
-        <v>0.825</v>
-      </c>
-      <c r="Z201">
-        <v>-1</v>
-      </c>
       <c r="AA201">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17930,7 +17930,7 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E202" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F202" t="s">
         <v>39</v>
@@ -18188,7 +18188,7 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E205" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F205" t="s">
         <v>29</v>
@@ -18351,7 +18351,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7253925</v>
+        <v>7253669</v>
       </c>
       <c r="C207" t="s">
         <v>27</v>
@@ -18360,76 +18360,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E207" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G207">
+        <v>2</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207" t="s">
+        <v>81</v>
+      </c>
+      <c r="J207">
+        <v>1.727</v>
+      </c>
+      <c r="K207">
         <v>3</v>
       </c>
-      <c r="H207">
-        <v>4</v>
-      </c>
-      <c r="I207" t="s">
-        <v>82</v>
-      </c>
-      <c r="J207">
-        <v>2.35</v>
-      </c>
-      <c r="K207">
-        <v>2.7</v>
-      </c>
       <c r="L207">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M207">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="N207">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="O207">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P207">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q207">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="R207">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T207">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V207">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z207">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18437,7 +18437,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7253669</v>
+        <v>7253923</v>
       </c>
       <c r="C208" t="s">
         <v>27</v>
@@ -18446,76 +18446,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F208" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H208">
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J208">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="K208">
+        <v>2.7</v>
+      </c>
+      <c r="L208">
         <v>3</v>
       </c>
-      <c r="L208">
-        <v>5</v>
-      </c>
       <c r="M208">
-        <v>1.533</v>
+        <v>2.375</v>
       </c>
       <c r="N208">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="O208">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P208">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q208">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R208">
+        <v>1.75</v>
+      </c>
+      <c r="S208">
+        <v>1.75</v>
+      </c>
+      <c r="T208">
         <v>1.8</v>
       </c>
-      <c r="S208">
-        <v>2</v>
-      </c>
-      <c r="T208">
-        <v>1.925</v>
-      </c>
       <c r="U208">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V208">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18523,7 +18523,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7253923</v>
+        <v>7253924</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -18532,76 +18532,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F209" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G209">
         <v>0</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I209" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J209">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="K209">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="L209">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="M209">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="N209">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O209">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="P209">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q209">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R209">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T209">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U209">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V209">
         <v>-1</v>
       </c>
       <c r="W209">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y209">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB209">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18609,7 +18609,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7253924</v>
+        <v>7253925</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18618,73 +18618,73 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F210" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I210" t="s">
         <v>82</v>
       </c>
       <c r="J210">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="K210">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="L210">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="M210">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="N210">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O210">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="P210">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q210">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="R210">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S210">
+        <v>1.75</v>
+      </c>
+      <c r="T210">
+        <v>1.85</v>
+      </c>
+      <c r="U210">
+        <v>1.95</v>
+      </c>
+      <c r="V210">
+        <v>-1</v>
+      </c>
+      <c r="W210">
+        <v>-1</v>
+      </c>
+      <c r="X210">
         <v>2.5</v>
       </c>
-      <c r="T210">
-        <v>1.925</v>
-      </c>
-      <c r="U210">
-        <v>1.875</v>
-      </c>
-      <c r="V210">
-        <v>-1</v>
-      </c>
-      <c r="W210">
-        <v>-1</v>
-      </c>
-      <c r="X210">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA210">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB210">
         <v>-1</v>
@@ -19137,7 +19137,7 @@
         <v>28</v>
       </c>
       <c r="F216" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19220,7 +19220,7 @@
         <v>45335.41666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F217" t="s">
         <v>35</v>
@@ -20080,7 +20080,7 @@
         <v>45342.41666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F227" t="s">
         <v>68</v>
@@ -20255,7 +20255,7 @@
         <v>44</v>
       </c>
       <c r="F229" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -20771,7 +20771,7 @@
         <v>51</v>
       </c>
       <c r="F235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G235">
         <v>3</v>
@@ -21456,10 +21456,10 @@
         <v>45356.4375</v>
       </c>
       <c r="E243" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F243" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -22319,7 +22319,7 @@
         <v>54</v>
       </c>
       <c r="F253" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G253">
         <v>4</v>
@@ -22491,7 +22491,7 @@
         <v>42</v>
       </c>
       <c r="F255" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -22737,7 +22737,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7777479</v>
+        <v>7777478</v>
       </c>
       <c r="C258" t="s">
         <v>27</v>
@@ -22746,76 +22746,76 @@
         <v>45398.4375</v>
       </c>
       <c r="E258" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F258" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="s">
         <v>83</v>
       </c>
       <c r="J258">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="K258">
+        <v>2.75</v>
+      </c>
+      <c r="L258">
         <v>2.875</v>
       </c>
-      <c r="L258">
-        <v>3.8</v>
-      </c>
       <c r="M258">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="N258">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="O258">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="P258">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q258">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R258">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S258">
         <v>2</v>
       </c>
       <c r="T258">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U258">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V258">
         <v>-1</v>
       </c>
       <c r="W258">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z258">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA258">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:28">
@@ -22823,7 +22823,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7777481</v>
+        <v>7777480</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
@@ -22832,76 +22832,76 @@
         <v>45398.4375</v>
       </c>
       <c r="E259" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F259" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259" t="s">
+        <v>83</v>
+      </c>
+      <c r="J259">
+        <v>2.5</v>
+      </c>
+      <c r="K259">
+        <v>2.625</v>
+      </c>
+      <c r="L259">
         <v>3</v>
       </c>
-      <c r="H259">
-        <v>0</v>
-      </c>
-      <c r="I259" t="s">
-        <v>81</v>
-      </c>
-      <c r="J259">
-        <v>1.3</v>
-      </c>
-      <c r="K259">
-        <v>4.75</v>
-      </c>
-      <c r="L259">
-        <v>7.5</v>
-      </c>
       <c r="M259">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="N259">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="O259">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="P259">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q259">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="R259">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="S259">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T259">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U259">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V259">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W259">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z259">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA259">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AB259">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="260" spans="1:28">
@@ -22909,7 +22909,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7777478</v>
+        <v>7777481</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22918,76 +22918,76 @@
         <v>45398.4375</v>
       </c>
       <c r="E260" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F260" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J260">
-        <v>2.55</v>
+        <v>1.3</v>
       </c>
       <c r="K260">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="L260">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="M260">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="N260">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="O260">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="P260">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="Q260">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R260">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S260">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T260">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="U260">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V260">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W260">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z260">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AB260">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:28">
@@ -22995,7 +22995,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7777480</v>
+        <v>7777479</v>
       </c>
       <c r="C261" t="s">
         <v>27</v>
@@ -23004,76 +23004,76 @@
         <v>45398.4375</v>
       </c>
       <c r="E261" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F261" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="s">
         <v>83</v>
       </c>
       <c r="J261">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K261">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="L261">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M261">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N261">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O261">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P261">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q261">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R261">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S261">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T261">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U261">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V261">
         <v>-1</v>
       </c>
       <c r="W261">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA261">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB261">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:28">
@@ -23090,7 +23090,7 @@
         <v>45399.4375</v>
       </c>
       <c r="E262" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F262" t="s">
         <v>51</v>
@@ -23176,7 +23176,7 @@
         <v>45399.4375</v>
       </c>
       <c r="E263" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F263" t="s">
         <v>44</v>
@@ -23265,7 +23265,7 @@
         <v>28</v>
       </c>
       <c r="F264" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7777487</v>
+        <v>7777488</v>
       </c>
       <c r="C266" t="s">
         <v>27</v>
@@ -23434,76 +23434,76 @@
         <v>45411.4375</v>
       </c>
       <c r="E266" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F266" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H266">
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J266">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="K266">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="L266">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M266">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N266">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O266">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="P266">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q266">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="R266">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S266">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T266">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U266">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V266">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="W266">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X266">
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Z266">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB266">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:28">
@@ -23511,7 +23511,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7777491</v>
+        <v>7777490</v>
       </c>
       <c r="C267" t="s">
         <v>27</v>
@@ -23520,76 +23520,76 @@
         <v>45411.4375</v>
       </c>
       <c r="E267" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H267">
         <v>1</v>
       </c>
       <c r="I267" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J267">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="K267">
         <v>2.75</v>
       </c>
       <c r="L267">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="M267">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N267">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O267">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="P267">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q267">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R267">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S267">
         <v>1.75</v>
       </c>
       <c r="T267">
+        <v>2</v>
+      </c>
+      <c r="U267">
         <v>1.8</v>
       </c>
-      <c r="U267">
-        <v>2</v>
-      </c>
       <c r="V267">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y267">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA267">
+        <v>-1</v>
+      </c>
+      <c r="AB267">
         <v>0.8</v>
-      </c>
-      <c r="AB267">
-        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:28">
@@ -23683,7 +23683,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7777490</v>
+        <v>7777491</v>
       </c>
       <c r="C269" t="s">
         <v>27</v>
@@ -23692,76 +23692,76 @@
         <v>45411.4375</v>
       </c>
       <c r="E269" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F269" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G269">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H269">
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J269">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="K269">
         <v>2.75</v>
       </c>
       <c r="L269">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="M269">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="N269">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="O269">
+        <v>3.5</v>
+      </c>
+      <c r="P269">
+        <v>-0.25</v>
+      </c>
+      <c r="Q269">
+        <v>1.85</v>
+      </c>
+      <c r="R269">
         <v>1.95</v>
-      </c>
-      <c r="P269">
-        <v>0.5</v>
-      </c>
-      <c r="Q269">
-        <v>1.775</v>
-      </c>
-      <c r="R269">
-        <v>2.025</v>
       </c>
       <c r="S269">
         <v>1.75</v>
       </c>
       <c r="T269">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U269">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V269">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W269">
         <v>-1</v>
       </c>
       <c r="X269">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z269">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB269">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:28">
@@ -23769,7 +23769,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7777488</v>
+        <v>7777487</v>
       </c>
       <c r="C270" t="s">
         <v>27</v>
@@ -23778,76 +23778,76 @@
         <v>45411.4375</v>
       </c>
       <c r="E270" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F270" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H270">
         <v>1</v>
       </c>
       <c r="I270" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J270">
-        <v>1.833</v>
+        <v>2.25</v>
       </c>
       <c r="K270">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M270">
+        <v>2.1</v>
+      </c>
+      <c r="N270">
         <v>2.875</v>
       </c>
-      <c r="N270">
-        <v>3.1</v>
-      </c>
       <c r="O270">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="P270">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q270">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R270">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S270">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T270">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U270">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V270">
+        <v>-1</v>
+      </c>
+      <c r="W270">
         <v>1.875</v>
       </c>
-      <c r="W270">
-        <v>-1</v>
-      </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA270">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
   </sheetData>

--- a/Egypt Division 2/Egypt Division 2.xlsx
+++ b/Egypt Division 2/Egypt Division 2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>8190386</t>
   </si>
   <si>
     <t>Egypt Division 2</t>
@@ -627,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB271"/>
+  <dimension ref="A1:AB272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,16 +727,16 @@
         <v>6723218</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45079.45833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -742,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2">
         <v>1.615</v>
@@ -810,16 +813,16 @@
         <v>6723214</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45079.45833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -828,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J3">
         <v>1.5</v>
@@ -896,16 +899,16 @@
         <v>6723213</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45079.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -914,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4">
         <v>3.5</v>
@@ -982,16 +985,16 @@
         <v>6723215</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45079.45833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1000,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5">
         <v>5.25</v>
@@ -1068,16 +1071,16 @@
         <v>6723216</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45079.45833333334</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1086,7 +1089,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6">
         <v>1.444</v>
@@ -1154,16 +1157,16 @@
         <v>6723217</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45080.45833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1172,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7">
         <v>1.727</v>
@@ -1240,16 +1243,16 @@
         <v>6741827</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45084.45833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1258,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J8">
         <v>2.1</v>
@@ -1326,16 +1329,16 @@
         <v>6741828</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45084.45833333334</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1344,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9">
         <v>2.9</v>
@@ -1412,16 +1415,16 @@
         <v>6745167</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45085.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1430,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10">
         <v>1.5</v>
@@ -1498,16 +1501,16 @@
         <v>6748912</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45086.45833333334</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1516,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J11">
         <v>1.909</v>
@@ -1584,16 +1587,16 @@
         <v>6748911</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45086.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1602,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12">
         <v>1.75</v>
@@ -1670,16 +1673,16 @@
         <v>6773751</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45091.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1688,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J13">
         <v>2.4</v>
@@ -1756,16 +1759,16 @@
         <v>6812981</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45102.5</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1774,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J14">
         <v>2.6</v>
@@ -1842,16 +1845,16 @@
         <v>6858338</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45110.5</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1860,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15">
         <v>1.8</v>
@@ -1928,16 +1931,16 @@
         <v>6882425</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45116.5</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -1946,7 +1949,7 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16">
         <v>2.5</v>
@@ -2014,16 +2017,16 @@
         <v>7250958</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45193.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2032,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J17">
         <v>2.4</v>
@@ -2100,16 +2103,16 @@
         <v>7250959</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45193.5</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2118,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J18">
         <v>1.909</v>
@@ -2186,16 +2189,16 @@
         <v>7255229</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45194.41666666666</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -2204,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J19">
         <v>2.25</v>
@@ -2272,16 +2275,16 @@
         <v>7254029</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45194.41666666666</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2290,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J20">
         <v>2.2</v>
@@ -2358,16 +2361,16 @@
         <v>7253632</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45195.41666666666</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2376,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21">
         <v>2.1</v>
@@ -2444,16 +2447,16 @@
         <v>7258482</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45195.41666666666</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2462,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22">
         <v>2.1</v>
@@ -2530,16 +2533,16 @@
         <v>7254027</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45195.41666666666</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2548,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J23">
         <v>2.2</v>
@@ -2616,16 +2619,16 @@
         <v>7258483</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45195.41666666666</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2634,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J24">
         <v>1.8</v>
@@ -2702,16 +2705,16 @@
         <v>7253633</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45200.41666666666</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2720,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J25">
         <v>2.25</v>
@@ -2788,16 +2791,16 @@
         <v>7254098</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45201.41666666666</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2806,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26">
         <v>1.8</v>
@@ -2874,16 +2877,16 @@
         <v>7254025</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45201.41666666666</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2892,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27">
         <v>1.833</v>
@@ -2960,16 +2963,16 @@
         <v>7254024</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45201.41666666666</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2978,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -3046,16 +3049,16 @@
         <v>7254021</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45202.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -3064,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J29">
         <v>1.727</v>
@@ -3132,16 +3135,16 @@
         <v>7253681</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45202.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3150,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3218,16 +3221,16 @@
         <v>7254023</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45202.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3236,7 +3239,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J31">
         <v>3.1</v>
@@ -3304,16 +3307,16 @@
         <v>7253682</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45202.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3322,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32">
         <v>2.375</v>
@@ -3390,16 +3393,16 @@
         <v>7254022</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45202.41666666666</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -3408,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33">
         <v>2.1</v>
@@ -3476,16 +3479,16 @@
         <v>7307780</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3494,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -3562,16 +3565,16 @@
         <v>7254020</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45207.41666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3580,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J35">
         <v>1.909</v>
@@ -3648,16 +3651,16 @@
         <v>7254155</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45208.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3666,7 +3669,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J36">
         <v>2.1</v>
@@ -3734,16 +3737,16 @@
         <v>7254019</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45208.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3752,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J37">
         <v>2.2</v>
@@ -3820,16 +3823,16 @@
         <v>7254018</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45208.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3838,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J38">
         <v>2.5</v>
@@ -3906,16 +3909,16 @@
         <v>7253635</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45208.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -3924,7 +3927,7 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3992,16 +3995,16 @@
         <v>7313201</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45208.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -4010,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J40">
         <v>2.5</v>
@@ -4078,16 +4081,16 @@
         <v>7254016</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45209.41666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4096,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J41">
         <v>1.571</v>
@@ -4164,16 +4167,16 @@
         <v>7254015</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45209.5</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -4182,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J42">
         <v>2.5</v>
@@ -4250,16 +4253,16 @@
         <v>7334316</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45211.41666666666</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4268,7 +4271,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J43">
         <v>2.05</v>
@@ -4336,16 +4339,16 @@
         <v>7336812</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45212.41666666666</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4354,7 +4357,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J44">
         <v>3</v>
@@ -4422,16 +4425,16 @@
         <v>7254156</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45215.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -4440,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J45">
         <v>3</v>
@@ -4508,16 +4511,16 @@
         <v>7254157</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45215.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4526,7 +4529,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J46">
         <v>1.909</v>
@@ -4594,16 +4597,16 @@
         <v>7254013</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45215.41666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -4612,7 +4615,7 @@
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J47">
         <v>2.15</v>
@@ -4680,16 +4683,16 @@
         <v>7254012</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45215.52083333334</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -4698,7 +4701,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J48">
         <v>2.5</v>
@@ -4766,16 +4769,16 @@
         <v>7253637</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45216.41666666666</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -4784,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J49">
         <v>2.5</v>
@@ -4852,16 +4855,16 @@
         <v>7253683</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45216.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -4870,7 +4873,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J50">
         <v>2.3</v>
@@ -4938,17 +4941,17 @@
         <v>7254010</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45216.41666666666</v>
       </c>
       <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" t="s">
         <v>34</v>
       </c>
-      <c r="F51" t="s">
-        <v>33</v>
-      </c>
       <c r="G51">
         <v>1</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J51">
         <v>2.5</v>
@@ -5024,16 +5027,16 @@
         <v>7253636</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45216.41666666666</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -5042,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J52">
         <v>2.25</v>
@@ -5110,16 +5113,16 @@
         <v>7254011</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45216.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5128,7 +5131,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J53">
         <v>2.6</v>
@@ -5196,16 +5199,16 @@
         <v>7254158</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45221.41666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5214,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J54">
         <v>2.25</v>
@@ -5282,16 +5285,16 @@
         <v>7253998</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45222.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5300,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J55">
         <v>2</v>
@@ -5368,16 +5371,16 @@
         <v>7254009</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45222.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -5386,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J56">
         <v>2.25</v>
@@ -5454,16 +5457,16 @@
         <v>7253997</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45222.41666666666</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5472,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J57">
         <v>2.25</v>
@@ -5540,16 +5543,16 @@
         <v>7253638</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45222.41666666666</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5558,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J58">
         <v>3</v>
@@ -5626,16 +5629,16 @@
         <v>7254159</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45222.52083333334</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5644,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J59">
         <v>1.571</v>
@@ -5712,16 +5715,16 @@
         <v>7253995</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45223.41666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -5730,7 +5733,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J60">
         <v>1.909</v>
@@ -5798,16 +5801,16 @@
         <v>7253684</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45223.41666666666</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5816,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J61">
         <v>2.3</v>
@@ -5884,16 +5887,16 @@
         <v>7253994</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45223.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5902,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J62">
         <v>1.727</v>
@@ -5970,16 +5973,16 @@
         <v>7253996</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45223.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -5988,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J63">
         <v>2.05</v>
@@ -6056,16 +6059,16 @@
         <v>7384130</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45224.41666666666</v>
       </c>
       <c r="E64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -6074,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J64">
         <v>2.4</v>
@@ -6142,16 +6145,16 @@
         <v>7384145</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45224.41666666666</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6160,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J65">
         <v>1.55</v>
@@ -6228,16 +6231,16 @@
         <v>7384107</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45224.41666666666</v>
       </c>
       <c r="E66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6246,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J66">
         <v>2.3</v>
@@ -6314,16 +6317,16 @@
         <v>7387966</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45224.41666666666</v>
       </c>
       <c r="E67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -6332,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J67">
         <v>1.909</v>
@@ -6400,17 +6403,17 @@
         <v>7254160</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45228.39583333334</v>
       </c>
       <c r="E68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" t="s">
         <v>46</v>
       </c>
-      <c r="F68" t="s">
-        <v>45</v>
-      </c>
       <c r="G68">
         <v>2</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J68">
         <v>2.3</v>
@@ -6486,16 +6489,16 @@
         <v>7254161</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45229.39583333334</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6504,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J69">
         <v>2.875</v>
@@ -6572,16 +6575,16 @@
         <v>7253991</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45229.39583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6590,7 +6593,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -6658,16 +6661,16 @@
         <v>7253990</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45230.39583333334</v>
       </c>
       <c r="E71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6676,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J71">
         <v>3.2</v>
@@ -6744,16 +6747,16 @@
         <v>7253993</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45230.39583333334</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -6762,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J72">
         <v>1.65</v>
@@ -6830,16 +6833,16 @@
         <v>7253641</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45230.39583333334</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -6848,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J73">
         <v>1.571</v>
@@ -6916,16 +6919,16 @@
         <v>7253639</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45230.39583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6934,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J74">
         <v>2.6</v>
@@ -7002,16 +7005,16 @@
         <v>7407677</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45230.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -7020,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J75">
         <v>2.875</v>
@@ -7088,16 +7091,16 @@
         <v>7407678</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45231.39583333334</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G76">
         <v>4</v>
@@ -7106,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J76">
         <v>2</v>
@@ -7174,16 +7177,16 @@
         <v>7253988</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45236.39583333334</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -7192,7 +7195,7 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J77">
         <v>3.3</v>
@@ -7260,16 +7263,16 @@
         <v>7253685</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45236.39583333334</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -7278,7 +7281,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J78">
         <v>3.6</v>
@@ -7346,16 +7349,16 @@
         <v>7253987</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45236.39583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -7364,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J79">
         <v>2.2</v>
@@ -7432,16 +7435,16 @@
         <v>7254162</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45236.39583333334</v>
       </c>
       <c r="E80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7450,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J80">
         <v>3</v>
@@ -7518,16 +7521,16 @@
         <v>7254163</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45236.39583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -7536,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J81">
         <v>3.75</v>
@@ -7604,16 +7607,16 @@
         <v>7253986</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45236.5</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -7622,7 +7625,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J82">
         <v>2.25</v>
@@ -7690,16 +7693,16 @@
         <v>7253642</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45237.39583333334</v>
       </c>
       <c r="E83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7708,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J83">
         <v>2</v>
@@ -7776,17 +7779,17 @@
         <v>7253984</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45237.39583333334</v>
       </c>
       <c r="E84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" t="s">
         <v>51</v>
       </c>
-      <c r="F84" t="s">
-        <v>50</v>
-      </c>
       <c r="G84">
         <v>1</v>
       </c>
@@ -7794,7 +7797,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J84">
         <v>2.15</v>
@@ -7862,16 +7865,16 @@
         <v>7253985</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45237.39583333334</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7880,7 +7883,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J85">
         <v>2.625</v>
@@ -7948,16 +7951,16 @@
         <v>7253686</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45237.5</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -7966,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J86">
         <v>1.909</v>
@@ -8034,16 +8037,16 @@
         <v>7449497</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45238.39583333334</v>
       </c>
       <c r="E87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -8052,7 +8055,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J87">
         <v>2.25</v>
@@ -8120,16 +8123,16 @@
         <v>7449498</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45238.39583333334</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F88" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8138,7 +8141,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J88">
         <v>2.7</v>
@@ -8206,16 +8209,16 @@
         <v>7449496</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45238.39583333334</v>
       </c>
       <c r="E89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8224,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J89">
         <v>2.5</v>
@@ -8292,16 +8295,16 @@
         <v>7449499</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45238.40347222222</v>
       </c>
       <c r="E90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -8310,7 +8313,7 @@
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J90">
         <v>2.7</v>
@@ -8378,16 +8381,16 @@
         <v>7457481</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45239.39583333334</v>
       </c>
       <c r="E91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8396,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J91">
         <v>4</v>
@@ -8464,16 +8467,16 @@
         <v>7457483</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45239.39583333334</v>
       </c>
       <c r="E92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F92" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8482,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J92">
         <v>2.4</v>
@@ -8550,16 +8553,16 @@
         <v>7456358</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45240.39583333334</v>
       </c>
       <c r="E93" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8568,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J93">
         <v>1.65</v>
@@ -8636,16 +8639,16 @@
         <v>7253983</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45242.39583333334</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -8654,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J94">
         <v>2.5</v>
@@ -8722,16 +8725,16 @@
         <v>7253980</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45243.39583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G95">
         <v>5</v>
@@ -8740,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J95">
         <v>1.55</v>
@@ -8808,16 +8811,16 @@
         <v>7253982</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45243.39583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -8826,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J96">
         <v>2.3</v>
@@ -8894,16 +8897,16 @@
         <v>7468991</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45243.39583333334</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -8912,7 +8915,7 @@
         <v>2</v>
       </c>
       <c r="I97" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J97">
         <v>2.25</v>
@@ -8980,16 +8983,16 @@
         <v>7253981</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45243.39583333334</v>
       </c>
       <c r="E98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -8998,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J98">
         <v>2.1</v>
@@ -9066,16 +9069,16 @@
         <v>7253979</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45243.5</v>
       </c>
       <c r="E99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -9084,7 +9087,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J99">
         <v>2.5</v>
@@ -9152,16 +9155,16 @@
         <v>7253643</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45244.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9170,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J100">
         <v>1.8</v>
@@ -9238,16 +9241,16 @@
         <v>7253977</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45244.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -9256,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J101">
         <v>2</v>
@@ -9324,16 +9327,16 @@
         <v>7253978</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45244.39583333334</v>
       </c>
       <c r="E102" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9342,7 +9345,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J102">
         <v>2.2</v>
@@ -9410,16 +9413,16 @@
         <v>7253644</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45244.39583333334</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9428,7 +9431,7 @@
         <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J103">
         <v>1.909</v>
@@ -9496,16 +9499,16 @@
         <v>7253645</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45249.39583333334</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9514,7 +9517,7 @@
         <v>1</v>
       </c>
       <c r="I104" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J104">
         <v>1.75</v>
@@ -9582,16 +9585,16 @@
         <v>7253975</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45250.39583333334</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G105">
         <v>6</v>
@@ -9600,7 +9603,7 @@
         <v>2</v>
       </c>
       <c r="I105" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J105">
         <v>1.7</v>
@@ -9668,16 +9671,16 @@
         <v>7253976</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45250.39583333334</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G106">
         <v>2</v>
@@ -9686,7 +9689,7 @@
         <v>1</v>
       </c>
       <c r="I106" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J106">
         <v>1.727</v>
@@ -9754,16 +9757,16 @@
         <v>7496155</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45250.39583333334</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9772,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -9840,16 +9843,16 @@
         <v>7253646</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45250.5</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -9858,7 +9861,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J108">
         <v>2.1</v>
@@ -9926,16 +9929,16 @@
         <v>7500851</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45251.39583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -9944,7 +9947,7 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J109">
         <v>2.75</v>
@@ -10012,16 +10015,16 @@
         <v>7253973</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45251.39583333334</v>
       </c>
       <c r="E110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -10030,7 +10033,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J110">
         <v>2.75</v>
@@ -10098,16 +10101,16 @@
         <v>7253647</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45251.39583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -10116,7 +10119,7 @@
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J111">
         <v>2.625</v>
@@ -10184,16 +10187,16 @@
         <v>7253974</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45251.39583333334</v>
       </c>
       <c r="E112" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10202,7 +10205,7 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J112">
         <v>2.2</v>
@@ -10270,16 +10273,16 @@
         <v>7254165</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45251.5</v>
       </c>
       <c r="E113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10288,7 +10291,7 @@
         <v>1</v>
       </c>
       <c r="I113" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J113">
         <v>4.2</v>
@@ -10356,16 +10359,16 @@
         <v>7253971</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45257.39583333334</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10374,7 +10377,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J114">
         <v>4</v>
@@ -10442,16 +10445,16 @@
         <v>7253966</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45258.39583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -10460,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J115">
         <v>1.666</v>
@@ -10528,16 +10531,16 @@
         <v>7253967</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45258.39583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -10546,7 +10549,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J116">
         <v>2.2</v>
@@ -10614,16 +10617,16 @@
         <v>7254168</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45259.39583333334</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -10632,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J117">
         <v>1.65</v>
@@ -10700,16 +10703,16 @@
         <v>7253648</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45259.39583333334</v>
       </c>
       <c r="E118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G118">
         <v>4</v>
@@ -10718,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J118">
         <v>1.55</v>
@@ -10786,17 +10789,17 @@
         <v>7253687</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45259.39583333334</v>
       </c>
       <c r="E119" t="s">
+        <v>45</v>
+      </c>
+      <c r="F119" t="s">
         <v>44</v>
       </c>
-      <c r="F119" t="s">
-        <v>43</v>
-      </c>
       <c r="G119">
         <v>1</v>
       </c>
@@ -10804,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J119">
         <v>1.571</v>
@@ -10872,16 +10875,16 @@
         <v>7523173</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45259.39583333334</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10890,7 +10893,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J120">
         <v>3.6</v>
@@ -10958,16 +10961,16 @@
         <v>7532811</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45259.39583333334</v>
       </c>
       <c r="E121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F121" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10976,7 +10979,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J121">
         <v>2.05</v>
@@ -11044,16 +11047,16 @@
         <v>7253969</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45259.5</v>
       </c>
       <c r="E122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -11062,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J122">
         <v>3.1</v>
@@ -11130,16 +11133,16 @@
         <v>7253968</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45260.39583333334</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G123">
         <v>3</v>
@@ -11148,7 +11151,7 @@
         <v>1</v>
       </c>
       <c r="I123" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J123">
         <v>1.727</v>
@@ -11216,16 +11219,16 @@
         <v>7254169</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45264.39583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11234,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J124">
         <v>2.9</v>
@@ -11302,16 +11305,16 @@
         <v>7253964</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45264.39583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11320,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J125">
         <v>1.8</v>
@@ -11388,16 +11391,16 @@
         <v>7253965</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45264.39583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11406,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J126">
         <v>1.727</v>
@@ -11474,16 +11477,16 @@
         <v>7253649</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45264.39583333334</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G127">
         <v>3</v>
@@ -11492,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J127">
         <v>2.1</v>
@@ -11560,16 +11563,16 @@
         <v>7253963</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45264.39583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11578,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J128">
         <v>1.571</v>
@@ -11646,16 +11649,16 @@
         <v>7550645</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45264.39583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11664,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J129">
         <v>2.3</v>
@@ -11732,16 +11735,16 @@
         <v>7253961</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45264.5</v>
       </c>
       <c r="E130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F130" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11750,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J130">
         <v>1.909</v>
@@ -11818,16 +11821,16 @@
         <v>7253962</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45265.39583333334</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -11836,7 +11839,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J131">
         <v>4.5</v>
@@ -11904,16 +11907,16 @@
         <v>7253650</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45265.39583333334</v>
       </c>
       <c r="E132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11922,7 +11925,7 @@
         <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J132">
         <v>3.75</v>
@@ -11990,16 +11993,16 @@
         <v>7253688</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45265.39583333334</v>
       </c>
       <c r="E133" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -12008,7 +12011,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J133">
         <v>2.2</v>
@@ -12076,16 +12079,16 @@
         <v>7587389</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45274.39583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -12094,7 +12097,7 @@
         <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J134">
         <v>1.909</v>
@@ -12162,16 +12165,16 @@
         <v>7253652</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45274.39583333334</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12180,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J135">
         <v>1.571</v>
@@ -12248,16 +12251,16 @@
         <v>7253957</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45274.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12266,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J136">
         <v>2</v>
@@ -12334,16 +12337,16 @@
         <v>7253956</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45274.39583333334</v>
       </c>
       <c r="E137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F137" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G137">
         <v>2</v>
@@ -12352,7 +12355,7 @@
         <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J137">
         <v>1.8</v>
@@ -12420,16 +12423,16 @@
         <v>7580438</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45274.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12438,7 +12441,7 @@
         <v>3</v>
       </c>
       <c r="I138" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J138">
         <v>2.6</v>
@@ -12506,16 +12509,16 @@
         <v>7558905</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45274.39583333334</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -12524,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="I139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J139">
         <v>2.5</v>
@@ -12592,16 +12595,16 @@
         <v>7558451</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45274.39583333334</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F140" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -12610,7 +12613,7 @@
         <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J140">
         <v>2.2</v>
@@ -12678,16 +12681,16 @@
         <v>7594612</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45275.39583333334</v>
       </c>
       <c r="E141" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F141" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12696,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J141">
         <v>4.333</v>
@@ -12764,16 +12767,16 @@
         <v>7558471</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45275.39583333334</v>
       </c>
       <c r="E142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12782,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J142">
         <v>2.375</v>
@@ -12850,16 +12853,16 @@
         <v>7558452</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45275.39583333334</v>
       </c>
       <c r="E143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12868,7 +12871,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J143">
         <v>1.909</v>
@@ -12936,16 +12939,16 @@
         <v>7558918</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45276.39583333334</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12954,7 +12957,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J144">
         <v>2.375</v>
@@ -13022,16 +13025,16 @@
         <v>7253690</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45278.39583333334</v>
       </c>
       <c r="E145" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -13040,7 +13043,7 @@
         <v>1</v>
       </c>
       <c r="I145" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J145">
         <v>3.75</v>
@@ -13108,16 +13111,16 @@
         <v>7253953</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45278.39583333334</v>
       </c>
       <c r="E146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13126,7 +13129,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J146">
         <v>1.8</v>
@@ -13194,16 +13197,16 @@
         <v>7253954</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45278.39583333334</v>
       </c>
       <c r="E147" t="s">
+        <v>44</v>
+      </c>
+      <c r="F147" t="s">
         <v>43</v>
-      </c>
-      <c r="F147" t="s">
-        <v>42</v>
       </c>
       <c r="G147">
         <v>3</v>
@@ -13212,7 +13215,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J147">
         <v>1.909</v>
@@ -13280,16 +13283,16 @@
         <v>7253951</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45279.375</v>
       </c>
       <c r="E148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13298,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J148">
         <v>2.6</v>
@@ -13366,16 +13369,16 @@
         <v>7253952</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45279.39583333334</v>
       </c>
       <c r="E149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13384,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J149">
         <v>2.45</v>
@@ -13452,16 +13455,16 @@
         <v>7253654</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45279.39583333334</v>
       </c>
       <c r="E150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13470,7 +13473,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J150">
         <v>4.75</v>
@@ -13538,16 +13541,16 @@
         <v>7253653</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45280.39583333334</v>
       </c>
       <c r="E151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13556,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J151">
         <v>1.8</v>
@@ -13624,16 +13627,16 @@
         <v>7254173</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45280.39583333334</v>
       </c>
       <c r="E152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -13642,7 +13645,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J152">
         <v>3.1</v>
@@ -13710,16 +13713,16 @@
         <v>7608522</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45280.39583333334</v>
       </c>
       <c r="E153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G153">
         <v>4</v>
@@ -13728,7 +13731,7 @@
         <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J153">
         <v>1.666</v>
@@ -13796,16 +13799,16 @@
         <v>7608521</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45280.5</v>
       </c>
       <c r="E154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13814,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J154">
         <v>2.375</v>
@@ -13882,17 +13885,17 @@
         <v>7253950</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45285.39583333334</v>
       </c>
       <c r="E155" t="s">
+        <v>43</v>
+      </c>
+      <c r="F155" t="s">
         <v>42</v>
       </c>
-      <c r="F155" t="s">
-        <v>41</v>
-      </c>
       <c r="G155">
         <v>1</v>
       </c>
@@ -13900,7 +13903,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J155">
         <v>7.5</v>
@@ -13968,16 +13971,16 @@
         <v>7253948</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45287.39583333334</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13986,7 +13989,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J156">
         <v>2</v>
@@ -14054,16 +14057,16 @@
         <v>7605133</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45287.39583333334</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -14072,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J157">
         <v>2.1</v>
@@ -14140,16 +14143,16 @@
         <v>7253947</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45287.39583333334</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -14158,7 +14161,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J158">
         <v>2</v>
@@ -14226,16 +14229,16 @@
         <v>7254176</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45287.39583333334</v>
       </c>
       <c r="E159" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -14244,7 +14247,7 @@
         <v>1</v>
       </c>
       <c r="I159" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J159">
         <v>1.909</v>
@@ -14312,16 +14315,16 @@
         <v>7253656</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45287.39583333334</v>
       </c>
       <c r="E160" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G160">
         <v>3</v>
@@ -14330,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J160">
         <v>1.615</v>
@@ -14398,16 +14401,16 @@
         <v>7253946</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45287.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -14416,7 +14419,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J161">
         <v>2</v>
@@ -14484,16 +14487,16 @@
         <v>7635883</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45288.39583333334</v>
       </c>
       <c r="E162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14502,7 +14505,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J162">
         <v>2.1</v>
@@ -14570,16 +14573,16 @@
         <v>7605134</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45288.39583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -14588,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J163">
         <v>3.4</v>
@@ -14656,16 +14659,16 @@
         <v>7253657</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45288.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14674,7 +14677,7 @@
         <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J164">
         <v>1.615</v>
@@ -14742,16 +14745,16 @@
         <v>7253941</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45293.39583333334</v>
       </c>
       <c r="E165" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -14760,7 +14763,7 @@
         <v>1</v>
       </c>
       <c r="I165" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J165">
         <v>1.533</v>
@@ -14828,16 +14831,16 @@
         <v>7253658</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45293.39583333334</v>
       </c>
       <c r="E166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F166" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -14846,7 +14849,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J166">
         <v>2.3</v>
@@ -14914,16 +14917,16 @@
         <v>7253942</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45293.39583333334</v>
       </c>
       <c r="E167" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -14932,7 +14935,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J167">
         <v>2.3</v>
@@ -15000,16 +15003,16 @@
         <v>7253943</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45293.39583333334</v>
       </c>
       <c r="E168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -15018,7 +15021,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J168">
         <v>3.3</v>
@@ -15086,16 +15089,16 @@
         <v>7253691</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45294.39583333334</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -15104,7 +15107,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J169">
         <v>1.727</v>
@@ -15172,16 +15175,16 @@
         <v>7254178</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45294.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15190,7 +15193,7 @@
         <v>3</v>
       </c>
       <c r="I170" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J170">
         <v>2.375</v>
@@ -15258,16 +15261,16 @@
         <v>7253944</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45294.39583333334</v>
       </c>
       <c r="E171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -15276,7 +15279,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J171">
         <v>1.615</v>
@@ -15344,16 +15347,16 @@
         <v>7253692</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45294.39583333334</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -15362,7 +15365,7 @@
         <v>1</v>
       </c>
       <c r="I172" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J172">
         <v>5.5</v>
@@ -15430,16 +15433,16 @@
         <v>7253945</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45294.5</v>
       </c>
       <c r="E173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15448,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J173">
         <v>1.25</v>
@@ -15516,16 +15519,16 @@
         <v>7253938</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45299.39583333334</v>
       </c>
       <c r="E174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -15534,7 +15537,7 @@
         <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J174">
         <v>4.2</v>
@@ -15602,16 +15605,16 @@
         <v>7253659</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45299.39583333334</v>
       </c>
       <c r="E175" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15620,7 +15623,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J175">
         <v>2.6</v>
@@ -15688,16 +15691,16 @@
         <v>7253940</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45299.39583333334</v>
       </c>
       <c r="E176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15706,7 +15709,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J176">
         <v>2.875</v>
@@ -15774,16 +15777,16 @@
         <v>7253939</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
         <v>45299.39583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F177" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15792,7 +15795,7 @@
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J177">
         <v>3.6</v>
@@ -15860,16 +15863,16 @@
         <v>7253693</v>
       </c>
       <c r="C178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D178" s="2">
         <v>45300.375</v>
       </c>
       <c r="E178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F178" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -15878,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J178">
         <v>2.3</v>
@@ -15946,16 +15949,16 @@
         <v>7253937</v>
       </c>
       <c r="C179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D179" s="2">
         <v>45300.39583333334</v>
       </c>
       <c r="E179" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -15964,7 +15967,7 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J179">
         <v>2.8</v>
@@ -16032,16 +16035,16 @@
         <v>7253660</v>
       </c>
       <c r="C180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D180" s="2">
         <v>45300.39583333334</v>
       </c>
       <c r="E180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -16050,7 +16053,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J180">
         <v>2.05</v>
@@ -16118,16 +16121,16 @@
         <v>7254179</v>
       </c>
       <c r="C181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2">
         <v>45300.39583333334</v>
       </c>
       <c r="E181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -16136,7 +16139,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J181">
         <v>1.571</v>
@@ -16204,16 +16207,16 @@
         <v>7677401</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D182" s="2">
         <v>45301.375</v>
       </c>
       <c r="E182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F182" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -16222,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J182">
         <v>1.571</v>
@@ -16290,16 +16293,16 @@
         <v>7253661</v>
       </c>
       <c r="C183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D183" s="2">
         <v>45301.39583333334</v>
       </c>
       <c r="E183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G183">
         <v>4</v>
@@ -16308,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J183">
         <v>1.909</v>
@@ -16376,16 +16379,16 @@
         <v>7253935</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D184" s="2">
         <v>45306.375</v>
       </c>
       <c r="E184" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -16394,7 +16397,7 @@
         <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J184">
         <v>2.8</v>
@@ -16462,16 +16465,16 @@
         <v>7253936</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D185" s="2">
         <v>45306.375</v>
       </c>
       <c r="E185" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -16480,7 +16483,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J185">
         <v>2.1</v>
@@ -16548,16 +16551,16 @@
         <v>7253664</v>
       </c>
       <c r="C186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D186" s="2">
         <v>45306.375</v>
       </c>
       <c r="E186" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16566,7 +16569,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J186">
         <v>2.875</v>
@@ -16634,16 +16637,16 @@
         <v>7253663</v>
       </c>
       <c r="C187" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D187" s="2">
         <v>45306.375</v>
       </c>
       <c r="E187" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F187" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -16652,7 +16655,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J187">
         <v>1.363</v>
@@ -16720,16 +16723,16 @@
         <v>7253933</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D188" s="2">
         <v>45306.375</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F188" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16738,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J188">
         <v>1.8</v>
@@ -16806,16 +16809,16 @@
         <v>7698417</v>
       </c>
       <c r="C189" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D189" s="2">
         <v>45306.375</v>
       </c>
       <c r="E189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -16824,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J189">
         <v>3.1</v>
@@ -16892,16 +16895,16 @@
         <v>7253934</v>
       </c>
       <c r="C190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D190" s="2">
         <v>45306.375</v>
       </c>
       <c r="E190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16910,7 +16913,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J190">
         <v>2.35</v>
@@ -16978,16 +16981,16 @@
         <v>7253662</v>
       </c>
       <c r="C191" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D191" s="2">
         <v>45306.375</v>
       </c>
       <c r="E191" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F191" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -16996,7 +16999,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J191">
         <v>2.75</v>
@@ -17064,16 +17067,16 @@
         <v>7703009</v>
       </c>
       <c r="C192" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D192" s="2">
         <v>45307.375</v>
       </c>
       <c r="E192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -17082,7 +17085,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J192">
         <v>3.25</v>
@@ -17150,16 +17153,16 @@
         <v>7253665</v>
       </c>
       <c r="C193" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D193" s="2">
         <v>45313.375</v>
       </c>
       <c r="E193" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F193" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -17168,7 +17171,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J193">
         <v>2.25</v>
@@ -17236,16 +17239,16 @@
         <v>7253667</v>
       </c>
       <c r="C194" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D194" s="2">
         <v>45313.39583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F194" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -17254,7 +17257,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J194">
         <v>2.375</v>
@@ -17322,16 +17325,16 @@
         <v>7253930</v>
       </c>
       <c r="C195" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D195" s="2">
         <v>45313.39583333334</v>
       </c>
       <c r="E195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17340,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J195">
         <v>1.533</v>
@@ -17408,16 +17411,16 @@
         <v>7253666</v>
       </c>
       <c r="C196" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D196" s="2">
         <v>45313.39583333334</v>
       </c>
       <c r="E196" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F196" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -17426,7 +17429,7 @@
         <v>1</v>
       </c>
       <c r="I196" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J196">
         <v>3.4</v>
@@ -17494,16 +17497,16 @@
         <v>7253929</v>
       </c>
       <c r="C197" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D197" s="2">
         <v>45313.39583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -17512,7 +17515,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J197">
         <v>1.8</v>
@@ -17580,17 +17583,17 @@
         <v>7253931</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D198" s="2">
         <v>45313.39583333334</v>
       </c>
       <c r="E198" t="s">
+        <v>30</v>
+      </c>
+      <c r="F198" t="s">
         <v>29</v>
       </c>
-      <c r="F198" t="s">
-        <v>28</v>
-      </c>
       <c r="G198">
         <v>2</v>
       </c>
@@ -17598,7 +17601,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J198">
         <v>1.444</v>
@@ -17666,16 +17669,16 @@
         <v>7253694</v>
       </c>
       <c r="C199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D199" s="2">
         <v>45313.39583333334</v>
       </c>
       <c r="E199" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -17684,7 +17687,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J199">
         <v>1.666</v>
@@ -17752,16 +17755,16 @@
         <v>7254183</v>
       </c>
       <c r="C200" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D200" s="2">
         <v>45313.39583333334</v>
       </c>
       <c r="E200" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F200" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17770,7 +17773,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J200">
         <v>3.6</v>
@@ -17838,16 +17841,16 @@
         <v>7254184</v>
       </c>
       <c r="C201" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D201" s="2">
         <v>45313.39583333334</v>
       </c>
       <c r="E201" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -17856,7 +17859,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J201">
         <v>1.833</v>
@@ -17924,16 +17927,16 @@
         <v>7253925</v>
       </c>
       <c r="C202" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D202" s="2">
         <v>45320.39583333334</v>
       </c>
       <c r="E202" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G202">
         <v>3</v>
@@ -17942,7 +17945,7 @@
         <v>4</v>
       </c>
       <c r="I202" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J202">
         <v>2.35</v>
@@ -18010,16 +18013,16 @@
         <v>7253926</v>
       </c>
       <c r="C203" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D203" s="2">
         <v>45320.39583333334</v>
       </c>
       <c r="E203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -18028,7 +18031,7 @@
         <v>1</v>
       </c>
       <c r="I203" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J203">
         <v>2.5</v>
@@ -18096,16 +18099,16 @@
         <v>7757379</v>
       </c>
       <c r="C204" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2">
         <v>45320.39583333334</v>
       </c>
       <c r="E204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -18114,7 +18117,7 @@
         <v>1</v>
       </c>
       <c r="I204" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J204">
         <v>2.2</v>
@@ -18182,16 +18185,16 @@
         <v>7253668</v>
       </c>
       <c r="C205" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D205" s="2">
         <v>45320.39583333334</v>
       </c>
       <c r="E205" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -18200,7 +18203,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J205">
         <v>1.533</v>
@@ -18268,16 +18271,16 @@
         <v>7253928</v>
       </c>
       <c r="C206" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D206" s="2">
         <v>45320.39583333334</v>
       </c>
       <c r="E206" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F206" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -18286,7 +18289,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J206">
         <v>1.727</v>
@@ -18354,16 +18357,16 @@
         <v>7253924</v>
       </c>
       <c r="C207" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D207" s="2">
         <v>45320.39583333334</v>
       </c>
       <c r="E207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F207" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -18372,7 +18375,7 @@
         <v>3</v>
       </c>
       <c r="I207" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J207">
         <v>5</v>
@@ -18440,16 +18443,16 @@
         <v>7253669</v>
       </c>
       <c r="C208" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D208" s="2">
         <v>45320.39583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F208" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -18458,7 +18461,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J208">
         <v>1.727</v>
@@ -18526,16 +18529,16 @@
         <v>7253927</v>
       </c>
       <c r="C209" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D209" s="2">
         <v>45320.39583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -18544,7 +18547,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J209">
         <v>1.444</v>
@@ -18612,16 +18615,16 @@
         <v>7253923</v>
       </c>
       <c r="C210" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D210" s="2">
         <v>45320.39583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F210" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -18630,7 +18633,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J210">
         <v>2.45</v>
@@ -18698,16 +18701,16 @@
         <v>7777455</v>
       </c>
       <c r="C211" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D211" s="2">
         <v>45334.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18716,7 +18719,7 @@
         <v>1</v>
       </c>
       <c r="I211" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J211">
         <v>2.1</v>
@@ -18784,16 +18787,16 @@
         <v>7777453</v>
       </c>
       <c r="C212" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D212" s="2">
         <v>45334.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -18802,7 +18805,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J212">
         <v>3.2</v>
@@ -18870,16 +18873,16 @@
         <v>7777454</v>
       </c>
       <c r="C213" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D213" s="2">
         <v>45334.41666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18888,7 +18891,7 @@
         <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J213">
         <v>3</v>
@@ -18956,16 +18959,16 @@
         <v>7777452</v>
       </c>
       <c r="C214" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D214" s="2">
         <v>45334.41666666666</v>
       </c>
       <c r="E214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -18974,7 +18977,7 @@
         <v>2</v>
       </c>
       <c r="I214" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J214">
         <v>2.875</v>
@@ -19042,16 +19045,16 @@
         <v>7777456</v>
       </c>
       <c r="C215" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D215" s="2">
         <v>45334.52083333334</v>
       </c>
       <c r="E215" t="s">
+        <v>46</v>
+      </c>
+      <c r="F215" t="s">
         <v>45</v>
-      </c>
-      <c r="F215" t="s">
-        <v>44</v>
       </c>
       <c r="G215">
         <v>3</v>
@@ -19060,7 +19063,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J215">
         <v>2.2</v>
@@ -19128,16 +19131,16 @@
         <v>7777498</v>
       </c>
       <c r="C216" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D216" s="2">
         <v>45335.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F216" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -19146,7 +19149,7 @@
         <v>1</v>
       </c>
       <c r="I216" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J216">
         <v>4.5</v>
@@ -19214,16 +19217,16 @@
         <v>7777536</v>
       </c>
       <c r="C217" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D217" s="2">
         <v>45335.41666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F217" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -19232,7 +19235,7 @@
         <v>2</v>
       </c>
       <c r="I217" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J217">
         <v>2.75</v>
@@ -19300,16 +19303,16 @@
         <v>7777500</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D218" s="2">
         <v>45335.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F218" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -19318,7 +19321,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J218">
         <v>1.533</v>
@@ -19386,16 +19389,16 @@
         <v>7822122</v>
       </c>
       <c r="C219" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D219" s="2">
         <v>45335.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F219" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -19404,7 +19407,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J219">
         <v>2.1</v>
@@ -19472,16 +19475,16 @@
         <v>7777460</v>
       </c>
       <c r="C220" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D220" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -19490,7 +19493,7 @@
         <v>1</v>
       </c>
       <c r="I220" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J220">
         <v>2.9</v>
@@ -19558,16 +19561,16 @@
         <v>7777459</v>
       </c>
       <c r="C221" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D221" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F221" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19576,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J221">
         <v>1.8</v>
@@ -19644,16 +19647,16 @@
         <v>7777461</v>
       </c>
       <c r="C222" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D222" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E222" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -19662,7 +19665,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J222">
         <v>2.45</v>
@@ -19730,16 +19733,16 @@
         <v>7777457</v>
       </c>
       <c r="C223" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D223" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G223">
         <v>2</v>
@@ -19748,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J223">
         <v>2</v>
@@ -19816,16 +19819,16 @@
         <v>7777458</v>
       </c>
       <c r="C224" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D224" s="2">
         <v>45339.41666666666</v>
       </c>
       <c r="E224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F224" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -19834,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J224">
         <v>2.5</v>
@@ -19902,16 +19905,16 @@
         <v>7777501</v>
       </c>
       <c r="C225" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D225" s="2">
         <v>45342.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -19920,7 +19923,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J225">
         <v>2.6</v>
@@ -19988,16 +19991,16 @@
         <v>7777505</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D226" s="2">
         <v>45342.41666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F226" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -20006,7 +20009,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J226">
         <v>2.25</v>
@@ -20074,16 +20077,16 @@
         <v>7856869</v>
       </c>
       <c r="C227" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D227" s="2">
         <v>45342.41666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F227" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G227">
         <v>1</v>
@@ -20092,7 +20095,7 @@
         <v>2</v>
       </c>
       <c r="I227" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J227">
         <v>4</v>
@@ -20160,16 +20163,16 @@
         <v>7777502</v>
       </c>
       <c r="C228" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D228" s="2">
         <v>45342.41666666666</v>
       </c>
       <c r="E228" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F228" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -20178,7 +20181,7 @@
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J228">
         <v>1.75</v>
@@ -20246,16 +20249,16 @@
         <v>7777503</v>
       </c>
       <c r="C229" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D229" s="2">
         <v>45342.41666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G229">
         <v>1</v>
@@ -20264,7 +20267,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J229">
         <v>1.75</v>
@@ -20332,16 +20335,16 @@
         <v>7777462</v>
       </c>
       <c r="C230" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D230" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E230" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -20350,7 +20353,7 @@
         <v>1</v>
       </c>
       <c r="I230" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J230">
         <v>3.25</v>
@@ -20418,16 +20421,16 @@
         <v>7777463</v>
       </c>
       <c r="C231" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D231" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E231" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G231">
         <v>2</v>
@@ -20436,7 +20439,7 @@
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J231">
         <v>1.909</v>
@@ -20504,16 +20507,16 @@
         <v>7777464</v>
       </c>
       <c r="C232" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D232" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E232" t="s">
+        <v>34</v>
+      </c>
+      <c r="F232" t="s">
         <v>33</v>
-      </c>
-      <c r="F232" t="s">
-        <v>32</v>
       </c>
       <c r="G232">
         <v>3</v>
@@ -20522,7 +20525,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J232">
         <v>2.2</v>
@@ -20590,16 +20593,16 @@
         <v>7777465</v>
       </c>
       <c r="C233" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D233" s="2">
         <v>45346.41666666666</v>
       </c>
       <c r="E233" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -20608,7 +20611,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J233">
         <v>3.75</v>
@@ -20676,16 +20679,16 @@
         <v>7777466</v>
       </c>
       <c r="C234" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D234" s="2">
         <v>45346.52083333334</v>
       </c>
       <c r="E234" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F234" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -20694,7 +20697,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J234">
         <v>1.8</v>
@@ -20762,16 +20765,16 @@
         <v>7777509</v>
       </c>
       <c r="C235" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D235" s="2">
         <v>45349.41666666666</v>
       </c>
       <c r="E235" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F235" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -20780,7 +20783,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J235">
         <v>2.1</v>
@@ -20848,16 +20851,16 @@
         <v>7777508</v>
       </c>
       <c r="C236" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D236" s="2">
         <v>45349.41666666666</v>
       </c>
       <c r="E236" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -20866,7 +20869,7 @@
         <v>2</v>
       </c>
       <c r="I236" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J236">
         <v>2</v>
@@ -20934,16 +20937,16 @@
         <v>7886326</v>
       </c>
       <c r="C237" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D237" s="2">
         <v>45349.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F237" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -20952,7 +20955,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J237">
         <v>2.1</v>
@@ -21020,16 +21023,16 @@
         <v>7777468</v>
       </c>
       <c r="C238" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D238" s="2">
         <v>45352.4375</v>
       </c>
       <c r="E238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F238" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -21038,7 +21041,7 @@
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J238">
         <v>3.1</v>
@@ -21106,16 +21109,16 @@
         <v>7777469</v>
       </c>
       <c r="C239" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D239" s="2">
         <v>45352.4375</v>
       </c>
       <c r="E239" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F239" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G239">
         <v>3</v>
@@ -21124,7 +21127,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J239">
         <v>2.1</v>
@@ -21192,16 +21195,16 @@
         <v>7777467</v>
       </c>
       <c r="C240" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D240" s="2">
         <v>45352.4375</v>
       </c>
       <c r="E240" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -21210,7 +21213,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J240">
         <v>2</v>
@@ -21278,16 +21281,16 @@
         <v>7777470</v>
       </c>
       <c r="C241" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D241" s="2">
         <v>45352.4375</v>
       </c>
       <c r="E241" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F241" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -21296,7 +21299,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J241">
         <v>4</v>
@@ -21364,16 +21367,16 @@
         <v>7898495</v>
       </c>
       <c r="C242" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D242" s="2">
         <v>45352.58333333334</v>
       </c>
       <c r="E242" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F242" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21382,7 +21385,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J242">
         <v>2.25</v>
@@ -21450,16 +21453,16 @@
         <v>7915120</v>
       </c>
       <c r="C243" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D243" s="2">
         <v>45356.4375</v>
       </c>
       <c r="E243" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F243" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -21468,7 +21471,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J243">
         <v>2.625</v>
@@ -21536,17 +21539,17 @@
         <v>7777513</v>
       </c>
       <c r="C244" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D244" s="2">
         <v>45356.4375</v>
       </c>
       <c r="E244" t="s">
+        <v>44</v>
+      </c>
+      <c r="F244" t="s">
         <v>43</v>
       </c>
-      <c r="F244" t="s">
-        <v>42</v>
-      </c>
       <c r="G244">
         <v>2</v>
       </c>
@@ -21554,7 +21557,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J244">
         <v>1.55</v>
@@ -21622,16 +21625,16 @@
         <v>7777514</v>
       </c>
       <c r="C245" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D245" s="2">
         <v>45356.4375</v>
       </c>
       <c r="E245" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F245" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G245">
         <v>4</v>
@@ -21640,7 +21643,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J245">
         <v>1.8</v>
@@ -21708,16 +21711,16 @@
         <v>7777512</v>
       </c>
       <c r="C246" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D246" s="2">
         <v>45356.4375</v>
       </c>
       <c r="E246" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F246" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G246">
         <v>2</v>
@@ -21726,7 +21729,7 @@
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J246">
         <v>2</v>
@@ -21794,17 +21797,17 @@
         <v>7777511</v>
       </c>
       <c r="C247" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D247" s="2">
         <v>45356.4375</v>
       </c>
       <c r="E247" t="s">
+        <v>49</v>
+      </c>
+      <c r="F247" t="s">
         <v>48</v>
       </c>
-      <c r="F247" t="s">
-        <v>47</v>
-      </c>
       <c r="G247">
         <v>1</v>
       </c>
@@ -21812,7 +21815,7 @@
         <v>2</v>
       </c>
       <c r="I247" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J247">
         <v>4.5</v>
@@ -21880,16 +21883,16 @@
         <v>7777475</v>
       </c>
       <c r="C248" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D248" s="2">
         <v>45357.4375</v>
       </c>
       <c r="E248" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -21898,7 +21901,7 @@
         <v>2</v>
       </c>
       <c r="I248" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J248">
         <v>2.5</v>
@@ -21966,17 +21969,17 @@
         <v>7777472</v>
       </c>
       <c r="C249" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D249" s="2">
         <v>45357.4375</v>
       </c>
       <c r="E249" t="s">
+        <v>51</v>
+      </c>
+      <c r="F249" t="s">
         <v>50</v>
       </c>
-      <c r="F249" t="s">
-        <v>49</v>
-      </c>
       <c r="G249">
         <v>1</v>
       </c>
@@ -21984,7 +21987,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J249">
         <v>2.3</v>
@@ -22052,16 +22055,16 @@
         <v>7777474</v>
       </c>
       <c r="C250" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D250" s="2">
         <v>45357.4375</v>
       </c>
       <c r="E250" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F250" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -22070,7 +22073,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J250">
         <v>2.875</v>
@@ -22138,16 +22141,16 @@
         <v>7921245</v>
       </c>
       <c r="C251" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D251" s="2">
         <v>45357.4375</v>
       </c>
       <c r="E251" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F251" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -22156,7 +22159,7 @@
         <v>2</v>
       </c>
       <c r="I251" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J251">
         <v>2.8</v>
@@ -22224,16 +22227,16 @@
         <v>7777473</v>
       </c>
       <c r="C252" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D252" s="2">
         <v>45357.4375</v>
       </c>
       <c r="E252" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -22242,7 +22245,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J252">
         <v>3.2</v>
@@ -22310,16 +22313,16 @@
         <v>7777516</v>
       </c>
       <c r="C253" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D253" s="2">
         <v>45361.4375</v>
       </c>
       <c r="E253" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F253" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -22328,7 +22331,7 @@
         <v>1</v>
       </c>
       <c r="I253" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J253">
         <v>2.625</v>
@@ -22396,16 +22399,16 @@
         <v>7777518</v>
       </c>
       <c r="C254" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D254" s="2">
         <v>45361.4375</v>
       </c>
       <c r="E254" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F254" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G254">
         <v>4</v>
@@ -22414,7 +22417,7 @@
         <v>1</v>
       </c>
       <c r="I254" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J254">
         <v>1.65</v>
@@ -22482,16 +22485,16 @@
         <v>7777538</v>
       </c>
       <c r="C255" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D255" s="2">
         <v>45361.4375</v>
       </c>
       <c r="E255" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F255" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -22500,7 +22503,7 @@
         <v>1</v>
       </c>
       <c r="I255" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J255">
         <v>4.75</v>
@@ -22568,16 +22571,16 @@
         <v>7940277</v>
       </c>
       <c r="C256" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D256" s="2">
         <v>45361.4375</v>
       </c>
       <c r="E256" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F256" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G256">
         <v>1</v>
@@ -22586,7 +22589,7 @@
         <v>3</v>
       </c>
       <c r="I256" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J256">
         <v>5.75</v>
@@ -22654,16 +22657,16 @@
         <v>7777477</v>
       </c>
       <c r="C257" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D257" s="2">
         <v>45398.39583333334</v>
       </c>
       <c r="E257" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F257" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G257">
         <v>2</v>
@@ -22672,7 +22675,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J257">
         <v>2.25</v>
@@ -22740,16 +22743,16 @@
         <v>7777480</v>
       </c>
       <c r="C258" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D258" s="2">
         <v>45398.4375</v>
       </c>
       <c r="E258" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F258" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G258">
         <v>1</v>
@@ -22758,7 +22761,7 @@
         <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J258">
         <v>2.5</v>
@@ -22826,16 +22829,16 @@
         <v>7777481</v>
       </c>
       <c r="C259" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D259" s="2">
         <v>45398.4375</v>
       </c>
       <c r="E259" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F259" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G259">
         <v>3</v>
@@ -22844,7 +22847,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J259">
         <v>1.3</v>
@@ -22912,16 +22915,16 @@
         <v>7777478</v>
       </c>
       <c r="C260" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D260" s="2">
         <v>45398.4375</v>
       </c>
       <c r="E260" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F260" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -22930,7 +22933,7 @@
         <v>1</v>
       </c>
       <c r="I260" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J260">
         <v>2.55</v>
@@ -22998,16 +23001,16 @@
         <v>7777479</v>
       </c>
       <c r="C261" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D261" s="2">
         <v>45398.4375</v>
       </c>
       <c r="E261" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F261" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G261">
         <v>2</v>
@@ -23016,7 +23019,7 @@
         <v>2</v>
       </c>
       <c r="I261" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J261">
         <v>2</v>
@@ -23084,16 +23087,16 @@
         <v>7777521</v>
       </c>
       <c r="C262" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D262" s="2">
         <v>45399.4375</v>
       </c>
       <c r="E262" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F262" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G262">
         <v>1</v>
@@ -23102,7 +23105,7 @@
         <v>3</v>
       </c>
       <c r="I262" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J262">
         <v>4.333</v>
@@ -23170,16 +23173,16 @@
         <v>8107307</v>
       </c>
       <c r="C263" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D263" s="2">
         <v>45399.4375</v>
       </c>
       <c r="E263" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F263" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G263">
         <v>3</v>
@@ -23188,7 +23191,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J263">
         <v>1.4</v>
@@ -23256,16 +23259,16 @@
         <v>7777519</v>
       </c>
       <c r="C264" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D264" s="2">
         <v>45399.4375</v>
       </c>
       <c r="E264" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F264" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -23274,7 +23277,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J264">
         <v>2.05</v>
@@ -23342,16 +23345,16 @@
         <v>7777482</v>
       </c>
       <c r="C265" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D265" s="2">
         <v>45403.4375</v>
       </c>
       <c r="E265" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F265" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -23360,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J265">
         <v>2.3</v>
@@ -23428,16 +23431,16 @@
         <v>7777488</v>
       </c>
       <c r="C266" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D266" s="2">
         <v>45411.4375</v>
       </c>
       <c r="E266" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F266" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G266">
         <v>3</v>
@@ -23446,7 +23449,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J266">
         <v>1.833</v>
@@ -23514,16 +23517,16 @@
         <v>7777490</v>
       </c>
       <c r="C267" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D267" s="2">
         <v>45411.4375</v>
       </c>
       <c r="E267" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F267" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G267">
         <v>0</v>
@@ -23532,7 +23535,7 @@
         <v>1</v>
       </c>
       <c r="I267" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J267">
         <v>3.5</v>
@@ -23600,16 +23603,16 @@
         <v>7777487</v>
       </c>
       <c r="C268" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D268" s="2">
         <v>45411.4375</v>
       </c>
       <c r="E268" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F268" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -23618,7 +23621,7 @@
         <v>1</v>
       </c>
       <c r="I268" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J268">
         <v>2.25</v>
@@ -23686,16 +23689,16 @@
         <v>7777491</v>
       </c>
       <c r="C269" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D269" s="2">
         <v>45411.4375</v>
       </c>
       <c r="E269" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F269" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G269">
         <v>2</v>
@@ -23704,7 +23707,7 @@
         <v>1</v>
       </c>
       <c r="I269" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J269">
         <v>2.25</v>
@@ -23772,16 +23775,16 @@
         <v>7777489</v>
       </c>
       <c r="C270" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D270" s="2">
         <v>45411.4375</v>
       </c>
       <c r="E270" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F270" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G270">
         <v>3</v>
@@ -23790,7 +23793,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J270">
         <v>2.5</v>
@@ -23858,16 +23861,16 @@
         <v>7777530</v>
       </c>
       <c r="C271" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D271" s="2">
         <v>45412.4375</v>
       </c>
       <c r="E271" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -23876,7 +23879,7 @@
         <v>2</v>
       </c>
       <c r="I271" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J271">
         <v>2.1</v>
@@ -23933,6 +23936,71 @@
         <v>0</v>
       </c>
       <c r="AB271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:28">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" s="2">
+        <v>45421.4375</v>
+      </c>
+      <c r="E272" t="s">
+        <v>49</v>
+      </c>
+      <c r="F272" t="s">
+        <v>56</v>
+      </c>
+      <c r="J272">
+        <v>6</v>
+      </c>
+      <c r="K272">
+        <v>4.75</v>
+      </c>
+      <c r="L272">
+        <v>1.363</v>
+      </c>
+      <c r="M272">
+        <v>4.75</v>
+      </c>
+      <c r="N272">
+        <v>4.5</v>
+      </c>
+      <c r="O272">
+        <v>1.5</v>
+      </c>
+      <c r="P272">
+        <v>1</v>
+      </c>
+      <c r="Q272">
+        <v>2</v>
+      </c>
+      <c r="R272">
+        <v>1.8</v>
+      </c>
+      <c r="S272">
+        <v>2.5</v>
+      </c>
+      <c r="T272">
+        <v>1.875</v>
+      </c>
+      <c r="U272">
+        <v>1.925</v>
+      </c>
+      <c r="V272">
+        <v>0</v>
+      </c>
+      <c r="W272">
+        <v>0</v>
+      </c>
+      <c r="X272">
         <v>0</v>
       </c>
     </row>

--- a/Egypt Division 2/Egypt Division 2.xlsx
+++ b/Egypt Division 2/Egypt Division 2.xlsx
@@ -3046,7 +3046,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7254023</v>
+        <v>7254021</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -3055,76 +3055,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J29">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L29">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O29">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="P29">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
         <v>2</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="W29">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3132,7 +3132,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7254021</v>
+        <v>7254022</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3141,13 +3141,13 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3156,43 +3156,43 @@
         <v>83</v>
       </c>
       <c r="J30">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
         <v>3.5</v>
       </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
       <c r="M30">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="N30">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P30">
         <v>-0.75</v>
       </c>
       <c r="Q30">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R30">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
         <v>2</v>
       </c>
       <c r="T30">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>0.75</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3201,13 +3201,13 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB30">
         <v>-1</v>
@@ -3218,7 +3218,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7254022</v>
+        <v>7253682</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3227,58 +3227,58 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>83</v>
       </c>
       <c r="J31">
+        <v>2.375</v>
+      </c>
+      <c r="K31">
+        <v>3.2</v>
+      </c>
+      <c r="L31">
+        <v>2.75</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>3.1</v>
+      </c>
+      <c r="O31">
+        <v>2.3</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>2.1</v>
       </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>3.5</v>
-      </c>
-      <c r="M31">
-        <v>1.666</v>
-      </c>
-      <c r="N31">
-        <v>3.2</v>
-      </c>
-      <c r="O31">
-        <v>5.5</v>
-      </c>
-      <c r="P31">
-        <v>-0.75</v>
-      </c>
-      <c r="Q31">
-        <v>1.925</v>
-      </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.7</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T31">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U31">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>0.6659999999999999</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3287,13 +3287,13 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB31">
         <v>-1</v>
@@ -3304,7 +3304,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>7253682</v>
+        <v>7254023</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -3313,76 +3313,76 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J32">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="K32">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="M32">
+        <v>3.25</v>
+      </c>
+      <c r="N32">
         <v>3</v>
       </c>
-      <c r="N32">
-        <v>3.1</v>
-      </c>
       <c r="O32">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q32">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R32">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>1.8</v>
       </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
       <c r="V32">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.1</v>
+        <v>0.45</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>7254155</v>
+        <v>7254018</v>
       </c>
       <c r="C36" t="s">
         <v>27</v>
@@ -3657,76 +3657,76 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J36">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K36">
         <v>2.8</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M36">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="N36">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="P36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R36">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
         <v>-1</v>
       </c>
       <c r="W36">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA36">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7254019</v>
+        <v>7254155</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
@@ -3743,10 +3743,10 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3758,46 +3758,46 @@
         <v>84</v>
       </c>
       <c r="J37">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K37">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M37">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="N37">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="O37">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
         <v>-0.25</v>
       </c>
       <c r="Q37">
+        <v>1.825</v>
+      </c>
+      <c r="R37">
         <v>1.975</v>
       </c>
-      <c r="R37">
-        <v>1.825</v>
-      </c>
       <c r="S37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T37">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
         <v>-1</v>
       </c>
       <c r="W37">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3806,13 +3806,13 @@
         <v>-0.5</v>
       </c>
       <c r="Z37">
-        <v>0.4125</v>
+        <v>0.4875</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7254018</v>
+        <v>7253635</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
@@ -3829,16 +3829,16 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
         <v>82</v>
@@ -3853,32 +3853,32 @@
         <v>2.8</v>
       </c>
       <c r="M38">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O38">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="R38">
+        <v>2.05</v>
+      </c>
+      <c r="S38">
+        <v>2</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
         <v>1.8</v>
       </c>
-      <c r="S38">
-        <v>2</v>
-      </c>
-      <c r="T38">
-        <v>1.925</v>
-      </c>
-      <c r="U38">
-        <v>1.875</v>
-      </c>
       <c r="V38">
         <v>-1</v>
       </c>
@@ -3886,19 +3886,19 @@
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3906,7 +3906,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7253635</v>
+        <v>7254019</v>
       </c>
       <c r="C39" t="s">
         <v>27</v>
@@ -3915,76 +3915,76 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J39">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K39">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L39">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="N39">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="O39">
-        <v>2.45</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q39">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R39">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
         <v>2</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
         <v>-1</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X39">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z39">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -5282,7 +5282,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7253638</v>
+        <v>7253997</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
@@ -5291,58 +5291,58 @@
         <v>45222.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="s">
         <v>83</v>
       </c>
       <c r="J55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N55">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="O55">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q55">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R55">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S55">
         <v>2</v>
       </c>
       <c r="T55">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5351,16 +5351,16 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -5368,7 +5368,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7253997</v>
+        <v>7253638</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -5377,59 +5377,59 @@
         <v>45222.41666666666</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="s">
         <v>83</v>
       </c>
       <c r="J56">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="K56">
         <v>3</v>
       </c>
       <c r="L56">
+        <v>2.25</v>
+      </c>
+      <c r="M56">
+        <v>4</v>
+      </c>
+      <c r="N56">
+        <v>3.2</v>
+      </c>
+      <c r="O56">
+        <v>1.833</v>
+      </c>
+      <c r="P56">
+        <v>0.5</v>
+      </c>
+      <c r="Q56">
+        <v>1.9</v>
+      </c>
+      <c r="R56">
+        <v>1.9</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
+        <v>1.725</v>
+      </c>
+      <c r="U56">
+        <v>1.975</v>
+      </c>
+      <c r="V56">
         <v>3</v>
       </c>
-      <c r="M56">
-        <v>2.3</v>
-      </c>
-      <c r="N56">
-        <v>2.875</v>
-      </c>
-      <c r="O56">
-        <v>3</v>
-      </c>
-      <c r="P56">
-        <v>-0.25</v>
-      </c>
-      <c r="Q56">
-        <v>2</v>
-      </c>
-      <c r="R56">
-        <v>1.7</v>
-      </c>
-      <c r="S56">
-        <v>2</v>
-      </c>
-      <c r="T56">
-        <v>1.875</v>
-      </c>
-      <c r="U56">
-        <v>1.925</v>
-      </c>
-      <c r="V56">
-        <v>1.3</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
@@ -5437,16 +5437,16 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -5712,7 +5712,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7253994</v>
+        <v>7253995</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5721,46 +5721,46 @@
         <v>45223.41666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J60">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="K60">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L60">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M60">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="N60">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O60">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S60">
         <v>2</v>
@@ -5772,19 +5772,19 @@
         <v>2.025</v>
       </c>
       <c r="V60">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y60">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA60">
         <v>0.7749999999999999</v>
@@ -5798,7 +5798,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7253995</v>
+        <v>7253994</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -5807,46 +5807,46 @@
         <v>45223.41666666666</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J61">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="K61">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L61">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M61">
+        <v>1.7</v>
+      </c>
+      <c r="N61">
+        <v>3.3</v>
+      </c>
+      <c r="O61">
+        <v>5</v>
+      </c>
+      <c r="P61">
+        <v>-0.75</v>
+      </c>
+      <c r="Q61">
+        <v>1.95</v>
+      </c>
+      <c r="R61">
         <v>1.85</v>
-      </c>
-      <c r="N61">
-        <v>3.2</v>
-      </c>
-      <c r="O61">
-        <v>4.2</v>
-      </c>
-      <c r="P61">
-        <v>-0.5</v>
-      </c>
-      <c r="Q61">
-        <v>1.9</v>
-      </c>
-      <c r="R61">
-        <v>1.9</v>
       </c>
       <c r="S61">
         <v>2</v>
@@ -5858,19 +5858,19 @@
         <v>2.025</v>
       </c>
       <c r="V61">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z61">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA61">
         <v>0.7749999999999999</v>
@@ -7174,7 +7174,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7253987</v>
+        <v>7254163</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7183,13 +7183,13 @@
         <v>45236.39583333334</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F77" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7198,43 +7198,43 @@
         <v>83</v>
       </c>
       <c r="J77">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="K77">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="M77">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="N77">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="O77">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="P77">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q77">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R77">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S77">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T77">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7243,13 +7243,13 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB77">
         <v>-1</v>
@@ -7346,7 +7346,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7253685</v>
+        <v>7253987</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7355,49 +7355,49 @@
         <v>45236.39583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J79">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L79">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="N79">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O79">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="P79">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T79">
         <v>1.975</v>
@@ -7406,25 +7406,25 @@
         <v>1.825</v>
       </c>
       <c r="V79">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W79">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7432,7 +7432,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7254163</v>
+        <v>7253685</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7441,76 +7441,76 @@
         <v>45236.39583333334</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K80">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="M80">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="N80">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O80">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="P80">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q80">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R80">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U80">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V80">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X80">
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="81" spans="1:28">
@@ -7690,7 +7690,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>7253984</v>
+        <v>7253642</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7699,76 +7699,76 @@
         <v>45237.39583333334</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J83">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="K83">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="L83">
+        <v>3.75</v>
+      </c>
+      <c r="M83">
+        <v>2.2</v>
+      </c>
+      <c r="N83">
+        <v>2.8</v>
+      </c>
+      <c r="O83">
         <v>3.3</v>
-      </c>
-      <c r="M83">
-        <v>2.15</v>
-      </c>
-      <c r="N83">
-        <v>2.9</v>
-      </c>
-      <c r="O83">
-        <v>3.2</v>
       </c>
       <c r="P83">
         <v>-0.25</v>
       </c>
       <c r="Q83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
         <v>2</v>
       </c>
       <c r="T83">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W83">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="Z83">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7862,7 +7862,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>7253642</v>
+        <v>7253984</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7871,76 +7871,76 @@
         <v>45237.39583333334</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J85">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="K85">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N85">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P85">
         <v>-0.25</v>
       </c>
       <c r="Q85">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
         <v>2</v>
       </c>
       <c r="T85">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA85">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -9152,7 +9152,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7253977</v>
+        <v>7253643</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9161,46 +9161,46 @@
         <v>45244.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J100">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L100">
+        <v>4.2</v>
+      </c>
+      <c r="M100">
+        <v>1.4</v>
+      </c>
+      <c r="N100">
         <v>3.6</v>
       </c>
-      <c r="M100">
-        <v>1.5</v>
-      </c>
-      <c r="N100">
-        <v>3.5</v>
-      </c>
       <c r="O100">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="P100">
         <v>-1</v>
       </c>
       <c r="Q100">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="R100">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S100">
         <v>2.25</v>
@@ -9212,25 +9212,25 @@
         <v>1.725</v>
       </c>
       <c r="V100">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W100">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB100">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9324,7 +9324,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7253978</v>
+        <v>7253977</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9333,61 +9333,61 @@
         <v>45244.39583333334</v>
       </c>
       <c r="E102" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
         <v>84</v>
       </c>
       <c r="J102">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K102">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M102">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O102">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T102">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="V102">
         <v>-1</v>
       </c>
       <c r="W102">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9396,13 +9396,13 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -9410,7 +9410,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7253643</v>
+        <v>7253978</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9419,73 +9419,73 @@
         <v>45244.39583333334</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F103" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>2</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J103">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="K103">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L103">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103">
         <v>3.6</v>
       </c>
-      <c r="O103">
-        <v>9</v>
-      </c>
       <c r="P103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q103">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="R103">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T103">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="U103">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB103">
         <v>-1</v>
@@ -9926,7 +9926,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7253974</v>
+        <v>7253973</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -9935,55 +9935,55 @@
         <v>45251.39583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="s">
         <v>82</v>
       </c>
       <c r="J109">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="K109">
         <v>3</v>
       </c>
       <c r="L109">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="M109">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N109">
         <v>3</v>
       </c>
       <c r="O109">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="P109">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q109">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="R109">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
         <v>2</v>
       </c>
       <c r="T109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V109">
         <v>-1</v>
@@ -9992,16 +9992,16 @@
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
@@ -10012,7 +10012,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7253973</v>
+        <v>7253647</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
@@ -10021,76 +10021,76 @@
         <v>45251.39583333334</v>
       </c>
       <c r="E110" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G110">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J110">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="K110">
         <v>3</v>
       </c>
       <c r="L110">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M110">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N110">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O110">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="P110">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q110">
+        <v>1.975</v>
+      </c>
+      <c r="R110">
         <v>1.825</v>
       </c>
-      <c r="R110">
-        <v>1.975</v>
-      </c>
       <c r="S110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U110">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V110">
         <v>-1</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X110">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z110">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -10098,7 +10098,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7253647</v>
+        <v>7253974</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -10107,34 +10107,34 @@
         <v>45251.39583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I111" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J111">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="K111">
         <v>3</v>
       </c>
       <c r="L111">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N111">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O111">
         <v>2.9</v>
@@ -10143,40 +10143,40 @@
         <v>-0.25</v>
       </c>
       <c r="Q111">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T111">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
         <v>-1</v>
       </c>
       <c r="W111">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.4125</v>
+        <v>0.75</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB111">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10442,7 +10442,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7253967</v>
+        <v>7253966</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10451,76 +10451,76 @@
         <v>45258.39583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J115">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L115">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="N115">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O115">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P115">
+        <v>-0.75</v>
+      </c>
+      <c r="Q115">
+        <v>1.875</v>
+      </c>
+      <c r="R115">
+        <v>1.925</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
+        <v>1.775</v>
+      </c>
+      <c r="U115">
+        <v>2.025</v>
+      </c>
+      <c r="V115">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="W115">
+        <v>-1</v>
+      </c>
+      <c r="X115">
+        <v>-1</v>
+      </c>
+      <c r="Y115">
+        <v>0.4375</v>
+      </c>
+      <c r="Z115">
         <v>-0.5</v>
       </c>
-      <c r="Q115">
-        <v>2.05</v>
-      </c>
-      <c r="R115">
-        <v>1.75</v>
-      </c>
-      <c r="S115">
-        <v>2.25</v>
-      </c>
-      <c r="T115">
-        <v>2.025</v>
-      </c>
-      <c r="U115">
-        <v>1.775</v>
-      </c>
-      <c r="V115">
-        <v>-1</v>
-      </c>
-      <c r="W115">
-        <v>2.2</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>-1</v>
-      </c>
-      <c r="Z115">
-        <v>0.75</v>
-      </c>
       <c r="AA115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10528,7 +10528,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7253966</v>
+        <v>7253967</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -10537,76 +10537,76 @@
         <v>45258.39583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J116">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>3.1</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>3.2</v>
+      </c>
+      <c r="O116">
         <v>3.4</v>
       </c>
-      <c r="L116">
-        <v>4.5</v>
-      </c>
-      <c r="M116">
-        <v>1.65</v>
-      </c>
-      <c r="N116">
-        <v>3.3</v>
-      </c>
-      <c r="O116">
-        <v>5</v>
-      </c>
       <c r="P116">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q116">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T116">
+        <v>2.025</v>
+      </c>
+      <c r="U116">
         <v>1.775</v>
       </c>
-      <c r="U116">
-        <v>2.025</v>
-      </c>
       <c r="V116">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
+        <v>0.75</v>
+      </c>
+      <c r="AA116">
         <v>-0.5</v>
       </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
       <c r="AB116">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="117" spans="1:28">
@@ -11302,7 +11302,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7550645</v>
+        <v>7253963</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11311,76 +11311,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J125">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="K125">
         <v>3</v>
       </c>
       <c r="L125">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="M125">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N125">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O125">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="P125">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q125">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
         <v>2.25</v>
       </c>
       <c r="T125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="W125">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z125">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11388,7 +11388,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7253963</v>
+        <v>7550645</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11397,76 +11397,76 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J126">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="K126">
         <v>3</v>
       </c>
       <c r="L126">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="M126">
-        <v>1.615</v>
+        <v>2.25</v>
       </c>
       <c r="N126">
+        <v>3.1</v>
+      </c>
+      <c r="O126">
         <v>3</v>
       </c>
-      <c r="O126">
-        <v>5.75</v>
-      </c>
       <c r="P126">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q126">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
         <v>2.25</v>
       </c>
       <c r="T126">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U126">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V126">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
+        <v>-0.5</v>
+      </c>
+      <c r="Z126">
+        <v>0.4</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
         <v>0.825</v>
-      </c>
-      <c r="Z126">
-        <v>-1</v>
-      </c>
-      <c r="AA126">
-        <v>0.95</v>
-      </c>
-      <c r="AB126">
-        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:28">
@@ -11560,7 +11560,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7254169</v>
+        <v>7253964</v>
       </c>
       <c r="C128" t="s">
         <v>27</v>
@@ -11569,40 +11569,40 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H128">
         <v>1</v>
       </c>
       <c r="I128" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J128">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="K128">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L128">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="M128">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="N128">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="O128">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="P128">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q128">
         <v>1.95</v>
@@ -11611,34 +11611,34 @@
         <v>1.85</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T128">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="U128">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W128">
         <v>-1</v>
       </c>
       <c r="X128">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="Z128">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB128">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:28">
@@ -11646,7 +11646,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7253964</v>
+        <v>7254169</v>
       </c>
       <c r="C129" t="s">
         <v>27</v>
@@ -11655,40 +11655,40 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E129" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F129" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J129">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="K129">
+        <v>2.8</v>
+      </c>
+      <c r="L129">
+        <v>2.4</v>
+      </c>
+      <c r="M129">
         <v>3.4</v>
       </c>
-      <c r="L129">
-        <v>3.75</v>
-      </c>
-      <c r="M129">
-        <v>1.7</v>
-      </c>
       <c r="N129">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O129">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="P129">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q129">
         <v>1.95</v>
@@ -11697,34 +11697,34 @@
         <v>1.85</v>
       </c>
       <c r="S129">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y129">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -12076,7 +12076,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7587389</v>
+        <v>7253652</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -12085,55 +12085,55 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F134" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="s">
         <v>84</v>
       </c>
       <c r="J134">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="K134">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L134">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M134">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="N134">
         <v>3.4</v>
       </c>
       <c r="O134">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P134">
         <v>-0.75</v>
       </c>
       <c r="Q134">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T134">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
         <v>-1</v>
@@ -12148,13 +12148,13 @@
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12162,7 +12162,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7580438</v>
+        <v>7253957</v>
       </c>
       <c r="C135" t="s">
         <v>27</v>
@@ -12171,73 +12171,73 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E135" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J135">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="K135">
         <v>3</v>
       </c>
       <c r="L135">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="N135">
         <v>3</v>
       </c>
       <c r="O135">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P135">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q135">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S135">
         <v>2.25</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U135">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W135">
         <v>-1</v>
       </c>
       <c r="X135">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="Z135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB135">
         <v>-1</v>
@@ -12248,7 +12248,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7558905</v>
+        <v>7558451</v>
       </c>
       <c r="C136" t="s">
         <v>27</v>
@@ -12257,55 +12257,55 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F136" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="s">
         <v>82</v>
       </c>
       <c r="J136">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K136">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L136">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N136">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O136">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="P136">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q136">
         <v>1.725</v>
       </c>
       <c r="R136">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T136">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="U136">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
         <v>-1</v>
@@ -12314,19 +12314,19 @@
         <v>-1</v>
       </c>
       <c r="X136">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB136">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="137" spans="1:28">
@@ -12334,7 +12334,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7253652</v>
+        <v>7253956</v>
       </c>
       <c r="C137" t="s">
         <v>27</v>
@@ -12343,76 +12343,76 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E137" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J137">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="K137">
         <v>3.25</v>
       </c>
       <c r="L137">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M137">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="N137">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="O137">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P137">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q137">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R137">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W137">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z137">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:28">
@@ -12420,7 +12420,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7558451</v>
+        <v>7558905</v>
       </c>
       <c r="C138" t="s">
         <v>27</v>
@@ -12429,55 +12429,55 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="s">
         <v>82</v>
       </c>
       <c r="J138">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="K138">
+        <v>2.8</v>
+      </c>
+      <c r="L138">
+        <v>2.8</v>
+      </c>
+      <c r="M138">
         <v>2.9</v>
       </c>
-      <c r="L138">
-        <v>3.2</v>
-      </c>
-      <c r="M138">
-        <v>2.05</v>
-      </c>
       <c r="N138">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O138">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="P138">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q138">
         <v>1.725</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S138">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T138">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V138">
         <v>-1</v>
@@ -12486,19 +12486,19 @@
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AA138">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12506,7 +12506,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7253957</v>
+        <v>7580438</v>
       </c>
       <c r="C139" t="s">
         <v>27</v>
@@ -12515,73 +12515,73 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E139" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J139">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="K139">
         <v>3</v>
       </c>
       <c r="L139">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="M139">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="N139">
         <v>3</v>
       </c>
       <c r="O139">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="P139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="R139">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S139">
         <v>2.25</v>
       </c>
       <c r="T139">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V139">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y139">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB139">
         <v>-1</v>
@@ -12592,7 +12592,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7253956</v>
+        <v>7587389</v>
       </c>
       <c r="C140" t="s">
         <v>27</v>
@@ -12601,73 +12601,73 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G140">
         <v>2</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J140">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="K140">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M140">
+        <v>1.615</v>
+      </c>
+      <c r="N140">
+        <v>3.4</v>
+      </c>
+      <c r="O140">
+        <v>5.25</v>
+      </c>
+      <c r="P140">
+        <v>-0.75</v>
+      </c>
+      <c r="Q140">
         <v>1.85</v>
       </c>
-      <c r="N140">
-        <v>3.2</v>
-      </c>
-      <c r="O140">
-        <v>3.8</v>
-      </c>
-      <c r="P140">
-        <v>-0.5</v>
-      </c>
-      <c r="Q140">
+      <c r="R140">
         <v>1.95</v>
-      </c>
-      <c r="R140">
-        <v>1.85</v>
       </c>
       <c r="S140">
         <v>2.25</v>
       </c>
       <c r="T140">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
         <v>0.95</v>
       </c>
-      <c r="Z140">
-        <v>-1</v>
-      </c>
       <c r="AA140">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB140">
         <v>-1</v>
@@ -13022,7 +13022,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7253953</v>
+        <v>7253690</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
@@ -13031,10 +13031,10 @@
         <v>45278.39583333334</v>
       </c>
       <c r="E145" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -13046,43 +13046,43 @@
         <v>83</v>
       </c>
       <c r="J145">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="K145">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="M145">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N145">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="P145">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
+        <v>2.05</v>
+      </c>
+      <c r="U145">
         <v>1.75</v>
       </c>
-      <c r="T145">
-        <v>1.925</v>
-      </c>
-      <c r="U145">
-        <v>1.875</v>
-      </c>
       <c r="V145">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="W145">
         <v>-1</v>
@@ -13091,13 +13091,13 @@
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="Z145">
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AB145">
         <v>-1</v>
@@ -13108,7 +13108,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7253690</v>
+        <v>7253954</v>
       </c>
       <c r="C146" t="s">
         <v>27</v>
@@ -13117,58 +13117,58 @@
         <v>45278.39583333334</v>
       </c>
       <c r="E146" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="s">
         <v>83</v>
       </c>
       <c r="J146">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="K146">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L146">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="O146">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="P146">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q146">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="R146">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S146">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="T146">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U146">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="W146">
         <v>-1</v>
@@ -13177,13 +13177,13 @@
         <v>-1</v>
       </c>
       <c r="Y146">
-        <v>1.075</v>
+        <v>0.4625</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB146">
         <v>-1</v>
@@ -13194,7 +13194,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7253954</v>
+        <v>7253953</v>
       </c>
       <c r="C147" t="s">
         <v>27</v>
@@ -13203,58 +13203,58 @@
         <v>45278.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="s">
         <v>83</v>
       </c>
       <c r="J147">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="K147">
         <v>3.2</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M147">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="N147">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O147">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q147">
+        <v>1.85</v>
+      </c>
+      <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
+        <v>1.75</v>
+      </c>
+      <c r="T147">
         <v>1.925</v>
       </c>
-      <c r="R147">
+      <c r="U147">
         <v>1.875</v>
       </c>
-      <c r="S147">
-        <v>1.5</v>
-      </c>
-      <c r="T147">
-        <v>1.875</v>
-      </c>
-      <c r="U147">
-        <v>1.925</v>
-      </c>
       <c r="V147">
-        <v>0.6499999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13263,13 +13263,13 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13968,7 +13968,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7253948</v>
+        <v>7253946</v>
       </c>
       <c r="C156" t="s">
         <v>27</v>
@@ -13977,19 +13977,19 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G156">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J156">
         <v>2</v>
@@ -14001,52 +14001,52 @@
         <v>3.6</v>
       </c>
       <c r="M156">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="N156">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O156">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="P156">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="Q156">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S156">
         <v>2.5</v>
       </c>
       <c r="T156">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U156">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V156">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA156">
         <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:28">
@@ -14054,7 +14054,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7253946</v>
+        <v>7254176</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -14063,76 +14063,76 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E157" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F157" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H157">
         <v>1</v>
       </c>
       <c r="I157" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J157">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K157">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M157">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="N157">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="O157">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Q157">
+        <v>1.975</v>
+      </c>
+      <c r="R157">
+        <v>1.825</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
         <v>1.95</v>
       </c>
-      <c r="R157">
+      <c r="U157">
         <v>1.85</v>
       </c>
-      <c r="S157">
-        <v>2.5</v>
-      </c>
-      <c r="T157">
-        <v>1.8</v>
-      </c>
-      <c r="U157">
-        <v>2</v>
-      </c>
       <c r="V157">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="W157">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z157">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB157">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14140,7 +14140,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7605133</v>
+        <v>7253948</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14149,76 +14149,76 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E158" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J158">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K158">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L158">
         <v>3.6</v>
       </c>
       <c r="M158">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N158">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P158">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q158">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="R158">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S158">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="T158">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U158">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V158">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="W158">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
+        <v>0.4625</v>
+      </c>
+      <c r="Z158">
         <v>-0.5</v>
       </c>
-      <c r="Z158">
-        <v>0.3625</v>
-      </c>
       <c r="AA158">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="159" spans="1:28">
@@ -14312,7 +14312,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7254176</v>
+        <v>7253947</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14321,58 +14321,58 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E160" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="s">
         <v>83</v>
       </c>
       <c r="J160">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K160">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L160">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M160">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N160">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O160">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
         <v>-0.5</v>
       </c>
       <c r="Q160">
+        <v>1.825</v>
+      </c>
+      <c r="R160">
         <v>1.975</v>
       </c>
-      <c r="R160">
-        <v>1.825</v>
-      </c>
       <c r="S160">
         <v>2</v>
       </c>
       <c r="T160">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V160">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14381,13 +14381,13 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14398,7 +14398,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7253947</v>
+        <v>7605133</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
@@ -14407,73 +14407,73 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F161" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J161">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K161">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L161">
         <v>3.6</v>
       </c>
       <c r="M161">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="N161">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O161">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P161">
+        <v>-0.25</v>
+      </c>
+      <c r="Q161">
+        <v>2.075</v>
+      </c>
+      <c r="R161">
+        <v>1.725</v>
+      </c>
+      <c r="S161">
+        <v>1.5</v>
+      </c>
+      <c r="T161">
+        <v>1.775</v>
+      </c>
+      <c r="U161">
+        <v>2.025</v>
+      </c>
+      <c r="V161">
+        <v>-1</v>
+      </c>
+      <c r="W161">
+        <v>1.7</v>
+      </c>
+      <c r="X161">
+        <v>-1</v>
+      </c>
+      <c r="Y161">
         <v>-0.5</v>
       </c>
-      <c r="Q161">
-        <v>1.825</v>
-      </c>
-      <c r="R161">
-        <v>1.975</v>
-      </c>
-      <c r="S161">
-        <v>2</v>
-      </c>
-      <c r="T161">
-        <v>2.025</v>
-      </c>
-      <c r="U161">
-        <v>1.775</v>
-      </c>
-      <c r="V161">
-        <v>0.8</v>
-      </c>
-      <c r="W161">
-        <v>-1</v>
-      </c>
-      <c r="X161">
-        <v>-1</v>
-      </c>
-      <c r="Y161">
-        <v>0.825</v>
-      </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA161">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB161">
         <v>-1</v>
@@ -14484,7 +14484,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7605134</v>
+        <v>7635883</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
@@ -14493,76 +14493,76 @@
         <v>45288.39583333334</v>
       </c>
       <c r="E162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F162" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J162">
+        <v>2.1</v>
+      </c>
+      <c r="K162">
+        <v>2.9</v>
+      </c>
+      <c r="L162">
         <v>3.4</v>
       </c>
-      <c r="K162">
-        <v>3.1</v>
-      </c>
-      <c r="L162">
-        <v>2</v>
-      </c>
       <c r="M162">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N162">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="O162">
+        <v>3</v>
+      </c>
+      <c r="P162">
+        <v>-0.25</v>
+      </c>
+      <c r="Q162">
+        <v>2</v>
+      </c>
+      <c r="R162">
+        <v>1.7</v>
+      </c>
+      <c r="S162">
         <v>1.75</v>
       </c>
-      <c r="P162">
-        <v>0.5</v>
-      </c>
-      <c r="Q162">
+      <c r="T162">
+        <v>1.725</v>
+      </c>
+      <c r="U162">
         <v>1.975</v>
       </c>
-      <c r="R162">
-        <v>1.825</v>
-      </c>
-      <c r="S162">
-        <v>2.25</v>
-      </c>
-      <c r="T162">
+      <c r="V162">
+        <v>-1</v>
+      </c>
+      <c r="W162">
         <v>1.75</v>
       </c>
-      <c r="U162">
-        <v>1.95</v>
-      </c>
-      <c r="V162">
-        <v>-1</v>
-      </c>
-      <c r="W162">
-        <v>-1</v>
-      </c>
       <c r="X162">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z162">
-        <v>0.825</v>
+        <v>0.35</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14570,7 +14570,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7253657</v>
+        <v>7605134</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14579,52 +14579,52 @@
         <v>45288.39583333334</v>
       </c>
       <c r="E163" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F163" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="s">
         <v>82</v>
       </c>
       <c r="J163">
-        <v>1.615</v>
+        <v>3.4</v>
       </c>
       <c r="K163">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L163">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M163">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="N163">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O163">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="P163">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q163">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R163">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S163">
         <v>2.25</v>
       </c>
       <c r="T163">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U163">
         <v>1.95</v>
@@ -14636,19 +14636,19 @@
         <v>-1</v>
       </c>
       <c r="X163">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14656,7 +14656,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7635883</v>
+        <v>7253657</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
@@ -14665,76 +14665,76 @@
         <v>45288.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J164">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="K164">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L164">
+        <v>5</v>
+      </c>
+      <c r="M164">
+        <v>1.6</v>
+      </c>
+      <c r="N164">
         <v>3.4</v>
       </c>
-      <c r="M164">
-        <v>2.45</v>
-      </c>
-      <c r="N164">
-        <v>2.75</v>
-      </c>
       <c r="O164">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P164">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q164">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R164">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S164">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T164">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="U164">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
         <v>-1</v>
       </c>
       <c r="W164">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y164">
+        <v>-1</v>
+      </c>
+      <c r="Z164">
+        <v>1</v>
+      </c>
+      <c r="AA164">
         <v>-0.5</v>
       </c>
-      <c r="Z164">
-        <v>0.35</v>
-      </c>
-      <c r="AA164">
-        <v>-1</v>
-      </c>
       <c r="AB164">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -15516,7 +15516,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7253939</v>
+        <v>7253659</v>
       </c>
       <c r="C174" t="s">
         <v>27</v>
@@ -15525,76 +15525,76 @@
         <v>45299.39583333334</v>
       </c>
       <c r="E174" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="I174" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J174">
+        <v>2.6</v>
+      </c>
+      <c r="K174">
+        <v>2.8</v>
+      </c>
+      <c r="L174">
+        <v>2.7</v>
+      </c>
+      <c r="M174">
         <v>3.6</v>
       </c>
-      <c r="K174">
-        <v>3.4</v>
-      </c>
-      <c r="L174">
-        <v>1.833</v>
-      </c>
-      <c r="M174">
-        <v>3.25</v>
-      </c>
       <c r="N174">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="O174">
+        <v>2.05</v>
+      </c>
+      <c r="P174">
+        <v>0.25</v>
+      </c>
+      <c r="Q174">
+        <v>2</v>
+      </c>
+      <c r="R174">
+        <v>1.8</v>
+      </c>
+      <c r="S174">
+        <v>2</v>
+      </c>
+      <c r="T174">
         <v>1.95</v>
       </c>
-      <c r="P174">
+      <c r="U174">
+        <v>1.85</v>
+      </c>
+      <c r="V174">
+        <v>-1</v>
+      </c>
+      <c r="W174">
+        <v>1.9</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
         <v>0.5</v>
       </c>
-      <c r="Q174">
-        <v>1.8</v>
-      </c>
-      <c r="R174">
-        <v>2</v>
-      </c>
-      <c r="S174">
-        <v>2.5</v>
-      </c>
-      <c r="T174">
-        <v>2</v>
-      </c>
-      <c r="U174">
-        <v>1.8</v>
-      </c>
-      <c r="V174">
-        <v>-1</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>0.95</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
       <c r="Z174">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB174">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:28">
@@ -15602,7 +15602,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7253940</v>
+        <v>7253938</v>
       </c>
       <c r="C175" t="s">
         <v>27</v>
@@ -15611,76 +15611,76 @@
         <v>45299.39583333334</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F175" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J175">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="K175">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L175">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="M175">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N175">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="O175">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="P175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q175">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="R175">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T175">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="U175">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V175">
         <v>-1</v>
       </c>
       <c r="W175">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y175">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA175">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:28">
@@ -15688,7 +15688,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7253938</v>
+        <v>7253940</v>
       </c>
       <c r="C176" t="s">
         <v>27</v>
@@ -15697,76 +15697,76 @@
         <v>45299.39583333334</v>
       </c>
       <c r="E176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J176">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="K176">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L176">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="M176">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N176">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="O176">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="P176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q176">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S176">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T176">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V176">
         <v>-1</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X176">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z176">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA176">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:28">
@@ -15774,7 +15774,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7253659</v>
+        <v>7253939</v>
       </c>
       <c r="C177" t="s">
         <v>27</v>
@@ -15783,76 +15783,76 @@
         <v>45299.39583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F177" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>1</v>
       </c>
       <c r="I177" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J177">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="K177">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="L177">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="M177">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="N177">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="O177">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P177">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q177">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>2.5</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
         <v>1.8</v>
       </c>
-      <c r="S177">
-        <v>2</v>
-      </c>
-      <c r="T177">
-        <v>1.95</v>
-      </c>
-      <c r="U177">
-        <v>1.85</v>
-      </c>
       <c r="V177">
         <v>-1</v>
       </c>
       <c r="W177">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y177">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="178" spans="1:28">
@@ -16376,7 +16376,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7253662</v>
+        <v>7253935</v>
       </c>
       <c r="C184" t="s">
         <v>27</v>
@@ -16385,76 +16385,76 @@
         <v>45306.375</v>
       </c>
       <c r="E184" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F184" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J184">
+        <v>2.8</v>
+      </c>
+      <c r="K184">
+        <v>2.7</v>
+      </c>
+      <c r="L184">
+        <v>2.6</v>
+      </c>
+      <c r="M184">
+        <v>3.2</v>
+      </c>
+      <c r="N184">
         <v>2.75</v>
       </c>
-      <c r="K184">
-        <v>3</v>
-      </c>
-      <c r="L184">
-        <v>2.4</v>
-      </c>
-      <c r="M184">
+      <c r="O184">
         <v>2.3</v>
       </c>
-      <c r="N184">
-        <v>3</v>
-      </c>
-      <c r="O184">
-        <v>2.875</v>
-      </c>
       <c r="P184">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q184">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="R184">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
         <v>1.75</v>
       </c>
       <c r="T184">
+        <v>1.95</v>
+      </c>
+      <c r="U184">
         <v>1.85</v>
       </c>
-      <c r="U184">
-        <v>1.95</v>
-      </c>
       <c r="V184">
+        <v>-1</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
         <v>1.3</v>
       </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
       <c r="Y184">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA184">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="185" spans="1:28">
@@ -16462,7 +16462,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7253935</v>
+        <v>7253663</v>
       </c>
       <c r="C185" t="s">
         <v>27</v>
@@ -16471,76 +16471,76 @@
         <v>45306.375</v>
       </c>
       <c r="E185" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J185">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="K185">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="L185">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="M185">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="N185">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="O185">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="P185">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q185">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R185">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S185">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="T185">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z185">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AA185">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:28">
@@ -16548,7 +16548,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7253663</v>
+        <v>7253662</v>
       </c>
       <c r="C186" t="s">
         <v>27</v>
@@ -16557,58 +16557,58 @@
         <v>45306.375</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F186" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="s">
         <v>83</v>
       </c>
       <c r="J186">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="K186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L186">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="M186">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="N186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O186">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="P186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q186">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S186">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="T186">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U186">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V186">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="W186">
         <v>-1</v>
@@ -16617,16 +16617,16 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="Z186">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB186">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:28">
@@ -17924,7 +17924,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7253925</v>
+        <v>7253668</v>
       </c>
       <c r="C202" t="s">
         <v>27</v>
@@ -17933,76 +17933,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E202" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G202">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J202">
-        <v>2.35</v>
+        <v>1.533</v>
       </c>
       <c r="K202">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L202">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="M202">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="N202">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="O202">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P202">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q202">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="R202">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S202">
+        <v>2</v>
+      </c>
+      <c r="T202">
         <v>1.75</v>
       </c>
-      <c r="T202">
-        <v>1.85</v>
-      </c>
       <c r="U202">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V202">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z202">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="203" spans="1:28">
@@ -18010,7 +18010,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7757379</v>
+        <v>7253669</v>
       </c>
       <c r="C203" t="s">
         <v>27</v>
@@ -18019,76 +18019,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E203" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J203">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="K203">
         <v>3</v>
       </c>
       <c r="L203">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M203">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="N203">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O203">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="P203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q203">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="R203">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S203">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T203">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U203">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V203">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="W203">
         <v>-1</v>
       </c>
       <c r="X203">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z203">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB203">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:28">
@@ -18096,7 +18096,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7253928</v>
+        <v>7253923</v>
       </c>
       <c r="C204" t="s">
         <v>27</v>
@@ -18105,49 +18105,49 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E204" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F204" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J204">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="K204">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L204">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M204">
-        <v>1.7</v>
+        <v>2.375</v>
       </c>
       <c r="N204">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="O204">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P204">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q204">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="R204">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S204">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="T204">
         <v>1.8</v>
@@ -18156,19 +18156,19 @@
         <v>2</v>
       </c>
       <c r="V204">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z204">
-        <v>-0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AA204">
         <v>-1</v>
@@ -18182,7 +18182,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7253926</v>
+        <v>7253924</v>
       </c>
       <c r="C205" t="s">
         <v>27</v>
@@ -18191,55 +18191,55 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E205" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G205">
         <v>0</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I205" t="s">
         <v>82</v>
       </c>
       <c r="J205">
+        <v>5</v>
+      </c>
+      <c r="K205">
+        <v>3</v>
+      </c>
+      <c r="L205">
+        <v>1.727</v>
+      </c>
+      <c r="M205">
+        <v>8</v>
+      </c>
+      <c r="N205">
+        <v>4</v>
+      </c>
+      <c r="O205">
+        <v>1.4</v>
+      </c>
+      <c r="P205">
+        <v>1.25</v>
+      </c>
+      <c r="Q205">
+        <v>1.9</v>
+      </c>
+      <c r="R205">
+        <v>1.9</v>
+      </c>
+      <c r="S205">
         <v>2.5</v>
       </c>
-      <c r="K205">
-        <v>2.7</v>
-      </c>
-      <c r="L205">
-        <v>2.9</v>
-      </c>
-      <c r="M205">
-        <v>2.375</v>
-      </c>
-      <c r="N205">
-        <v>3</v>
-      </c>
-      <c r="O205">
-        <v>2.8</v>
-      </c>
-      <c r="P205">
-        <v>-0.25</v>
-      </c>
-      <c r="Q205">
-        <v>2.075</v>
-      </c>
-      <c r="R205">
-        <v>1.725</v>
-      </c>
-      <c r="S205">
-        <v>1.5</v>
-      </c>
       <c r="T205">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="U205">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="V205">
         <v>-1</v>
@@ -18248,19 +18248,19 @@
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>1.8</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB205">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:28">
@@ -18268,7 +18268,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7253924</v>
+        <v>7253926</v>
       </c>
       <c r="C206" t="s">
         <v>27</v>
@@ -18277,55 +18277,55 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E206" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I206" t="s">
         <v>82</v>
       </c>
       <c r="J206">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="K206">
+        <v>2.7</v>
+      </c>
+      <c r="L206">
+        <v>2.9</v>
+      </c>
+      <c r="M206">
+        <v>2.375</v>
+      </c>
+      <c r="N206">
         <v>3</v>
       </c>
-      <c r="L206">
-        <v>1.727</v>
-      </c>
-      <c r="M206">
-        <v>8</v>
-      </c>
-      <c r="N206">
-        <v>4</v>
-      </c>
       <c r="O206">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="P206">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q206">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="R206">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S206">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="T206">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="U206">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="V206">
         <v>-1</v>
@@ -18334,19 +18334,19 @@
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>0.3999999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA206">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="207" spans="1:28">
@@ -18354,7 +18354,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7253923</v>
+        <v>7253927</v>
       </c>
       <c r="C207" t="s">
         <v>27</v>
@@ -18363,61 +18363,61 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E207" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F207" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J207">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="K207">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="L207">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M207">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="N207">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O207">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="P207">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q207">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R207">
         <v>1.75</v>
       </c>
       <c r="S207">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T207">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U207">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V207">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W207">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18432,7 +18432,7 @@
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:28">
@@ -18440,7 +18440,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7253669</v>
+        <v>7253928</v>
       </c>
       <c r="C208" t="s">
         <v>27</v>
@@ -18449,13 +18449,13 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F208" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -18467,40 +18467,40 @@
         <v>1.727</v>
       </c>
       <c r="K208">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L208">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M208">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="N208">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O208">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="P208">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="Q208">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R208">
+        <v>1.825</v>
+      </c>
+      <c r="S208">
+        <v>2.25</v>
+      </c>
+      <c r="T208">
         <v>1.8</v>
       </c>
-      <c r="S208">
-        <v>2</v>
-      </c>
-      <c r="T208">
-        <v>1.925</v>
-      </c>
       <c r="U208">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V208">
-        <v>0.5329999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="W208">
         <v>-1</v>
@@ -18509,16 +18509,16 @@
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:28">
@@ -18526,7 +18526,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7253668</v>
+        <v>7253925</v>
       </c>
       <c r="C209" t="s">
         <v>27</v>
@@ -18535,76 +18535,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I209" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J209">
-        <v>1.533</v>
+        <v>2.35</v>
       </c>
       <c r="K209">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L209">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="M209">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="N209">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="O209">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P209">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q209">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="R209">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S209">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T209">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U209">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V209">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y209">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB209">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:28">
@@ -18612,7 +18612,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7253927</v>
+        <v>7757379</v>
       </c>
       <c r="C210" t="s">
         <v>27</v>
@@ -18621,76 +18621,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F210" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J210">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="K210">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L210">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="M210">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="N210">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="O210">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="P210">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="Q210">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R210">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="S210">
         <v>2.25</v>
       </c>
       <c r="T210">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U210">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V210">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y210">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.375</v>
+        <v>1.05</v>
       </c>
       <c r="AA210">
         <v>-1</v>
       </c>
       <c r="AB210">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="211" spans="1:28">
@@ -18784,7 +18784,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7777452</v>
+        <v>7777453</v>
       </c>
       <c r="C212" t="s">
         <v>27</v>
@@ -18793,76 +18793,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="E212" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J212">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="K212">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L212">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="M212">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N212">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O212">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="P212">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q212">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R212">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S212">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T212">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V212">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z212">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB212">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:28">
@@ -18870,7 +18870,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7777453</v>
+        <v>7777454</v>
       </c>
       <c r="C213" t="s">
         <v>27</v>
@@ -18879,76 +18879,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="E213" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J213">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L213">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="M213">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N213">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O213">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P213">
         <v>0.25</v>
       </c>
       <c r="Q213">
+        <v>1.8</v>
+      </c>
+      <c r="R213">
+        <v>2</v>
+      </c>
+      <c r="S213">
+        <v>1.75</v>
+      </c>
+      <c r="T213">
         <v>1.875</v>
       </c>
-      <c r="R213">
+      <c r="U213">
         <v>1.925</v>
       </c>
-      <c r="S213">
-        <v>2.25</v>
-      </c>
-      <c r="T213">
-        <v>2.025</v>
-      </c>
-      <c r="U213">
-        <v>1.775</v>
-      </c>
       <c r="V213">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y213">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA213">
         <v>-1</v>
       </c>
       <c r="AB213">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="214" spans="1:28">
@@ -18956,7 +18956,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7777454</v>
+        <v>7777452</v>
       </c>
       <c r="C214" t="s">
         <v>27</v>
@@ -18965,76 +18965,76 @@
         <v>45334.41666666666</v>
       </c>
       <c r="E214" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="s">
         <v>82</v>
       </c>
       <c r="J214">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="K214">
+        <v>2.5</v>
+      </c>
+      <c r="L214">
         <v>2.75</v>
       </c>
-      <c r="L214">
+      <c r="M214">
+        <v>2.75</v>
+      </c>
+      <c r="N214">
         <v>2.5</v>
       </c>
-      <c r="M214">
-        <v>3.3</v>
-      </c>
-      <c r="N214">
-        <v>2.75</v>
-      </c>
       <c r="O214">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="P214">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q214">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R214">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S214">
         <v>1.75</v>
       </c>
       <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
+        <v>1.8</v>
+      </c>
+      <c r="V214">
+        <v>-1</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
         <v>1.875</v>
       </c>
-      <c r="U214">
-        <v>1.925</v>
-      </c>
-      <c r="V214">
-        <v>-1</v>
-      </c>
-      <c r="W214">
-        <v>-1</v>
-      </c>
-      <c r="X214">
-        <v>1.3</v>
-      </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AA214">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="215" spans="1:28">
@@ -19988,7 +19988,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7777505</v>
+        <v>7777501</v>
       </c>
       <c r="C226" t="s">
         <v>27</v>
@@ -19997,10 +19997,10 @@
         <v>45342.41666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -20012,61 +20012,61 @@
         <v>84</v>
       </c>
       <c r="J226">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="K226">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L226">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="M226">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="N226">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="O226">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P226">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q226">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="R226">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S226">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T226">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U226">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V226">
         <v>-1</v>
       </c>
       <c r="W226">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z226">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA226">
         <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="227" spans="1:28">
@@ -20074,7 +20074,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7777501</v>
+        <v>7856869</v>
       </c>
       <c r="C227" t="s">
         <v>27</v>
@@ -20083,76 +20083,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J227">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="K227">
         <v>3.1</v>
       </c>
       <c r="L227">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="M227">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="N227">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O227">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="P227">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q227">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R227">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T227">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U227">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V227">
         <v>-1</v>
       </c>
       <c r="W227">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB227">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:28">
@@ -20160,7 +20160,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7856869</v>
+        <v>7777502</v>
       </c>
       <c r="C228" t="s">
         <v>27</v>
@@ -20169,73 +20169,73 @@
         <v>45342.41666666666</v>
       </c>
       <c r="E228" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F228" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H228">
         <v>2</v>
       </c>
       <c r="I228" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J228">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="K228">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L228">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="M228">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="N228">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O228">
+        <v>5.5</v>
+      </c>
+      <c r="P228">
+        <v>-0.75</v>
+      </c>
+      <c r="Q228">
+        <v>1.875</v>
+      </c>
+      <c r="R228">
+        <v>1.925</v>
+      </c>
+      <c r="S228">
+        <v>2</v>
+      </c>
+      <c r="T228">
+        <v>2.05</v>
+      </c>
+      <c r="U228">
         <v>1.75</v>
       </c>
-      <c r="P228">
-        <v>0.5</v>
-      </c>
-      <c r="Q228">
-        <v>2</v>
-      </c>
-      <c r="R228">
-        <v>1.8</v>
-      </c>
-      <c r="S228">
-        <v>2</v>
-      </c>
-      <c r="T228">
-        <v>1.775</v>
-      </c>
-      <c r="U228">
-        <v>2.025</v>
-      </c>
       <c r="V228">
         <v>-1</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X228">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA228">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB228">
         <v>-1</v>
@@ -20246,7 +20246,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7777502</v>
+        <v>7777505</v>
       </c>
       <c r="C229" t="s">
         <v>27</v>
@@ -20255,76 +20255,76 @@
         <v>45342.41666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F229" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="s">
         <v>84</v>
       </c>
       <c r="J229">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="K229">
+        <v>2.9</v>
+      </c>
+      <c r="L229">
         <v>3</v>
       </c>
-      <c r="L229">
-        <v>4.75</v>
-      </c>
       <c r="M229">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="N229">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O229">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P229">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q229">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S229">
         <v>2</v>
       </c>
       <c r="T229">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U229">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V229">
         <v>-1</v>
       </c>
       <c r="W229">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z229">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AA229">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="230" spans="1:28">
@@ -21450,7 +21450,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7777511</v>
+        <v>7915120</v>
       </c>
       <c r="C243" t="s">
         <v>27</v>
@@ -21459,76 +21459,76 @@
         <v>45356.4375</v>
       </c>
       <c r="E243" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F243" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G243">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J243">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="K243">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="L243">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="M243">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N243">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="O243">
-        <v>1.571</v>
+        <v>3</v>
       </c>
       <c r="P243">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q243">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="R243">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S243">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T243">
         <v>1.975</v>
       </c>
       <c r="U243">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V243">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="244" spans="1:28">
@@ -21536,7 +21536,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7777512</v>
+        <v>7777514</v>
       </c>
       <c r="C244" t="s">
         <v>27</v>
@@ -21545,58 +21545,58 @@
         <v>45356.4375</v>
       </c>
       <c r="E244" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F244" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G244">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="s">
         <v>83</v>
       </c>
       <c r="J244">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K244">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M244">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N244">
         <v>3</v>
       </c>
       <c r="O244">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="P244">
         <v>-0.5</v>
       </c>
       <c r="Q244">
+        <v>1.75</v>
+      </c>
+      <c r="R244">
         <v>1.95</v>
       </c>
-      <c r="R244">
-        <v>1.85</v>
-      </c>
       <c r="S244">
         <v>2</v>
       </c>
       <c r="T244">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="U244">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V244">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="W244">
         <v>-1</v>
@@ -21605,13 +21605,13 @@
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="Z244">
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB244">
         <v>-1</v>
@@ -21708,7 +21708,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7915120</v>
+        <v>7777512</v>
       </c>
       <c r="C246" t="s">
         <v>27</v>
@@ -21717,46 +21717,46 @@
         <v>45356.4375</v>
       </c>
       <c r="E246" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F246" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246" t="s">
         <v>83</v>
       </c>
       <c r="J246">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="K246">
         <v>2.75</v>
       </c>
       <c r="L246">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M246">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="N246">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O246">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P246">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q246">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R246">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S246">
         <v>2</v>
@@ -21765,10 +21765,10 @@
         <v>1.975</v>
       </c>
       <c r="U246">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V246">
-        <v>1.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="W246">
         <v>-1</v>
@@ -21777,16 +21777,16 @@
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="Z246">
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB246">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:28">
@@ -21794,7 +21794,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7777514</v>
+        <v>7777511</v>
       </c>
       <c r="C247" t="s">
         <v>27</v>
@@ -21803,73 +21803,73 @@
         <v>45356.4375</v>
       </c>
       <c r="E247" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F247" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G247">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J247">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="K247">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L247">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="M247">
-        <v>1.8</v>
+        <v>5.5</v>
       </c>
       <c r="N247">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="O247">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="P247">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Q247">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="R247">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S247">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T247">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="U247">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V247">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W247">
         <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y247">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA247">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB247">
         <v>-1</v>
@@ -21880,7 +21880,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7777475</v>
+        <v>7777473</v>
       </c>
       <c r="C248" t="s">
         <v>27</v>
@@ -21889,76 +21889,76 @@
         <v>45357.4375</v>
       </c>
       <c r="E248" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J248">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="K248">
         <v>2.875</v>
       </c>
       <c r="L248">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="M248">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="N248">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="O248">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="P248">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q248">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="R248">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S248">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="T248">
+        <v>1.725</v>
+      </c>
+      <c r="U248">
         <v>1.975</v>
       </c>
-      <c r="U248">
-        <v>1.725</v>
-      </c>
       <c r="V248">
         <v>-1</v>
       </c>
       <c r="W248">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X248">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="Z248">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA248">
+        <v>-1</v>
+      </c>
+      <c r="AB248">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB248">
-        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21966,7 +21966,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7777473</v>
+        <v>7777475</v>
       </c>
       <c r="C249" t="s">
         <v>27</v>
@@ -21975,76 +21975,76 @@
         <v>45357.4375</v>
       </c>
       <c r="E249" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J249">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="K249">
         <v>2.875</v>
       </c>
       <c r="L249">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="M249">
+        <v>2.375</v>
+      </c>
+      <c r="N249">
+        <v>2.875</v>
+      </c>
+      <c r="O249">
         <v>3</v>
       </c>
-      <c r="N249">
-        <v>2.625</v>
-      </c>
-      <c r="O249">
-        <v>2.45</v>
-      </c>
       <c r="P249">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q249">
+        <v>2.025</v>
+      </c>
+      <c r="R249">
+        <v>1.775</v>
+      </c>
+      <c r="S249">
+        <v>2</v>
+      </c>
+      <c r="T249">
+        <v>1.975</v>
+      </c>
+      <c r="U249">
         <v>1.725</v>
       </c>
-      <c r="R249">
-        <v>2.075</v>
-      </c>
-      <c r="S249">
-        <v>1.5</v>
-      </c>
-      <c r="T249">
-        <v>1.725</v>
-      </c>
-      <c r="U249">
-        <v>1.975</v>
-      </c>
       <c r="V249">
         <v>-1</v>
       </c>
       <c r="W249">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X249">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y249">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA249">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB249">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -22052,7 +22052,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7777474</v>
+        <v>7777472</v>
       </c>
       <c r="C250" t="s">
         <v>27</v>
@@ -22061,10 +22061,10 @@
         <v>45357.4375</v>
       </c>
       <c r="E250" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F250" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G250">
         <v>1</v>
@@ -22076,31 +22076,31 @@
         <v>83</v>
       </c>
       <c r="J250">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="K250">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L250">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="M250">
-        <v>2.625</v>
+        <v>2.05</v>
       </c>
       <c r="N250">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O250">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="P250">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q250">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R250">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S250">
         <v>1.75</v>
@@ -22112,7 +22112,7 @@
         <v>1.95</v>
       </c>
       <c r="V250">
-        <v>1.625</v>
+        <v>1.05</v>
       </c>
       <c r="W250">
         <v>-1</v>
@@ -22121,7 +22121,7 @@
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Z250">
         <v>-1</v>
@@ -22138,7 +22138,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7921245</v>
+        <v>7777474</v>
       </c>
       <c r="C251" t="s">
         <v>27</v>
@@ -22147,76 +22147,76 @@
         <v>45357.4375</v>
       </c>
       <c r="E251" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J251">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="K251">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L251">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M251">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N251">
         <v>2.875</v>
       </c>
       <c r="O251">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="P251">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q251">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="R251">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
         <v>1.75</v>
       </c>
       <c r="T251">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U251">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V251">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W251">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z251">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="252" spans="1:28">
@@ -22224,7 +22224,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7777472</v>
+        <v>7921245</v>
       </c>
       <c r="C252" t="s">
         <v>27</v>
@@ -22233,76 +22233,76 @@
         <v>45357.4375</v>
       </c>
       <c r="E252" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F252" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J252">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="K252">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L252">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="M252">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="N252">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O252">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P252">
         <v>-0.25</v>
       </c>
       <c r="Q252">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="R252">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S252">
         <v>1.75</v>
       </c>
       <c r="T252">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U252">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V252">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB252">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:28">
@@ -22740,7 +22740,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7777481</v>
+        <v>7777478</v>
       </c>
       <c r="C258" t="s">
         <v>27</v>
@@ -22749,76 +22749,76 @@
         <v>45398.4375</v>
       </c>
       <c r="E258" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F258" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G258">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I258" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J258">
-        <v>1.3</v>
+        <v>2.55</v>
       </c>
       <c r="K258">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="L258">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="M258">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="N258">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="O258">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="P258">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="Q258">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R258">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S258">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T258">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U258">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V258">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W258">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X258">
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z258">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA258">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:28">
@@ -22826,7 +22826,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7777480</v>
+        <v>7777479</v>
       </c>
       <c r="C259" t="s">
         <v>27</v>
@@ -22835,76 +22835,76 @@
         <v>45398.4375</v>
       </c>
       <c r="E259" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F259" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="s">
         <v>84</v>
       </c>
       <c r="J259">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="K259">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="L259">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M259">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N259">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="O259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P259">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q259">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="R259">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S259">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T259">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U259">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V259">
         <v>-1</v>
       </c>
       <c r="W259">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="X259">
         <v>-1</v>
       </c>
       <c r="Y259">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z259">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA259">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB259">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260" spans="1:28">
@@ -22912,7 +22912,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7777479</v>
+        <v>7777481</v>
       </c>
       <c r="C260" t="s">
         <v>27</v>
@@ -22921,40 +22921,40 @@
         <v>45398.4375</v>
       </c>
       <c r="E260" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F260" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J260">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="K260">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="L260">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="M260">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="N260">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="O260">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P260">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="Q260">
         <v>2</v>
@@ -22963,31 +22963,31 @@
         <v>1.8</v>
       </c>
       <c r="S260">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T260">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U260">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V260">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W260">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z260">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB260">
         <v>-1</v>
@@ -22998,7 +22998,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7777478</v>
+        <v>7777480</v>
       </c>
       <c r="C261" t="s">
         <v>27</v>
@@ -23007,10 +23007,10 @@
         <v>45398.4375</v>
       </c>
       <c r="E261" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G261">
         <v>1</v>
@@ -23022,34 +23022,34 @@
         <v>84</v>
       </c>
       <c r="J261">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="K261">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L261">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M261">
+        <v>2.5</v>
+      </c>
+      <c r="N261">
         <v>2.625</v>
       </c>
-      <c r="N261">
-        <v>2.9</v>
-      </c>
       <c r="O261">
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="P261">
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="R261">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S261">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T261">
         <v>1.9</v>
@@ -23061,7 +23061,7 @@
         <v>-1</v>
       </c>
       <c r="W261">
-        <v>1.9</v>
+        <v>1.625</v>
       </c>
       <c r="X261">
         <v>-1</v>
@@ -23073,10 +23073,10 @@
         <v>0</v>
       </c>
       <c r="AA261">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AB261">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="262" spans="1:28">
@@ -23170,7 +23170,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7777521</v>
+        <v>8107307</v>
       </c>
       <c r="C263" t="s">
         <v>27</v>
@@ -23179,73 +23179,73 @@
         <v>45399.4375</v>
       </c>
       <c r="E263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F263" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H263">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J263">
-        <v>4.333</v>
+        <v>1.4</v>
       </c>
       <c r="K263">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L263">
-        <v>1.75</v>
+        <v>7.5</v>
       </c>
       <c r="M263">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N263">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="O263">
+        <v>7</v>
+      </c>
+      <c r="P263">
+        <v>-1.25</v>
+      </c>
+      <c r="Q263">
+        <v>1.9</v>
+      </c>
+      <c r="R263">
+        <v>1.9</v>
+      </c>
+      <c r="S263">
+        <v>2.5</v>
+      </c>
+      <c r="T263">
+        <v>1.95</v>
+      </c>
+      <c r="U263">
         <v>1.85</v>
       </c>
-      <c r="P263">
-        <v>0.5</v>
-      </c>
-      <c r="Q263">
-        <v>1.925</v>
-      </c>
-      <c r="R263">
-        <v>1.875</v>
-      </c>
-      <c r="S263">
-        <v>2</v>
-      </c>
-      <c r="T263">
-        <v>1.9</v>
-      </c>
-      <c r="U263">
-        <v>1.9</v>
-      </c>
       <c r="V263">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z263">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB263">
         <v>-1</v>
@@ -23256,7 +23256,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>8107307</v>
+        <v>7777521</v>
       </c>
       <c r="C264" t="s">
         <v>27</v>
@@ -23265,73 +23265,73 @@
         <v>45399.4375</v>
       </c>
       <c r="E264" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F264" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G264">
+        <v>1</v>
+      </c>
+      <c r="H264">
         <v>3</v>
       </c>
-      <c r="H264">
-        <v>0</v>
-      </c>
       <c r="I264" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J264">
-        <v>1.4</v>
+        <v>4.333</v>
       </c>
       <c r="K264">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L264">
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
       <c r="M264">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="N264">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O264">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="P264">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q264">
+        <v>1.925</v>
+      </c>
+      <c r="R264">
+        <v>1.875</v>
+      </c>
+      <c r="S264">
+        <v>2</v>
+      </c>
+      <c r="T264">
         <v>1.9</v>
       </c>
-      <c r="R264">
+      <c r="U264">
         <v>1.9</v>
       </c>
-      <c r="S264">
-        <v>2.5</v>
-      </c>
-      <c r="T264">
-        <v>1.95</v>
-      </c>
-      <c r="U264">
-        <v>1.85</v>
-      </c>
       <c r="V264">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y264">
+        <v>-1</v>
+      </c>
+      <c r="Z264">
+        <v>0.875</v>
+      </c>
+      <c r="AA264">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z264">
-        <v>-1</v>
-      </c>
-      <c r="AA264">
-        <v>0.95</v>
       </c>
       <c r="AB264">
         <v>-1</v>
@@ -24030,7 +24030,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>8190385</v>
+        <v>8190387</v>
       </c>
       <c r="C273" t="s">
         <v>27</v>
@@ -24039,19 +24039,19 @@
         <v>45420.4375</v>
       </c>
       <c r="E273" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F273" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G273">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I273" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J273">
         <v>1.909</v>
@@ -24063,52 +24063,52 @@
         <v>4.333</v>
       </c>
       <c r="M273">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="N273">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="O273">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P273">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q273">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="R273">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S273">
         <v>2.25</v>
       </c>
       <c r="T273">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="U273">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V273">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="W273">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z273">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB273">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:28">
@@ -24202,7 +24202,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7777492</v>
+        <v>8190385</v>
       </c>
       <c r="C275" t="s">
         <v>27</v>
@@ -24211,49 +24211,49 @@
         <v>45420.4375</v>
       </c>
       <c r="E275" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F275" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H275">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J275">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="K275">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L275">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="M275">
-        <v>5.25</v>
+        <v>1.85</v>
       </c>
       <c r="N275">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O275">
-        <v>1.6</v>
+        <v>4.333</v>
       </c>
       <c r="P275">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q275">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="R275">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S275">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="T275">
         <v>1.8</v>
@@ -24265,22 +24265,22 @@
         <v>-1</v>
       </c>
       <c r="W275">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X275">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA275">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:28">
@@ -24288,7 +24288,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>8190387</v>
+        <v>7777492</v>
       </c>
       <c r="C276" t="s">
         <v>27</v>
@@ -24297,73 +24297,73 @@
         <v>45420.4375</v>
       </c>
       <c r="E276" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F276" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I276" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J276">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="K276">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L276">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="M276">
-        <v>2.55</v>
+        <v>5.25</v>
       </c>
       <c r="N276">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O276">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="P276">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q276">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R276">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S276">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T276">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U276">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V276">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y276">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA276">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB276">
         <v>-1</v>

--- a/Egypt Division 2/Egypt Division 2.xlsx
+++ b/Egypt Division 2/Egypt Division 2.xlsx
@@ -109,16 +109,16 @@
     <t>Petrojet</t>
   </si>
   <si>
-    <t>Al Nasr Cairo</t>
+    <t>Telecom Egypt</t>
   </si>
   <si>
     <t>El Seka El Hadid</t>
   </si>
   <si>
-    <t>Kahraba Ismailia</t>
+    <t>Al Nasr Cairo</t>
   </si>
   <si>
-    <t>Telecom Egypt</t>
+    <t>Kahraba Ismailia</t>
   </si>
   <si>
     <t>Wadi Degla</t>
@@ -202,22 +202,22 @@
     <t>Al Hilal Matrouh</t>
   </si>
   <si>
+    <t>Maleyat Kafr El Zayat</t>
+  </si>
+  <si>
     <t>El Olympi</t>
   </si>
   <si>
     <t>Al Majd</t>
   </si>
   <si>
-    <t>Maleyat Kafr El Zayat</t>
-  </si>
-  <si>
     <t>Talayie Alaistul</t>
   </si>
   <si>
-    <t>Team FC Cairo</t>
+    <t>Suez Montakhab</t>
   </si>
   <si>
-    <t>Suez Montakhab</t>
+    <t>Team FC Cairo</t>
   </si>
   <si>
     <t>Tersana SC</t>
@@ -235,13 +235,13 @@
     <t>Dayrout</t>
   </si>
   <si>
+    <t>Mostaqbal Watan Club</t>
+  </si>
+  <si>
     <t>El Entag El Harby</t>
   </si>
   <si>
     <t>El Obour SC</t>
-  </si>
-  <si>
-    <t>Mostaqbal Watan Club</t>
   </si>
   <si>
     <t>FC Porto Suez</t>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6723215</v>
+        <v>6723218</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -840,79 +840,79 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L3">
-        <v>5.25</v>
+        <v>1.615</v>
       </c>
       <c r="M3">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>1.615</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="P3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q3">
+        <v>4.2</v>
+      </c>
+      <c r="R3">
+        <v>-0.5</v>
+      </c>
+      <c r="S3">
+        <v>1.825</v>
+      </c>
+      <c r="T3">
+        <v>1.975</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
         <v>1.85</v>
       </c>
-      <c r="R3">
-        <v>0.5</v>
-      </c>
-      <c r="S3">
-        <v>1.85</v>
-      </c>
-      <c r="T3">
+      <c r="W3">
         <v>1.95</v>
       </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>1.8</v>
-      </c>
       <c r="X3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
+        <v>0.825</v>
+      </c>
+      <c r="AB3">
+        <v>-1</v>
+      </c>
+      <c r="AC3">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>0.95</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -932,7 +932,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1012,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6723213</v>
+        <v>6723215</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1024,10 +1024,10 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1036,46 +1036,46 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>85</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O5">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P5">
         <v>3.1</v>
       </c>
       <c r="Q5">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S5">
+        <v>1.85</v>
+      </c>
+      <c r="T5">
         <v>1.95</v>
       </c>
-      <c r="T5">
-        <v>1.85</v>
-      </c>
       <c r="U5">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -1084,19 +1084,19 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1104,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6723218</v>
+        <v>6723213</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1119,73 +1119,73 @@
         <v>75</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6">
+        <v>3.5</v>
+      </c>
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6">
-        <v>1.615</v>
-      </c>
-      <c r="M6">
-        <v>3.4</v>
-      </c>
       <c r="N6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="P6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q6">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="R6">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S6">
+        <v>1.95</v>
+      </c>
+      <c r="T6">
+        <v>1.85</v>
+      </c>
+      <c r="U6">
+        <v>2.25</v>
+      </c>
+      <c r="V6">
+        <v>1.975</v>
+      </c>
+      <c r="W6">
         <v>1.825</v>
       </c>
-      <c r="T6">
-        <v>1.975</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>1.85</v>
-      </c>
-      <c r="W6">
-        <v>1.95</v>
-      </c>
       <c r="X6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA6">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD6">
         <v>-1</v>
@@ -1941,7 +1941,7 @@
         <v>45110.5</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
@@ -2036,7 +2036,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -3229,7 +3229,7 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
         <v>45</v>
@@ -3784,7 +3784,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -5437,7 +5437,7 @@
         <v>45216.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
         <v>47</v>
@@ -6081,7 +6081,7 @@
         <v>45223.41666666666</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
         <v>37</v>
@@ -6636,7 +6636,7 @@
         <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6912,7 +6912,7 @@
         <v>56</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -7360,7 +7360,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7253993</v>
+        <v>7407677</v>
       </c>
       <c r="C74" t="s">
         <v>29</v>
@@ -7369,19 +7369,19 @@
         <v>45230.39583333334</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -7390,43 +7390,43 @@
         <v>84</v>
       </c>
       <c r="L74">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="M74">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N74">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="O74">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="P74">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q74">
-        <v>5.75</v>
+        <v>2.375</v>
       </c>
       <c r="R74">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T74">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="U74">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W74">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="X74">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
@@ -7435,16 +7435,16 @@
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7452,7 +7452,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7407677</v>
+        <v>7253993</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
@@ -7461,19 +7461,19 @@
         <v>45230.39583333334</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -7482,43 +7482,43 @@
         <v>84</v>
       </c>
       <c r="L75">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="M75">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="P75">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q75">
-        <v>2.375</v>
+        <v>5.75</v>
       </c>
       <c r="R75">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S75">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W75">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X75">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7527,16 +7527,16 @@
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD75">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7636,7 +7636,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7253685</v>
+        <v>7253987</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7645,55 +7645,55 @@
         <v>45236.39583333334</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="M77">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N77">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="O77">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="P77">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q77">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="R77">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T77">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V77">
         <v>1.975</v>
@@ -7702,25 +7702,25 @@
         <v>1.825</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD77">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7728,7 +7728,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7253988</v>
+        <v>7254163</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7737,79 +7737,79 @@
         <v>45236.39583333334</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L78">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M78">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
         <v>2.25</v>
       </c>
       <c r="O78">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q78">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="R78">
         <v>0.25</v>
       </c>
       <c r="S78">
+        <v>1.775</v>
+      </c>
+      <c r="T78">
+        <v>2.025</v>
+      </c>
+      <c r="U78">
+        <v>1.75</v>
+      </c>
+      <c r="V78">
+        <v>1.85</v>
+      </c>
+      <c r="W78">
         <v>1.95</v>
       </c>
-      <c r="T78">
-        <v>1.85</v>
-      </c>
-      <c r="U78">
-        <v>2</v>
-      </c>
-      <c r="V78">
-        <v>1.725</v>
-      </c>
-      <c r="W78">
-        <v>1.975</v>
-      </c>
       <c r="X78">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB78">
+        <v>-1</v>
+      </c>
+      <c r="AC78">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC78">
-        <v>0.7250000000000001</v>
       </c>
       <c r="AD78">
         <v>-1</v>
@@ -7829,7 +7829,7 @@
         <v>45236.39583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
         <v>50</v>
@@ -7912,7 +7912,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7254163</v>
+        <v>7253988</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7921,79 +7921,79 @@
         <v>45236.39583333334</v>
       </c>
       <c r="E80" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L80">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N80">
         <v>2.25</v>
       </c>
       <c r="O80">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="P80">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q80">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="R80">
         <v>0.25</v>
       </c>
       <c r="S80">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T80">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U80">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V80">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W80">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X80">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA80">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC80">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AD80">
         <v>-1</v>
@@ -8004,7 +8004,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7253987</v>
+        <v>7253685</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -8013,55 +8013,55 @@
         <v>45236.39583333334</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>86</v>
+      </c>
+      <c r="L81">
+        <v>3.6</v>
+      </c>
+      <c r="M81">
         <v>3</v>
       </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>84</v>
-      </c>
-      <c r="L81">
-        <v>2.2</v>
-      </c>
-      <c r="M81">
-        <v>2.75</v>
-      </c>
       <c r="N81">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O81">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="P81">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q81">
-        <v>3.2</v>
+        <v>1.833</v>
       </c>
       <c r="R81">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S81">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U81">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V81">
         <v>1.975</v>
@@ -8070,25 +8070,25 @@
         <v>1.825</v>
       </c>
       <c r="X81">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD81">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -8556,7 +8556,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7449497</v>
+        <v>7449498</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
@@ -8568,79 +8568,79 @@
         <v>62</v>
       </c>
       <c r="F87" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G87">
         <v>2</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L87">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M87">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="N87">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="O87">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="P87">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q87">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>1.9</v>
+      </c>
+      <c r="T87">
+        <v>1.9</v>
+      </c>
+      <c r="U87">
+        <v>1.75</v>
+      </c>
+      <c r="V87">
+        <v>1.775</v>
+      </c>
+      <c r="W87">
+        <v>2.025</v>
+      </c>
+      <c r="X87">
+        <v>1.7</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB87">
+        <v>-1</v>
+      </c>
+      <c r="AC87">
+        <v>0.3875</v>
+      </c>
+      <c r="AD87">
         <v>-0.5</v>
-      </c>
-      <c r="S87">
-        <v>2.05</v>
-      </c>
-      <c r="T87">
-        <v>1.75</v>
-      </c>
-      <c r="U87">
-        <v>2</v>
-      </c>
-      <c r="V87">
-        <v>1.9</v>
-      </c>
-      <c r="W87">
-        <v>1.9</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>1.8</v>
-      </c>
-      <c r="Z87">
-        <v>-1</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>0.75</v>
-      </c>
-      <c r="AC87">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AD87">
-        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8648,7 +8648,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7449496</v>
+        <v>7449497</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8660,49 +8660,49 @@
         <v>63</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="s">
         <v>86</v>
       </c>
       <c r="L88">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M88">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O88">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P88">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q88">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="R88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S88">
+        <v>2.05</v>
+      </c>
+      <c r="T88">
         <v>1.75</v>
-      </c>
-      <c r="T88">
-        <v>2.05</v>
       </c>
       <c r="U88">
         <v>2</v>
@@ -8717,22 +8717,22 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8740,7 +8740,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>7449498</v>
+        <v>7449496</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8752,79 +8752,79 @@
         <v>64</v>
       </c>
       <c r="F89" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L89">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="M89">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="N89">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="O89">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P89">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q89">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="R89">
         <v>0</v>
       </c>
       <c r="S89">
+        <v>1.75</v>
+      </c>
+      <c r="T89">
+        <v>2.05</v>
+      </c>
+      <c r="U89">
+        <v>2</v>
+      </c>
+      <c r="V89">
         <v>1.9</v>
       </c>
-      <c r="T89">
+      <c r="W89">
         <v>1.9</v>
       </c>
-      <c r="U89">
-        <v>1.75</v>
-      </c>
-      <c r="V89">
-        <v>1.775</v>
-      </c>
-      <c r="W89">
-        <v>2.025</v>
-      </c>
       <c r="X89">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>-1</v>
+      </c>
+      <c r="AD89">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>0.3875</v>
-      </c>
-      <c r="AD89">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8924,7 +8924,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7457481</v>
+        <v>7457483</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8936,52 +8936,46 @@
         <v>66</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="M91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="P91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="R91">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S91">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T91">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U91">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V91">
         <v>1.95</v>
@@ -8990,19 +8984,19 @@
         <v>1.85</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -9016,7 +9010,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7457483</v>
+        <v>7457481</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -9028,46 +9022,52 @@
         <v>67</v>
       </c>
       <c r="F92" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L92">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N92">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q92">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="R92">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S92">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U92">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V92">
         <v>1.95</v>
@@ -9076,19 +9076,19 @@
         <v>1.85</v>
       </c>
       <c r="X92">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA92">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -9286,7 +9286,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7253980</v>
+        <v>7253982</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
@@ -9295,64 +9295,58 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>2</v>
-      </c>
-      <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" t="s">
         <v>84</v>
       </c>
       <c r="L95">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N95">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O95">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="P95">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q95">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="R95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U95">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X95">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -9361,16 +9355,16 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -9378,7 +9372,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7253982</v>
+        <v>7253981</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9387,40 +9381,46 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" t="s">
         <v>84</v>
       </c>
       <c r="L96">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M96">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N96">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O96">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="P96">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q96">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="R96">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S96">
         <v>1.85</v>
@@ -9438,7 +9438,7 @@
         <v>1.8</v>
       </c>
       <c r="X96">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
@@ -9464,7 +9464,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7253981</v>
+        <v>7253980</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9473,19 +9473,19 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -9494,43 +9494,43 @@
         <v>84</v>
       </c>
       <c r="L97">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="M97">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="N97">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O97">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="P97">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q97">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="R97">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W97">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X97">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9539,16 +9539,16 @@
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9740,7 +9740,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7253644</v>
+        <v>7253978</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -9749,10 +9749,10 @@
         <v>45244.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9764,64 +9764,64 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="s">
         <v>86</v>
       </c>
       <c r="L100">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="M100">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N100">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="O100">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P100">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q100">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="R100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>1.775</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
         <v>1.85</v>
       </c>
-      <c r="T100">
+      <c r="W100">
         <v>1.95</v>
       </c>
-      <c r="U100">
-        <v>2</v>
-      </c>
-      <c r="V100">
-        <v>1.775</v>
-      </c>
-      <c r="W100">
-        <v>2.025</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.475</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC100">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD100">
         <v>-1</v>
@@ -9832,7 +9832,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7253643</v>
+        <v>7253977</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -9841,52 +9841,52 @@
         <v>45244.39583333334</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L101">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M101">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N101">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O101">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q101">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="R101">
         <v>-1</v>
       </c>
       <c r="S101">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="U101">
         <v>2.25</v>
@@ -9898,25 +9898,25 @@
         <v>1.725</v>
       </c>
       <c r="X101">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC101">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AD101">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -9924,7 +9924,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7253977</v>
+        <v>7253644</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9933,82 +9933,82 @@
         <v>45244.39583333334</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="s">
         <v>86</v>
       </c>
       <c r="L102">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N102">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O102">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="P102">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q102">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="R102">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD102">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -10016,7 +10016,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7253978</v>
+        <v>7253643</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -10025,79 +10025,79 @@
         <v>45244.39583333334</v>
       </c>
       <c r="E103" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G103">
         <v>2</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L103">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="M103">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N103">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="O103">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="P103">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q103">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="R103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T103">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="W103">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y103">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB103">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AD103">
         <v>-1</v>
@@ -10200,7 +10200,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7253975</v>
+        <v>7496155</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10209,46 +10209,46 @@
         <v>45250.39583333334</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F105" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G105">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L105">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="M105">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N105">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O105">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="P105">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q105">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="R105">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S105">
         <v>2</v>
@@ -10260,31 +10260,31 @@
         <v>2.25</v>
       </c>
       <c r="V105">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X105">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z105">
         <v>-1</v>
       </c>
       <c r="AA105">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD105">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -10384,7 +10384,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7496155</v>
+        <v>7253975</v>
       </c>
       <c r="C107" t="s">
         <v>29</v>
@@ -10393,46 +10393,46 @@
         <v>45250.39583333334</v>
       </c>
       <c r="E107" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L107">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="M107">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O107">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="P107">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q107">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="R107">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S107">
         <v>2</v>
@@ -10444,31 +10444,31 @@
         <v>2.25</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y107">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB107">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD107">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:30">
@@ -10568,7 +10568,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7500851</v>
+        <v>7253647</v>
       </c>
       <c r="C109" t="s">
         <v>29</v>
@@ -10577,16 +10577,16 @@
         <v>45251.39583333334</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F109" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G109">
         <v>1</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -10595,64 +10595,64 @@
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L109">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="M109">
         <v>3</v>
       </c>
       <c r="N109">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O109">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="P109">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q109">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="R109">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S109">
+        <v>1.975</v>
+      </c>
+      <c r="T109">
+        <v>1.825</v>
+      </c>
+      <c r="U109">
+        <v>2.25</v>
+      </c>
+      <c r="V109">
+        <v>2.025</v>
+      </c>
+      <c r="W109">
         <v>1.775</v>
       </c>
-      <c r="T109">
-        <v>2.025</v>
-      </c>
-      <c r="U109">
-        <v>2</v>
-      </c>
-      <c r="V109">
-        <v>2</v>
-      </c>
-      <c r="W109">
-        <v>1.8</v>
-      </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z109">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC109">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD109">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="110" spans="1:30">
@@ -10669,7 +10669,7 @@
         <v>45251.39583333334</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
         <v>49</v>
@@ -10752,7 +10752,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7253647</v>
+        <v>7500851</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -10761,16 +10761,16 @@
         <v>45251.39583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G111">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -10779,64 +10779,64 @@
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L111">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="M111">
         <v>3</v>
       </c>
       <c r="N111">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O111">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="P111">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q111">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="R111">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T111">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="U111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W111">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AD111">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -11224,7 +11224,7 @@
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -12319,7 +12319,7 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E128" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F128" t="s">
         <v>48</v>
@@ -12868,7 +12868,7 @@
         <v>51</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G134">
         <v>2</v>
@@ -14147,7 +14147,7 @@
         <v>45279.375</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
         <v>46</v>
@@ -14868,7 +14868,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7253947</v>
+        <v>7605133</v>
       </c>
       <c r="C156" t="s">
         <v>29</v>
@@ -14877,79 +14877,79 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L156">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M156">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="N156">
         <v>3.6</v>
       </c>
       <c r="O156">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="P156">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q156">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="R156">
+        <v>-0.25</v>
+      </c>
+      <c r="S156">
+        <v>2.075</v>
+      </c>
+      <c r="T156">
+        <v>1.725</v>
+      </c>
+      <c r="U156">
+        <v>1.5</v>
+      </c>
+      <c r="V156">
+        <v>1.775</v>
+      </c>
+      <c r="W156">
+        <v>2.025</v>
+      </c>
+      <c r="X156">
+        <v>-1</v>
+      </c>
+      <c r="Y156">
+        <v>1.7</v>
+      </c>
+      <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
         <v>-0.5</v>
       </c>
-      <c r="S156">
-        <v>1.825</v>
-      </c>
-      <c r="T156">
-        <v>1.975</v>
-      </c>
-      <c r="U156">
-        <v>2</v>
-      </c>
-      <c r="V156">
-        <v>2.025</v>
-      </c>
-      <c r="W156">
-        <v>1.775</v>
-      </c>
-      <c r="X156">
-        <v>0.8</v>
-      </c>
-      <c r="Y156">
-        <v>-1</v>
-      </c>
-      <c r="Z156">
-        <v>-1</v>
-      </c>
-      <c r="AA156">
-        <v>0.825</v>
-      </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AC156">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD156">
         <v>-1</v>
@@ -14960,7 +14960,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7605133</v>
+        <v>7253947</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -14969,79 +14969,79 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K157" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L157">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M157">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N157">
         <v>3.6</v>
       </c>
       <c r="O157">
-        <v>2.45</v>
+        <v>1.8</v>
       </c>
       <c r="P157">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q157">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="R157">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S157">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="U157">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V157">
+        <v>2.025</v>
+      </c>
+      <c r="W157">
         <v>1.775</v>
       </c>
-      <c r="W157">
-        <v>2.025</v>
-      </c>
       <c r="X157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y157">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
         <v>-1</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AD157">
         <v>-1</v>
@@ -15052,7 +15052,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7254176</v>
+        <v>7253946</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -15061,13 +15061,13 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F158" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -15079,64 +15079,64 @@
         <v>1</v>
       </c>
       <c r="K158" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L158">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="M158">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N158">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O158">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="P158">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q158">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="R158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U158">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X158">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD158">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -15144,7 +15144,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7253948</v>
+        <v>7254176</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -15153,64 +15153,64 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E159" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" t="s">
         <v>84</v>
       </c>
       <c r="L159">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="M159">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N159">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O159">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="P159">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q159">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="R159">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S159">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T159">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U159">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W159">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X159">
-        <v>0.7</v>
+        <v>0.909</v>
       </c>
       <c r="Y159">
         <v>-1</v>
@@ -15219,16 +15219,16 @@
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD159">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -15236,7 +15236,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7253656</v>
+        <v>7253948</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -15245,19 +15245,19 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E160" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F160" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="G160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H160">
         <v>0</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -15266,43 +15266,43 @@
         <v>84</v>
       </c>
       <c r="L160">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="M160">
+        <v>3</v>
+      </c>
+      <c r="N160">
+        <v>3.6</v>
+      </c>
+      <c r="O160">
+        <v>1.7</v>
+      </c>
+      <c r="P160">
         <v>3.4</v>
       </c>
-      <c r="N160">
-        <v>5</v>
-      </c>
-      <c r="O160">
-        <v>1.6</v>
-      </c>
-      <c r="P160">
-        <v>3.5</v>
-      </c>
       <c r="Q160">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="R160">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="S160">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T160">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U160">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="X160">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="Y160">
         <v>-1</v>
@@ -15311,16 +15311,16 @@
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC160">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15328,7 +15328,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>7253946</v>
+        <v>7253656</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -15337,40 +15337,40 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E161" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F161" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L161">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="M161">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N161">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O161">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P161">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q161">
         <v>5.25</v>
@@ -15379,40 +15379,40 @@
         <v>-1</v>
       </c>
       <c r="S161">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T161">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="U161">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V161">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W161">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y161">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB161">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD161">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -15420,7 +15420,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7635883</v>
+        <v>7605134</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15429,16 +15429,16 @@
         <v>45288.39583333334</v>
       </c>
       <c r="E162" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F162" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -15447,64 +15447,64 @@
         <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L162">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N162">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="O162">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="P162">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q162">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="R162">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S162">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="U162">
+        <v>2.25</v>
+      </c>
+      <c r="V162">
         <v>1.75</v>
       </c>
-      <c r="V162">
-        <v>1.725</v>
-      </c>
       <c r="W162">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA162">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.35</v>
+        <v>0.825</v>
       </c>
       <c r="AC162">
         <v>-1</v>
       </c>
       <c r="AD162">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15604,7 +15604,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7605134</v>
+        <v>7635883</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15613,16 +15613,16 @@
         <v>45288.39583333334</v>
       </c>
       <c r="E164" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F164" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -15631,64 +15631,64 @@
         <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L164">
+        <v>2.1</v>
+      </c>
+      <c r="M164">
+        <v>2.9</v>
+      </c>
+      <c r="N164">
         <v>3.4</v>
       </c>
-      <c r="M164">
-        <v>3.1</v>
-      </c>
-      <c r="N164">
-        <v>2</v>
-      </c>
       <c r="O164">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="P164">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q164">
+        <v>3</v>
+      </c>
+      <c r="R164">
+        <v>-0.25</v>
+      </c>
+      <c r="S164">
+        <v>2</v>
+      </c>
+      <c r="T164">
+        <v>1.7</v>
+      </c>
+      <c r="U164">
         <v>1.75</v>
       </c>
-      <c r="R164">
-        <v>0.5</v>
-      </c>
-      <c r="S164">
+      <c r="V164">
+        <v>1.725</v>
+      </c>
+      <c r="W164">
         <v>1.975</v>
       </c>
-      <c r="T164">
-        <v>1.825</v>
-      </c>
-      <c r="U164">
-        <v>2.25</v>
-      </c>
-      <c r="V164">
+      <c r="X164">
+        <v>-1</v>
+      </c>
+      <c r="Y164">
         <v>1.75</v>
       </c>
-      <c r="W164">
-        <v>1.95</v>
-      </c>
-      <c r="X164">
-        <v>-1</v>
-      </c>
-      <c r="Y164">
-        <v>-1</v>
-      </c>
       <c r="Z164">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB164">
-        <v>0.825</v>
+        <v>0.35</v>
       </c>
       <c r="AC164">
         <v>-1</v>
       </c>
       <c r="AD164">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15889,7 +15889,7 @@
         <v>45293.39583333334</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F167" t="s">
         <v>32</v>
@@ -16064,7 +16064,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7253692</v>
+        <v>7254178</v>
       </c>
       <c r="C169" t="s">
         <v>29</v>
@@ -16073,61 +16073,61 @@
         <v>45294.39583333334</v>
       </c>
       <c r="E169" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I169">
         <v>0</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K169" t="s">
         <v>85</v>
       </c>
       <c r="L169">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="M169">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="N169">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O169">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="P169">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q169">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="R169">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S169">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U169">
         <v>2</v>
       </c>
       <c r="V169">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W169">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -16136,19 +16136,19 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.6659999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="AA169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AC169">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD169">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16156,7 +16156,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7254178</v>
+        <v>7253692</v>
       </c>
       <c r="C170" t="s">
         <v>29</v>
@@ -16165,61 +16165,61 @@
         <v>45294.39583333334</v>
       </c>
       <c r="E170" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F170" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K170" t="s">
         <v>85</v>
       </c>
       <c r="L170">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="M170">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="N170">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="O170">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="P170">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q170">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="R170">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S170">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T170">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U170">
         <v>2</v>
       </c>
       <c r="V170">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W170">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X170">
         <v>-1</v>
@@ -16228,19 +16228,19 @@
         <v>-1</v>
       </c>
       <c r="Z170">
-        <v>1.55</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA170">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AC170">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD170">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16248,7 +16248,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7253691</v>
+        <v>7253944</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -16257,46 +16257,46 @@
         <v>45294.39583333334</v>
       </c>
       <c r="E171" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K171" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L171">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="M171">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N171">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O171">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="P171">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q171">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="R171">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S171">
         <v>1.9</v>
@@ -16305,34 +16305,34 @@
         <v>1.9</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V171">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W171">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y171">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
         <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB171">
-        <v>0.8999999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AC171">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD171">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -16340,7 +16340,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7253944</v>
+        <v>7253691</v>
       </c>
       <c r="C172" t="s">
         <v>29</v>
@@ -16349,46 +16349,46 @@
         <v>45294.39583333334</v>
       </c>
       <c r="E172" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F172" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G172">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L172">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="M172">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N172">
+        <v>4.5</v>
+      </c>
+      <c r="O172">
+        <v>1.65</v>
+      </c>
+      <c r="P172">
+        <v>3.3</v>
+      </c>
+      <c r="Q172">
         <v>5</v>
       </c>
-      <c r="O172">
-        <v>1.363</v>
-      </c>
-      <c r="P172">
-        <v>4.2</v>
-      </c>
-      <c r="Q172">
-        <v>7.5</v>
-      </c>
       <c r="R172">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S172">
         <v>1.9</v>
@@ -16397,34 +16397,34 @@
         <v>1.9</v>
       </c>
       <c r="U172">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W172">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X172">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z172">
         <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC172">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD172">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16720,7 +16720,7 @@
         <v>44</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -17444,7 +17444,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7253663</v>
+        <v>7253933</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17453,19 +17453,19 @@
         <v>45306.375</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F184" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -17474,25 +17474,25 @@
         <v>84</v>
       </c>
       <c r="L184">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="M184">
+        <v>3.1</v>
+      </c>
+      <c r="N184">
+        <v>4.2</v>
+      </c>
+      <c r="O184">
+        <v>1.7</v>
+      </c>
+      <c r="P184">
+        <v>3.5</v>
+      </c>
+      <c r="Q184">
         <v>4</v>
       </c>
-      <c r="N184">
-        <v>7.5</v>
-      </c>
-      <c r="O184">
-        <v>1.4</v>
-      </c>
-      <c r="P184">
-        <v>4</v>
-      </c>
-      <c r="Q184">
-        <v>6</v>
-      </c>
       <c r="R184">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S184">
         <v>1.975</v>
@@ -17501,16 +17501,16 @@
         <v>1.825</v>
       </c>
       <c r="U184">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V184">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W184">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X184">
-        <v>0.3999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="Y184">
         <v>-1</v>
@@ -17519,16 +17519,16 @@
         <v>-1</v>
       </c>
       <c r="AA184">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB184">
+        <v>-1</v>
+      </c>
+      <c r="AC184">
         <v>-0.5</v>
       </c>
-      <c r="AB184">
-        <v>0.4125</v>
-      </c>
-      <c r="AC184">
-        <v>-1</v>
-      </c>
       <c r="AD184">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17536,7 +17536,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7253934</v>
+        <v>7253663</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17545,13 +17545,13 @@
         <v>45306.375</v>
       </c>
       <c r="E185" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F185" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17563,49 +17563,49 @@
         <v>0</v>
       </c>
       <c r="K185" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L185">
-        <v>2.35</v>
+        <v>1.363</v>
       </c>
       <c r="M185">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="N185">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="O185">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="P185">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q185">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="R185">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S185">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U185">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W185">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="X185">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y185">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
         <v>-1</v>
@@ -17614,13 +17614,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB185">
-        <v>0.3875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC185">
         <v>-1</v>
       </c>
       <c r="AD185">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17628,7 +17628,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7253933</v>
+        <v>7253934</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -17637,82 +17637,82 @@
         <v>45306.375</v>
       </c>
       <c r="E186" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F186" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186">
         <v>0</v>
       </c>
       <c r="K186" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L186">
+        <v>2.35</v>
+      </c>
+      <c r="M186">
+        <v>2.8</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186">
+        <v>2.4</v>
+      </c>
+      <c r="P186">
+        <v>2.8</v>
+      </c>
+      <c r="Q186">
+        <v>2.9</v>
+      </c>
+      <c r="R186">
+        <v>-0.25</v>
+      </c>
+      <c r="S186">
+        <v>2.025</v>
+      </c>
+      <c r="T186">
+        <v>1.775</v>
+      </c>
+      <c r="U186">
+        <v>2</v>
+      </c>
+      <c r="V186">
+        <v>1.975</v>
+      </c>
+      <c r="W186">
+        <v>1.825</v>
+      </c>
+      <c r="X186">
+        <v>-1</v>
+      </c>
+      <c r="Y186">
         <v>1.8</v>
       </c>
-      <c r="M186">
-        <v>3.1</v>
-      </c>
-      <c r="N186">
-        <v>4.2</v>
-      </c>
-      <c r="O186">
-        <v>1.7</v>
-      </c>
-      <c r="P186">
-        <v>3.5</v>
-      </c>
-      <c r="Q186">
-        <v>4</v>
-      </c>
-      <c r="R186">
-        <v>-0.75</v>
-      </c>
-      <c r="S186">
-        <v>1.975</v>
-      </c>
-      <c r="T186">
-        <v>1.825</v>
-      </c>
-      <c r="U186">
-        <v>2.25</v>
-      </c>
-      <c r="V186">
-        <v>2</v>
-      </c>
-      <c r="W186">
-        <v>1.8</v>
-      </c>
-      <c r="X186">
-        <v>0.7</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD186">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -17729,7 +17729,7 @@
         <v>45306.375</v>
       </c>
       <c r="E187" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F187" t="s">
         <v>41</v>
@@ -18916,7 +18916,7 @@
         <v>30</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -19557,7 +19557,7 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E207" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F207" t="s">
         <v>53</v>
@@ -20370,7 +20370,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7777536</v>
+        <v>7777498</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -20379,61 +20379,61 @@
         <v>45335.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F216" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K216" t="s">
         <v>85</v>
       </c>
       <c r="L216">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N216">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O216">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P216">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q216">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="R216">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T216">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U216">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V216">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="X216">
         <v>-1</v>
@@ -20442,19 +20442,19 @@
         <v>-1</v>
       </c>
       <c r="Z216">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC216">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD216">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20462,7 +20462,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7822122</v>
+        <v>7777500</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20471,16 +20471,16 @@
         <v>45335.41666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -20489,64 +20489,64 @@
         <v>0</v>
       </c>
       <c r="K217" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L217">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="M217">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N217">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="O217">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="P217">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q217">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="R217">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S217">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T217">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U217">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V217">
         <v>1.775</v>
       </c>
       <c r="W217">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="X217">
         <v>-1</v>
       </c>
       <c r="Y217">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC217">
         <v>-1</v>
       </c>
       <c r="AD217">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20554,7 +20554,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7777500</v>
+        <v>7777536</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20563,62 +20563,62 @@
         <v>45335.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F218" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K218" t="s">
         <v>85</v>
       </c>
       <c r="L218">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="M218">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N218">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="O218">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="P218">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q218">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="R218">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S218">
+        <v>1.9</v>
+      </c>
+      <c r="T218">
+        <v>1.9</v>
+      </c>
+      <c r="U218">
+        <v>1.75</v>
+      </c>
+      <c r="V218">
         <v>1.975</v>
       </c>
-      <c r="T218">
+      <c r="W218">
         <v>1.825</v>
       </c>
-      <c r="U218">
-        <v>2.5</v>
-      </c>
-      <c r="V218">
-        <v>1.775</v>
-      </c>
-      <c r="W218">
-        <v>1.925</v>
-      </c>
       <c r="X218">
         <v>-1</v>
       </c>
@@ -20626,19 +20626,19 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC218">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD218">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -20646,7 +20646,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7777498</v>
+        <v>7822122</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -20655,16 +20655,16 @@
         <v>45335.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F219" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -20673,64 +20673,64 @@
         <v>0</v>
       </c>
       <c r="K219" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L219">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="M219">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N219">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="O219">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="P219">
         <v>2.9</v>
       </c>
       <c r="Q219">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="R219">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S219">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T219">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U219">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V219">
+        <v>1.775</v>
+      </c>
+      <c r="W219">
         <v>2.025</v>
       </c>
-      <c r="W219">
-        <v>1.775</v>
-      </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z219">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC219">
         <v>-1</v>
       </c>
       <c r="AD219">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -20738,7 +20738,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7777457</v>
+        <v>7777458</v>
       </c>
       <c r="C220" t="s">
         <v>29</v>
@@ -20747,52 +20747,52 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E220" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220">
         <v>0</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220">
         <v>0</v>
       </c>
       <c r="K220" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L220">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M220">
+        <v>2.7</v>
+      </c>
+      <c r="N220">
         <v>3</v>
       </c>
-      <c r="N220">
-        <v>3.5</v>
-      </c>
       <c r="O220">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P220">
+        <v>2.7</v>
+      </c>
+      <c r="Q220">
         <v>3</v>
       </c>
-      <c r="Q220">
-        <v>3.5</v>
-      </c>
       <c r="R220">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S220">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T220">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="U220">
         <v>1.75</v>
@@ -20804,25 +20804,25 @@
         <v>1.9</v>
       </c>
       <c r="X220">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AD220">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -20830,7 +20830,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7777458</v>
+        <v>7777457</v>
       </c>
       <c r="C221" t="s">
         <v>29</v>
@@ -20839,52 +20839,52 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F221" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H221">
         <v>0</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221">
         <v>0</v>
       </c>
       <c r="K221" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L221">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M221">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N221">
+        <v>3.5</v>
+      </c>
+      <c r="O221">
+        <v>2</v>
+      </c>
+      <c r="P221">
         <v>3</v>
       </c>
-      <c r="O221">
-        <v>2.5</v>
-      </c>
-      <c r="P221">
-        <v>2.7</v>
-      </c>
       <c r="Q221">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R221">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S221">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T221">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="U221">
         <v>1.75</v>
@@ -20896,25 +20896,25 @@
         <v>1.9</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y221">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AD221">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:30">
@@ -21198,7 +21198,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7777505</v>
+        <v>7777503</v>
       </c>
       <c r="C225" t="s">
         <v>29</v>
@@ -21207,13 +21207,13 @@
         <v>45342.41666666666</v>
       </c>
       <c r="E225" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -21225,64 +21225,64 @@
         <v>0</v>
       </c>
       <c r="K225" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L225">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="M225">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N225">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="O225">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="P225">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q225">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="R225">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S225">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U225">
         <v>2</v>
       </c>
       <c r="V225">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W225">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Y225">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
+        <v>0.425</v>
+      </c>
+      <c r="AB225">
         <v>-0.5</v>
       </c>
-      <c r="AB225">
-        <v>0.5</v>
-      </c>
       <c r="AC225">
         <v>-1</v>
       </c>
       <c r="AD225">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:30">
@@ -21290,7 +21290,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7777503</v>
+        <v>7777501</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -21299,13 +21299,13 @@
         <v>45342.41666666666</v>
       </c>
       <c r="E226" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F226" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -21317,64 +21317,64 @@
         <v>0</v>
       </c>
       <c r="K226" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L226">
+        <v>2.6</v>
+      </c>
+      <c r="M226">
+        <v>3.1</v>
+      </c>
+      <c r="N226">
+        <v>2.45</v>
+      </c>
+      <c r="O226">
+        <v>2.4</v>
+      </c>
+      <c r="P226">
+        <v>2.875</v>
+      </c>
+      <c r="Q226">
+        <v>2.875</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>1.725</v>
+      </c>
+      <c r="T226">
+        <v>2.075</v>
+      </c>
+      <c r="U226">
         <v>1.75</v>
       </c>
-      <c r="M226">
-        <v>3</v>
-      </c>
-      <c r="N226">
-        <v>4.75</v>
-      </c>
-      <c r="O226">
-        <v>1.615</v>
-      </c>
-      <c r="P226">
-        <v>3.2</v>
-      </c>
-      <c r="Q226">
-        <v>5.5</v>
-      </c>
-      <c r="R226">
-        <v>-0.75</v>
-      </c>
-      <c r="S226">
-        <v>1.85</v>
-      </c>
-      <c r="T226">
-        <v>1.95</v>
-      </c>
-      <c r="U226">
-        <v>2</v>
-      </c>
       <c r="V226">
+        <v>1.975</v>
+      </c>
+      <c r="W226">
         <v>1.825</v>
       </c>
-      <c r="W226">
-        <v>1.975</v>
-      </c>
       <c r="X226">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z226">
         <v>-1</v>
       </c>
       <c r="AA226">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AB226">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC226">
         <v>-1</v>
       </c>
       <c r="AD226">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="227" spans="1:30">
@@ -21382,7 +21382,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7777501</v>
+        <v>7777505</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -21391,10 +21391,10 @@
         <v>45342.41666666666</v>
       </c>
       <c r="E227" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F227" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -21412,61 +21412,61 @@
         <v>86</v>
       </c>
       <c r="L227">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="M227">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N227">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O227">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="P227">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q227">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="R227">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S227">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="T227">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="U227">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V227">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W227">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Z227">
         <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB227">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AC227">
         <v>-1</v>
       </c>
       <c r="AD227">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="228" spans="1:30">
@@ -21474,7 +21474,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7777502</v>
+        <v>7856869</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -21483,73 +21483,79 @@
         <v>45342.41666666666</v>
       </c>
       <c r="E228" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F228" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228">
         <v>2</v>
       </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
       <c r="K228" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L228">
+        <v>4</v>
+      </c>
+      <c r="M228">
+        <v>3.1</v>
+      </c>
+      <c r="N228">
+        <v>1.833</v>
+      </c>
+      <c r="O228">
+        <v>4.333</v>
+      </c>
+      <c r="P228">
+        <v>3.1</v>
+      </c>
+      <c r="Q228">
         <v>1.75</v>
       </c>
-      <c r="M228">
-        <v>3</v>
-      </c>
-      <c r="N228">
-        <v>4.75</v>
-      </c>
-      <c r="O228">
-        <v>1.615</v>
-      </c>
-      <c r="P228">
-        <v>3.2</v>
-      </c>
-      <c r="Q228">
-        <v>5.5</v>
-      </c>
       <c r="R228">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S228">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U228">
         <v>2</v>
       </c>
       <c r="V228">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W228">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="X228">
         <v>-1</v>
       </c>
       <c r="Y228">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD228">
         <v>-1</v>
@@ -21560,7 +21566,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7856869</v>
+        <v>7777502</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -21569,79 +21575,73 @@
         <v>45342.41666666666</v>
       </c>
       <c r="E229" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F229" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229">
         <v>2</v>
       </c>
-      <c r="I229">
-        <v>0</v>
-      </c>
-      <c r="J229">
-        <v>1</v>
-      </c>
       <c r="K229" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="M229">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N229">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="O229">
-        <v>4.333</v>
+        <v>1.615</v>
       </c>
       <c r="P229">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q229">
+        <v>5.5</v>
+      </c>
+      <c r="R229">
+        <v>-0.75</v>
+      </c>
+      <c r="S229">
+        <v>1.875</v>
+      </c>
+      <c r="T229">
+        <v>1.925</v>
+      </c>
+      <c r="U229">
+        <v>2</v>
+      </c>
+      <c r="V229">
+        <v>2.05</v>
+      </c>
+      <c r="W229">
         <v>1.75</v>
       </c>
-      <c r="R229">
-        <v>0.5</v>
-      </c>
-      <c r="S229">
-        <v>2</v>
-      </c>
-      <c r="T229">
-        <v>1.8</v>
-      </c>
-      <c r="U229">
-        <v>2</v>
-      </c>
-      <c r="V229">
-        <v>1.775</v>
-      </c>
-      <c r="W229">
-        <v>2.025</v>
-      </c>
       <c r="X229">
         <v>-1</v>
       </c>
       <c r="Y229">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z229">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC229">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AD229">
         <v>-1</v>
@@ -22204,7 +22204,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7777508</v>
+        <v>7777509</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -22213,19 +22213,19 @@
         <v>45349.41666666666</v>
       </c>
       <c r="E236" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F236" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J236">
         <v>1</v>
@@ -22234,43 +22234,43 @@
         <v>84</v>
       </c>
       <c r="L236">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M236">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N236">
         <v>3.25</v>
       </c>
       <c r="O236">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="P236">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q236">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="R236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S236">
+        <v>1.7</v>
+      </c>
+      <c r="T236">
+        <v>2.1</v>
+      </c>
+      <c r="U236">
         <v>1.75</v>
       </c>
-      <c r="T236">
-        <v>1.95</v>
-      </c>
-      <c r="U236">
-        <v>2.25</v>
-      </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W236">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X236">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="Y236">
         <v>-1</v>
@@ -22279,13 +22279,13 @@
         <v>-1</v>
       </c>
       <c r="AA236">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AD236">
         <v>-1</v>
@@ -22296,7 +22296,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7777509</v>
+        <v>7777508</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -22305,19 +22305,19 @@
         <v>45349.41666666666</v>
       </c>
       <c r="E237" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F237" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J237">
         <v>1</v>
@@ -22326,43 +22326,43 @@
         <v>84</v>
       </c>
       <c r="L237">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M237">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N237">
         <v>3.25</v>
       </c>
       <c r="O237">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="P237">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q237">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="R237">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S237">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T237">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="U237">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X237">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="Y237">
         <v>-1</v>
@@ -22371,13 +22371,13 @@
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AD237">
         <v>-1</v>
@@ -22388,7 +22388,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7777469</v>
+        <v>7777468</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -22397,82 +22397,82 @@
         <v>45352.4375</v>
       </c>
       <c r="E238" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F238" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238" t="s">
+        <v>86</v>
+      </c>
+      <c r="L238">
+        <v>3.1</v>
+      </c>
+      <c r="M238">
+        <v>2.9</v>
+      </c>
+      <c r="N238">
+        <v>2.25</v>
+      </c>
+      <c r="O238">
+        <v>3.2</v>
+      </c>
+      <c r="P238">
         <v>3</v>
       </c>
-      <c r="H238">
-        <v>0</v>
-      </c>
-      <c r="I238">
-        <v>1</v>
-      </c>
-      <c r="J238">
-        <v>0</v>
-      </c>
-      <c r="K238" t="s">
-        <v>84</v>
-      </c>
-      <c r="L238">
-        <v>2.1</v>
-      </c>
-      <c r="M238">
-        <v>2.8</v>
-      </c>
-      <c r="N238">
-        <v>3.5</v>
-      </c>
-      <c r="O238">
-        <v>1.833</v>
-      </c>
-      <c r="P238">
-        <v>3.1</v>
-      </c>
       <c r="Q238">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="R238">
+        <v>0.25</v>
+      </c>
+      <c r="S238">
+        <v>1.9</v>
+      </c>
+      <c r="T238">
+        <v>1.9</v>
+      </c>
+      <c r="U238">
+        <v>1.75</v>
+      </c>
+      <c r="V238">
+        <v>1.925</v>
+      </c>
+      <c r="W238">
+        <v>1.875</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
+        <v>2</v>
+      </c>
+      <c r="Z238">
+        <v>-1</v>
+      </c>
+      <c r="AA238">
+        <v>0.45</v>
+      </c>
+      <c r="AB238">
         <v>-0.5</v>
       </c>
-      <c r="S238">
-        <v>1.85</v>
-      </c>
-      <c r="T238">
-        <v>1.95</v>
-      </c>
-      <c r="U238">
-        <v>2</v>
-      </c>
-      <c r="V238">
-        <v>1.95</v>
-      </c>
-      <c r="W238">
-        <v>1.85</v>
-      </c>
-      <c r="X238">
-        <v>0.833</v>
-      </c>
-      <c r="Y238">
-        <v>-1</v>
-      </c>
-      <c r="Z238">
-        <v>-1</v>
-      </c>
-      <c r="AA238">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB238">
-        <v>-1</v>
-      </c>
       <c r="AC238">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AD238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="239" spans="1:30">
@@ -22480,7 +22480,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7777468</v>
+        <v>7777469</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22489,16 +22489,16 @@
         <v>45352.4375</v>
       </c>
       <c r="E239" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F239" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -22507,64 +22507,64 @@
         <v>0</v>
       </c>
       <c r="K239" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L239">
+        <v>2.1</v>
+      </c>
+      <c r="M239">
+        <v>2.8</v>
+      </c>
+      <c r="N239">
+        <v>3.5</v>
+      </c>
+      <c r="O239">
+        <v>1.833</v>
+      </c>
+      <c r="P239">
         <v>3.1</v>
       </c>
-      <c r="M239">
-        <v>2.9</v>
-      </c>
-      <c r="N239">
-        <v>2.25</v>
-      </c>
-      <c r="O239">
-        <v>3.2</v>
-      </c>
-      <c r="P239">
-        <v>3</v>
-      </c>
       <c r="Q239">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="R239">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U239">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V239">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W239">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y239">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AD239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22572,7 +22572,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7777467</v>
+        <v>7777470</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22581,55 +22581,55 @@
         <v>45352.4375</v>
       </c>
       <c r="E240" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F240" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K240" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L240">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M240">
         <v>2.75</v>
       </c>
       <c r="N240">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O240">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="P240">
         <v>3</v>
       </c>
       <c r="Q240">
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="R240">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="S240">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T240">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U240">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V240">
         <v>1.8</v>
@@ -22638,25 +22638,25 @@
         <v>2</v>
       </c>
       <c r="X240">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA240">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22664,7 +22664,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7777470</v>
+        <v>7777467</v>
       </c>
       <c r="C241" t="s">
         <v>29</v>
@@ -22673,55 +22673,55 @@
         <v>45352.4375</v>
       </c>
       <c r="E241" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F241" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K241" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M241">
         <v>2.75</v>
       </c>
       <c r="N241">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O241">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="P241">
         <v>3</v>
       </c>
       <c r="Q241">
-        <v>1.75</v>
+        <v>5.25</v>
       </c>
       <c r="R241">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S241">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T241">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U241">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V241">
         <v>1.8</v>
@@ -22730,25 +22730,25 @@
         <v>2</v>
       </c>
       <c r="X241">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB241">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:30">
@@ -23041,7 +23041,7 @@
         <v>45356.4375</v>
       </c>
       <c r="E245" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F245" t="s">
         <v>70</v>
@@ -23308,7 +23308,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7777474</v>
+        <v>7777475</v>
       </c>
       <c r="C248" t="s">
         <v>29</v>
@@ -23317,82 +23317,82 @@
         <v>45357.4375</v>
       </c>
       <c r="E248" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F248" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G248">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K248" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L248">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="M248">
         <v>2.875</v>
       </c>
       <c r="N248">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="O248">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="P248">
         <v>2.875</v>
       </c>
       <c r="Q248">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="R248">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S248">
+        <v>2.025</v>
+      </c>
+      <c r="T248">
+        <v>1.775</v>
+      </c>
+      <c r="U248">
+        <v>2</v>
+      </c>
+      <c r="V248">
         <v>1.975</v>
       </c>
-      <c r="T248">
-        <v>1.825</v>
-      </c>
-      <c r="U248">
-        <v>1.75</v>
-      </c>
-      <c r="V248">
-        <v>1.85</v>
-      </c>
       <c r="W248">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="X248">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA248">
+        <v>-1</v>
+      </c>
+      <c r="AB248">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC248">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB248">
-        <v>-1</v>
-      </c>
-      <c r="AC248">
-        <v>-1</v>
-      </c>
       <c r="AD248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:30">
@@ -23400,7 +23400,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7777472</v>
+        <v>7777473</v>
       </c>
       <c r="C249" t="s">
         <v>29</v>
@@ -23409,13 +23409,13 @@
         <v>45357.4375</v>
       </c>
       <c r="E249" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F249" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -23427,64 +23427,64 @@
         <v>0</v>
       </c>
       <c r="K249" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L249">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="M249">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N249">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O249">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="P249">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q249">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="R249">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S249">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="T249">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="U249">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="V249">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W249">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X249">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z249">
         <v>-1</v>
       </c>
       <c r="AA249">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AB249">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC249">
         <v>-1</v>
       </c>
       <c r="AD249">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:30">
@@ -23584,7 +23584,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7777473</v>
+        <v>7777474</v>
       </c>
       <c r="C251" t="s">
         <v>29</v>
@@ -23593,82 +23593,82 @@
         <v>45357.4375</v>
       </c>
       <c r="E251" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F251" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H251">
         <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251">
         <v>0</v>
       </c>
       <c r="K251" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L251">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M251">
         <v>2.875</v>
       </c>
       <c r="N251">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O251">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="P251">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="Q251">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="R251">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S251">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="U251">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V251">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W251">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y251">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
         <v>-1</v>
       </c>
       <c r="AD251">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="252" spans="1:30">
@@ -23676,7 +23676,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7777475</v>
+        <v>7777472</v>
       </c>
       <c r="C252" t="s">
         <v>29</v>
@@ -23685,82 +23685,82 @@
         <v>45357.4375</v>
       </c>
       <c r="E252" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F252" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G252">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252">
         <v>0</v>
       </c>
       <c r="J252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K252" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L252">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M252">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="N252">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="O252">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="P252">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q252">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="R252">
         <v>-0.25</v>
       </c>
       <c r="S252">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T252">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V252">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W252">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Y252">
         <v>-1</v>
       </c>
       <c r="Z252">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB252">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD252">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="253" spans="1:30">
@@ -23768,7 +23768,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7777518</v>
+        <v>7777538</v>
       </c>
       <c r="C253" t="s">
         <v>29</v>
@@ -23777,55 +23777,55 @@
         <v>45361.4375</v>
       </c>
       <c r="E253" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F253" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G253">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H253">
         <v>1</v>
       </c>
       <c r="I253">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J253">
         <v>1</v>
       </c>
       <c r="K253" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L253">
-        <v>1.65</v>
+        <v>4.75</v>
       </c>
       <c r="M253">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N253">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="O253">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="P253">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q253">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="R253">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="S253">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T253">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U253">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="V253">
         <v>1.9</v>
@@ -23834,25 +23834,25 @@
         <v>1.9</v>
       </c>
       <c r="X253">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z253">
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB253">
         <v>-1</v>
       </c>
       <c r="AC253">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD253">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:30">
@@ -23860,7 +23860,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7777538</v>
+        <v>7777518</v>
       </c>
       <c r="C254" t="s">
         <v>29</v>
@@ -23869,55 +23869,55 @@
         <v>45361.4375</v>
       </c>
       <c r="E254" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F254" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H254">
         <v>1</v>
       </c>
       <c r="I254">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J254">
         <v>1</v>
       </c>
       <c r="K254" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L254">
-        <v>4.75</v>
+        <v>1.65</v>
       </c>
       <c r="M254">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N254">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="O254">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="P254">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q254">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="R254">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="S254">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T254">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U254">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V254">
         <v>1.9</v>
@@ -23926,25 +23926,25 @@
         <v>1.9</v>
       </c>
       <c r="X254">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Y254">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
         <v>-1</v>
       </c>
       <c r="AA254">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB254">
         <v>-1</v>
       </c>
       <c r="AC254">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD254">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:30">
@@ -24691,7 +24691,7 @@
         <v>45399.4375</v>
       </c>
       <c r="E263" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F263" t="s">
         <v>49</v>
@@ -25142,7 +25142,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7777491</v>
+        <v>7777490</v>
       </c>
       <c r="C268" t="s">
         <v>29</v>
@@ -25151,82 +25151,82 @@
         <v>45411.4375</v>
       </c>
       <c r="E268" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F268" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G268">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H268">
         <v>1</v>
       </c>
       <c r="I268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K268" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L268">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M268">
         <v>2.75</v>
       </c>
       <c r="N268">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="O268">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="P268">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="Q268">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="R268">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S268">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T268">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U268">
         <v>1.75</v>
       </c>
       <c r="V268">
+        <v>2</v>
+      </c>
+      <c r="W268">
         <v>1.8</v>
       </c>
-      <c r="W268">
-        <v>2</v>
-      </c>
       <c r="X268">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
         <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA268">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC268">
+        <v>-1</v>
+      </c>
+      <c r="AD268">
         <v>0.8</v>
-      </c>
-      <c r="AD268">
-        <v>-1</v>
       </c>
     </row>
     <row r="269" spans="1:30">
@@ -25234,7 +25234,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>7777487</v>
+        <v>7777491</v>
       </c>
       <c r="C269" t="s">
         <v>29</v>
@@ -25243,13 +25243,13 @@
         <v>45411.4375</v>
       </c>
       <c r="E269" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F269" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H269">
         <v>1</v>
@@ -25261,7 +25261,7 @@
         <v>1</v>
       </c>
       <c r="K269" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L269">
         <v>2.25</v>
@@ -25279,46 +25279,46 @@
         <v>2.875</v>
       </c>
       <c r="Q269">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R269">
         <v>-0.25</v>
       </c>
       <c r="S269">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T269">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U269">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V269">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W269">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y269">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
         <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB269">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD269">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:30">
@@ -25326,7 +25326,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>7777490</v>
+        <v>7777487</v>
       </c>
       <c r="C270" t="s">
         <v>29</v>
@@ -25335,82 +25335,82 @@
         <v>45411.4375</v>
       </c>
       <c r="E270" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F270" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H270">
         <v>1</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K270" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L270">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="M270">
         <v>2.75</v>
       </c>
       <c r="N270">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="O270">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="P270">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q270">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="R270">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S270">
+        <v>1.825</v>
+      </c>
+      <c r="T270">
+        <v>1.975</v>
+      </c>
+      <c r="U270">
+        <v>2.25</v>
+      </c>
+      <c r="V270">
+        <v>2.025</v>
+      </c>
+      <c r="W270">
         <v>1.775</v>
       </c>
-      <c r="T270">
-        <v>2.025</v>
-      </c>
-      <c r="U270">
-        <v>1.75</v>
-      </c>
-      <c r="V270">
-        <v>2</v>
-      </c>
-      <c r="W270">
-        <v>1.8</v>
-      </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z270">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB270">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AC270">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AD270">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="271" spans="1:30">
@@ -26074,7 +26074,7 @@
         <v>37</v>
       </c>
       <c r="F278" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G278">
         <v>2</v>
@@ -26338,7 +26338,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>8244395</v>
+        <v>8244394</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -26347,82 +26347,82 @@
         <v>45434.45833333334</v>
       </c>
       <c r="E281" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F281" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K281" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L281">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="M281">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N281">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O281">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="P281">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q281">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R281">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S281">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="T281">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="U281">
         <v>1.75</v>
       </c>
       <c r="V281">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W281">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X281">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA281">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD281">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -26430,7 +26430,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>8244394</v>
+        <v>8244395</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -26439,82 +26439,82 @@
         <v>45434.45833333334</v>
       </c>
       <c r="E282" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F282" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="G282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282" t="s">
+        <v>84</v>
+      </c>
+      <c r="L282">
+        <v>2.4</v>
+      </c>
+      <c r="M282">
+        <v>2.75</v>
+      </c>
+      <c r="N282">
         <v>3</v>
       </c>
-      <c r="I282">
-        <v>1</v>
-      </c>
-      <c r="J282">
-        <v>2</v>
-      </c>
-      <c r="K282" t="s">
-        <v>85</v>
-      </c>
-      <c r="L282">
-        <v>3.6</v>
-      </c>
-      <c r="M282">
-        <v>2.8</v>
-      </c>
-      <c r="N282">
+      <c r="O282">
+        <v>2.4</v>
+      </c>
+      <c r="P282">
+        <v>2.75</v>
+      </c>
+      <c r="Q282">
+        <v>3</v>
+      </c>
+      <c r="R282">
+        <v>0</v>
+      </c>
+      <c r="S282">
+        <v>1.7</v>
+      </c>
+      <c r="T282">
         <v>2.1</v>
-      </c>
-      <c r="O282">
-        <v>3.6</v>
-      </c>
-      <c r="P282">
-        <v>2.8</v>
-      </c>
-      <c r="Q282">
-        <v>2.1</v>
-      </c>
-      <c r="R282">
-        <v>0.25</v>
-      </c>
-      <c r="S282">
-        <v>1.975</v>
-      </c>
-      <c r="T282">
-        <v>1.825</v>
       </c>
       <c r="U282">
         <v>1.75</v>
       </c>
       <c r="V282">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W282">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB282">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD282">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/Egypt Division 2/Egypt Division 2.xlsx
+++ b/Egypt Division 2/Egypt Division 2.xlsx
@@ -106,6 +106,9 @@
     <t>Egypt Division 2</t>
   </si>
   <si>
+    <t>Petrojet</t>
+  </si>
+  <si>
     <t>Telecom Egypt</t>
   </si>
   <si>
@@ -113,9 +116,6 @@
   </si>
   <si>
     <t>Al Nasr Cairo</t>
-  </si>
-  <si>
-    <t>Petrojet</t>
   </si>
   <si>
     <t>Kahraba Ismailia</t>
@@ -190,16 +190,16 @@
     <t>Dekernes</t>
   </si>
   <si>
-    <t>Al Hilal Matrouh</t>
+    <t>MS Tala</t>
+  </si>
+  <si>
+    <t>Sporting Alexandria</t>
   </si>
   <si>
     <t>Delphi SC</t>
   </si>
   <si>
-    <t>MS Tala</t>
-  </si>
-  <si>
-    <t>Sporting Alexandria</t>
+    <t>Al Hilal Matrouh</t>
   </si>
   <si>
     <t>El Olympi</t>
@@ -253,10 +253,10 @@
     <t>Telephonaat Bani Suweif</t>
   </si>
   <si>
-    <t>M S Koum Hamada</t>
+    <t>Bani Ebaid</t>
   </si>
   <si>
-    <t>Bani Ebaid</t>
+    <t>M S Koum Hamada</t>
   </si>
   <si>
     <t>Ittihad Nabarouh</t>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6723218</v>
+        <v>6723214</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -748,13 +748,13 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -766,58 +766,58 @@
         <v>84</v>
       </c>
       <c r="L2">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="M2">
+        <v>3.5</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>1.533</v>
+      </c>
+      <c r="P2">
         <v>3.4</v>
       </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
+      <c r="Q2">
+        <v>5.75</v>
+      </c>
+      <c r="R2">
+        <v>-1</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
         <v>1.8</v>
       </c>
-      <c r="P2">
-        <v>3.2</v>
-      </c>
-      <c r="Q2">
-        <v>4.2</v>
-      </c>
-      <c r="R2">
-        <v>-0.5</v>
-      </c>
-      <c r="S2">
-        <v>1.825</v>
-      </c>
-      <c r="T2">
-        <v>1.975</v>
-      </c>
       <c r="U2">
         <v>2</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X2">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>-1</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>-1</v>
+      </c>
+      <c r="AC2">
         <v>0.8</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <v>0.825</v>
-      </c>
-      <c r="AB2">
-        <v>-1</v>
-      </c>
-      <c r="AC2">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AD2">
         <v>-1</v>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6723216</v>
+        <v>6723218</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -840,76 +840,76 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L3">
-        <v>1.444</v>
+        <v>1.615</v>
       </c>
       <c r="M3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="P3">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q3">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="R3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T3">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U3">
         <v>2</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD3">
         <v>-1</v>
@@ -920,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6723215</v>
+        <v>6723216</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -932,58 +932,58 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
         <v>85</v>
       </c>
       <c r="L4">
-        <v>5.25</v>
+        <v>1.444</v>
       </c>
       <c r="M4">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N4">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="P4">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q4">
-        <v>1.85</v>
+        <v>6.5</v>
       </c>
       <c r="R4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U4">
         <v>2</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -992,19 +992,19 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8500000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1012,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6723214</v>
+        <v>6723215</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -1024,79 +1024,79 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="M5">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>1.615</v>
       </c>
       <c r="O5">
-        <v>1.533</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q5">
-        <v>5.75</v>
+        <v>1.85</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
+        <v>1.95</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
         <v>1.8</v>
       </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>1.8</v>
-      </c>
-      <c r="W5">
-        <v>2</v>
-      </c>
       <c r="X5">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1665,7 +1665,7 @@
         <v>45086.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
         <v>68</v>
@@ -1941,7 +1941,7 @@
         <v>45110.5</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>41</v>
@@ -2036,7 +2036,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -2125,7 +2125,7 @@
         <v>45193.41666666666</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
@@ -2309,7 +2309,7 @@
         <v>45194.41666666666</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
@@ -3048,7 +3048,7 @@
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3597,7 +3597,7 @@
         <v>45202.41666666666</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
         <v>45</v>
@@ -3692,7 +3692,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3956,7 +3956,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>7254155</v>
+        <v>7254018</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
@@ -3965,82 +3965,82 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L37">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M37">
         <v>2.8</v>
       </c>
       <c r="N37">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="O37">
-        <v>2.1</v>
+        <v>2.875</v>
       </c>
       <c r="P37">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q37">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="R37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T37">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="AA37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AC37">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD37">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -4048,7 +4048,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7253635</v>
+        <v>7254155</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -4057,55 +4057,55 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L38">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="M38">
         <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="O38">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q38">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="R38">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S38">
+        <v>1.825</v>
+      </c>
+      <c r="T38">
+        <v>1.975</v>
+      </c>
+      <c r="U38">
         <v>1.75</v>
-      </c>
-      <c r="T38">
-        <v>2.05</v>
-      </c>
-      <c r="U38">
-        <v>2</v>
       </c>
       <c r="V38">
         <v>2</v>
@@ -4117,22 +4117,22 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z38">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB38">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4140,7 +4140,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>7254018</v>
+        <v>7253635</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4149,22 +4149,22 @@
         <v>45208.41666666666</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
         <v>85</v>
@@ -4179,32 +4179,32 @@
         <v>2.8</v>
       </c>
       <c r="O39">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P39">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
+        <v>2.05</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
         <v>1.8</v>
       </c>
-      <c r="U39">
-        <v>2</v>
-      </c>
-      <c r="V39">
-        <v>1.925</v>
-      </c>
-      <c r="W39">
-        <v>1.875</v>
-      </c>
       <c r="X39">
         <v>-1</v>
       </c>
@@ -4212,19 +4212,19 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4241,7 +4241,7 @@
         <v>45208.52083333334</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
         <v>50</v>
@@ -4333,7 +4333,7 @@
         <v>45209.41666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s">
         <v>51</v>
@@ -4692,7 +4692,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7254156</v>
+        <v>7254013</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4701,46 +4701,46 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K45" t="s">
         <v>86</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="M45">
         <v>3</v>
       </c>
       <c r="N45">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="O45">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P45">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q45">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="R45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S45">
         <v>1.85</v>
@@ -4749,34 +4749,34 @@
         <v>1.95</v>
       </c>
       <c r="U45">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4784,7 +4784,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7254157</v>
+        <v>7254156</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -4793,82 +4793,82 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>2.2</v>
+      </c>
+      <c r="O46">
+        <v>4.2</v>
+      </c>
+      <c r="P46">
+        <v>2.8</v>
+      </c>
+      <c r="Q46">
         <v>1.909</v>
       </c>
-      <c r="M46">
-        <v>3.1</v>
-      </c>
-      <c r="N46">
-        <v>3.75</v>
-      </c>
-      <c r="O46">
+      <c r="R46">
+        <v>0.5</v>
+      </c>
+      <c r="S46">
         <v>1.85</v>
       </c>
-      <c r="P46">
-        <v>3.2</v>
-      </c>
-      <c r="Q46">
-        <v>4</v>
-      </c>
-      <c r="R46">
+      <c r="T46">
+        <v>1.95</v>
+      </c>
+      <c r="U46">
+        <v>1.75</v>
+      </c>
+      <c r="V46">
+        <v>1.825</v>
+      </c>
+      <c r="W46">
+        <v>1.975</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
+        <v>1.8</v>
+      </c>
+      <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
+        <v>0.4125</v>
+      </c>
+      <c r="AD46">
         <v>-0.5</v>
-      </c>
-      <c r="S46">
-        <v>1.825</v>
-      </c>
-      <c r="T46">
-        <v>1.975</v>
-      </c>
-      <c r="U46">
-        <v>2</v>
-      </c>
-      <c r="V46">
-        <v>2</v>
-      </c>
-      <c r="W46">
-        <v>1.8</v>
-      </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
-      <c r="Z46">
-        <v>3</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC46">
-        <v>1</v>
-      </c>
-      <c r="AD46">
-        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -4876,7 +4876,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7254013</v>
+        <v>7254157</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4885,79 +4885,79 @@
         <v>45215.41666666666</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>85</v>
+      </c>
+      <c r="L47">
+        <v>1.909</v>
+      </c>
+      <c r="M47">
+        <v>3.1</v>
+      </c>
+      <c r="N47">
+        <v>3.75</v>
+      </c>
+      <c r="O47">
+        <v>1.85</v>
+      </c>
+      <c r="P47">
+        <v>3.2</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>-0.5</v>
+      </c>
+      <c r="S47">
+        <v>1.825</v>
+      </c>
+      <c r="T47">
+        <v>1.975</v>
+      </c>
+      <c r="U47">
+        <v>2</v>
+      </c>
+      <c r="V47">
+        <v>2</v>
+      </c>
+      <c r="W47">
+        <v>1.8</v>
+      </c>
+      <c r="X47">
+        <v>-1</v>
+      </c>
+      <c r="Y47">
+        <v>-1</v>
+      </c>
+      <c r="Z47">
         <v>3</v>
       </c>
-      <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-      <c r="K47" t="s">
-        <v>86</v>
-      </c>
-      <c r="L47">
-        <v>2.15</v>
-      </c>
-      <c r="M47">
-        <v>3</v>
-      </c>
-      <c r="N47">
-        <v>3.4</v>
-      </c>
-      <c r="O47">
-        <v>2.625</v>
-      </c>
-      <c r="P47">
-        <v>2.875</v>
-      </c>
-      <c r="Q47">
-        <v>2.75</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>1.85</v>
-      </c>
-      <c r="T47">
-        <v>1.95</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
-      </c>
-      <c r="V47">
-        <v>1.9</v>
-      </c>
-      <c r="W47">
-        <v>1.9</v>
-      </c>
-      <c r="X47">
-        <v>-1</v>
-      </c>
-      <c r="Y47">
-        <v>1.875</v>
-      </c>
-      <c r="Z47">
-        <v>-1</v>
-      </c>
       <c r="AA47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD47">
         <v>-1</v>
@@ -5152,7 +5152,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7254010</v>
+        <v>7253636</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5161,10 +5161,10 @@
         <v>45216.41666666666</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5176,67 +5176,67 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="s">
         <v>86</v>
       </c>
       <c r="L50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="M50">
         <v>3</v>
       </c>
       <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
         <v>2.625</v>
       </c>
-      <c r="O50">
-        <v>3.1</v>
-      </c>
       <c r="P50">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="R50">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T50">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0.4125</v>
+      </c>
+      <c r="AD50">
         <v>-0.5</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5244,7 +5244,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7253636</v>
+        <v>7254010</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5253,10 +5253,10 @@
         <v>45216.41666666666</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -5268,67 +5268,67 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="s">
         <v>86</v>
       </c>
       <c r="L51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M51">
         <v>3</v>
       </c>
       <c r="N51">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O51">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="P51">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S51">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="U51">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Z51">
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC51">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AD51">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5348,7 +5348,7 @@
         <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -5437,7 +5437,7 @@
         <v>45216.52083333334</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
         <v>47</v>
@@ -5621,7 +5621,7 @@
         <v>45222.41666666666</v>
       </c>
       <c r="E55" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
         <v>49</v>
@@ -6265,7 +6265,7 @@
         <v>45223.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
@@ -6357,7 +6357,7 @@
         <v>45223.52083333334</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
         <v>35</v>
@@ -6440,7 +6440,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7384107</v>
+        <v>7384130</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6455,7 +6455,7 @@
         <v>79</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6464,67 +6464,67 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L64">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M64">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="N64">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O64">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="P64">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q64">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="R64">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U64">
         <v>1.75</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W64">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.925</v>
       </c>
-      <c r="AC64">
-        <v>-1</v>
-      </c>
       <c r="AD64">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6532,7 +6532,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7384145</v>
+        <v>7387966</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -6544,16 +6544,16 @@
         <v>59</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -6562,43 +6562,43 @@
         <v>84</v>
       </c>
       <c r="L65">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="M65">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N65">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="O65">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="P65">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q65">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="R65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T65">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U65">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V65">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W65">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X65">
-        <v>0.55</v>
+        <v>0.909</v>
       </c>
       <c r="Y65">
         <v>-1</v>
@@ -6607,13 +6607,13 @@
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AD65">
         <v>-1</v>
@@ -6624,7 +6624,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7384130</v>
+        <v>7384145</v>
       </c>
       <c r="C66" t="s">
         <v>29</v>
@@ -6636,61 +6636,61 @@
         <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="s">
         <v>84</v>
       </c>
       <c r="L66">
-        <v>2.4</v>
+        <v>1.55</v>
       </c>
       <c r="M66">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="N66">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O66">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="P66">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q66">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="U66">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W66">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="X66">
-        <v>1.625</v>
+        <v>0.55</v>
       </c>
       <c r="Y66">
         <v>-1</v>
@@ -6699,13 +6699,13 @@
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AD66">
         <v>-1</v>
@@ -6716,7 +6716,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7387966</v>
+        <v>7384107</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6728,49 +6728,49 @@
         <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L67">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="M67">
         <v>2.8</v>
       </c>
       <c r="N67">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="O67">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="P67">
         <v>2.8</v>
       </c>
       <c r="Q67">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="R67">
         <v>-0.5</v>
       </c>
       <c r="S67">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T67">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U67">
         <v>1.75</v>
@@ -6782,25 +6782,25 @@
         <v>2</v>
       </c>
       <c r="X67">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="AA67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD67">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -6900,7 +6900,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7254161</v>
+        <v>7253991</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6909,10 +6909,10 @@
         <v>45229.39583333334</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6924,40 +6924,40 @@
         <v>1</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="s">
         <v>86</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="M69">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N69">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="O69">
+        <v>2</v>
+      </c>
+      <c r="P69">
         <v>3</v>
       </c>
-      <c r="P69">
-        <v>2.7</v>
-      </c>
       <c r="Q69">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S69">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
         <v>1.725</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V69">
         <v>2.025</v>
@@ -6969,22 +6969,22 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6992,7 +6992,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7253991</v>
+        <v>7254161</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -7001,10 +7001,10 @@
         <v>45229.39583333334</v>
       </c>
       <c r="E70" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -7016,40 +7016,40 @@
         <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="s">
         <v>86</v>
       </c>
       <c r="L70">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="M70">
+        <v>2.75</v>
+      </c>
+      <c r="N70">
+        <v>2.5</v>
+      </c>
+      <c r="O70">
         <v>3</v>
       </c>
-      <c r="N70">
-        <v>3.6</v>
-      </c>
-      <c r="O70">
-        <v>2</v>
-      </c>
       <c r="P70">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q70">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="R70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S70">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T70">
         <v>1.725</v>
       </c>
       <c r="U70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V70">
         <v>2.025</v>
@@ -7061,22 +7061,22 @@
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB70">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AD70">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -7188,7 +7188,7 @@
         <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -7464,7 +7464,7 @@
         <v>51</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -7645,7 +7645,7 @@
         <v>45236.39583333334</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
         <v>48</v>
@@ -7728,7 +7728,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7254163</v>
+        <v>7253988</v>
       </c>
       <c r="C78" t="s">
         <v>29</v>
@@ -7737,79 +7737,79 @@
         <v>45236.39583333334</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L78">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M78">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N78">
         <v>2.25</v>
       </c>
       <c r="O78">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="P78">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q78">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="R78">
         <v>0.25</v>
       </c>
       <c r="S78">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U78">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W78">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X78">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA78">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC78">
-        <v>0.8500000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AD78">
         <v>-1</v>
@@ -7820,7 +7820,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7253988</v>
+        <v>7254163</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -7829,79 +7829,79 @@
         <v>45236.39583333334</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L79">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M79">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
         <v>2.25</v>
       </c>
       <c r="O79">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q79">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="R79">
         <v>0.25</v>
       </c>
       <c r="S79">
+        <v>1.775</v>
+      </c>
+      <c r="T79">
+        <v>2.025</v>
+      </c>
+      <c r="U79">
+        <v>1.75</v>
+      </c>
+      <c r="V79">
+        <v>1.85</v>
+      </c>
+      <c r="W79">
         <v>1.95</v>
       </c>
-      <c r="T79">
-        <v>1.85</v>
-      </c>
-      <c r="U79">
-        <v>2</v>
-      </c>
-      <c r="V79">
-        <v>1.725</v>
-      </c>
-      <c r="W79">
-        <v>1.975</v>
-      </c>
       <c r="X79">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
+        <v>-1</v>
+      </c>
+      <c r="AC79">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC79">
-        <v>0.7250000000000001</v>
       </c>
       <c r="AD79">
         <v>-1</v>
@@ -8473,7 +8473,7 @@
         <v>45237.5</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
         <v>46</v>
@@ -8568,7 +8568,7 @@
         <v>62</v>
       </c>
       <c r="F87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -8752,7 +8752,7 @@
         <v>64</v>
       </c>
       <c r="F89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -8844,7 +8844,7 @@
         <v>65</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -9206,7 +9206,7 @@
         <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -9286,7 +9286,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7468991</v>
+        <v>7253980</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
@@ -9295,64 +9295,64 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="s">
         <v>84</v>
       </c>
       <c r="L95">
+        <v>1.55</v>
+      </c>
+      <c r="M95">
+        <v>3.75</v>
+      </c>
+      <c r="N95">
+        <v>5</v>
+      </c>
+      <c r="O95">
+        <v>1.5</v>
+      </c>
+      <c r="P95">
+        <v>4</v>
+      </c>
+      <c r="Q95">
+        <v>5</v>
+      </c>
+      <c r="R95">
+        <v>-1</v>
+      </c>
+      <c r="S95">
+        <v>1.875</v>
+      </c>
+      <c r="T95">
+        <v>1.925</v>
+      </c>
+      <c r="U95">
         <v>2.25</v>
       </c>
-      <c r="M95">
-        <v>2.75</v>
-      </c>
-      <c r="N95">
-        <v>3.25</v>
-      </c>
-      <c r="O95">
-        <v>2.15</v>
-      </c>
-      <c r="P95">
-        <v>2.875</v>
-      </c>
-      <c r="Q95">
-        <v>3.4</v>
-      </c>
-      <c r="R95">
-        <v>-0.25</v>
-      </c>
-      <c r="S95">
-        <v>1.825</v>
-      </c>
-      <c r="T95">
-        <v>1.975</v>
-      </c>
-      <c r="U95">
-        <v>1.75</v>
-      </c>
       <c r="V95">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="W95">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="X95">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -9361,13 +9361,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.7250000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD95">
         <v>-1</v>
@@ -9378,7 +9378,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7253981</v>
+        <v>7468991</v>
       </c>
       <c r="C96" t="s">
         <v>29</v>
@@ -9387,64 +9387,64 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="s">
         <v>84</v>
       </c>
       <c r="L96">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="M96">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N96">
+        <v>3.25</v>
+      </c>
+      <c r="O96">
+        <v>2.15</v>
+      </c>
+      <c r="P96">
+        <v>2.875</v>
+      </c>
+      <c r="Q96">
         <v>3.4</v>
-      </c>
-      <c r="O96">
-        <v>2.1</v>
-      </c>
-      <c r="P96">
-        <v>3</v>
-      </c>
-      <c r="Q96">
-        <v>3.3</v>
       </c>
       <c r="R96">
         <v>-0.25</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="W96">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="X96">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="Y96">
         <v>-1</v>
@@ -9453,16 +9453,16 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AD96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9470,7 +9470,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7253982</v>
+        <v>7253981</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9479,40 +9479,46 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G97">
         <v>1</v>
       </c>
       <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" t="s">
         <v>84</v>
       </c>
       <c r="L97">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M97">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N97">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="O97">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="P97">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q97">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="R97">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S97">
         <v>1.85</v>
@@ -9530,7 +9536,7 @@
         <v>1.8</v>
       </c>
       <c r="X97">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9556,7 +9562,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7253980</v>
+        <v>7253982</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9565,64 +9571,58 @@
         <v>45243.39583333334</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>2</v>
-      </c>
-      <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" t="s">
         <v>84</v>
       </c>
       <c r="L98">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="M98">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N98">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O98">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="P98">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q98">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="R98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U98">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="X98">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y98">
         <v>-1</v>
@@ -9631,16 +9631,16 @@
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9740,7 +9740,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7253643</v>
+        <v>7253978</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -9749,79 +9749,79 @@
         <v>45244.39583333334</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F100" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G100">
         <v>2</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L100">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="M100">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N100">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O100">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="P100">
+        <v>3</v>
+      </c>
+      <c r="Q100">
         <v>3.6</v>
       </c>
-      <c r="Q100">
-        <v>9</v>
-      </c>
       <c r="R100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S100">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="U100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="W100">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="X100">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC100">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD100">
         <v>-1</v>
@@ -9924,7 +9924,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7253978</v>
+        <v>7253977</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9933,19 +9933,19 @@
         <v>45244.39583333334</v>
       </c>
       <c r="E102" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -9954,46 +9954,46 @@
         <v>86</v>
       </c>
       <c r="L102">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M102">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O102">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="P102">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q102">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="R102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="W102">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Z102">
         <v>-1</v>
@@ -10002,13 +10002,13 @@
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD102">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -10016,7 +10016,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7253977</v>
+        <v>7253643</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -10025,52 +10025,52 @@
         <v>45244.39583333334</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L103">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N103">
+        <v>4.2</v>
+      </c>
+      <c r="O103">
+        <v>1.4</v>
+      </c>
+      <c r="P103">
         <v>3.6</v>
       </c>
-      <c r="O103">
-        <v>1.5</v>
-      </c>
-      <c r="P103">
-        <v>3.5</v>
-      </c>
       <c r="Q103">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="R103">
         <v>-1</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T103">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="U103">
         <v>2.25</v>
@@ -10082,25 +10082,25 @@
         <v>1.725</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AD103">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10117,10 +10117,10 @@
         <v>45249.39583333334</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -10761,7 +10761,7 @@
         <v>45251.39583333334</v>
       </c>
       <c r="E111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
         <v>50</v>
@@ -11040,7 +11040,7 @@
         <v>44</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -11120,7 +11120,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7253967</v>
+        <v>7253966</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -11129,82 +11129,82 @@
         <v>45258.39583333334</v>
       </c>
       <c r="E115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L115">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="M115">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="O115">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="P115">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q115">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="R115">
+        <v>-0.75</v>
+      </c>
+      <c r="S115">
+        <v>1.875</v>
+      </c>
+      <c r="T115">
+        <v>1.925</v>
+      </c>
+      <c r="U115">
+        <v>2</v>
+      </c>
+      <c r="V115">
+        <v>1.775</v>
+      </c>
+      <c r="W115">
+        <v>2.025</v>
+      </c>
+      <c r="X115">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Y115">
+        <v>-1</v>
+      </c>
+      <c r="Z115">
+        <v>-1</v>
+      </c>
+      <c r="AA115">
+        <v>0.4375</v>
+      </c>
+      <c r="AB115">
         <v>-0.5</v>
       </c>
-      <c r="S115">
-        <v>2.05</v>
-      </c>
-      <c r="T115">
-        <v>1.75</v>
-      </c>
-      <c r="U115">
-        <v>2.25</v>
-      </c>
-      <c r="V115">
-        <v>2.025</v>
-      </c>
-      <c r="W115">
-        <v>1.775</v>
-      </c>
-      <c r="X115">
-        <v>-1</v>
-      </c>
-      <c r="Y115">
-        <v>2.2</v>
-      </c>
-      <c r="Z115">
-        <v>-1</v>
-      </c>
-      <c r="AA115">
-        <v>-1</v>
-      </c>
-      <c r="AB115">
-        <v>0.75</v>
-      </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD115">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11212,7 +11212,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7253966</v>
+        <v>7253967</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11221,82 +11221,82 @@
         <v>45258.39583333334</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G116">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L116">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <v>3.1</v>
+      </c>
+      <c r="O116">
+        <v>2</v>
+      </c>
+      <c r="P116">
+        <v>3.2</v>
+      </c>
+      <c r="Q116">
         <v>3.4</v>
       </c>
-      <c r="N116">
-        <v>4.5</v>
-      </c>
-      <c r="O116">
-        <v>1.65</v>
-      </c>
-      <c r="P116">
-        <v>3.3</v>
-      </c>
-      <c r="Q116">
-        <v>5</v>
-      </c>
       <c r="R116">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S116">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T116">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="U116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V116">
+        <v>2.025</v>
+      </c>
+      <c r="W116">
         <v>1.775</v>
       </c>
-      <c r="W116">
-        <v>2.025</v>
-      </c>
       <c r="X116">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
+        <v>0.75</v>
+      </c>
+      <c r="AC116">
         <v>-0.5</v>
       </c>
-      <c r="AC116">
-        <v>-1</v>
-      </c>
       <c r="AD116">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11313,7 +11313,7 @@
         <v>45259.39583333334</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
         <v>53</v>
@@ -11957,7 +11957,7 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F124" t="s">
         <v>41</v>
@@ -12049,7 +12049,7 @@
         <v>45264.39583333334</v>
       </c>
       <c r="E125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
         <v>49</v>
@@ -12782,7 +12782,7 @@
         <v>57</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -12856,7 +12856,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7253956</v>
+        <v>7580438</v>
       </c>
       <c r="C134" t="s">
         <v>29</v>
@@ -12865,46 +12865,40 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>1</v>
-      </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
-      <c r="J134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K134" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L134">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="M134">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N134">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O134">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="P134">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q134">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="R134">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S134">
         <v>1.95</v>
@@ -12916,28 +12910,28 @@
         <v>2.25</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W134">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
+        <v>1.5</v>
+      </c>
+      <c r="AA134">
+        <v>-1</v>
+      </c>
+      <c r="AB134">
         <v>0.8500000000000001</v>
       </c>
-      <c r="Y134">
-        <v>-1</v>
-      </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
-      <c r="AA134">
-        <v>0.95</v>
-      </c>
-      <c r="AB134">
-        <v>-1</v>
-      </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AD134">
         <v>-1</v>
@@ -12948,7 +12942,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7580438</v>
+        <v>7587389</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
@@ -12957,73 +12951,79 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
       </c>
       <c r="K135" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L135">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="M135">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N135">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O135">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="P135">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q135">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="R135">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S135">
+        <v>1.85</v>
+      </c>
+      <c r="T135">
         <v>1.95</v>
-      </c>
-      <c r="T135">
-        <v>1.85</v>
       </c>
       <c r="U135">
         <v>2.25</v>
       </c>
       <c r="V135">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z135">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
         <v>-1</v>
       </c>
       <c r="AB135">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC135">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD135">
         <v>-1</v>
@@ -13034,7 +13034,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7587389</v>
+        <v>7253956</v>
       </c>
       <c r="C136" t="s">
         <v>29</v>
@@ -13043,79 +13043,79 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G136">
         <v>2</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L136">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="M136">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N136">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O136">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="P136">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q136">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="R136">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
         <v>1.85</v>
-      </c>
-      <c r="T136">
-        <v>1.95</v>
       </c>
       <c r="U136">
         <v>2.25</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W136">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y136">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
         <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>0.95</v>
-      </c>
-      <c r="AC136">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AD136">
         <v>-1</v>
@@ -13218,7 +13218,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7558451</v>
+        <v>7253957</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -13227,82 +13227,82 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F138" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L138">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M138">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N138">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O138">
-        <v>2.05</v>
+        <v>2.375</v>
       </c>
       <c r="P138">
         <v>3</v>
       </c>
       <c r="Q138">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="R138">
         <v>-0.25</v>
       </c>
       <c r="S138">
+        <v>2.075</v>
+      </c>
+      <c r="T138">
         <v>1.725</v>
       </c>
-      <c r="T138">
-        <v>1.975</v>
-      </c>
       <c r="U138">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V138">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.3625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD138">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13319,7 +13319,7 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
         <v>45</v>
@@ -13402,7 +13402,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7253957</v>
+        <v>7558451</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
@@ -13411,82 +13411,82 @@
         <v>45274.39583333334</v>
       </c>
       <c r="E140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L140">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="M140">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N140">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O140">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="P140">
         <v>3</v>
       </c>
       <c r="Q140">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="R140">
         <v>-0.25</v>
       </c>
       <c r="S140">
-        <v>2.075</v>
+        <v>1.725</v>
       </c>
       <c r="T140">
+        <v>1.975</v>
+      </c>
+      <c r="U140">
+        <v>1.75</v>
+      </c>
+      <c r="V140">
         <v>1.725</v>
       </c>
-      <c r="U140">
-        <v>2.25</v>
-      </c>
-      <c r="V140">
-        <v>1.9</v>
-      </c>
       <c r="W140">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X140">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="AA140">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>0.3625</v>
       </c>
       <c r="AD140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13862,7 +13862,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7253954</v>
+        <v>7253690</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -13871,64 +13871,64 @@
         <v>45278.39583333334</v>
       </c>
       <c r="E145" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="s">
         <v>84</v>
       </c>
       <c r="L145">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="M145">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N145">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="P145">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q145">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="R145">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S145">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T145">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="U145">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W145">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="X145">
-        <v>0.6499999999999999</v>
+        <v>2</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13937,13 +13937,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.4625</v>
+        <v>1.075</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AD145">
         <v>-1</v>
@@ -13954,7 +13954,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7253953</v>
+        <v>7253954</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -13963,19 +13963,19 @@
         <v>45278.39583333334</v>
       </c>
       <c r="E146" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J146">
         <v>1</v>
@@ -13984,43 +13984,43 @@
         <v>84</v>
       </c>
       <c r="L146">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="M146">
         <v>3.2</v>
       </c>
       <c r="N146">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O146">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="P146">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q146">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="R146">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T146">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U146">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="V146">
+        <v>1.875</v>
+      </c>
+      <c r="W146">
         <v>1.925</v>
       </c>
-      <c r="W146">
-        <v>1.875</v>
-      </c>
       <c r="X146">
-        <v>1.1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -14029,13 +14029,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AD146">
         <v>-1</v>
@@ -14046,7 +14046,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7253690</v>
+        <v>7253953</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -14055,10 +14055,10 @@
         <v>45278.39583333334</v>
       </c>
       <c r="E147" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147">
         <v>2</v>
@@ -14070,49 +14070,49 @@
         <v>1</v>
       </c>
       <c r="J147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K147" t="s">
         <v>84</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="M147">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147">
         <v>2.1</v>
       </c>
-      <c r="O147">
+      <c r="P147">
         <v>3</v>
       </c>
-      <c r="P147">
-        <v>2.625</v>
-      </c>
       <c r="Q147">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="R147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S147">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V147">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W147">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="X147">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
@@ -14121,13 +14121,13 @@
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AD147">
         <v>-1</v>
@@ -14147,7 +14147,7 @@
         <v>45279.375</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F148" t="s">
         <v>46</v>
@@ -14334,7 +14334,7 @@
         <v>53</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -14426,7 +14426,7 @@
         <v>43</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -14880,7 +14880,7 @@
         <v>35</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -14969,7 +14969,7 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E157" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F157" t="s">
         <v>47</v>
@@ -15061,7 +15061,7 @@
         <v>45287.39583333334</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F158" t="s">
         <v>57</v>
@@ -15705,10 +15705,10 @@
         <v>45293.39583333334</v>
       </c>
       <c r="E165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -16260,7 +16260,7 @@
         <v>45</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -16524,7 +16524,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7253939</v>
+        <v>7253938</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16533,16 +16533,16 @@
         <v>45299.39583333334</v>
       </c>
       <c r="E174" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -16554,40 +16554,40 @@
         <v>85</v>
       </c>
       <c r="L174">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M174">
         <v>3.4</v>
       </c>
       <c r="N174">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O174">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P174">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q174">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="R174">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S174">
+        <v>1.775</v>
+      </c>
+      <c r="T174">
+        <v>2.025</v>
+      </c>
+      <c r="U174">
+        <v>2.25</v>
+      </c>
+      <c r="V174">
         <v>1.8</v>
       </c>
-      <c r="T174">
-        <v>2</v>
-      </c>
-      <c r="U174">
-        <v>2.5</v>
-      </c>
-      <c r="V174">
-        <v>2</v>
-      </c>
       <c r="W174">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -16596,19 +16596,19 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.95</v>
+        <v>0.571</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AD174">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -16708,7 +16708,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7253938</v>
+        <v>7253940</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16717,16 +16717,16 @@
         <v>45299.39583333334</v>
       </c>
       <c r="E176" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -16735,64 +16735,64 @@
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L176">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="M176">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N176">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O176">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="P176">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q176">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="R176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S176">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T176">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U176">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V176">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="W176">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z176">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB176">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AD176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -16800,7 +16800,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7253940</v>
+        <v>7253939</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16809,13 +16809,13 @@
         <v>45299.39583333334</v>
       </c>
       <c r="E177" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F177" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16827,64 +16827,64 @@
         <v>0</v>
       </c>
       <c r="K177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L177">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N177">
+        <v>1.833</v>
+      </c>
+      <c r="O177">
+        <v>3.25</v>
+      </c>
+      <c r="P177">
+        <v>3.4</v>
+      </c>
+      <c r="Q177">
+        <v>1.95</v>
+      </c>
+      <c r="R177">
+        <v>0.5</v>
+      </c>
+      <c r="S177">
+        <v>1.8</v>
+      </c>
+      <c r="T177">
+        <v>2</v>
+      </c>
+      <c r="U177">
         <v>2.5</v>
       </c>
-      <c r="O177">
-        <v>2.7</v>
-      </c>
-      <c r="P177">
-        <v>2.7</v>
-      </c>
-      <c r="Q177">
-        <v>2.8</v>
-      </c>
-      <c r="R177">
-        <v>0</v>
-      </c>
-      <c r="S177">
-        <v>1.85</v>
-      </c>
-      <c r="T177">
-        <v>1.95</v>
-      </c>
-      <c r="U177">
-        <v>1.75</v>
-      </c>
       <c r="V177">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC177">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AD177">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -16984,7 +16984,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7254179</v>
+        <v>7253937</v>
       </c>
       <c r="C179" t="s">
         <v>29</v>
@@ -16993,46 +16993,46 @@
         <v>45300.39583333334</v>
       </c>
       <c r="E179" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F179" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K179" t="s">
         <v>86</v>
       </c>
       <c r="L179">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="M179">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N179">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O179">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="P179">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q179">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="R179">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="S179">
         <v>1.975</v>
@@ -17044,31 +17044,31 @@
         <v>2</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W179">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>2.3</v>
+        <v>1.625</v>
       </c>
       <c r="Z179">
         <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB179">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC179">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD179">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -17076,7 +17076,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7253937</v>
+        <v>7253660</v>
       </c>
       <c r="C180" t="s">
         <v>29</v>
@@ -17085,16 +17085,16 @@
         <v>45300.39583333334</v>
       </c>
       <c r="E180" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F180" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -17106,61 +17106,61 @@
         <v>86</v>
       </c>
       <c r="L180">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="M180">
+        <v>3</v>
+      </c>
+      <c r="N180">
+        <v>3.4</v>
+      </c>
+      <c r="O180">
         <v>2.7</v>
       </c>
-      <c r="N180">
-        <v>2.6</v>
-      </c>
-      <c r="O180">
-        <v>3.8</v>
-      </c>
       <c r="P180">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="Q180">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="R180">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S180">
+        <v>2.05</v>
+      </c>
+      <c r="T180">
+        <v>1.75</v>
+      </c>
+      <c r="U180">
+        <v>2.25</v>
+      </c>
+      <c r="V180">
         <v>1.975</v>
       </c>
-      <c r="T180">
+      <c r="W180">
         <v>1.825</v>
       </c>
-      <c r="U180">
-        <v>2</v>
-      </c>
-      <c r="V180">
-        <v>1.85</v>
-      </c>
-      <c r="W180">
-        <v>1.95</v>
-      </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>1.625</v>
+        <v>1.9</v>
       </c>
       <c r="Z180">
         <v>-1</v>
       </c>
       <c r="AA180">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB180">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC180">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD180">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -17168,7 +17168,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7253660</v>
+        <v>7254179</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17177,82 +17177,82 @@
         <v>45300.39583333334</v>
       </c>
       <c r="E181" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181" t="s">
         <v>86</v>
       </c>
       <c r="L181">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="M181">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N181">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O181">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="P181">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="Q181">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="R181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S181">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T181">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U181">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V181">
+        <v>1.825</v>
+      </c>
+      <c r="W181">
         <v>1.975</v>
       </c>
-      <c r="W181">
-        <v>1.825</v>
-      </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD181">
-        <v>0.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -17361,7 +17361,7 @@
         <v>45301.39583333334</v>
       </c>
       <c r="E183" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F183" t="s">
         <v>43</v>
@@ -17444,7 +17444,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7253933</v>
+        <v>7253934</v>
       </c>
       <c r="C184" t="s">
         <v>29</v>
@@ -17453,82 +17453,82 @@
         <v>45306.375</v>
       </c>
       <c r="E184" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F184" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J184">
         <v>0</v>
       </c>
       <c r="K184" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L184">
+        <v>2.35</v>
+      </c>
+      <c r="M184">
+        <v>2.8</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184">
+        <v>2.4</v>
+      </c>
+      <c r="P184">
+        <v>2.8</v>
+      </c>
+      <c r="Q184">
+        <v>2.9</v>
+      </c>
+      <c r="R184">
+        <v>-0.25</v>
+      </c>
+      <c r="S184">
+        <v>2.025</v>
+      </c>
+      <c r="T184">
+        <v>1.775</v>
+      </c>
+      <c r="U184">
+        <v>2</v>
+      </c>
+      <c r="V184">
+        <v>1.975</v>
+      </c>
+      <c r="W184">
+        <v>1.825</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
         <v>1.8</v>
       </c>
-      <c r="M184">
-        <v>3.1</v>
-      </c>
-      <c r="N184">
-        <v>4.2</v>
-      </c>
-      <c r="O184">
-        <v>1.7</v>
-      </c>
-      <c r="P184">
-        <v>3.5</v>
-      </c>
-      <c r="Q184">
-        <v>4</v>
-      </c>
-      <c r="R184">
-        <v>-0.75</v>
-      </c>
-      <c r="S184">
-        <v>1.975</v>
-      </c>
-      <c r="T184">
-        <v>1.825</v>
-      </c>
-      <c r="U184">
-        <v>2.25</v>
-      </c>
-      <c r="V184">
-        <v>2</v>
-      </c>
-      <c r="W184">
-        <v>1.8</v>
-      </c>
-      <c r="X184">
-        <v>0.7</v>
-      </c>
-      <c r="Y184">
-        <v>-1</v>
-      </c>
       <c r="Z184">
         <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD184">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17536,7 +17536,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7253662</v>
+        <v>7253933</v>
       </c>
       <c r="C185" t="s">
         <v>29</v>
@@ -17545,58 +17545,64 @@
         <v>45306.375</v>
       </c>
       <c r="E185" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G185">
         <v>2</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
       </c>
       <c r="K185" t="s">
         <v>84</v>
       </c>
       <c r="L185">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="M185">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N185">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="O185">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="P185">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q185">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="R185">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S185">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="U185">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V185">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W185">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X185">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="Y185">
         <v>-1</v>
@@ -17605,16 +17611,16 @@
         <v>-1</v>
       </c>
       <c r="AA185">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AD185">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17622,7 +17628,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7253663</v>
+        <v>7253662</v>
       </c>
       <c r="C186" t="s">
         <v>29</v>
@@ -17631,64 +17637,58 @@
         <v>45306.375</v>
       </c>
       <c r="E186" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F186" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186">
-        <v>0</v>
-      </c>
-      <c r="I186">
-        <v>0</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K186" t="s">
         <v>84</v>
       </c>
       <c r="L186">
-        <v>1.363</v>
+        <v>2.75</v>
       </c>
       <c r="M186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N186">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="O186">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="P186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q186">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="R186">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T186">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="U186">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="V186">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W186">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X186">
-        <v>0.3999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="Y186">
         <v>-1</v>
@@ -17697,16 +17697,16 @@
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB186">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD186">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -17714,7 +17714,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7253934</v>
+        <v>7253936</v>
       </c>
       <c r="C187" t="s">
         <v>29</v>
@@ -17723,10 +17723,10 @@
         <v>45306.375</v>
       </c>
       <c r="E187" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F187" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -17744,46 +17744,46 @@
         <v>86</v>
       </c>
       <c r="L187">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="M187">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N187">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O187">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="P187">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="Q187">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="R187">
         <v>-0.25</v>
       </c>
       <c r="S187">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U187">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="X187">
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z187">
         <v>-1</v>
@@ -17792,13 +17792,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>0.3875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC187">
         <v>-1</v>
       </c>
       <c r="AD187">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -17806,7 +17806,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7253936</v>
+        <v>7253664</v>
       </c>
       <c r="C188" t="s">
         <v>29</v>
@@ -17815,82 +17815,76 @@
         <v>45306.375</v>
       </c>
       <c r="E188" t="s">
+        <v>47</v>
+      </c>
+      <c r="F188" t="s">
         <v>30</v>
       </c>
-      <c r="F188" t="s">
-        <v>41</v>
-      </c>
       <c r="G188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>0</v>
-      </c>
-      <c r="I188">
-        <v>0</v>
-      </c>
-      <c r="J188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K188" t="s">
         <v>86</v>
       </c>
       <c r="L188">
+        <v>2.875</v>
+      </c>
+      <c r="M188">
+        <v>3</v>
+      </c>
+      <c r="N188">
+        <v>2.3</v>
+      </c>
+      <c r="O188">
+        <v>2.55</v>
+      </c>
+      <c r="P188">
+        <v>3.1</v>
+      </c>
+      <c r="Q188">
+        <v>2.55</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>1.9</v>
+      </c>
+      <c r="T188">
+        <v>1.9</v>
+      </c>
+      <c r="U188">
+        <v>2</v>
+      </c>
+      <c r="V188">
+        <v>2.05</v>
+      </c>
+      <c r="W188">
+        <v>1.75</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>2.1</v>
       </c>
-      <c r="M188">
-        <v>3.1</v>
-      </c>
-      <c r="N188">
-        <v>3.2</v>
-      </c>
-      <c r="O188">
-        <v>2</v>
-      </c>
-      <c r="P188">
-        <v>3.2</v>
-      </c>
-      <c r="Q188">
-        <v>3.4</v>
-      </c>
-      <c r="R188">
-        <v>-0.25</v>
-      </c>
-      <c r="S188">
-        <v>1.825</v>
-      </c>
-      <c r="T188">
-        <v>1.975</v>
-      </c>
-      <c r="U188">
-        <v>2.25</v>
-      </c>
-      <c r="V188">
-        <v>1.85</v>
-      </c>
-      <c r="W188">
-        <v>1.95</v>
-      </c>
-      <c r="X188">
-        <v>-1</v>
-      </c>
-      <c r="Y188">
-        <v>2.2</v>
-      </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB188">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD188">
-        <v>0.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -17910,7 +17904,7 @@
         <v>48</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -18082,7 +18076,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7253664</v>
+        <v>7253663</v>
       </c>
       <c r="C191" t="s">
         <v>29</v>
@@ -18091,76 +18085,82 @@
         <v>45306.375</v>
       </c>
       <c r="E191" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
       </c>
       <c r="K191" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L191">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="M191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O191">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="P191">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q191">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="R191">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="S191">
+        <v>1.975</v>
+      </c>
+      <c r="T191">
+        <v>1.825</v>
+      </c>
+      <c r="U191">
+        <v>2.5</v>
+      </c>
+      <c r="V191">
         <v>1.9</v>
       </c>
-      <c r="T191">
+      <c r="W191">
         <v>1.9</v>
       </c>
-      <c r="U191">
-        <v>2</v>
-      </c>
-      <c r="V191">
-        <v>2.05</v>
-      </c>
-      <c r="W191">
-        <v>1.75</v>
-      </c>
       <c r="X191">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y191">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC191">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD191">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18269,7 +18269,7 @@
         <v>45313.375</v>
       </c>
       <c r="E193" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F193" t="s">
         <v>52</v>
@@ -18352,7 +18352,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7253694</v>
+        <v>7254184</v>
       </c>
       <c r="C194" t="s">
         <v>29</v>
@@ -18361,64 +18361,64 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E194" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F194" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G194">
         <v>2</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K194" t="s">
         <v>84</v>
       </c>
       <c r="L194">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="M194">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="N194">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O194">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P194">
         <v>3.2</v>
       </c>
       <c r="Q194">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="R194">
         <v>-0.5</v>
       </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T194">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U194">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V194">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W194">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X194">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y194">
         <v>-1</v>
@@ -18427,16 +18427,16 @@
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.3875</v>
+        <v>0.95</v>
       </c>
       <c r="AD194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -18444,7 +18444,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7253931</v>
+        <v>7253694</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
@@ -18453,19 +18453,19 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E195" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G195">
         <v>2</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -18474,43 +18474,43 @@
         <v>84</v>
       </c>
       <c r="L195">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="M195">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N195">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="O195">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="P195">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q195">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="R195">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S195">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U195">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V195">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W195">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X195">
-        <v>0.444</v>
+        <v>1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -18519,16 +18519,16 @@
         <v>-1</v>
       </c>
       <c r="AA195">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>0.3875</v>
+      </c>
+      <c r="AD195">
         <v>-0.5</v>
-      </c>
-      <c r="AB195">
-        <v>0.4</v>
-      </c>
-      <c r="AC195">
-        <v>0.8</v>
-      </c>
-      <c r="AD195">
-        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18720,7 +18720,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7254184</v>
+        <v>7253931</v>
       </c>
       <c r="C198" t="s">
         <v>29</v>
@@ -18729,10 +18729,10 @@
         <v>45313.39583333334</v>
       </c>
       <c r="E198" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F198" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -18744,64 +18744,64 @@
         <v>1</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K198" t="s">
         <v>84</v>
       </c>
       <c r="L198">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="M198">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N198">
+        <v>6</v>
+      </c>
+      <c r="O198">
+        <v>1.444</v>
+      </c>
+      <c r="P198">
         <v>4</v>
       </c>
-      <c r="O198">
+      <c r="Q198">
+        <v>6</v>
+      </c>
+      <c r="R198">
+        <v>-1.25</v>
+      </c>
+      <c r="S198">
+        <v>2</v>
+      </c>
+      <c r="T198">
         <v>1.8</v>
       </c>
-      <c r="P198">
-        <v>3.2</v>
-      </c>
-      <c r="Q198">
-        <v>4</v>
-      </c>
-      <c r="R198">
+      <c r="U198">
+        <v>2.25</v>
+      </c>
+      <c r="V198">
+        <v>1.8</v>
+      </c>
+      <c r="W198">
+        <v>2</v>
+      </c>
+      <c r="X198">
+        <v>0.444</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
         <v>-0.5</v>
       </c>
-      <c r="S198">
-        <v>1.875</v>
-      </c>
-      <c r="T198">
-        <v>1.925</v>
-      </c>
-      <c r="U198">
-        <v>2</v>
-      </c>
-      <c r="V198">
-        <v>1.95</v>
-      </c>
-      <c r="W198">
-        <v>1.85</v>
-      </c>
-      <c r="X198">
+      <c r="AB198">
+        <v>0.4</v>
+      </c>
+      <c r="AC198">
         <v>0.8</v>
-      </c>
-      <c r="Y198">
-        <v>-1</v>
-      </c>
-      <c r="Z198">
-        <v>-1</v>
-      </c>
-      <c r="AA198">
-        <v>0.875</v>
-      </c>
-      <c r="AB198">
-        <v>-1</v>
-      </c>
-      <c r="AC198">
-        <v>0.95</v>
       </c>
       <c r="AD198">
         <v>-1</v>
@@ -19281,7 +19281,7 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F204" t="s">
         <v>53</v>
@@ -19364,7 +19364,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7253923</v>
+        <v>7253927</v>
       </c>
       <c r="C205" t="s">
         <v>29</v>
@@ -19373,13 +19373,13 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E205" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F205" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -19391,49 +19391,49 @@
         <v>0</v>
       </c>
       <c r="K205" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L205">
-        <v>2.45</v>
+        <v>1.444</v>
       </c>
       <c r="M205">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="N205">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O205">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="P205">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q205">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="R205">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S205">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T205">
         <v>1.75</v>
       </c>
       <c r="U205">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V205">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W205">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y205">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
         <v>-1</v>
@@ -19448,7 +19448,7 @@
         <v>-1</v>
       </c>
       <c r="AD205">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -19456,7 +19456,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7253927</v>
+        <v>7253923</v>
       </c>
       <c r="C206" t="s">
         <v>29</v>
@@ -19465,13 +19465,13 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E206" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -19483,49 +19483,49 @@
         <v>0</v>
       </c>
       <c r="K206" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L206">
-        <v>1.444</v>
+        <v>2.45</v>
       </c>
       <c r="M206">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="N206">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O206">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="P206">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q206">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="R206">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T206">
         <v>1.75</v>
       </c>
       <c r="U206">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V206">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W206">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="X206">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z206">
         <v>-1</v>
@@ -19540,7 +19540,7 @@
         <v>-1</v>
       </c>
       <c r="AD206">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:30">
@@ -19548,7 +19548,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7253926</v>
+        <v>7253668</v>
       </c>
       <c r="C207" t="s">
         <v>29</v>
@@ -19557,76 +19557,82 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E207" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
       </c>
       <c r="K207" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L207">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="M207">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N207">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="O207">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="P207">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q207">
-        <v>2.8</v>
+        <v>5.25</v>
       </c>
       <c r="R207">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S207">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T207">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="U207">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W207">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB207">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC207">
         <v>-1</v>
       </c>
       <c r="AD207">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -19634,7 +19640,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7253669</v>
+        <v>7253926</v>
       </c>
       <c r="C208" t="s">
         <v>29</v>
@@ -19643,82 +19649,76 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E208" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F208" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <v>0</v>
-      </c>
-      <c r="I208">
-        <v>1</v>
-      </c>
-      <c r="J208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K208" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L208">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="M208">
+        <v>2.7</v>
+      </c>
+      <c r="N208">
+        <v>2.9</v>
+      </c>
+      <c r="O208">
+        <v>2.375</v>
+      </c>
+      <c r="P208">
         <v>3</v>
       </c>
-      <c r="N208">
-        <v>5</v>
-      </c>
-      <c r="O208">
-        <v>1.533</v>
-      </c>
-      <c r="P208">
-        <v>3.3</v>
-      </c>
       <c r="Q208">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="R208">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S208">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T208">
+        <v>1.725</v>
+      </c>
+      <c r="U208">
+        <v>1.5</v>
+      </c>
+      <c r="V208">
+        <v>1.7</v>
+      </c>
+      <c r="W208">
+        <v>2.1</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
         <v>1.8</v>
       </c>
-      <c r="U208">
-        <v>2</v>
-      </c>
-      <c r="V208">
-        <v>1.925</v>
-      </c>
-      <c r="W208">
-        <v>1.875</v>
-      </c>
-      <c r="X208">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="Y208">
-        <v>-1</v>
-      </c>
-      <c r="Z208">
-        <v>-1</v>
-      </c>
       <c r="AA208">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD208">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -19726,7 +19726,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7757379</v>
+        <v>7253669</v>
       </c>
       <c r="C209" t="s">
         <v>29</v>
@@ -19735,82 +19735,82 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E209" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209">
         <v>0</v>
       </c>
       <c r="K209" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L209">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="M209">
         <v>3</v>
       </c>
       <c r="N209">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="O209">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="P209">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q209">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="R209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S209">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T209">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="U209">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W209">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB209">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD209">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -19818,7 +19818,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7253668</v>
+        <v>7757379</v>
       </c>
       <c r="C210" t="s">
         <v>29</v>
@@ -19827,82 +19827,82 @@
         <v>45320.39583333334</v>
       </c>
       <c r="E210" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F210" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210">
         <v>0</v>
       </c>
       <c r="K210" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L210">
-        <v>1.533</v>
+        <v>2.2</v>
       </c>
       <c r="M210">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N210">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="O210">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="P210">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q210">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="R210">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S210">
+        <v>1.75</v>
+      </c>
+      <c r="T210">
+        <v>2.05</v>
+      </c>
+      <c r="U210">
+        <v>2.25</v>
+      </c>
+      <c r="V210">
+        <v>2</v>
+      </c>
+      <c r="W210">
         <v>1.8</v>
       </c>
-      <c r="T210">
-        <v>2</v>
-      </c>
-      <c r="U210">
-        <v>2</v>
-      </c>
-      <c r="V210">
+      <c r="X210">
+        <v>-1</v>
+      </c>
+      <c r="Y210">
+        <v>-1</v>
+      </c>
+      <c r="Z210">
         <v>1.75</v>
       </c>
-      <c r="W210">
-        <v>2.05</v>
-      </c>
-      <c r="X210">
-        <v>0.571</v>
-      </c>
-      <c r="Y210">
-        <v>-1</v>
-      </c>
-      <c r="Z210">
-        <v>-1</v>
-      </c>
       <c r="AA210">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC210">
         <v>-1</v>
       </c>
       <c r="AD210">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -19919,7 +19919,7 @@
         <v>45334.41666666666</v>
       </c>
       <c r="E211" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F211" t="s">
         <v>43</v>
@@ -20014,7 +20014,7 @@
         <v>51</v>
       </c>
       <c r="F212" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -20370,7 +20370,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7822122</v>
+        <v>7777498</v>
       </c>
       <c r="C216" t="s">
         <v>29</v>
@@ -20379,16 +20379,16 @@
         <v>45335.41666666666</v>
       </c>
       <c r="E216" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I216">
         <v>0</v>
@@ -20397,64 +20397,64 @@
         <v>0</v>
       </c>
       <c r="K216" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L216">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="M216">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N216">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O216">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="P216">
         <v>2.9</v>
       </c>
       <c r="Q216">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="R216">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S216">
+        <v>1.975</v>
+      </c>
+      <c r="T216">
+        <v>1.825</v>
+      </c>
+      <c r="U216">
+        <v>2</v>
+      </c>
+      <c r="V216">
         <v>2.025</v>
       </c>
-      <c r="T216">
+      <c r="W216">
         <v>1.775</v>
       </c>
-      <c r="U216">
-        <v>1.75</v>
-      </c>
-      <c r="V216">
-        <v>1.775</v>
-      </c>
-      <c r="W216">
-        <v>2.025</v>
-      </c>
       <c r="X216">
         <v>-1</v>
       </c>
       <c r="Y216">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA216">
         <v>-1</v>
       </c>
       <c r="AB216">
+        <v>0.825</v>
+      </c>
+      <c r="AC216">
+        <v>-1</v>
+      </c>
+      <c r="AD216">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AC216">
-        <v>-1</v>
-      </c>
-      <c r="AD216">
-        <v>1.025</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20462,7 +20462,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7777498</v>
+        <v>7777536</v>
       </c>
       <c r="C217" t="s">
         <v>29</v>
@@ -20471,82 +20471,82 @@
         <v>45335.41666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F217" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K217" t="s">
         <v>85</v>
       </c>
       <c r="L217">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="M217">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N217">
+        <v>2.75</v>
+      </c>
+      <c r="O217">
+        <v>2.8</v>
+      </c>
+      <c r="P217">
+        <v>2.7</v>
+      </c>
+      <c r="Q217">
+        <v>2.8</v>
+      </c>
+      <c r="R217">
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <v>1.9</v>
+      </c>
+      <c r="T217">
+        <v>1.9</v>
+      </c>
+      <c r="U217">
+        <v>1.75</v>
+      </c>
+      <c r="V217">
+        <v>1.975</v>
+      </c>
+      <c r="W217">
+        <v>1.825</v>
+      </c>
+      <c r="X217">
+        <v>-1</v>
+      </c>
+      <c r="Y217">
+        <v>-1</v>
+      </c>
+      <c r="Z217">
         <v>1.8</v>
       </c>
-      <c r="O217">
-        <v>5</v>
-      </c>
-      <c r="P217">
-        <v>2.9</v>
-      </c>
-      <c r="Q217">
-        <v>1.8</v>
-      </c>
-      <c r="R217">
-        <v>0.5</v>
-      </c>
-      <c r="S217">
-        <v>1.975</v>
-      </c>
-      <c r="T217">
-        <v>1.825</v>
-      </c>
-      <c r="U217">
-        <v>2</v>
-      </c>
-      <c r="V217">
-        <v>2.025</v>
-      </c>
-      <c r="W217">
-        <v>1.775</v>
-      </c>
-      <c r="X217">
-        <v>-1</v>
-      </c>
-      <c r="Y217">
-        <v>-1</v>
-      </c>
-      <c r="Z217">
-        <v>0.8</v>
-      </c>
       <c r="AA217">
         <v>-1</v>
       </c>
       <c r="AB217">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC217">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD217">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20554,7 +20554,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7777536</v>
+        <v>7777500</v>
       </c>
       <c r="C218" t="s">
         <v>29</v>
@@ -20563,61 +20563,61 @@
         <v>45335.41666666666</v>
       </c>
       <c r="E218" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F218" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K218" t="s">
         <v>85</v>
       </c>
       <c r="L218">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="M218">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N218">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="O218">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="P218">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q218">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="R218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T218">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U218">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V218">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W218">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="X218">
         <v>-1</v>
@@ -20626,19 +20626,19 @@
         <v>-1</v>
       </c>
       <c r="Z218">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="AA218">
         <v>-1</v>
       </c>
       <c r="AB218">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC218">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD218">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -20646,7 +20646,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7777500</v>
+        <v>7822122</v>
       </c>
       <c r="C219" t="s">
         <v>29</v>
@@ -20655,16 +20655,16 @@
         <v>45335.41666666666</v>
       </c>
       <c r="E219" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F219" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -20673,64 +20673,64 @@
         <v>0</v>
       </c>
       <c r="K219" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L219">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="M219">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N219">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O219">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="P219">
+        <v>2.9</v>
+      </c>
+      <c r="Q219">
         <v>3.8</v>
       </c>
-      <c r="Q219">
-        <v>5</v>
-      </c>
       <c r="R219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="S219">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T219">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="U219">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="V219">
         <v>1.775</v>
       </c>
       <c r="W219">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z219">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
         <v>-1</v>
       </c>
       <c r="AB219">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC219">
         <v>-1</v>
       </c>
       <c r="AD219">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -20750,7 +20750,7 @@
         <v>38</v>
       </c>
       <c r="F220" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G220">
         <v>1</v>
@@ -20839,7 +20839,7 @@
         <v>45339.41666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F221" t="s">
         <v>41</v>
@@ -21210,7 +21210,7 @@
         <v>57</v>
       </c>
       <c r="F225" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -21845,7 +21845,7 @@
         <v>45346.41666666666</v>
       </c>
       <c r="E232" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F232" t="s">
         <v>46</v>
@@ -21940,7 +21940,7 @@
         <v>35</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G233">
         <v>3</v>
@@ -22480,7 +22480,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7777468</v>
+        <v>7777469</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -22489,16 +22489,16 @@
         <v>45352.4375</v>
       </c>
       <c r="E239" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F239" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G239">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -22507,64 +22507,64 @@
         <v>0</v>
       </c>
       <c r="K239" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L239">
+        <v>2.1</v>
+      </c>
+      <c r="M239">
+        <v>2.8</v>
+      </c>
+      <c r="N239">
+        <v>3.5</v>
+      </c>
+      <c r="O239">
+        <v>1.833</v>
+      </c>
+      <c r="P239">
         <v>3.1</v>
       </c>
-      <c r="M239">
-        <v>2.9</v>
-      </c>
-      <c r="N239">
-        <v>2.25</v>
-      </c>
-      <c r="O239">
-        <v>3.2</v>
-      </c>
-      <c r="P239">
-        <v>3</v>
-      </c>
       <c r="Q239">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="R239">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S239">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T239">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U239">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V239">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W239">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="X239">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y239">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
         <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AD239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:30">
@@ -22572,7 +22572,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7777469</v>
+        <v>7777468</v>
       </c>
       <c r="C240" t="s">
         <v>29</v>
@@ -22581,82 +22581,82 @@
         <v>45352.4375</v>
       </c>
       <c r="E240" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F240" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240" t="s">
+        <v>86</v>
+      </c>
+      <c r="L240">
+        <v>3.1</v>
+      </c>
+      <c r="M240">
+        <v>2.9</v>
+      </c>
+      <c r="N240">
+        <v>2.25</v>
+      </c>
+      <c r="O240">
+        <v>3.2</v>
+      </c>
+      <c r="P240">
         <v>3</v>
       </c>
-      <c r="H240">
-        <v>0</v>
-      </c>
-      <c r="I240">
-        <v>1</v>
-      </c>
-      <c r="J240">
-        <v>0</v>
-      </c>
-      <c r="K240" t="s">
-        <v>84</v>
-      </c>
-      <c r="L240">
-        <v>2.1</v>
-      </c>
-      <c r="M240">
-        <v>2.8</v>
-      </c>
-      <c r="N240">
-        <v>3.5</v>
-      </c>
-      <c r="O240">
-        <v>1.833</v>
-      </c>
-      <c r="P240">
-        <v>3.1</v>
-      </c>
       <c r="Q240">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="R240">
+        <v>0.25</v>
+      </c>
+      <c r="S240">
+        <v>1.9</v>
+      </c>
+      <c r="T240">
+        <v>1.9</v>
+      </c>
+      <c r="U240">
+        <v>1.75</v>
+      </c>
+      <c r="V240">
+        <v>1.925</v>
+      </c>
+      <c r="W240">
+        <v>1.875</v>
+      </c>
+      <c r="X240">
+        <v>-1</v>
+      </c>
+      <c r="Y240">
+        <v>2</v>
+      </c>
+      <c r="Z240">
+        <v>-1</v>
+      </c>
+      <c r="AA240">
+        <v>0.45</v>
+      </c>
+      <c r="AB240">
         <v>-0.5</v>
       </c>
-      <c r="S240">
-        <v>1.85</v>
-      </c>
-      <c r="T240">
-        <v>1.95</v>
-      </c>
-      <c r="U240">
-        <v>2</v>
-      </c>
-      <c r="V240">
-        <v>1.95</v>
-      </c>
-      <c r="W240">
-        <v>1.85</v>
-      </c>
-      <c r="X240">
-        <v>0.833</v>
-      </c>
-      <c r="Y240">
-        <v>-1</v>
-      </c>
-      <c r="Z240">
-        <v>-1</v>
-      </c>
-      <c r="AA240">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB240">
-        <v>-1</v>
-      </c>
       <c r="AC240">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AD240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:30">
@@ -22676,7 +22676,7 @@
         <v>52</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -22940,7 +22940,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7777513</v>
+        <v>7915120</v>
       </c>
       <c r="C244" t="s">
         <v>29</v>
@@ -22949,19 +22949,19 @@
         <v>45356.4375</v>
       </c>
       <c r="E244" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F244" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="G244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244">
         <v>0</v>
@@ -22970,43 +22970,43 @@
         <v>84</v>
       </c>
       <c r="L244">
-        <v>1.55</v>
+        <v>2.625</v>
       </c>
       <c r="M244">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N244">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="O244">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="P244">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q244">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="R244">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="S244">
+        <v>2</v>
+      </c>
+      <c r="T244">
+        <v>1.7</v>
+      </c>
+      <c r="U244">
+        <v>2</v>
+      </c>
+      <c r="V244">
         <v>1.975</v>
       </c>
-      <c r="T244">
-        <v>1.825</v>
-      </c>
-      <c r="U244">
-        <v>2</v>
-      </c>
-      <c r="V244">
-        <v>1.875</v>
-      </c>
       <c r="W244">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="X244">
-        <v>0.5329999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="Y244">
         <v>-1</v>
@@ -23015,16 +23015,16 @@
         <v>-1</v>
       </c>
       <c r="AA244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC244">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD244">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:30">
@@ -23032,7 +23032,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7777512</v>
+        <v>7777514</v>
       </c>
       <c r="C245" t="s">
         <v>29</v>
@@ -23041,19 +23041,19 @@
         <v>45356.4375</v>
       </c>
       <c r="E245" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="F245" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G245">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245">
         <v>0</v>
@@ -23062,43 +23062,43 @@
         <v>84</v>
       </c>
       <c r="L245">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M245">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N245">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O245">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P245">
         <v>3</v>
       </c>
       <c r="Q245">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="R245">
         <v>-0.5</v>
       </c>
       <c r="S245">
+        <v>1.75</v>
+      </c>
+      <c r="T245">
         <v>1.95</v>
       </c>
-      <c r="T245">
-        <v>1.85</v>
-      </c>
       <c r="U245">
         <v>2</v>
       </c>
       <c r="V245">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W245">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="X245">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="Y245">
         <v>-1</v>
@@ -23107,13 +23107,13 @@
         <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AB245">
         <v>-1</v>
       </c>
       <c r="AC245">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AD245">
         <v>-1</v>
@@ -23124,7 +23124,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>7915120</v>
+        <v>7777513</v>
       </c>
       <c r="C246" t="s">
         <v>29</v>
@@ -23133,19 +23133,19 @@
         <v>45356.4375</v>
       </c>
       <c r="E246" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F246" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J246">
         <v>0</v>
@@ -23154,43 +23154,43 @@
         <v>84</v>
       </c>
       <c r="L246">
-        <v>2.625</v>
+        <v>1.55</v>
       </c>
       <c r="M246">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N246">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="O246">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="P246">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q246">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="R246">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S246">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>1.7</v>
+        <v>1.825</v>
       </c>
       <c r="U246">
         <v>2</v>
       </c>
       <c r="V246">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W246">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="X246">
-        <v>1.4</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -23199,16 +23199,16 @@
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC246">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD246">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247" spans="1:30">
@@ -23216,7 +23216,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7777514</v>
+        <v>7777512</v>
       </c>
       <c r="C247" t="s">
         <v>29</v>
@@ -23225,19 +23225,19 @@
         <v>45356.4375</v>
       </c>
       <c r="E247" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F247" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G247">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -23246,43 +23246,43 @@
         <v>84</v>
       </c>
       <c r="L247">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N247">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="O247">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="P247">
         <v>3</v>
       </c>
       <c r="Q247">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="R247">
         <v>-0.5</v>
       </c>
       <c r="S247">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U247">
         <v>2</v>
       </c>
       <c r="V247">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W247">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="X247">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -23291,13 +23291,13 @@
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AD247">
         <v>-1</v>
@@ -23501,7 +23501,7 @@
         <v>45357.4375</v>
       </c>
       <c r="E250" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F250" t="s">
         <v>43</v>
@@ -23596,7 +23596,7 @@
         <v>47</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G251">
         <v>2</v>
@@ -23872,7 +23872,7 @@
         <v>53</v>
       </c>
       <c r="F254" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G254">
         <v>1</v>
@@ -24222,7 +24222,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7777479</v>
+        <v>7777481</v>
       </c>
       <c r="C258" t="s">
         <v>29</v>
@@ -24231,46 +24231,46 @@
         <v>45398.4375</v>
       </c>
       <c r="E258" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K258" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L258">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="M258">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N258">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="O258">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="P258">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q258">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="R258">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S258">
         <v>2</v>
@@ -24279,31 +24279,31 @@
         <v>1.8</v>
       </c>
       <c r="U258">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V258">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W258">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="X258">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y258">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB258">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC258">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AD258">
         <v>-1</v>
@@ -24314,7 +24314,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>7777481</v>
+        <v>7777480</v>
       </c>
       <c r="C259" t="s">
         <v>29</v>
@@ -24323,82 +24323,82 @@
         <v>45398.4375</v>
       </c>
       <c r="E259" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F259" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G259">
+        <v>1</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259" t="s">
+        <v>86</v>
+      </c>
+      <c r="L259">
+        <v>2.5</v>
+      </c>
+      <c r="M259">
+        <v>2.625</v>
+      </c>
+      <c r="N259">
         <v>3</v>
       </c>
-      <c r="H259">
-        <v>0</v>
-      </c>
-      <c r="I259">
-        <v>2</v>
-      </c>
-      <c r="J259">
-        <v>0</v>
-      </c>
-      <c r="K259" t="s">
-        <v>84</v>
-      </c>
-      <c r="L259">
-        <v>1.3</v>
-      </c>
-      <c r="M259">
-        <v>4.75</v>
-      </c>
-      <c r="N259">
-        <v>7.5</v>
-      </c>
       <c r="O259">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="P259">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q259">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="R259">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S259">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="T259">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="U259">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V259">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W259">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="X259">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y259">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z259">
         <v>-1</v>
       </c>
       <c r="AA259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB259">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC259">
-        <v>1.025</v>
+        <v>0.45</v>
       </c>
       <c r="AD259">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="260" spans="1:30">
@@ -24406,7 +24406,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7777480</v>
+        <v>7777478</v>
       </c>
       <c r="C260" t="s">
         <v>29</v>
@@ -24415,10 +24415,10 @@
         <v>45398.4375</v>
       </c>
       <c r="E260" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F260" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G260">
         <v>1</v>
@@ -24427,7 +24427,7 @@
         <v>1</v>
       </c>
       <c r="I260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260">
         <v>1</v>
@@ -24436,34 +24436,34 @@
         <v>86</v>
       </c>
       <c r="L260">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="M260">
+        <v>2.75</v>
+      </c>
+      <c r="N260">
+        <v>2.875</v>
+      </c>
+      <c r="O260">
         <v>2.625</v>
       </c>
-      <c r="N260">
-        <v>3</v>
-      </c>
-      <c r="O260">
-        <v>2.5</v>
-      </c>
       <c r="P260">
+        <v>2.9</v>
+      </c>
+      <c r="Q260">
         <v>2.625</v>
       </c>
-      <c r="Q260">
-        <v>3</v>
-      </c>
       <c r="R260">
         <v>0</v>
       </c>
       <c r="S260">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="T260">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="U260">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V260">
         <v>1.9</v>
@@ -24475,7 +24475,7 @@
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>1.625</v>
+        <v>1.9</v>
       </c>
       <c r="Z260">
         <v>-1</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="AC260">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AD260">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:30">
@@ -24498,7 +24498,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7777478</v>
+        <v>7777479</v>
       </c>
       <c r="C261" t="s">
         <v>29</v>
@@ -24507,19 +24507,19 @@
         <v>45398.4375</v>
       </c>
       <c r="E261" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F261" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261">
         <v>1</v>
@@ -24528,61 +24528,61 @@
         <v>86</v>
       </c>
       <c r="L261">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="M261">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N261">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="O261">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="P261">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q261">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="R261">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="S261">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T261">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U261">
         <v>2</v>
       </c>
       <c r="V261">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W261">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Z261">
         <v>-1</v>
       </c>
       <c r="AA261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC261">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD261">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:30">
@@ -24691,7 +24691,7 @@
         <v>45399.4375</v>
       </c>
       <c r="E263" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F263" t="s">
         <v>50</v>
@@ -25246,7 +25246,7 @@
         <v>52</v>
       </c>
       <c r="F269" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G269">
         <v>3</v>
@@ -25335,7 +25335,7 @@
         <v>45411.4375</v>
       </c>
       <c r="E270" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F270" t="s">
         <v>35</v>
@@ -25519,10 +25519,10 @@
         <v>45419.4375</v>
       </c>
       <c r="E272" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F272" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -25602,7 +25602,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7777495</v>
+        <v>8190385</v>
       </c>
       <c r="C273" t="s">
         <v>29</v>
@@ -25611,10 +25611,10 @@
         <v>45420.4375</v>
       </c>
       <c r="E273" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F273" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G273">
         <v>0</v>
@@ -25632,46 +25632,46 @@
         <v>86</v>
       </c>
       <c r="L273">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="M273">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N273">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="O273">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="P273">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q273">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="R273">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S273">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T273">
+        <v>1.875</v>
+      </c>
+      <c r="U273">
+        <v>2.25</v>
+      </c>
+      <c r="V273">
         <v>1.8</v>
       </c>
-      <c r="U273">
-        <v>2</v>
-      </c>
-      <c r="V273">
-        <v>1.775</v>
-      </c>
       <c r="W273">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="X273">
         <v>-1</v>
       </c>
       <c r="Y273">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="Z273">
         <v>-1</v>
@@ -25680,13 +25680,13 @@
         <v>-1</v>
       </c>
       <c r="AB273">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC273">
         <v>-1</v>
       </c>
       <c r="AD273">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:30">
@@ -25694,7 +25694,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7777496</v>
+        <v>7777495</v>
       </c>
       <c r="C274" t="s">
         <v>29</v>
@@ -25703,13 +25703,13 @@
         <v>45420.4375</v>
       </c>
       <c r="E274" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F274" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G274">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -25721,64 +25721,64 @@
         <v>0</v>
       </c>
       <c r="K274" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L274">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="M274">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N274">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="O274">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="P274">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Q274">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="R274">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S274">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T274">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U274">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V274">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W274">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="X274">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y274">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z274">
         <v>-1</v>
       </c>
       <c r="AA274">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC274">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AD274">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="275" spans="1:30">
@@ -25786,7 +25786,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>8190387</v>
+        <v>7777496</v>
       </c>
       <c r="C275" t="s">
         <v>29</v>
@@ -25795,64 +25795,64 @@
         <v>45420.4375</v>
       </c>
       <c r="E275" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F275" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G275">
         <v>2</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275">
         <v>0</v>
       </c>
       <c r="J275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K275" t="s">
         <v>84</v>
       </c>
       <c r="L275">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="M275">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N275">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="O275">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="P275">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q275">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="R275">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S275">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T275">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="U275">
         <v>2.25</v>
       </c>
       <c r="V275">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W275">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="X275">
-        <v>1.55</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="Y275">
         <v>-1</v>
@@ -25861,16 +25861,16 @@
         <v>-1</v>
       </c>
       <c r="AA275">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AB275">
         <v>-1</v>
       </c>
       <c r="AC275">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AD275">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="276" spans="1:30">
@@ -25878,7 +25878,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>8190385</v>
+        <v>8190387</v>
       </c>
       <c r="C276" t="s">
         <v>29</v>
@@ -25887,25 +25887,25 @@
         <v>45420.4375</v>
       </c>
       <c r="E276" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="F276" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I276">
         <v>0</v>
       </c>
       <c r="J276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K276" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L276">
         <v>1.909</v>
@@ -25917,52 +25917,52 @@
         <v>4.333</v>
       </c>
       <c r="O276">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="P276">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q276">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="R276">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="S276">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T276">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="U276">
         <v>2.25</v>
       </c>
       <c r="V276">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W276">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y276">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB276">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD276">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:30">
@@ -26338,7 +26338,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>8244395</v>
+        <v>8244394</v>
       </c>
       <c r="C281" t="s">
         <v>29</v>
@@ -26347,82 +26347,82 @@
         <v>45434.45833333334</v>
       </c>
       <c r="E281" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F281" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="G281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K281" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L281">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="M281">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N281">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="O281">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="P281">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q281">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R281">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S281">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="T281">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="U281">
         <v>1.75</v>
       </c>
       <c r="V281">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W281">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X281">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
         <v>-1</v>
       </c>
       <c r="Z281">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA281">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="AB281">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC281">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD281">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282" spans="1:30">
@@ -26430,7 +26430,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>8244394</v>
+        <v>8244395</v>
       </c>
       <c r="C282" t="s">
         <v>29</v>
@@ -26439,82 +26439,82 @@
         <v>45434.45833333334</v>
       </c>
       <c r="E282" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F282" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282" t="s">
+        <v>84</v>
+      </c>
+      <c r="L282">
+        <v>2.4</v>
+      </c>
+      <c r="M282">
+        <v>2.75</v>
+      </c>
+      <c r="N282">
         <v>3</v>
       </c>
-      <c r="I282">
-        <v>1</v>
-      </c>
-      <c r="J282">
-        <v>2</v>
-      </c>
-      <c r="K282" t="s">
-        <v>85</v>
-      </c>
-      <c r="L282">
-        <v>3.6</v>
-      </c>
-      <c r="M282">
-        <v>2.8</v>
-      </c>
-      <c r="N282">
+      <c r="O282">
+        <v>2.4</v>
+      </c>
+      <c r="P282">
+        <v>2.75</v>
+      </c>
+      <c r="Q282">
+        <v>3</v>
+      </c>
+      <c r="R282">
+        <v>0</v>
+      </c>
+      <c r="S282">
+        <v>1.7</v>
+      </c>
+      <c r="T282">
         <v>2.1</v>
-      </c>
-      <c r="O282">
-        <v>3.6</v>
-      </c>
-      <c r="P282">
-        <v>2.8</v>
-      </c>
-      <c r="Q282">
-        <v>2.1</v>
-      </c>
-      <c r="R282">
-        <v>0.25</v>
-      </c>
-      <c r="S282">
-        <v>1.975</v>
-      </c>
-      <c r="T282">
-        <v>1.825</v>
       </c>
       <c r="U282">
         <v>1.75</v>
       </c>
       <c r="V282">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W282">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X282">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Y282">
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="AB282">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD282">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
